--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Documents/ProgramDoc/MMSForCNN/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,13 +175,14 @@
     <t>CACHESIZE</t>
   </si>
   <si>
-    <t>PERIOD_TIMES</t>
-  </si>
-  <si>
     <t>UPROUND</t>
   </si>
   <si>
     <t>BaseLine / Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTALROUND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,6 +520,7 @@
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,10 +538,10 @@
         <v>34</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -587,7 +589,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -674,13 +676,13 @@
         <v>4095000</v>
       </c>
       <c r="H5">
-        <v>86963500</v>
+        <v>43748300</v>
       </c>
       <c r="I5">
-        <v>84978000</v>
+        <v>10255400</v>
       </c>
       <c r="J5">
-        <v>44084500</v>
+        <v>10454550</v>
       </c>
       <c r="K5">
         <v>286387184</v>
@@ -693,15 +695,15 @@
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N18" si="0">H5 / E5</f>
-        <v>11.665124077800135</v>
+        <v>5.8683165660630445</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O18" si="1">I5 / F5</f>
-        <v>16.97862137862138</v>
+        <v>2.0490309690309689</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P18" si="2">J5 / G5</f>
-        <v>10.765445665445666</v>
+        <v>2.553003663003663</v>
       </c>
       <c r="Q5">
         <f>K5/E5</f>
@@ -739,13 +741,13 @@
         <v>3780000</v>
       </c>
       <c r="H6">
-        <v>160147250</v>
+        <v>22001825</v>
       </c>
       <c r="I6">
-        <v>113223250</v>
+        <v>21964175</v>
       </c>
       <c r="J6">
-        <v>85447000</v>
+        <v>15748650</v>
       </c>
       <c r="K6">
         <v>222525776</v>
@@ -758,15 +760,15 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>27.074767540152155</v>
+        <v>3.7196661031276417</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>25.472047244094487</v>
+        <v>4.9413217097862763</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>22.605026455026454</v>
+        <v>4.1663095238095238</v>
       </c>
       <c r="Q6">
         <f t="shared" ref="Q6:Q18" si="4">K6/E6</f>
@@ -804,13 +806,13 @@
         <v>2815455</v>
       </c>
       <c r="H7">
-        <v>36892000</v>
+        <v>15824256</v>
       </c>
       <c r="I7">
-        <v>36891000</v>
+        <v>15218672</v>
       </c>
       <c r="J7">
-        <v>29478250</v>
+        <v>7895888</v>
       </c>
       <c r="K7">
         <v>255591024</v>
@@ -823,15 +825,15 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>6.3645028702541611</v>
+        <v>2.7299556199619599</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>9.4386255236644931</v>
+        <v>3.8937232922793674</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>10.470154912793847</v>
+        <v>2.8044802705068985</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
@@ -869,13 +871,13 @@
         <v>4216170</v>
       </c>
       <c r="H8">
-        <v>99633750</v>
+        <v>35311668</v>
       </c>
       <c r="I8">
-        <v>99519000</v>
+        <v>35263284</v>
       </c>
       <c r="J8">
-        <v>67953000</v>
+        <v>35236908</v>
       </c>
       <c r="K8">
         <v>283923456</v>
@@ -888,15 +890,15 @@
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>12.929331270012749</v>
+        <v>4.5823453726142853</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>18.725938470222975</v>
+        <v>6.6352966412644649</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
-        <v>16.117234361992043</v>
+        <v>8.3575633809832155</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
@@ -934,13 +936,13 @@
         <v>70348</v>
       </c>
       <c r="H9">
-        <v>2093500</v>
+        <v>3330500</v>
       </c>
       <c r="I9">
-        <v>1679000</v>
+        <v>2316500</v>
       </c>
       <c r="J9">
-        <v>839500</v>
+        <v>1158250</v>
       </c>
       <c r="K9">
         <v>7518208</v>
@@ -953,15 +955,15 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>13.2605748888354</v>
+        <v>21.095937266427658</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>16.16194674932137</v>
+        <v>22.298481027279902</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>11.933530448626827</v>
+        <v>16.46457610735202</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
@@ -999,13 +1001,13 @@
         <v>7070000</v>
       </c>
       <c r="H10">
-        <v>362138250</v>
+        <v>44757500</v>
       </c>
       <c r="I10">
-        <v>362486500</v>
+        <v>43126525</v>
       </c>
       <c r="J10">
-        <v>362481000</v>
+        <v>42965600</v>
       </c>
       <c r="K10">
         <v>518509984</v>
@@ -1018,15 +1020,15 @@
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>26.874823747680889</v>
+        <v>3.3215213358070499</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>39.52960741548528</v>
+        <v>4.7030016357688114</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>51.270297029702974</v>
+        <v>6.0771711456859974</v>
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
@@ -1064,13 +1066,13 @@
         <v>3360280</v>
       </c>
       <c r="H11">
-        <v>52486000</v>
+        <v>12527820</v>
       </c>
       <c r="I11">
-        <v>26243000</v>
+        <v>6263910</v>
       </c>
       <c r="J11">
-        <v>13226472</v>
+        <v>3340752</v>
       </c>
       <c r="K11">
         <v>258705136</v>
@@ -1083,15 +1085,15 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>8.5056855823070858</v>
+        <v>2.030211826996501</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>6.8180495540715524</v>
+        <v>1.6273920200527507</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>3.9361219898341804</v>
+        <v>0.994188579523135</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
@@ -1129,13 +1131,13 @@
         <v>4935000</v>
       </c>
       <c r="H12">
-        <v>480433000</v>
+        <v>52649375</v>
       </c>
       <c r="I12">
-        <v>405374750</v>
+        <v>51636500</v>
       </c>
       <c r="J12">
-        <v>281284750</v>
+        <v>51582125</v>
       </c>
       <c r="K12">
         <v>292218416</v>
@@ -1148,15 +1150,15 @@
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>58.912691600245246</v>
+        <v>6.4560852237890867</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>66.183632653061224</v>
+        <v>8.4304489795918371</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>56.99792299898683</v>
+        <v>10.452304964539007</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
@@ -1194,13 +1196,13 @@
         <v>4620000</v>
       </c>
       <c r="H13">
-        <v>346488000</v>
+        <v>39774600</v>
       </c>
       <c r="I13">
-        <v>301616250</v>
+        <v>38760500</v>
       </c>
       <c r="J13">
-        <v>204733250</v>
+        <v>38700425</v>
       </c>
       <c r="K13">
         <v>268041520</v>
@@ -1213,15 +1215,15 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>45.831746031746029</v>
+        <v>5.2611904761904764</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>53.195105820105823</v>
+        <v>6.8360670194003523</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>44.314556277056276</v>
+        <v>8.3767153679653674</v>
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
@@ -1259,13 +1261,13 @@
         <v>5425000</v>
       </c>
       <c r="H14">
-        <v>508018500</v>
+        <v>54699175</v>
       </c>
       <c r="I14">
-        <v>429750250</v>
+        <v>54647775</v>
       </c>
       <c r="J14">
-        <v>289571500</v>
+        <v>54592600</v>
       </c>
       <c r="K14">
         <v>328390240</v>
@@ -1278,15 +1280,15 @@
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>56.920840336134454</v>
+        <v>6.1287591036414568</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>64.624097744360895</v>
+        <v>8.2177105263157895</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>53.377235023041472</v>
+        <v>10.063152073732718</v>
       </c>
       <c r="Q14">
         <f t="shared" si="4"/>
@@ -1324,13 +1326,13 @@
         <v>5915000</v>
       </c>
       <c r="H15">
-        <v>583283750</v>
+        <v>60125075</v>
       </c>
       <c r="I15">
-        <v>552079500</v>
+        <v>59107525</v>
       </c>
       <c r="J15">
-        <v>433810500</v>
+        <v>59059850</v>
       </c>
       <c r="K15">
         <v>342002272</v>
@@ -1343,15 +1345,15 @@
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>61.16927172036317</v>
+        <v>6.305348040095776</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>78.868499999999997</v>
+        <v>8.4439321428571432</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>73.340743871513098</v>
+        <v>9.9847590870667791</v>
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
@@ -1389,13 +1391,13 @@
         <v>6195000</v>
       </c>
       <c r="H16">
-        <v>597901250</v>
+        <v>60689600</v>
       </c>
       <c r="I16">
-        <v>566674000</v>
+        <v>60524475</v>
       </c>
       <c r="J16">
-        <v>443170000</v>
+        <v>60477825</v>
       </c>
       <c r="K16">
         <v>407178304</v>
@@ -1408,15 +1410,15 @@
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>56.884461041551447</v>
+        <v>5.7740223604271455</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>75.65740987983979</v>
+        <v>8.0807042723631515</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>71.536723163841813</v>
+        <v>9.7623607748184025</v>
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
@@ -1454,13 +1456,13 @@
         <v>5775000</v>
       </c>
       <c r="H17">
-        <v>604097250</v>
+        <v>62195775</v>
       </c>
       <c r="I17">
-        <v>478882000</v>
+        <v>62187350</v>
       </c>
       <c r="J17">
-        <v>322478000</v>
+        <v>61126925</v>
       </c>
       <c r="K17">
         <v>430632176</v>
@@ -1473,15 +1475,15 @@
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>57.152057710501417</v>
+        <v>5.8841792809839166</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>65.46575529733424</v>
+        <v>8.5013465481886534</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>55.84034632034632</v>
+        <v>10.584748917748918</v>
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
@@ -1519,13 +1521,13 @@
         <v>6650000</v>
       </c>
       <c r="H18">
-        <v>671794250</v>
+        <v>68973375</v>
       </c>
       <c r="I18">
-        <v>640562000</v>
+        <v>68933300</v>
       </c>
       <c r="J18">
-        <v>498048750</v>
+        <v>68930425</v>
       </c>
       <c r="K18">
         <v>534199392</v>
@@ -1538,15 +1540,15 @@
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>49.725703182827537</v>
+        <v>5.1053571428571427</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>72.91542401821286</v>
+        <v>7.8467046101309048</v>
       </c>
       <c r="P18">
         <f t="shared" si="2"/>
-        <v>74.894548872180451</v>
+        <v>10.365477443609022</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
@@ -1586,7 +1588,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2585,7 +2587,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -3584,7 +3586,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -3801,13 +3803,13 @@
         <v>3840</v>
       </c>
       <c r="H58">
-        <v>1908000</v>
+        <v>1923264</v>
       </c>
       <c r="I58">
-        <v>1908000</v>
+        <v>254016</v>
       </c>
       <c r="J58">
-        <v>1908000</v>
+        <v>254016</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3820,15 +3822,15 @@
       </c>
       <c r="N58">
         <f t="shared" si="23"/>
-        <v>452.56166982922201</v>
+        <v>456.18216318785579</v>
       </c>
       <c r="O58">
         <f t="shared" si="24"/>
-        <v>366.35944700460828</v>
+        <v>48.774193548387096</v>
       </c>
       <c r="P58">
         <f t="shared" si="25"/>
-        <v>496.875</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="Q58">
         <f t="shared" si="26"/>
@@ -3866,13 +3868,13 @@
         <v>1848</v>
       </c>
       <c r="H59">
-        <v>7008000</v>
+        <v>7064064</v>
       </c>
       <c r="I59">
-        <v>7008000</v>
+        <v>1220688</v>
       </c>
       <c r="J59">
-        <v>7008000</v>
+        <v>1220688</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3885,15 +3887,15 @@
       </c>
       <c r="N59">
         <f t="shared" si="23"/>
-        <v>4690.7630522088357</v>
+        <v>4728.2891566265062</v>
       </c>
       <c r="O59">
         <f t="shared" si="24"/>
-        <v>3532.2580645161293</v>
+        <v>615.26612903225805</v>
       </c>
       <c r="P59">
         <f t="shared" si="25"/>
-        <v>3792.2077922077924</v>
+        <v>660.5454545454545</v>
       </c>
       <c r="Q59">
         <f t="shared" si="26"/>
@@ -3934,10 +3936,10 @@
         <v>1186000</v>
       </c>
       <c r="I60">
-        <v>1186000</v>
+        <v>35000</v>
       </c>
       <c r="J60">
-        <v>1186000</v>
+        <v>35000</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3954,11 +3956,11 @@
       </c>
       <c r="O60">
         <f t="shared" si="24"/>
-        <v>99.396580623533353</v>
+        <v>2.9332886356017434</v>
       </c>
       <c r="P60">
         <f t="shared" si="25"/>
-        <v>97.34077478660538</v>
+        <v>2.8726198292843073</v>
       </c>
       <c r="Q60">
         <f t="shared" si="26"/>
@@ -4061,13 +4063,13 @@
         <v>1027</v>
       </c>
       <c r="H62">
-        <v>593000</v>
+        <v>604860</v>
       </c>
       <c r="I62">
-        <v>593000</v>
+        <v>604860</v>
       </c>
       <c r="J62">
-        <v>597744</v>
+        <v>645184</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4080,15 +4082,15 @@
       </c>
       <c r="N62">
         <f t="shared" si="23"/>
-        <v>1670.4225352112676</v>
+        <v>1703.8309859154929</v>
       </c>
       <c r="O62">
         <f t="shared" si="24"/>
-        <v>1096.1182994454714</v>
+        <v>1118.0406654343808</v>
       </c>
       <c r="P62">
         <f t="shared" si="25"/>
-        <v>582.02921129503409</v>
+        <v>628.22200584225902</v>
       </c>
       <c r="Q62">
         <f t="shared" si="26"/>
@@ -4583,7 +4585,7 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -4670,13 +4672,13 @@
         <v>0.26666099999999998</v>
       </c>
       <c r="H73">
-        <v>5.0227000000000001E-2</v>
+        <v>9.9842E-2</v>
       </c>
       <c r="I73">
-        <v>2.5700000000000001E-2</v>
+        <v>0.21295600000000001</v>
       </c>
       <c r="J73">
-        <v>2.477E-2</v>
+        <v>0.10445</v>
       </c>
       <c r="K73">
         <v>1.5252E-2</v>
@@ -4689,15 +4691,15 @@
       </c>
       <c r="N73">
         <f>H73/E73</f>
-        <v>8.5725794201429256E-2</v>
+        <v>0.17040704690025482</v>
       </c>
       <c r="O73">
         <f t="shared" ref="O73:P73" si="29">I73/F73</f>
-        <v>5.8897133978375357E-2</v>
+        <v>0.48803494410501563</v>
       </c>
       <c r="P73">
         <f t="shared" si="29"/>
-        <v>9.2889473901320407E-2</v>
+        <v>0.39169582353625015</v>
       </c>
       <c r="Q73">
         <f>K73/E73</f>
@@ -4735,13 +4737,13 @@
         <v>0.223715</v>
       </c>
       <c r="H74">
-        <v>2.1121999999999998E-2</v>
+        <v>0.15374099999999999</v>
       </c>
       <c r="I74">
-        <v>1.4938E-2</v>
+        <v>7.7002000000000001E-2</v>
       </c>
       <c r="J74">
-        <v>9.8969999999999995E-3</v>
+        <v>5.3696000000000001E-2</v>
       </c>
       <c r="K74">
         <v>1.5200999999999999E-2</v>
@@ -4754,15 +4756,15 @@
       </c>
       <c r="N74">
         <f t="shared" ref="N74:N86" si="31">H74/E74</f>
-        <v>3.6935355259292417E-2</v>
+        <v>0.26884189247793178</v>
       </c>
       <c r="O74">
         <f t="shared" ref="O74:O86" si="32">I74/F74</f>
-        <v>3.925969534182059E-2</v>
+        <v>0.20237481996993367</v>
       </c>
       <c r="P74">
         <f t="shared" ref="P74:P86" si="33">J74/G74</f>
-        <v>4.4239322352099771E-2</v>
+        <v>0.24001966788100931</v>
       </c>
       <c r="Q74">
         <f t="shared" ref="Q74:Q86" si="34">K74/E74</f>
@@ -4800,13 +4802,13 @@
         <v>0.34629599999999999</v>
       </c>
       <c r="H75">
-        <v>0.105712</v>
+        <v>0.246452</v>
       </c>
       <c r="I75">
-        <v>5.2857000000000001E-2</v>
+        <v>0.12812999999999999</v>
       </c>
       <c r="J75">
-        <v>3.3075E-2</v>
+        <v>0.12348000000000001</v>
       </c>
       <c r="K75">
         <v>1.5258000000000001E-2</v>
@@ -4819,15 +4821,15 @@
       </c>
       <c r="N75">
         <f t="shared" si="31"/>
-        <v>0.15712177264370106</v>
+        <v>0.36630633335463725</v>
       </c>
       <c r="O75">
         <f t="shared" si="32"/>
-        <v>0.10594687122294805</v>
+        <v>0.2568245002515529</v>
       </c>
       <c r="P75">
         <f t="shared" si="33"/>
-        <v>9.5510776907616612E-2</v>
+        <v>0.35657356712176869</v>
       </c>
       <c r="Q75">
         <f t="shared" si="34"/>
@@ -4865,13 +4867,13 @@
         <v>0.25687900000000002</v>
       </c>
       <c r="H76">
-        <v>4.3480999999999999E-2</v>
+        <v>0.122684</v>
       </c>
       <c r="I76">
-        <v>2.1766000000000001E-2</v>
+        <v>6.1426000000000001E-2</v>
       </c>
       <c r="J76">
-        <v>1.5938000000000001E-2</v>
+        <v>3.0735999999999999E-2</v>
       </c>
       <c r="K76">
         <v>1.5258000000000001E-2</v>
@@ -4884,15 +4886,15 @@
       </c>
       <c r="N76">
         <f t="shared" si="31"/>
-        <v>7.7343280290012847E-2</v>
+        <v>0.21822826059888081</v>
       </c>
       <c r="O76">
         <f t="shared" si="32"/>
-        <v>5.3402750857496163E-2</v>
+        <v>0.1507083237238151</v>
       </c>
       <c r="P76">
         <f t="shared" si="33"/>
-        <v>6.204477594509477E-2</v>
+        <v>0.11965166479159448</v>
       </c>
       <c r="Q76">
         <f t="shared" si="34"/>
@@ -4930,13 +4932,13 @@
         <v>0.40768300000000002</v>
       </c>
       <c r="H77">
-        <v>5.4797999999999999E-2</v>
+        <v>3.4445000000000003E-2</v>
       </c>
       <c r="I77">
-        <v>3.4162999999999999E-2</v>
+        <v>2.4760999999999998E-2</v>
       </c>
       <c r="J77">
-        <v>3.4162999999999999E-2</v>
+        <v>2.4760999999999998E-2</v>
       </c>
       <c r="K77">
         <v>1.5259E-2</v>
@@ -4949,15 +4951,15 @@
       </c>
       <c r="N77">
         <f t="shared" si="31"/>
-        <v>7.5412028932853328E-2</v>
+        <v>4.7402593828098347E-2</v>
       </c>
       <c r="O77">
         <f t="shared" si="32"/>
-        <v>6.1874024247561298E-2</v>
+        <v>4.4845672639811054E-2</v>
       </c>
       <c r="P77">
         <f t="shared" si="33"/>
-        <v>8.379795085887809E-2</v>
+        <v>6.0735914914283887E-2</v>
       </c>
       <c r="Q77">
         <f t="shared" si="34"/>
@@ -4995,13 +4997,13 @@
         <v>0.27911799999999998</v>
       </c>
       <c r="H78">
-        <v>2.1797E-2</v>
+        <v>0.17635999999999999</v>
       </c>
       <c r="I78">
-        <v>1.0888E-2</v>
+        <v>9.1514999999999999E-2</v>
       </c>
       <c r="J78">
-        <v>5.4440000000000001E-3</v>
+        <v>4.5928999999999998E-2</v>
       </c>
       <c r="K78">
         <v>1.5223E-2</v>
@@ -5014,15 +5016,15 @@
       </c>
       <c r="N78">
         <f t="shared" si="31"/>
-        <v>3.7209897829408402E-2</v>
+        <v>0.30106609080123253</v>
       </c>
       <c r="O78">
         <f t="shared" si="32"/>
-        <v>2.5297691655339859E-2</v>
+        <v>0.21263025825114137</v>
       </c>
       <c r="P78">
         <f t="shared" si="33"/>
-        <v>1.9504295674230971E-2</v>
+        <v>0.16455047685924951</v>
       </c>
       <c r="Q78">
         <f t="shared" si="34"/>
@@ -5060,13 +5062,13 @@
         <v>0.293686</v>
       </c>
       <c r="H79">
-        <v>7.5209999999999999E-2</v>
+        <v>0.31509599999999999</v>
       </c>
       <c r="I79">
-        <v>7.5209999999999999E-2</v>
+        <v>0.31509599999999999</v>
       </c>
       <c r="J79">
-        <v>7.4612999999999999E-2</v>
+        <v>0.29540300000000003</v>
       </c>
       <c r="K79">
         <v>1.5259E-2</v>
@@ -5079,15 +5081,15 @@
       </c>
       <c r="N79">
         <f t="shared" si="31"/>
-        <v>0.1175685308388775</v>
+        <v>0.49255915161822822</v>
       </c>
       <c r="O79">
         <f t="shared" si="32"/>
-        <v>0.14666965687373848</v>
+        <v>0.61447975272287603</v>
       </c>
       <c r="P79">
         <f t="shared" si="33"/>
-        <v>0.25405705413264507</v>
+        <v>1.0058463801475046</v>
       </c>
       <c r="Q79">
         <f t="shared" si="34"/>
@@ -5125,13 +5127,13 @@
         <v>0.22026699999999999</v>
       </c>
       <c r="H80">
-        <v>9.0500000000000008E-3</v>
+        <v>8.2586000000000007E-2</v>
       </c>
       <c r="I80">
-        <v>5.3629999999999997E-3</v>
+        <v>4.2103000000000002E-2</v>
       </c>
       <c r="J80">
-        <v>3.8639999999999998E-3</v>
+        <v>2.1073999999999999E-2</v>
       </c>
       <c r="K80">
         <v>1.4880000000000001E-2</v>
@@ -5144,15 +5146,15 @@
       </c>
       <c r="N80">
         <f t="shared" si="31"/>
-        <v>1.6973661753369885E-2</v>
+        <v>0.15489357232749229</v>
       </c>
       <c r="O80">
         <f t="shared" si="32"/>
-        <v>1.5109383143867358E-2</v>
+        <v>0.11861837749510487</v>
       </c>
       <c r="P80">
         <f t="shared" si="33"/>
-        <v>1.7542346334221651E-2</v>
+        <v>9.5674794681000791E-2</v>
       </c>
       <c r="Q80">
         <f t="shared" si="34"/>
@@ -5190,13 +5192,13 @@
         <v>0.21749299999999999</v>
       </c>
       <c r="H81">
-        <v>1.1599999999999999E-2</v>
+        <v>0.101051</v>
       </c>
       <c r="I81">
-        <v>6.6629999999999997E-3</v>
+        <v>5.1846999999999997E-2</v>
       </c>
       <c r="J81">
-        <v>4.908E-3</v>
+        <v>2.5964000000000001E-2</v>
       </c>
       <c r="K81">
         <v>1.4995E-2</v>
@@ -5209,15 +5211,15 @@
       </c>
       <c r="N81">
         <f t="shared" si="31"/>
-        <v>2.1818906835148751E-2</v>
+        <v>0.19007089263781177</v>
       </c>
       <c r="O81">
         <f t="shared" si="32"/>
-        <v>1.8799039592814436E-2</v>
+        <v>0.14628152570443495</v>
       </c>
       <c r="P81">
         <f t="shared" si="33"/>
-        <v>2.256624351128542E-2</v>
+        <v>0.11937855471210569</v>
       </c>
       <c r="Q81">
         <f t="shared" si="34"/>
@@ -5255,13 +5257,13 @@
         <v>0.22620999999999999</v>
       </c>
       <c r="H82">
-        <v>9.6629999999999997E-3</v>
+        <v>8.9741000000000001E-2</v>
       </c>
       <c r="I82">
-        <v>5.7109999999999999E-3</v>
+        <v>4.4913000000000002E-2</v>
       </c>
       <c r="J82">
-        <v>4.2379999999999996E-3</v>
+        <v>2.2478999999999999E-2</v>
       </c>
       <c r="K82">
         <v>1.4947999999999999E-2</v>
@@ -5274,15 +5276,15 @@
       </c>
       <c r="N82">
         <f t="shared" si="31"/>
-        <v>1.7569090909090906E-2</v>
+        <v>0.16316545454545453</v>
       </c>
       <c r="O82">
         <f t="shared" si="32"/>
-        <v>1.5473651982366918E-2</v>
+        <v>0.12168939441149457</v>
       </c>
       <c r="P82">
         <f t="shared" si="33"/>
-        <v>1.8734803943238582E-2</v>
+        <v>9.9372264709782943E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" si="34"/>
@@ -5320,13 +5322,13 @@
         <v>0.216446</v>
       </c>
       <c r="H83">
-        <v>8.7799999999999996E-3</v>
+        <v>8.5174E-2</v>
       </c>
       <c r="I83">
-        <v>5.3860000000000002E-3</v>
+        <v>4.3319999999999997E-2</v>
       </c>
       <c r="J83">
-        <v>2.9510000000000001E-3</v>
+        <v>2.1677999999999999E-2</v>
       </c>
       <c r="K83">
         <v>1.4973999999999999E-2</v>
@@ -5339,15 +5341,15 @@
       </c>
       <c r="N83">
         <f t="shared" si="31"/>
-        <v>1.6348479572779594E-2</v>
+        <v>0.15859514796491223</v>
       </c>
       <c r="O83">
         <f t="shared" si="32"/>
-        <v>1.4724134348841152E-2</v>
+        <v>0.11842731154693624</v>
       </c>
       <c r="P83">
         <f t="shared" si="33"/>
-        <v>1.3633885588091256E-2</v>
+        <v>0.10015431100597839</v>
       </c>
       <c r="Q83">
         <f t="shared" si="34"/>
@@ -5385,13 +5387,13 @@
         <v>0.24631700000000001</v>
       </c>
       <c r="H84">
-        <v>1.0208999999999999E-2</v>
+        <v>0.100573</v>
       </c>
       <c r="I84">
-        <v>5.3860000000000002E-3</v>
+        <v>5.0423999999999997E-2</v>
       </c>
       <c r="J84">
-        <v>3.4429999999999999E-3</v>
+        <v>2.5231E-2</v>
       </c>
       <c r="K84">
         <v>1.499E-2</v>
@@ -5404,15 +5406,15 @@
       </c>
       <c r="N84">
         <f t="shared" si="31"/>
-        <v>1.7580173270353067E-2</v>
+        <v>0.17318941779990391</v>
       </c>
       <c r="O84">
         <f t="shared" si="32"/>
-        <v>1.3218507874411903E-2</v>
+        <v>0.1237523284551329</v>
       </c>
       <c r="P84">
         <f t="shared" si="33"/>
-        <v>1.3977922758071915E-2</v>
+        <v>0.10243304359829</v>
       </c>
       <c r="Q84">
         <f t="shared" si="34"/>
@@ -5450,13 +5452,13 @@
         <v>0.27984799999999999</v>
       </c>
       <c r="H85">
-        <v>1.0701E-2</v>
+        <v>0.103938</v>
       </c>
       <c r="I85">
-        <v>6.7499999999999999E-3</v>
+        <v>5.1976000000000001E-2</v>
       </c>
       <c r="J85">
-        <v>5.012E-3</v>
+        <v>2.6439000000000001E-2</v>
       </c>
       <c r="K85">
         <v>1.5011999999999999E-2</v>
@@ -5469,15 +5471,15 @@
       </c>
       <c r="N85">
         <f t="shared" si="31"/>
-        <v>1.7497073193064611E-2</v>
+        <v>0.16994774259795811</v>
       </c>
       <c r="O85">
         <f t="shared" si="32"/>
-        <v>1.5276159007841761E-2</v>
+        <v>0.1176286874950494</v>
       </c>
       <c r="P85">
         <f t="shared" si="33"/>
-        <v>1.790972242074269E-2</v>
+        <v>9.4476287127297678E-2</v>
       </c>
       <c r="Q85">
         <f t="shared" si="34"/>
@@ -5515,13 +5517,13 @@
         <v>0.30233300000000002</v>
       </c>
       <c r="H86">
-        <v>1.1971000000000001E-2</v>
+        <v>0.11659600000000001</v>
       </c>
       <c r="I86">
-        <v>6.2769999999999996E-3</v>
+        <v>5.8332000000000002E-2</v>
       </c>
       <c r="J86">
-        <v>4.0369999999999998E-3</v>
+        <v>2.9166999999999998E-2</v>
       </c>
       <c r="K86">
         <v>1.5054E-2</v>
@@ -5534,15 +5536,15 @@
       </c>
       <c r="N86">
         <f t="shared" si="31"/>
-        <v>2.0110337227390782E-2</v>
+        <v>0.19587209751606846</v>
       </c>
       <c r="O86">
         <f t="shared" si="32"/>
-        <v>1.3713773854909714E-2</v>
+        <v>0.12744174868640967</v>
       </c>
       <c r="P86">
         <f t="shared" si="33"/>
-        <v>1.3352826188341993E-2</v>
+        <v>9.6473094237149087E-2</v>
       </c>
       <c r="Q86">
         <f t="shared" si="34"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="42">
   <si>
     <t>图</t>
     <rPh sb="0" eb="1">
@@ -205,11 +205,22 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IMP LCTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMP BaseLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -247,11 +258,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,7 +545,7 @@
   <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,10 +584,10 @@
         <v>31</v>
       </c>
       <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
         <v>100000</v>
-      </c>
-      <c r="C2">
-        <v>1000000</v>
       </c>
       <c r="D2">
         <v>20480</v>
@@ -606,12 +619,12 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -695,7 +708,34 @@
         <v>177</v>
       </c>
       <c r="F5">
-        <v>28945000</v>
+        <v>29120000</v>
+      </c>
+      <c r="G5">
+        <v>15995000</v>
+      </c>
+      <c r="H5">
+        <v>10080000</v>
+      </c>
+      <c r="I5">
+        <v>49150800</v>
+      </c>
+      <c r="J5">
+        <v>47058000</v>
+      </c>
+      <c r="K5">
+        <v>47023632</v>
+      </c>
+      <c r="O5" s="2">
+        <f>(I5-F5)/I5</f>
+        <v>0.40753761891973272</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5:Q18" si="0">(J5-G5)/J5</f>
+        <v>0.66010030175528067</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78563969707826908</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -715,7 +755,34 @@
         <v>154</v>
       </c>
       <c r="F6">
-        <v>23940000</v>
+        <v>23730000</v>
+      </c>
+      <c r="G6">
+        <v>13230000</v>
+      </c>
+      <c r="H6">
+        <v>7980000</v>
+      </c>
+      <c r="I6">
+        <v>51108000</v>
+      </c>
+      <c r="J6">
+        <v>51102600</v>
+      </c>
+      <c r="K6">
+        <v>51442076</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O18" si="1">(I6-F6)/I6</f>
+        <v>0.53568912890349851</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74110906294395984</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84487406767953921</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -735,7 +802,34 @@
         <v>118</v>
       </c>
       <c r="F7">
-        <v>25728300</v>
+        <v>25517700</v>
+      </c>
+      <c r="G7">
+        <v>13889850</v>
+      </c>
+      <c r="H7">
+        <v>8247627</v>
+      </c>
+      <c r="I7">
+        <v>79027200</v>
+      </c>
+      <c r="J7">
+        <v>78986880</v>
+      </c>
+      <c r="K7">
+        <v>78974112</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.67710231413994171</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.82414990945331679</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89556543541762146</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -752,10 +846,37 @@
         <v>1471</v>
       </c>
       <c r="E8">
-        <v>1471</v>
+        <v>440</v>
       </c>
       <c r="F8">
-        <v>30080070</v>
+        <v>30150930</v>
+      </c>
+      <c r="G8">
+        <v>16864680</v>
+      </c>
+      <c r="H8">
+        <v>10221555</v>
+      </c>
+      <c r="I8">
+        <v>190618500</v>
+      </c>
+      <c r="J8">
+        <v>190416500</v>
+      </c>
+      <c r="K8">
+        <v>190325500</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84182579340410291</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91143267521459537</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94629434836635129</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -775,7 +896,34 @@
         <v>117</v>
       </c>
       <c r="F9">
-        <v>755014</v>
+        <v>754196</v>
+      </c>
+      <c r="G9">
+        <v>403274</v>
+      </c>
+      <c r="H9">
+        <v>233130</v>
+      </c>
+      <c r="I9">
+        <v>14247000</v>
+      </c>
+      <c r="J9">
+        <v>14229000</v>
+      </c>
+      <c r="K9">
+        <v>7122484</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94706282024285815</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97165830346475512</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96726844174026927</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -795,7 +943,34 @@
         <v>235</v>
       </c>
       <c r="F10">
-        <v>52216164</v>
+        <v>52413504</v>
+      </c>
+      <c r="G10">
+        <v>28203674</v>
+      </c>
+      <c r="H10">
+        <v>16905000</v>
+      </c>
+      <c r="I10">
+        <v>96700500</v>
+      </c>
+      <c r="J10">
+        <v>92270664</v>
+      </c>
+      <c r="K10">
+        <v>92066512</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45798104456543659</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69433758491214503</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81638274729035021</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -817,6 +992,33 @@
       <c r="F11">
         <v>26821144</v>
       </c>
+      <c r="G11">
+        <v>14601944</v>
+      </c>
+      <c r="H11">
+        <v>8492344</v>
+      </c>
+      <c r="I11">
+        <v>66295704</v>
+      </c>
+      <c r="J11">
+        <v>33703560</v>
+      </c>
+      <c r="K11">
+        <v>22845232</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59543164365522083</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56675366044417863</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.628266239537423</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -834,6 +1036,36 @@
       <c r="E12">
         <v>189</v>
       </c>
+      <c r="F12">
+        <v>29295000</v>
+      </c>
+      <c r="G12">
+        <v>16170000</v>
+      </c>
+      <c r="H12">
+        <v>10255000</v>
+      </c>
+      <c r="I12">
+        <v>89291792</v>
+      </c>
+      <c r="J12">
+        <v>89263216</v>
+      </c>
+      <c r="K12">
+        <v>89249232</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.67191833265032919</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81885035376722259</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88509705047097775</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -848,6 +1080,39 @@
       <c r="D13">
         <v>747</v>
       </c>
+      <c r="E13">
+        <v>190</v>
+      </c>
+      <c r="F13">
+        <v>27745458</v>
+      </c>
+      <c r="G13">
+        <v>15715000</v>
+      </c>
+      <c r="H13">
+        <v>9555000</v>
+      </c>
+      <c r="I13">
+        <v>73170976</v>
+      </c>
+      <c r="J13">
+        <v>72663616</v>
+      </c>
+      <c r="K13">
+        <v>73132976</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62081333997786226</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78372945271537275</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86934758405018275</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -862,6 +1127,39 @@
       <c r="D14">
         <v>855</v>
       </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>33600000</v>
+      </c>
+      <c r="G14">
+        <v>18585000</v>
+      </c>
+      <c r="H14">
+        <v>11095000</v>
+      </c>
+      <c r="I14">
+        <v>93739312</v>
+      </c>
+      <c r="J14">
+        <v>93094520</v>
+      </c>
+      <c r="K14">
+        <v>93697664</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64155913582979995</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80036418899845019</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8815872293251622</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -876,6 +1174,39 @@
       <c r="D15">
         <v>1017</v>
       </c>
+      <c r="E15">
+        <v>215</v>
+      </c>
+      <c r="F15">
+        <v>34700864</v>
+      </c>
+      <c r="G15">
+        <v>20020000</v>
+      </c>
+      <c r="H15">
+        <v>11935000</v>
+      </c>
+      <c r="I15">
+        <v>97975856</v>
+      </c>
+      <c r="J15">
+        <v>97298964</v>
+      </c>
+      <c r="K15">
+        <v>97927824</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64582229319843865</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79424241351634539</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8781245256710698</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -890,6 +1221,39 @@
       <c r="D16">
         <v>1017</v>
       </c>
+      <c r="E16">
+        <v>215</v>
+      </c>
+      <c r="F16">
+        <v>40651530</v>
+      </c>
+      <c r="G16">
+        <v>23065000</v>
+      </c>
+      <c r="H16">
+        <v>13510000</v>
+      </c>
+      <c r="I16">
+        <v>110711328</v>
+      </c>
+      <c r="J16">
+        <v>109950650</v>
+      </c>
+      <c r="K16">
+        <v>110663296</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63281508103669393</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7902240687071882</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.87791796839306147</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -904,6 +1268,39 @@
       <c r="D17">
         <v>963</v>
       </c>
+      <c r="E17">
+        <v>230</v>
+      </c>
+      <c r="F17">
+        <v>42394191</v>
+      </c>
+      <c r="G17">
+        <v>22790755</v>
+      </c>
+      <c r="H17">
+        <v>13580000</v>
+      </c>
+      <c r="I17">
+        <v>116183024</v>
+      </c>
+      <c r="J17">
+        <v>116153232</v>
+      </c>
+      <c r="K17">
+        <v>116138640</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63510855940537403</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80378716452763022</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88307078505482761</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -918,6 +1315,42 @@
       <c r="D18">
         <v>1179</v>
       </c>
+      <c r="E18">
+        <v>192</v>
+      </c>
+      <c r="F18">
+        <v>53158942</v>
+      </c>
+      <c r="G18">
+        <v>28445340</v>
+      </c>
+      <c r="H18">
+        <v>16555000</v>
+      </c>
+      <c r="I18">
+        <v>137836336</v>
+      </c>
+      <c r="J18">
+        <v>136893278</v>
+      </c>
+      <c r="K18">
+        <v>137782224</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61433288534309272</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7922079125024678</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.87984661940135322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -962,6 +1395,9 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" t="s">
         <v>1</v>
       </c>
@@ -1021,8 +1457,38 @@
       <c r="D22">
         <v>475</v>
       </c>
+      <c r="E22">
+        <v>177</v>
+      </c>
       <c r="F22">
-        <v>2730000</v>
+        <v>2905000</v>
+      </c>
+      <c r="G22">
+        <v>2905000</v>
+      </c>
+      <c r="H22">
+        <v>3325000</v>
+      </c>
+      <c r="I22">
+        <v>327672</v>
+      </c>
+      <c r="J22">
+        <v>313720</v>
+      </c>
+      <c r="K22">
+        <v>928098</v>
+      </c>
+      <c r="O22" s="3">
+        <f>I22/F22</f>
+        <v>0.11279586919104992</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:Q35" si="2">J22/G22</f>
+        <v>0.10799311531841653</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27912721804511276</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -1038,8 +1504,38 @@
       <c r="D23">
         <v>433</v>
       </c>
+      <c r="E23">
+        <v>154</v>
+      </c>
       <c r="F23">
-        <v>2975000</v>
+        <v>2765000</v>
+      </c>
+      <c r="G23">
+        <v>2765000</v>
+      </c>
+      <c r="H23">
+        <v>2765000</v>
+      </c>
+      <c r="I23">
+        <v>340720</v>
+      </c>
+      <c r="J23">
+        <v>340684</v>
+      </c>
+      <c r="K23">
+        <v>681352</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" ref="O23:O35" si="3">I23/F23</f>
+        <v>0.12322603978300181</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12321301989150091</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.24642025316455696</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -1055,8 +1551,38 @@
       <c r="D24">
         <v>421</v>
       </c>
+      <c r="E24">
+        <v>118</v>
+      </c>
       <c r="F24">
-        <v>2351700</v>
+        <v>2141100</v>
+      </c>
+      <c r="G24">
+        <v>2221050</v>
+      </c>
+      <c r="H24">
+        <v>2252364</v>
+      </c>
+      <c r="I24">
+        <v>705600</v>
+      </c>
+      <c r="J24">
+        <v>705240</v>
+      </c>
+      <c r="K24">
+        <v>705126</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.32955023118957544</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.31752549469845343</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.31306041119463818</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -1072,8 +1598,38 @@
       <c r="D25">
         <v>1471</v>
       </c>
+      <c r="E25">
+        <v>440</v>
+      </c>
       <c r="F25">
-        <v>3525285</v>
+        <v>3596145</v>
+      </c>
+      <c r="G25">
+        <v>3596145</v>
+      </c>
+      <c r="H25">
+        <v>3596145</v>
+      </c>
+      <c r="I25">
+        <v>381237</v>
+      </c>
+      <c r="J25">
+        <v>380833</v>
+      </c>
+      <c r="K25">
+        <v>380651</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10601268858736231</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10590034606502241</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10584973631485939</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -1089,8 +1645,38 @@
       <c r="D26">
         <v>197</v>
       </c>
+      <c r="E26">
+        <v>117</v>
+      </c>
       <c r="F26">
-        <v>53988</v>
+        <v>53170</v>
+      </c>
+      <c r="G26">
+        <v>53170</v>
+      </c>
+      <c r="H26">
+        <v>55624</v>
+      </c>
+      <c r="I26">
+        <v>9498</v>
+      </c>
+      <c r="J26">
+        <v>9486</v>
+      </c>
+      <c r="K26">
+        <v>9484</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.17863456836561972</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17840887718638329</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17050194160793902</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -1106,8 +1692,38 @@
       <c r="D27">
         <v>2542</v>
       </c>
+      <c r="E27">
+        <v>235</v>
+      </c>
       <c r="F27">
-        <v>4894032</v>
+        <v>5091372</v>
+      </c>
+      <c r="G27">
+        <v>4546688</v>
+      </c>
+      <c r="H27">
+        <v>4585000</v>
+      </c>
+      <c r="I27">
+        <v>644670</v>
+      </c>
+      <c r="J27">
+        <v>1222128</v>
+      </c>
+      <c r="K27">
+        <v>1219424</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12662009375861752</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26879521972917431</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26595943293347873</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -1123,8 +1739,38 @@
       <c r="D28">
         <v>89</v>
       </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
       <c r="F28">
         <v>2443840</v>
+      </c>
+      <c r="G28">
+        <v>2443840</v>
+      </c>
+      <c r="H28">
+        <v>2443840</v>
+      </c>
+      <c r="I28">
+        <v>374552</v>
+      </c>
+      <c r="J28">
+        <v>1123452</v>
+      </c>
+      <c r="K28">
+        <v>1123452</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15326371611889486</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45970767317009298</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45970767317009298</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -1140,6 +1786,39 @@
       <c r="D29">
         <v>909</v>
       </c>
+      <c r="E29">
+        <v>189</v>
+      </c>
+      <c r="F29">
+        <v>3080000</v>
+      </c>
+      <c r="G29">
+        <v>3080000</v>
+      </c>
+      <c r="H29">
+        <v>3500000</v>
+      </c>
+      <c r="I29">
+        <v>1762338</v>
+      </c>
+      <c r="J29">
+        <v>1761774</v>
+      </c>
+      <c r="K29">
+        <v>1761498</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.57218766233766238</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57200454545454549</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.50328514285714288</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1154,6 +1833,39 @@
       <c r="D30">
         <v>747</v>
       </c>
+      <c r="E30">
+        <v>190</v>
+      </c>
+      <c r="F30">
+        <v>3653574</v>
+      </c>
+      <c r="G30">
+        <v>3395000</v>
+      </c>
+      <c r="H30">
+        <v>3395000</v>
+      </c>
+      <c r="I30">
+        <v>1444164</v>
+      </c>
+      <c r="J30">
+        <v>962432</v>
+      </c>
+      <c r="K30">
+        <v>1443414</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.39527432590663281</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.28348512518409424</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.42515876288659793</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1168,6 +1880,39 @@
       <c r="D31">
         <v>855</v>
       </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>3605000</v>
+      </c>
+      <c r="G31">
+        <v>3605000</v>
+      </c>
+      <c r="H31">
+        <v>3605000</v>
+      </c>
+      <c r="I31">
+        <v>1850118</v>
+      </c>
+      <c r="J31">
+        <v>1233040</v>
+      </c>
+      <c r="K31">
+        <v>1849296</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.51320887656033287</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34203606102635231</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51298085991678222</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1182,6 +1927,39 @@
       <c r="D32">
         <v>1017</v>
       </c>
+      <c r="E32">
+        <v>215</v>
+      </c>
+      <c r="F32">
+        <v>3979128</v>
+      </c>
+      <c r="G32">
+        <v>3885000</v>
+      </c>
+      <c r="H32">
+        <v>3885000</v>
+      </c>
+      <c r="I32">
+        <v>1933734</v>
+      </c>
+      <c r="J32">
+        <v>1288728</v>
+      </c>
+      <c r="K32">
+        <v>1932786</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.48596928774344528</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.33171891891891891</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.49749961389961389</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1196,6 +1974,39 @@
       <c r="D33">
         <v>1017</v>
       </c>
+      <c r="E33">
+        <v>215</v>
+      </c>
+      <c r="F33">
+        <v>4065153</v>
+      </c>
+      <c r="G33">
+        <v>3990000</v>
+      </c>
+      <c r="H33">
+        <v>3990000</v>
+      </c>
+      <c r="I33">
+        <v>2185092</v>
+      </c>
+      <c r="J33">
+        <v>1456300</v>
+      </c>
+      <c r="K33">
+        <v>2184144</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.53751777608370455</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.36498746867167919</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.54740451127819545</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1210,6 +2021,39 @@
       <c r="D34">
         <v>963</v>
       </c>
+      <c r="E34">
+        <v>230</v>
+      </c>
+      <c r="F34">
+        <v>3645978</v>
+      </c>
+      <c r="G34">
+        <v>3413280</v>
+      </c>
+      <c r="H34">
+        <v>3605000</v>
+      </c>
+      <c r="I34">
+        <v>2293086</v>
+      </c>
+      <c r="J34">
+        <v>2292498</v>
+      </c>
+      <c r="K34">
+        <v>2292210</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.62893577525700928</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.67164076782449722</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.63584188626907079</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1223,6 +2067,39 @@
       </c>
       <c r="D35">
         <v>1179</v>
+      </c>
+      <c r="E35">
+        <v>192</v>
+      </c>
+      <c r="F35">
+        <v>4945953</v>
+      </c>
+      <c r="G35">
+        <v>4342800</v>
+      </c>
+      <c r="H35">
+        <v>4235000</v>
+      </c>
+      <c r="I35">
+        <v>2720454</v>
+      </c>
+      <c r="J35">
+        <v>1813156</v>
+      </c>
+      <c r="K35">
+        <v>2719386</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.55003636306289205</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.41750851984894538</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6421218417945691</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -1268,6 +2145,9 @@
       <c r="D38" t="s">
         <v>25</v>
       </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
       <c r="F38" t="s">
         <v>1</v>
       </c>
@@ -1327,8 +2207,38 @@
       <c r="D39">
         <v>475</v>
       </c>
+      <c r="E39">
+        <v>177</v>
+      </c>
       <c r="F39">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>83</v>
+      </c>
+      <c r="H39">
+        <v>95</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3">
+        <f>I39/F39</f>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" ref="P39:Q39" si="4">J39/G39</f>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="4"/>
+        <v>3.1578947368421054E-2</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -1344,8 +2254,38 @@
       <c r="D40">
         <v>433</v>
       </c>
+      <c r="E40">
+        <v>154</v>
+      </c>
       <c r="F40">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="G40">
+        <v>79</v>
+      </c>
+      <c r="H40">
+        <v>79</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" ref="O40:O52" si="5">I40/F40</f>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" ref="P40:P52" si="6">J40/G40</f>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" ref="Q40:Q52" si="7">K40/H40</f>
+        <v>2.5316455696202531E-2</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -1361,8 +2301,38 @@
       <c r="D41">
         <v>421</v>
       </c>
+      <c r="E41">
+        <v>118</v>
+      </c>
       <c r="F41">
+        <v>61</v>
+      </c>
+      <c r="G41">
         <v>67</v>
+      </c>
+      <c r="H41">
+        <v>68</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9180327868852458E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4776119402985072E-2</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="7"/>
+        <v>4.4117647058823532E-2</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -1378,8 +2348,38 @@
       <c r="D42">
         <v>1471</v>
       </c>
+      <c r="E42">
+        <v>440</v>
+      </c>
       <c r="F42">
-        <v>199</v>
+        <v>203</v>
+      </c>
+      <c r="G42">
+        <v>203</v>
+      </c>
+      <c r="H42">
+        <v>203</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9261083743842365E-3</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="6"/>
+        <v>4.9261083743842365E-3</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="7"/>
+        <v>4.9261083743842365E-3</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -1395,8 +2395,38 @@
       <c r="D43">
         <v>197</v>
       </c>
+      <c r="E43">
+        <v>117</v>
+      </c>
       <c r="F43">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="G43">
+        <v>65</v>
+      </c>
+      <c r="H43">
+        <v>68</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -1416,7 +2446,34 @@
         <v>235</v>
       </c>
       <c r="F44">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="G44">
+        <v>128</v>
+      </c>
+      <c r="H44">
+        <v>131</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7519379844961239E-3</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5267175572519083E-2</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -1432,8 +2489,38 @@
       <c r="D45">
         <v>89</v>
       </c>
+      <c r="E45">
+        <v>68</v>
+      </c>
       <c r="F45">
         <v>40</v>
+      </c>
+      <c r="G45">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>40</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -1449,6 +2536,39 @@
       <c r="D46">
         <v>909</v>
       </c>
+      <c r="E46">
+        <v>189</v>
+      </c>
+      <c r="F46">
+        <v>88</v>
+      </c>
+      <c r="G46">
+        <v>88</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="5"/>
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1463,6 +2583,39 @@
       <c r="D47">
         <v>747</v>
       </c>
+      <c r="E47">
+        <v>190</v>
+      </c>
+      <c r="F47">
+        <v>101</v>
+      </c>
+      <c r="G47">
+        <v>97</v>
+      </c>
+      <c r="H47">
+        <v>97</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9702970297029702E-2</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="7"/>
+        <v>3.0927835051546393E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1477,6 +2630,39 @@
       <c r="D48">
         <v>855</v>
       </c>
+      <c r="E48">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>103</v>
+      </c>
+      <c r="G48">
+        <v>103</v>
+      </c>
+      <c r="H48">
+        <v>103</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9126213592233011E-2</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9417475728155338E-2</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9126213592233011E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -1491,6 +2677,39 @@
       <c r="D49">
         <v>1017</v>
       </c>
+      <c r="E49">
+        <v>215</v>
+      </c>
+      <c r="F49">
+        <v>111</v>
+      </c>
+      <c r="G49">
+        <v>111</v>
+      </c>
+      <c r="H49">
+        <v>111</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8018018018018018E-2</v>
+      </c>
+      <c r="Q49" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -1505,6 +2724,39 @@
       <c r="D50">
         <v>1017</v>
       </c>
+      <c r="E50">
+        <v>215</v>
+      </c>
+      <c r="F50">
+        <v>111</v>
+      </c>
+      <c r="G50">
+        <v>114</v>
+      </c>
+      <c r="H50">
+        <v>114</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="Q50" s="3">
+        <f t="shared" si="7"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -1519,6 +2771,39 @@
       <c r="D51">
         <v>963</v>
       </c>
+      <c r="E51">
+        <v>230</v>
+      </c>
+      <c r="F51">
+        <v>94</v>
+      </c>
+      <c r="G51">
+        <v>96</v>
+      </c>
+      <c r="H51">
+        <v>103</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1914893617021274E-2</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q51" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9126213592233011E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -1532,6 +2817,39 @@
       </c>
       <c r="D52">
         <v>1179</v>
+      </c>
+      <c r="E52">
+        <v>192</v>
+      </c>
+      <c r="F52">
+        <v>123</v>
+      </c>
+      <c r="G52">
+        <v>120</v>
+      </c>
+      <c r="H52">
+        <v>121</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="Q52" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4793388429752067E-2</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -1577,6 +2895,9 @@
       <c r="D55" t="s">
         <v>25</v>
       </c>
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
       <c r="F55" t="s">
         <v>1</v>
       </c>
@@ -1636,8 +2957,38 @@
       <c r="D56">
         <v>475</v>
       </c>
+      <c r="E56">
+        <v>177</v>
+      </c>
       <c r="F56">
-        <v>12804904</v>
+        <v>14022000</v>
+      </c>
+      <c r="G56">
+        <v>14022000</v>
+      </c>
+      <c r="H56">
+        <v>14202740</v>
+      </c>
+      <c r="I56">
+        <v>18155400</v>
+      </c>
+      <c r="J56">
+        <v>18807600</v>
+      </c>
+      <c r="K56">
+        <v>18868200</v>
+      </c>
+      <c r="O56" s="3">
+        <f>I56/F56</f>
+        <v>1.2947796320068463</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" ref="P56:Q56" si="8">J56/G56</f>
+        <v>1.3412922550278135</v>
+      </c>
+      <c r="Q56" s="3">
+        <f t="shared" si="8"/>
+        <v>1.3284901364102983</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -1653,8 +3004,38 @@
       <c r="D57">
         <v>433</v>
       </c>
+      <c r="E57">
+        <v>154</v>
+      </c>
       <c r="F57">
-        <v>12008752</v>
+        <v>12879600</v>
+      </c>
+      <c r="G57">
+        <v>12879600</v>
+      </c>
+      <c r="H57">
+        <v>12879600</v>
+      </c>
+      <c r="I57">
+        <v>16204800</v>
+      </c>
+      <c r="J57">
+        <v>16738200</v>
+      </c>
+      <c r="K57">
+        <v>16909800</v>
+      </c>
+      <c r="O57" s="3">
+        <f t="shared" ref="O57:O69" si="9">I57/F57</f>
+        <v>1.2581757197428491</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" ref="P57:P69" si="10">J57/G57</f>
+        <v>1.2995900493804156</v>
+      </c>
+      <c r="Q57" s="3">
+        <f t="shared" ref="Q57:Q69" si="11">K57/H57</f>
+        <v>1.3129134445169104</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -1670,8 +3051,38 @@
       <c r="D58">
         <v>421</v>
       </c>
+      <c r="E58">
+        <v>118</v>
+      </c>
       <c r="F58">
-        <v>12432888</v>
+        <v>12776385</v>
+      </c>
+      <c r="G58">
+        <v>12681878</v>
+      </c>
+      <c r="H58">
+        <v>12775672</v>
+      </c>
+      <c r="I58">
+        <v>16106148</v>
+      </c>
+      <c r="J58">
+        <v>16278826</v>
+      </c>
+      <c r="K58">
+        <v>16690648</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2606185552486091</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2836289704095876</v>
+      </c>
+      <c r="Q58" s="3">
+        <f t="shared" si="11"/>
+        <v>1.30643992738699</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
@@ -1687,8 +3098,38 @@
       <c r="D59">
         <v>1471</v>
       </c>
+      <c r="E59">
+        <v>440</v>
+      </c>
       <c r="F59">
-        <v>48813436</v>
+        <v>49188000</v>
+      </c>
+      <c r="G59">
+        <v>49188000</v>
+      </c>
+      <c r="H59">
+        <v>49188000</v>
+      </c>
+      <c r="I59">
+        <v>64633000</v>
+      </c>
+      <c r="J59">
+        <v>65572000</v>
+      </c>
+      <c r="K59">
+        <v>64226000</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3139993494348214</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3330893713913963</v>
+      </c>
+      <c r="Q59" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3057249735707896</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -1704,8 +3145,38 @@
       <c r="D60">
         <v>197</v>
       </c>
+      <c r="E60">
+        <v>117</v>
+      </c>
       <c r="F60">
-        <v>7215083</v>
+        <v>7311018</v>
+      </c>
+      <c r="G60">
+        <v>7311018</v>
+      </c>
+      <c r="H60">
+        <v>7302641</v>
+      </c>
+      <c r="I60">
+        <v>9867000</v>
+      </c>
+      <c r="J60">
+        <v>10149000</v>
+      </c>
+      <c r="K60">
+        <v>9985778</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3496068536556742</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3881787734621909</v>
+      </c>
+      <c r="Q60" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3674200881571474</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -1721,8 +3192,38 @@
       <c r="D61">
         <v>2542</v>
       </c>
+      <c r="E61">
+        <v>235</v>
+      </c>
       <c r="F61">
-        <v>62780839</v>
+        <v>62880000</v>
+      </c>
+      <c r="G61">
+        <v>64558930</v>
+      </c>
+      <c r="H61">
+        <v>66306108</v>
+      </c>
+      <c r="I61">
+        <v>84848400</v>
+      </c>
+      <c r="J61">
+        <v>87228000</v>
+      </c>
+      <c r="K61">
+        <v>87875400</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3493702290076335</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3511376350258593</v>
+      </c>
+      <c r="Q61" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3252987190863321</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
@@ -1738,8 +3239,38 @@
       <c r="D62">
         <v>89</v>
       </c>
+      <c r="E62">
+        <v>68</v>
+      </c>
       <c r="F62">
-        <v>3829602</v>
+        <v>4139200</v>
+      </c>
+      <c r="G62">
+        <v>4226056</v>
+      </c>
+      <c r="H62">
+        <v>4234330</v>
+      </c>
+      <c r="I62">
+        <v>5373543</v>
+      </c>
+      <c r="J62">
+        <v>5299771</v>
+      </c>
+      <c r="K62">
+        <v>5524347</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="9"/>
+        <v>1.298208107846927</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="10"/>
+        <v>1.25407022528807</v>
+      </c>
+      <c r="Q62" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3046566989346602</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -1755,6 +3286,39 @@
       <c r="D63">
         <v>909</v>
       </c>
+      <c r="E63">
+        <v>189</v>
+      </c>
+      <c r="F63">
+        <v>23094000</v>
+      </c>
+      <c r="G63">
+        <v>23094000</v>
+      </c>
+      <c r="H63">
+        <v>23787698</v>
+      </c>
+      <c r="I63">
+        <v>28914600</v>
+      </c>
+      <c r="J63">
+        <v>30617400</v>
+      </c>
+      <c r="K63">
+        <v>29916600</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2520394907768251</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3257729280332553</v>
+      </c>
+      <c r="Q63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2576500676946547</v>
+      </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -1769,6 +3333,39 @@
       <c r="D64">
         <v>747</v>
       </c>
+      <c r="E64">
+        <v>190</v>
+      </c>
+      <c r="F64">
+        <v>20019338</v>
+      </c>
+      <c r="G64">
+        <v>20420344</v>
+      </c>
+      <c r="H64">
+        <v>20478192</v>
+      </c>
+      <c r="I64">
+        <v>25359000</v>
+      </c>
+      <c r="J64">
+        <v>26887800</v>
+      </c>
+      <c r="K64">
+        <v>25185000</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2667252034008318</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3167163099700965</v>
+      </c>
+      <c r="Q64" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2298449003701108</v>
+      </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -1783,6 +3380,39 @@
       <c r="D65">
         <v>855</v>
       </c>
+      <c r="E65">
+        <v>200</v>
+      </c>
+      <c r="F65">
+        <v>22876854</v>
+      </c>
+      <c r="G65">
+        <v>22876854</v>
+      </c>
+      <c r="H65">
+        <v>22930180</v>
+      </c>
+      <c r="I65">
+        <v>28418400</v>
+      </c>
+      <c r="J65">
+        <v>29710800</v>
+      </c>
+      <c r="K65">
+        <v>28620600</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2422337442027649</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2987275260837876</v>
+      </c>
+      <c r="Q65" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2481629014687194</v>
+      </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -1797,6 +3427,39 @@
       <c r="D66">
         <v>1017</v>
       </c>
+      <c r="E66">
+        <v>215</v>
+      </c>
+      <c r="F66">
+        <v>26193882</v>
+      </c>
+      <c r="G66">
+        <v>26888400</v>
+      </c>
+      <c r="H66">
+        <v>26887476</v>
+      </c>
+      <c r="I66">
+        <v>32819400</v>
+      </c>
+      <c r="J66">
+        <v>34914600</v>
+      </c>
+      <c r="K66">
+        <v>35985000</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2529414311326592</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2985004686035615</v>
+      </c>
+      <c r="Q66" s="3">
+        <f t="shared" si="11"/>
+        <v>1.338355448462325</v>
+      </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -1811,6 +3474,39 @@
       <c r="D67">
         <v>1017</v>
       </c>
+      <c r="E67">
+        <v>215</v>
+      </c>
+      <c r="F67">
+        <v>25360000</v>
+      </c>
+      <c r="G67">
+        <v>26499564</v>
+      </c>
+      <c r="H67">
+        <v>26499564</v>
+      </c>
+      <c r="I67">
+        <v>32641800</v>
+      </c>
+      <c r="J67">
+        <v>34147800</v>
+      </c>
+      <c r="K67">
+        <v>33622200</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2871372239747634</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2886174278188125</v>
+      </c>
+      <c r="Q67" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2687831392244793</v>
+      </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -1825,6 +3521,39 @@
       <c r="D68">
         <v>963</v>
       </c>
+      <c r="E68">
+        <v>230</v>
+      </c>
+      <c r="F68">
+        <v>23656000</v>
+      </c>
+      <c r="G68">
+        <v>24315564</v>
+      </c>
+      <c r="H68">
+        <v>24562252</v>
+      </c>
+      <c r="I68">
+        <v>30824400</v>
+      </c>
+      <c r="J68">
+        <v>31810800</v>
+      </c>
+      <c r="K68">
+        <v>33671400</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3030267162664864</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3082484946678596</v>
+      </c>
+      <c r="Q68" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3708596426744584</v>
+      </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -1838,6 +3567,39 @@
       </c>
       <c r="D69">
         <v>1179</v>
+      </c>
+      <c r="E69">
+        <v>192</v>
+      </c>
+      <c r="F69">
+        <v>29749200</v>
+      </c>
+      <c r="G69">
+        <v>29130558</v>
+      </c>
+      <c r="H69">
+        <v>29901218</v>
+      </c>
+      <c r="I69">
+        <v>37382400</v>
+      </c>
+      <c r="J69">
+        <v>39082200</v>
+      </c>
+      <c r="K69">
+        <v>36964800</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2565850510265821</v>
+      </c>
+      <c r="P69" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3416220863328467</v>
+      </c>
+      <c r="Q69" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2362305776306504</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -1883,6 +3645,9 @@
       <c r="D72" t="s">
         <v>25</v>
       </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
       <c r="F72" t="s">
         <v>1</v>
       </c>
@@ -1942,8 +3707,38 @@
       <c r="D73">
         <v>475</v>
       </c>
+      <c r="E73">
+        <v>177</v>
+      </c>
       <c r="F73">
         <v>0.99837900000000002</v>
+      </c>
+      <c r="G73">
+        <v>0.99837900000000002</v>
+      </c>
+      <c r="H73">
+        <v>0.96717900000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.53320500000000004</v>
+      </c>
+      <c r="J73">
+        <v>0.27845900000000001</v>
+      </c>
+      <c r="K73">
+        <v>0.14118900000000001</v>
+      </c>
+      <c r="O73" s="3">
+        <f>I73/F73</f>
+        <v>0.53407072865114358</v>
+      </c>
+      <c r="P73" s="3">
+        <f t="shared" ref="P73:Q73" si="12">J73/G73</f>
+        <v>0.27891111491728093</v>
+      </c>
+      <c r="Q73" s="3">
+        <f t="shared" si="12"/>
+        <v>0.14598021669204977</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -1959,8 +3754,38 @@
       <c r="D74">
         <v>433</v>
       </c>
+      <c r="E74">
+        <v>154</v>
+      </c>
       <c r="F74">
         <v>0.96645099999999995</v>
+      </c>
+      <c r="G74">
+        <v>0.96645099999999995</v>
+      </c>
+      <c r="H74">
+        <v>0.96645099999999995</v>
+      </c>
+      <c r="I74">
+        <v>0.39710899999999999</v>
+      </c>
+      <c r="J74">
+        <v>0.198576</v>
+      </c>
+      <c r="K74">
+        <v>9.9290000000000003E-2</v>
+      </c>
+      <c r="O74" s="3">
+        <f t="shared" ref="O74:O86" si="13">I74/F74</f>
+        <v>0.41089408568049496</v>
+      </c>
+      <c r="P74" s="3">
+        <f t="shared" ref="P74:P86" si="14">J74/G74</f>
+        <v>0.20546928918279356</v>
+      </c>
+      <c r="Q74" s="3">
+        <f t="shared" ref="Q74:Q86" si="15">K74/H74</f>
+        <v>0.10273671401861037</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
@@ -1976,8 +3801,38 @@
       <c r="D75">
         <v>421</v>
       </c>
+      <c r="E75">
+        <v>118</v>
+      </c>
       <c r="F75">
         <v>0.99997999999999998</v>
+      </c>
+      <c r="G75">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="H75">
+        <v>0.97136</v>
+      </c>
+      <c r="I75">
+        <v>0.29846299999999998</v>
+      </c>
+      <c r="J75">
+        <v>0.149308</v>
+      </c>
+      <c r="K75">
+        <v>7.4665999999999996E-2</v>
+      </c>
+      <c r="O75" s="3">
+        <f t="shared" si="13"/>
+        <v>0.29846896937938755</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="14"/>
+        <v>0.14931098621972438</v>
+      </c>
+      <c r="Q75" s="3">
+        <f t="shared" si="15"/>
+        <v>7.6867484763630367E-2</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -1993,8 +3848,38 @@
       <c r="D76">
         <v>1471</v>
       </c>
+      <c r="E76">
+        <v>440</v>
+      </c>
       <c r="F76">
         <v>0.97819599999999995</v>
+      </c>
+      <c r="G76">
+        <v>0.97819599999999995</v>
+      </c>
+      <c r="H76">
+        <v>0.97819599999999995</v>
+      </c>
+      <c r="I76">
+        <v>0.13636200000000001</v>
+      </c>
+      <c r="J76">
+        <v>6.8252999999999994E-2</v>
+      </c>
+      <c r="K76">
+        <v>3.4143E-2</v>
+      </c>
+      <c r="O76" s="3">
+        <f t="shared" si="13"/>
+        <v>0.13940151053572086</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="14"/>
+        <v>6.9774360148681852E-2</v>
+      </c>
+      <c r="Q76" s="3">
+        <f t="shared" si="15"/>
+        <v>3.4904047859529178E-2</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -2010,8 +3895,38 @@
       <c r="D77">
         <v>197</v>
       </c>
+      <c r="E77">
+        <v>117</v>
+      </c>
       <c r="F77">
         <v>0.98170100000000005</v>
+      </c>
+      <c r="G77">
+        <v>0.98170100000000005</v>
+      </c>
+      <c r="H77">
+        <v>0.97786799999999996</v>
+      </c>
+      <c r="I77">
+        <v>4.8313000000000002E-2</v>
+      </c>
+      <c r="J77">
+        <v>2.4187E-2</v>
+      </c>
+      <c r="K77">
+        <v>3.4063000000000003E-2</v>
+      </c>
+      <c r="O77" s="3">
+        <f t="shared" si="13"/>
+        <v>4.9213558914577862E-2</v>
+      </c>
+      <c r="P77" s="3">
+        <f t="shared" si="14"/>
+        <v>2.4637847980189486E-2</v>
+      </c>
+      <c r="Q77" s="3">
+        <f t="shared" si="15"/>
+        <v>3.4833944867814472E-2</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
@@ -2027,8 +3942,38 @@
       <c r="D78">
         <v>2542</v>
       </c>
+      <c r="E78">
+        <v>235</v>
+      </c>
       <c r="F78">
         <v>0.99998100000000001</v>
+      </c>
+      <c r="G78">
+        <v>0.99998699999999996</v>
+      </c>
+      <c r="H78">
+        <v>0.95849099999999998</v>
+      </c>
+      <c r="I78">
+        <v>0.48976700000000001</v>
+      </c>
+      <c r="J78">
+        <v>0.258351</v>
+      </c>
+      <c r="K78">
+        <v>0.12946199999999999</v>
+      </c>
+      <c r="O78" s="3">
+        <f t="shared" si="13"/>
+        <v>0.48977630574980924</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" si="14"/>
+        <v>0.25835435860666189</v>
+      </c>
+      <c r="Q78" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1350685608941555</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -2044,8 +3989,38 @@
       <c r="D79">
         <v>89</v>
       </c>
+      <c r="E79">
+        <v>68</v>
+      </c>
       <c r="F79">
         <v>0.96916400000000003</v>
+      </c>
+      <c r="G79">
+        <v>0.96497599999999994</v>
+      </c>
+      <c r="H79">
+        <v>0.96497599999999994</v>
+      </c>
+      <c r="I79">
+        <v>0.35833199999999998</v>
+      </c>
+      <c r="J79">
+        <v>0.422736</v>
+      </c>
+      <c r="K79">
+        <v>0.27588600000000002</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" si="13"/>
+        <v>0.36973308954934353</v>
+      </c>
+      <c r="P79" s="3">
+        <f t="shared" si="14"/>
+        <v>0.438079289018587</v>
+      </c>
+      <c r="Q79" s="3">
+        <f t="shared" si="15"/>
+        <v>0.28589933842914234</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -2061,6 +4036,39 @@
       <c r="D80">
         <v>909</v>
       </c>
+      <c r="E80">
+        <v>189</v>
+      </c>
+      <c r="F80">
+        <v>0.99384600000000001</v>
+      </c>
+      <c r="G80">
+        <v>0.99384600000000001</v>
+      </c>
+      <c r="H80">
+        <v>0.96278900000000001</v>
+      </c>
+      <c r="I80">
+        <v>0.29606700000000002</v>
+      </c>
+      <c r="J80">
+        <v>0.14808099999999999</v>
+      </c>
+      <c r="K80">
+        <v>7.4052000000000007E-2</v>
+      </c>
+      <c r="O80" s="3">
+        <f t="shared" si="13"/>
+        <v>0.29790027831273658</v>
+      </c>
+      <c r="P80" s="3">
+        <f t="shared" si="14"/>
+        <v>0.14899793328141381</v>
+      </c>
+      <c r="Q80" s="3">
+        <f t="shared" si="15"/>
+        <v>7.6914048664868423E-2</v>
+      </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -2075,6 +4083,39 @@
       <c r="D81">
         <v>747</v>
       </c>
+      <c r="E81">
+        <v>190</v>
+      </c>
+      <c r="F81">
+        <v>0.99998299999999996</v>
+      </c>
+      <c r="G81">
+        <v>0.97610699999999995</v>
+      </c>
+      <c r="H81">
+        <v>0.97610699999999995</v>
+      </c>
+      <c r="I81">
+        <v>0.33397300000000002</v>
+      </c>
+      <c r="J81">
+        <v>0.167046</v>
+      </c>
+      <c r="K81">
+        <v>8.3537E-2</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="13"/>
+        <v>0.33397867763751987</v>
+      </c>
+      <c r="P81" s="3">
+        <f t="shared" si="14"/>
+        <v>0.17113492680618006</v>
+      </c>
+      <c r="Q81" s="3">
+        <f t="shared" si="15"/>
+        <v>8.5581806092979565E-2</v>
+      </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -2089,6 +4130,39 @@
       <c r="D82">
         <v>855</v>
       </c>
+      <c r="E82">
+        <v>200</v>
+      </c>
+      <c r="F82">
+        <v>0.98175000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.98175000000000001</v>
+      </c>
+      <c r="H82">
+        <v>0.98175000000000001</v>
+      </c>
+      <c r="I82">
+        <v>0.31838499999999997</v>
+      </c>
+      <c r="J82">
+        <v>0.15924099999999999</v>
+      </c>
+      <c r="K82">
+        <v>7.9631999999999994E-2</v>
+      </c>
+      <c r="O82" s="3">
+        <f t="shared" si="13"/>
+        <v>0.32430353959765723</v>
+      </c>
+      <c r="P82" s="3">
+        <f t="shared" si="14"/>
+        <v>0.16220117137764195</v>
+      </c>
+      <c r="Q82" s="3">
+        <f t="shared" si="15"/>
+        <v>8.1112299465240636E-2</v>
+      </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -2103,6 +4177,39 @@
       <c r="D83">
         <v>1017</v>
       </c>
+      <c r="E83">
+        <v>215</v>
+      </c>
+      <c r="F83">
+        <v>0.99999300000000002</v>
+      </c>
+      <c r="G83">
+        <v>0.95106299999999999</v>
+      </c>
+      <c r="H83">
+        <v>0.95106299999999999</v>
+      </c>
+      <c r="I83">
+        <v>0.31779600000000002</v>
+      </c>
+      <c r="J83">
+        <v>0.15895100000000001</v>
+      </c>
+      <c r="K83">
+        <v>7.9488000000000003E-2</v>
+      </c>
+      <c r="O83" s="3">
+        <f t="shared" si="13"/>
+        <v>0.31779822458757212</v>
+      </c>
+      <c r="P83" s="3">
+        <f t="shared" si="14"/>
+        <v>0.16712983261886963</v>
+      </c>
+      <c r="Q83" s="3">
+        <f t="shared" si="15"/>
+        <v>8.3578059497635804E-2</v>
+      </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -2117,6 +4224,39 @@
       <c r="D84">
         <v>1017</v>
       </c>
+      <c r="E84">
+        <v>215</v>
+      </c>
+      <c r="F84">
+        <v>0.99998399999999998</v>
+      </c>
+      <c r="G84">
+        <v>0.95915799999999996</v>
+      </c>
+      <c r="H84">
+        <v>0.95915799999999996</v>
+      </c>
+      <c r="I84">
+        <v>0.335202</v>
+      </c>
+      <c r="J84">
+        <v>0.16764999999999999</v>
+      </c>
+      <c r="K84">
+        <v>8.3836999999999995E-2</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" si="13"/>
+        <v>0.33520736331781309</v>
+      </c>
+      <c r="P84" s="3">
+        <f t="shared" si="14"/>
+        <v>0.17478872094065837</v>
+      </c>
+      <c r="Q84" s="3">
+        <f t="shared" si="15"/>
+        <v>8.7406871443495238E-2</v>
+      </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -2131,6 +4271,39 @@
       <c r="D85">
         <v>963</v>
       </c>
+      <c r="E85">
+        <v>230</v>
+      </c>
+      <c r="F85">
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="G85">
+        <v>0.99999099999999996</v>
+      </c>
+      <c r="H85">
+        <v>0.96967300000000001</v>
+      </c>
+      <c r="I85">
+        <v>0.33829399999999998</v>
+      </c>
+      <c r="J85">
+        <v>0.16919100000000001</v>
+      </c>
+      <c r="K85">
+        <v>8.4606000000000001E-2</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="13"/>
+        <v>0.33829467658935314</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.1691925227327046</v>
+      </c>
+      <c r="Q85" s="3">
+        <f t="shared" si="15"/>
+        <v>8.7252094262705054E-2</v>
+      </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -2144,6 +4317,39 @@
       </c>
       <c r="D86">
         <v>1179</v>
+      </c>
+      <c r="E86">
+        <v>192</v>
+      </c>
+      <c r="F86">
+        <v>0.99998100000000001</v>
+      </c>
+      <c r="G86">
+        <v>0.99997800000000003</v>
+      </c>
+      <c r="H86">
+        <v>0.97653400000000001</v>
+      </c>
+      <c r="I86">
+        <v>0.35473700000000002</v>
+      </c>
+      <c r="J86">
+        <v>0.17741499999999999</v>
+      </c>
+      <c r="K86">
+        <v>8.8719000000000006E-2</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="13"/>
+        <v>0.35474374013106252</v>
+      </c>
+      <c r="P86" s="3">
+        <f t="shared" si="14"/>
+        <v>0.17741890321587073</v>
+      </c>
+      <c r="Q86" s="3">
+        <f t="shared" si="15"/>
+        <v>9.0850907392881361E-2</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -2189,6 +4395,9 @@
       <c r="D89" t="s">
         <v>25</v>
       </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
       <c r="F89" t="s">
         <v>1</v>
       </c>
@@ -2248,8 +4457,38 @@
       <c r="D90">
         <v>475</v>
       </c>
+      <c r="E90">
+        <v>177</v>
+      </c>
       <c r="F90">
-        <v>0.90542199999999995</v>
+        <v>0.89998100000000003</v>
+      </c>
+      <c r="G90">
+        <v>0.81923800000000002</v>
+      </c>
+      <c r="H90">
+        <v>0.64998599999999995</v>
+      </c>
+      <c r="I90">
+        <v>0.53320500000000004</v>
+      </c>
+      <c r="J90">
+        <v>0.27845900000000001</v>
+      </c>
+      <c r="K90">
+        <v>0.13933100000000001</v>
+      </c>
+      <c r="O90" s="3">
+        <f>I90/F90</f>
+        <v>0.59246250754182594</v>
+      </c>
+      <c r="P90" s="3">
+        <f t="shared" ref="P90:Q90" si="16">J90/G90</f>
+        <v>0.33990000463845671</v>
+      </c>
+      <c r="Q90" s="3">
+        <f t="shared" si="16"/>
+        <v>0.21436000160003449</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -2265,8 +4504,38 @@
       <c r="D91">
         <v>433</v>
       </c>
+      <c r="E91">
+        <v>154</v>
+      </c>
       <c r="F91">
-        <v>0.84776399999999996</v>
+        <v>0.85526599999999997</v>
+      </c>
+      <c r="G91">
+        <v>0.76702499999999996</v>
+      </c>
+      <c r="H91">
+        <v>0.63582300000000003</v>
+      </c>
+      <c r="I91">
+        <v>0.39710899999999999</v>
+      </c>
+      <c r="J91">
+        <v>0.198576</v>
+      </c>
+      <c r="K91">
+        <v>9.8632999999999998E-2</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" ref="O91:O103" si="17">I91/F91</f>
+        <v>0.46431051859889205</v>
+      </c>
+      <c r="P91" s="3">
+        <f t="shared" ref="P91:P103" si="18">J91/G91</f>
+        <v>0.25889117043121151</v>
+      </c>
+      <c r="Q91" s="3">
+        <f t="shared" ref="Q91:Q103" si="19">K91/H91</f>
+        <v>0.15512650533245886</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -2282,8 +4551,38 @@
       <c r="D92">
         <v>421</v>
       </c>
+      <c r="E92">
+        <v>118</v>
+      </c>
       <c r="F92">
-        <v>0.90948600000000002</v>
+        <v>0.91699200000000003</v>
+      </c>
+      <c r="G92">
+        <v>0.84232499999999999</v>
+      </c>
+      <c r="H92">
+        <v>0.70928100000000005</v>
+      </c>
+      <c r="I92">
+        <v>0.296095</v>
+      </c>
+      <c r="J92">
+        <v>0.148123</v>
+      </c>
+      <c r="K92">
+        <v>7.4073E-2</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="17"/>
+        <v>0.32289812779173643</v>
+      </c>
+      <c r="P92" s="3">
+        <f t="shared" si="18"/>
+        <v>0.17585017659454485</v>
+      </c>
+      <c r="Q92" s="3">
+        <f t="shared" si="19"/>
+        <v>0.10443392675117477</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -2299,8 +4598,38 @@
       <c r="D93">
         <v>1471</v>
       </c>
+      <c r="E93">
+        <v>440</v>
+      </c>
       <c r="F93">
-        <v>0.86413099999999998</v>
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="G93">
+        <v>0.77063800000000005</v>
+      </c>
+      <c r="H93">
+        <v>0.63574299999999995</v>
+      </c>
+      <c r="I93">
+        <v>0.13636200000000001</v>
+      </c>
+      <c r="J93">
+        <v>6.8252999999999994E-2</v>
+      </c>
+      <c r="K93">
+        <v>3.4143E-2</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="17"/>
+        <v>0.15817422572787382</v>
+      </c>
+      <c r="P93" s="3">
+        <f t="shared" si="18"/>
+        <v>8.8566875757489241E-2</v>
+      </c>
+      <c r="Q93" s="3">
+        <f t="shared" si="19"/>
+        <v>5.3705664081240383E-2</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
@@ -2316,8 +4645,38 @@
       <c r="D94">
         <v>197</v>
       </c>
+      <c r="E94">
+        <v>117</v>
+      </c>
       <c r="F94">
-        <v>0.91165499999999999</v>
+        <v>0.91264400000000001</v>
+      </c>
+      <c r="G94">
+        <v>0.853406</v>
+      </c>
+      <c r="H94">
+        <v>0.73812100000000003</v>
+      </c>
+      <c r="I94">
+        <v>4.8313000000000002E-2</v>
+      </c>
+      <c r="J94">
+        <v>2.4187E-2</v>
+      </c>
+      <c r="K94">
+        <v>2.4160000000000001E-2</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="17"/>
+        <v>5.2937399467919581E-2</v>
+      </c>
+      <c r="P94" s="3">
+        <f t="shared" si="18"/>
+        <v>2.8341727149797401E-2</v>
+      </c>
+      <c r="Q94" s="3">
+        <f t="shared" si="19"/>
+        <v>3.2731760781768843E-2</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -2333,8 +4692,38 @@
       <c r="D95">
         <v>2542</v>
       </c>
+      <c r="E95">
+        <v>235</v>
+      </c>
       <c r="F95">
-        <v>0.90701299999999996</v>
+        <v>0.90359800000000001</v>
+      </c>
+      <c r="G95">
+        <v>0.83962000000000003</v>
+      </c>
+      <c r="H95">
+        <v>0.70039499999999999</v>
+      </c>
+      <c r="I95">
+        <v>0.48976700000000001</v>
+      </c>
+      <c r="J95">
+        <v>0.25663999999999998</v>
+      </c>
+      <c r="K95">
+        <v>0.128605</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="17"/>
+        <v>0.5420186853003216</v>
+      </c>
+      <c r="P95" s="3">
+        <f t="shared" si="18"/>
+        <v>0.30566208522903215</v>
+      </c>
+      <c r="Q95" s="3">
+        <f t="shared" si="19"/>
+        <v>0.18361781566116261</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -2350,11 +4739,41 @@
       <c r="D96">
         <v>89</v>
       </c>
+      <c r="E96">
+        <v>68</v>
+      </c>
       <c r="F96">
         <v>0.88306499999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>0.81101599999999996</v>
+      </c>
+      <c r="H96">
+        <v>0.69723999999999997</v>
+      </c>
+      <c r="I96">
+        <v>0.35726000000000002</v>
+      </c>
+      <c r="J96">
+        <v>0.35137000000000002</v>
+      </c>
+      <c r="K96">
+        <v>0.25918799999999997</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="17"/>
+        <v>0.40456818014528945</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" si="18"/>
+        <v>0.43324669303688218</v>
+      </c>
+      <c r="Q96" s="3">
+        <f t="shared" si="19"/>
+        <v>0.37173426653663011</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2367,8 +4786,41 @@
       <c r="D97">
         <v>909</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>189</v>
+      </c>
+      <c r="F97">
+        <v>0.89054299999999997</v>
+      </c>
+      <c r="G97">
+        <v>0.80669400000000002</v>
+      </c>
+      <c r="H97">
+        <v>0.63599399999999995</v>
+      </c>
+      <c r="I97">
+        <v>0.29217100000000001</v>
+      </c>
+      <c r="J97">
+        <v>0.14613200000000001</v>
+      </c>
+      <c r="K97">
+        <v>7.3078000000000004E-2</v>
+      </c>
+      <c r="O97" s="3">
+        <f t="shared" si="17"/>
+        <v>0.32808185567681741</v>
+      </c>
+      <c r="P97" s="3">
+        <f t="shared" si="18"/>
+        <v>0.18114923378629319</v>
+      </c>
+      <c r="Q97" s="3">
+        <f t="shared" si="19"/>
+        <v>0.11490359971949422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -2381,8 +4833,41 @@
       <c r="D98">
         <v>747</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>190</v>
+      </c>
+      <c r="F98">
+        <v>0.86917299999999997</v>
+      </c>
+      <c r="G98">
+        <v>0.76727900000000004</v>
+      </c>
+      <c r="H98">
+        <v>0.63096799999999997</v>
+      </c>
+      <c r="I98">
+        <v>0.32957900000000001</v>
+      </c>
+      <c r="J98">
+        <v>0.16594</v>
+      </c>
+      <c r="K98">
+        <v>8.2436999999999996E-2</v>
+      </c>
+      <c r="O98" s="3">
+        <f t="shared" si="17"/>
+        <v>0.37918688224323582</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" si="18"/>
+        <v>0.21627074375813751</v>
+      </c>
+      <c r="Q98" s="3">
+        <f t="shared" si="19"/>
+        <v>0.13065163368031343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -2395,8 +4880,41 @@
       <c r="D99">
         <v>855</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>200</v>
+      </c>
+      <c r="F99">
+        <v>0.87656299999999998</v>
+      </c>
+      <c r="G99">
+        <v>0.79237299999999999</v>
+      </c>
+      <c r="H99">
+        <v>0.66364400000000001</v>
+      </c>
+      <c r="I99">
+        <v>0.31419599999999998</v>
+      </c>
+      <c r="J99">
+        <v>0.15818599999999999</v>
+      </c>
+      <c r="K99">
+        <v>7.8584000000000001E-2</v>
+      </c>
+      <c r="O99" s="3">
+        <f t="shared" si="17"/>
+        <v>0.35844086506046913</v>
+      </c>
+      <c r="P99" s="3">
+        <f t="shared" si="18"/>
+        <v>0.19963577759464293</v>
+      </c>
+      <c r="Q99" s="3">
+        <f t="shared" si="19"/>
+        <v>0.11841288401612914</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -2409,8 +4927,41 @@
       <c r="D100">
         <v>1017</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>215</v>
+      </c>
+      <c r="F100">
+        <v>0.88547200000000004</v>
+      </c>
+      <c r="G100">
+        <v>0.76739900000000005</v>
+      </c>
+      <c r="H100">
+        <v>0.643625</v>
+      </c>
+      <c r="I100">
+        <v>0.31361499999999998</v>
+      </c>
+      <c r="J100">
+        <v>0.15789800000000001</v>
+      </c>
+      <c r="K100">
+        <v>7.8441999999999998E-2</v>
+      </c>
+      <c r="O100" s="3">
+        <f t="shared" si="17"/>
+        <v>0.35417833652560438</v>
+      </c>
+      <c r="P100" s="3">
+        <f t="shared" si="18"/>
+        <v>0.20575737002524111</v>
+      </c>
+      <c r="Q100" s="3">
+        <f t="shared" si="19"/>
+        <v>0.12187531559526121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -2423,8 +4974,41 @@
       <c r="D101">
         <v>1017</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>215</v>
+      </c>
+      <c r="F101">
+        <v>0.90088599999999996</v>
+      </c>
+      <c r="G101">
+        <v>0.79389600000000005</v>
+      </c>
+      <c r="H101">
+        <v>0.67769100000000004</v>
+      </c>
+      <c r="I101">
+        <v>0.33079199999999997</v>
+      </c>
+      <c r="J101">
+        <v>0.16653999999999999</v>
+      </c>
+      <c r="K101">
+        <v>8.2734000000000002E-2</v>
+      </c>
+      <c r="O101" s="3">
+        <f t="shared" si="17"/>
+        <v>0.36718519324309623</v>
+      </c>
+      <c r="P101" s="3">
+        <f t="shared" si="18"/>
+        <v>0.20977558773441354</v>
+      </c>
+      <c r="Q101" s="3">
+        <f t="shared" si="19"/>
+        <v>0.12208218789979504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2437,8 +5021,41 @@
       <c r="D102">
         <v>963</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>230</v>
+      </c>
+      <c r="F102">
+        <v>0.91491100000000003</v>
+      </c>
+      <c r="G102">
+        <v>0.850935</v>
+      </c>
+      <c r="H102">
+        <v>0.71404500000000004</v>
+      </c>
+      <c r="I102">
+        <v>0.333843</v>
+      </c>
+      <c r="J102">
+        <v>0.166964</v>
+      </c>
+      <c r="K102">
+        <v>8.3492999999999998E-2</v>
+      </c>
+      <c r="O102" s="3">
+        <f t="shared" si="17"/>
+        <v>0.36489122985733036</v>
+      </c>
+      <c r="P102" s="3">
+        <f t="shared" si="18"/>
+        <v>0.19621240165230011</v>
+      </c>
+      <c r="Q102" s="3">
+        <f t="shared" si="19"/>
+        <v>0.11692960527697834</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -2451,19 +5068,50 @@
       <c r="D103">
         <v>1179</v>
       </c>
+      <c r="E103">
+        <v>192</v>
+      </c>
+      <c r="F103">
+        <v>0.907698</v>
+      </c>
+      <c r="G103">
+        <v>0.84815799999999997</v>
+      </c>
+      <c r="H103">
+        <v>0.72866600000000004</v>
+      </c>
+      <c r="I103">
+        <v>0.35006900000000002</v>
+      </c>
+      <c r="J103">
+        <v>0.17624100000000001</v>
+      </c>
+      <c r="K103">
+        <v>8.7552000000000005E-2</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="17"/>
+        <v>0.38566681869961156</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="18"/>
+        <v>0.20779265184081269</v>
+      </c>
+      <c r="Q103" s="3">
+        <f t="shared" si="19"/>
+        <v>0.12015381532828484</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="I88:K88"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="R88:T88"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="R71:T71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L71:N71"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="F37:H37"/>
@@ -2476,14 +5124,16 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="R71:T71"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="R88:T88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -2658,7 +2658,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2709,11 +2709,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2992,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W120"/>
+  <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="117" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107:C120"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="117" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3007,9 +3007,10 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3049,42 +3050,42 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>60</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" ref="P5:W5" si="0">(H5-D5)/H5</f>
+        <f t="shared" ref="P5:R5" si="0">(H5-D5)/H5</f>
         <v>0.39557351536663338</v>
       </c>
       <c r="Q5" s="1">
@@ -3233,8 +3234,9 @@
         <f t="shared" si="1"/>
         <v>0.79514314877832903</v>
       </c>
+      <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>0.42071651227560442</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" ref="Q6:W18" si="2">(I6-E6)/I6</f>
+        <f t="shared" ref="Q6:S18" si="2">(I6-E6)/I6</f>
         <v>0.59059703745781233</v>
       </c>
       <c r="R6" s="1">
@@ -3312,8 +3314,9 @@
         <f t="shared" si="1"/>
         <v>0.867423405450792</v>
       </c>
+      <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -3391,8 +3394,9 @@
         <f t="shared" si="1"/>
         <v>0.92290291335205288</v>
       </c>
+      <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3470,8 +3474,9 @@
         <f t="shared" si="1"/>
         <v>0.91685498380492947</v>
       </c>
+      <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3549,8 +3554,9 @@
         <f t="shared" si="1"/>
         <v>0.96287252217392849</v>
       </c>
+      <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>215</v>
       </c>
@@ -3628,8 +3634,9 @@
         <f t="shared" si="1"/>
         <v>0.94045925713266609</v>
       </c>
+      <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3707,8 +3714,9 @@
         <f t="shared" si="1"/>
         <v>0.96531026240337747</v>
       </c>
+      <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3786,8 +3794,9 @@
         <f t="shared" si="1"/>
         <v>0.97800433481779359</v>
       </c>
+      <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3865,8 +3874,9 @@
         <f t="shared" si="1"/>
         <v>0.97503510305873309</v>
       </c>
+      <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3944,8 +3954,9 @@
         <f t="shared" si="1"/>
         <v>0.97959215962875157</v>
       </c>
+      <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4023,8 +4034,9 @@
         <f t="shared" si="1"/>
         <v>0.98032887805802471</v>
       </c>
+      <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4102,8 +4114,9 @@
         <f t="shared" si="1"/>
         <v>0.98005478503182453</v>
       </c>
+      <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -4150,7 +4163,7 @@
         <v>204</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" ref="P17:W17" si="5">(H17-D17)/H17</f>
+        <f t="shared" ref="P17:S17" si="5">(H17-D17)/H17</f>
         <v>0.46561987617726369</v>
       </c>
       <c r="Q17" s="1">
@@ -4181,8 +4194,9 @@
         <f t="shared" si="1"/>
         <v>0.97906418267073392</v>
       </c>
+      <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4260,46 +4274,47 @@
         <f t="shared" si="1"/>
         <v>0.9798595928349173</v>
       </c>
+      <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2" t="s">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4370,7 +4385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -4416,40 +4431,40 @@
       <c r="O22" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <f>H22/D22</f>
         <v>1.0918781602193115</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <f t="shared" ref="Q22:S35" si="6">I22/E22</f>
         <v>2.1587600782778864</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="3">
         <f t="shared" si="6"/>
         <v>5.1153682888540031</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="3">
         <f t="shared" si="6"/>
         <v>5.1727931034482761</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <f>L22/D22</f>
         <v>3.76060706670728</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="3">
         <f t="shared" ref="U22:W35" si="7">M22/E22</f>
         <v>4.5923034572733199</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="3">
         <f t="shared" si="7"/>
         <v>7.4586854003139713</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="3">
         <f t="shared" si="7"/>
         <v>16.327633497536947</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4495,40 +4510,40 @@
       <c r="O23" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <f t="shared" ref="P23:P35" si="8">H23/D23</f>
         <v>0.82554848260547742</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <f t="shared" si="6"/>
         <v>1.1739731694828468</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <f t="shared" si="6"/>
         <v>2.2932329411764707</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <f t="shared" si="6"/>
         <v>4.9349920634920634</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="3">
         <f t="shared" ref="T23:T35" si="9">L23/D23</f>
         <v>3.3807905255366397</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="3">
         <f t="shared" si="7"/>
         <v>4.9320928315412189</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="3">
         <f t="shared" si="7"/>
         <v>7.36854431372549</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="3">
         <f t="shared" si="7"/>
         <v>13.828484126984128</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>214</v>
       </c>
@@ -4574,40 +4589,40 @@
       <c r="O24" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <f t="shared" si="8"/>
         <v>0.92458529239329112</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <f t="shared" si="6"/>
         <v>1.4491968076616122</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <f t="shared" si="6"/>
         <v>2.8937351916376306</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <f t="shared" si="6"/>
         <v>31.222952380952382</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <f t="shared" si="9"/>
         <v>6.8935387424463626</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="3">
         <f t="shared" si="7"/>
         <v>9.7505412609736624</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="3">
         <f t="shared" si="7"/>
         <v>17.862912543554007</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="3">
         <f t="shared" si="7"/>
         <v>31.129580952380952</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -4653,40 +4668,40 @@
       <c r="O25" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <f t="shared" si="8"/>
         <v>1.24220862467547</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <f t="shared" si="6"/>
         <v>1.9592405100235872</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <f t="shared" si="6"/>
         <v>3.1687925482119454</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <f t="shared" si="6"/>
         <v>6.5276734693877554</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <f t="shared" si="9"/>
         <v>6.3943606687641408</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="3">
         <f t="shared" si="7"/>
         <v>8.4992437474029927</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <f t="shared" si="7"/>
         <v>9.087859576858266</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="3">
         <f t="shared" si="7"/>
         <v>15.219226617661283</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4732,40 +4747,40 @@
       <c r="O26" t="s">
         <v>108</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <f t="shared" si="8"/>
         <v>3.1703646793228222</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <f t="shared" si="6"/>
         <v>6.3957524561365462</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="3">
         <f t="shared" si="6"/>
         <v>12.706925643124613</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <f t="shared" si="6"/>
         <v>29.283118817147113</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <f t="shared" si="9"/>
         <v>6.8949882033846883</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="3">
         <f t="shared" si="7"/>
         <v>11.841340627643193</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="3">
         <f t="shared" si="7"/>
         <v>19.593031268643948</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="3">
         <f t="shared" si="7"/>
         <v>42.838250363436515</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -4811,40 +4826,40 @@
       <c r="O27" t="s">
         <v>120</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <f t="shared" si="8"/>
         <v>7.9504418704418702</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="3">
         <f t="shared" si="6"/>
         <v>14.368406673014034</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="3">
         <f t="shared" si="6"/>
         <v>31.359781495390919</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="3">
         <f t="shared" si="6"/>
         <v>31.199191810344828</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="3">
         <f t="shared" si="9"/>
         <v>7.1820398970398971</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27" s="3">
         <f t="shared" si="7"/>
         <v>12.122105393881691</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V27" s="3">
         <f t="shared" si="7"/>
         <v>16.263161488562648</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W27" s="3">
         <f t="shared" si="7"/>
         <v>20.644127155172413</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4890,40 +4905,40 @@
       <c r="O28" t="s">
         <v>132</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <f t="shared" si="8"/>
         <v>0.29981164779986763</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="3">
         <f t="shared" si="6"/>
         <v>0.18304738503061035</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="3">
         <f t="shared" si="6"/>
         <v>7.5312848158131177E-2</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="3">
         <f t="shared" si="6"/>
         <v>4.4028445563247323E-2</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <f t="shared" si="9"/>
         <v>6.6037376157656391</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28" s="3">
         <f t="shared" si="7"/>
         <v>12.741302537626884</v>
       </c>
-      <c r="V28" s="4">
+      <c r="V28" s="3">
         <f t="shared" si="7"/>
         <v>19.769975172207246</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="3">
         <f t="shared" si="7"/>
         <v>34.605062240402766</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4969,40 +4984,40 @@
       <c r="O29" t="s">
         <v>144</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <f t="shared" si="8"/>
         <v>0.46582206295399514</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="3">
         <f t="shared" si="6"/>
         <v>0.55890264039408866</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="3">
         <f t="shared" si="6"/>
         <v>0.79638857142857145</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29" s="3">
         <f t="shared" si="6"/>
         <v>1.2410214917825537</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="3">
         <f t="shared" si="9"/>
         <v>15.121364726392251</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U29" s="3">
         <f t="shared" si="7"/>
         <v>22.109401477832513</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V29" s="3">
         <f t="shared" si="7"/>
         <v>32.301337632653059</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29" s="3">
         <f t="shared" si="7"/>
         <v>61.55677901390645</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -5048,40 +5063,40 @@
       <c r="O30" t="s">
         <v>156</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <f t="shared" si="8"/>
         <v>0.52182066339606059</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="3">
         <f t="shared" si="6"/>
         <v>0.64153369385609138</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="3">
         <f t="shared" si="6"/>
         <v>0.93007526132404184</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="3">
         <f t="shared" si="6"/>
         <v>1.7691019189765458</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="3">
         <f t="shared" si="9"/>
         <v>13.613894969612653</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30" s="3">
         <f t="shared" si="7"/>
         <v>18.091665675229081</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30" s="3">
         <f t="shared" si="7"/>
         <v>29.988262274311055</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30" s="3">
         <f t="shared" si="7"/>
         <v>59.187584221748402</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -5127,40 +5142,40 @@
       <c r="O31" t="s">
         <v>168</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <f t="shared" si="8"/>
         <v>0.5164199958086384</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <f t="shared" si="6"/>
         <v>0.5682161512457744</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="3">
         <f t="shared" si="6"/>
         <v>0.81319667282809616</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31" s="3">
         <f t="shared" si="6"/>
         <v>1.4789794569067296</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <f t="shared" si="9"/>
         <v>16.309996116952455</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U31" s="3">
         <f t="shared" si="7"/>
         <v>21.1153497934143</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V31" s="3">
         <f t="shared" si="7"/>
         <v>33.839853076313702</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31" s="3">
         <f t="shared" si="7"/>
         <v>72.083785123966948</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5206,35 +5221,35 @@
       <c r="O32" t="s">
         <v>180</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="3">
         <f t="shared" si="8"/>
         <v>0.40971223087860331</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="3">
         <f t="shared" si="6"/>
         <v>0.44457425542655227</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="3">
         <f t="shared" si="6"/>
         <v>0.62354285714285718</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32" s="3">
         <f t="shared" si="6"/>
         <v>1.0720674698795181</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="3">
         <f t="shared" si="9"/>
         <v>16.744246910622497</v>
       </c>
-      <c r="U32" s="4">
+      <c r="U32" s="3">
         <f t="shared" si="7"/>
         <v>23.867896264512872</v>
       </c>
-      <c r="V32" s="4">
+      <c r="V32" s="3">
         <f t="shared" si="7"/>
         <v>38.264112781954886</v>
       </c>
-      <c r="W32" s="4">
+      <c r="W32" s="3">
         <f t="shared" si="7"/>
         <v>77.785114974182449</v>
       </c>
@@ -5285,35 +5300,35 @@
       <c r="O33" t="s">
         <v>192</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <f t="shared" si="8"/>
         <v>0.35189332039776861</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="3">
         <f t="shared" si="6"/>
         <v>0.40890495304003954</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="3">
         <f t="shared" si="6"/>
         <v>0.57029788283658789</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33" s="3">
         <f t="shared" si="6"/>
         <v>0.97783535714285719</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33" s="3">
         <f t="shared" si="9"/>
         <v>15.214531593499879</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33" s="3">
         <f t="shared" si="7"/>
         <v>21.988489985170538</v>
       </c>
-      <c r="V33" s="4">
+      <c r="V33" s="3">
         <f t="shared" si="7"/>
         <v>33.288207810894143</v>
       </c>
-      <c r="W33" s="4">
+      <c r="W33" s="3">
         <f t="shared" si="7"/>
         <v>67.058690624999997</v>
       </c>
@@ -5364,35 +5379,35 @@
       <c r="O34" t="s">
         <v>204</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <f t="shared" si="8"/>
         <v>0.30257923757133309</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="3">
         <f t="shared" si="6"/>
         <v>0.29607773087462047</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="3">
         <f t="shared" si="6"/>
         <v>0.37344642857142857</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34" s="3">
         <f t="shared" si="6"/>
         <v>0.62600747663551404</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="3">
         <f t="shared" si="9"/>
         <v>16.643910700285332</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="3">
         <f t="shared" si="7"/>
         <v>24.303277982670519</v>
       </c>
-      <c r="V34" s="4">
+      <c r="V34" s="3">
         <f t="shared" si="7"/>
         <v>34.306707450738919</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W34" s="3">
         <f t="shared" si="7"/>
         <v>63.61230994659546</v>
       </c>
@@ -5443,35 +5458,35 @@
       <c r="O35" t="s">
         <v>213</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <f t="shared" si="8"/>
         <v>0.40884342857142858</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="3">
         <f t="shared" si="6"/>
         <v>0.47902013793103448</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="3">
         <f t="shared" si="6"/>
         <v>0.66623673469387756</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="3">
         <f t="shared" si="6"/>
         <v>1.1342220659340658</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35" s="3">
         <f t="shared" si="9"/>
         <v>15.125742450363196</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U35" s="3">
         <f t="shared" si="7"/>
         <v>21.845131743842366</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V35" s="3">
         <f t="shared" si="7"/>
         <v>32.902670979591839</v>
       </c>
-      <c r="W35" s="4">
+      <c r="W35" s="3">
         <f t="shared" si="7"/>
         <v>64.623244747252741</v>
       </c>
@@ -5480,36 +5495,36 @@
       <c r="A37" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2" t="s">
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -5628,35 +5643,35 @@
       <c r="O39" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="3">
         <f>H39/D39</f>
         <v>6.0519828571428569</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="3">
         <f t="shared" ref="Q39:S52" si="10">I39/E39</f>
         <v>5.9825638095238096</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="3">
         <f t="shared" si="10"/>
         <v>4.9088063492063494</v>
       </c>
-      <c r="S39" s="4">
+      <c r="S39" s="3">
         <f t="shared" si="10"/>
         <v>5.294505882352941</v>
       </c>
-      <c r="T39" s="4">
+      <c r="T39" s="3">
         <f>L39/D39</f>
         <v>0</v>
       </c>
-      <c r="U39" s="4">
+      <c r="U39" s="3">
         <f t="shared" ref="U39:W52" si="11">M39/E39</f>
         <v>0</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W39" s="4">
+      <c r="W39" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5707,35 +5722,35 @@
       <c r="O40" t="s">
         <v>32</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="3">
         <f t="shared" ref="P40:P52" si="12">H40/D40</f>
         <v>14.446222996515679</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="3">
         <f t="shared" si="10"/>
         <v>11.075304529616725</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R40" s="3">
         <f t="shared" si="10"/>
         <v>10.284181818181818</v>
       </c>
-      <c r="S40" s="4">
+      <c r="S40" s="3">
         <f t="shared" si="10"/>
         <v>10.494666666666667</v>
       </c>
-      <c r="T40" s="4">
+      <c r="T40" s="3">
         <f t="shared" ref="T40:T52" si="13">L40/D40</f>
         <v>0</v>
       </c>
-      <c r="U40" s="4">
+      <c r="U40" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V40" s="4">
+      <c r="V40" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W40" s="4">
+      <c r="W40" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5786,35 +5801,35 @@
       <c r="O41" t="s">
         <v>32</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="3">
         <f t="shared" si="12"/>
         <v>11.036007426226304</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="3">
         <f t="shared" si="10"/>
         <v>7.6195902439024392</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R41" s="3">
         <f t="shared" si="10"/>
         <v>7.4073496598639457</v>
       </c>
-      <c r="S41" s="4">
+      <c r="S41" s="3">
         <f t="shared" si="10"/>
         <v>7.2955102040816326</v>
       </c>
-      <c r="T41" s="4">
+      <c r="T41" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U41" s="4">
+      <c r="U41" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V41" s="4">
+      <c r="V41" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W41" s="4">
+      <c r="W41" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5865,35 +5880,35 @@
       <c r="O42" t="s">
         <v>32</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="3">
         <f t="shared" si="12"/>
         <v>7.1783430188334805</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="3">
         <f t="shared" si="10"/>
         <v>5.7737523992322455</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R42" s="3">
         <f t="shared" si="10"/>
         <v>4.9763559183673474</v>
       </c>
-      <c r="S42" s="4">
+      <c r="S42" s="3">
         <f t="shared" si="10"/>
         <v>4.429492711370262</v>
       </c>
-      <c r="T42" s="4">
+      <c r="T42" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U42" s="4">
+      <c r="U42" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V42" s="4">
+      <c r="V42" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W42" s="4">
+      <c r="W42" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5944,35 +5959,35 @@
       <c r="O43" t="s">
         <v>32</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="3">
         <f t="shared" si="12"/>
         <v>9.24600382024731</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="3">
         <f t="shared" si="10"/>
         <v>10.789782723434202</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="3">
         <f t="shared" si="10"/>
         <v>10.535632791295367</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S43" s="3">
         <f t="shared" si="10"/>
         <v>10.313459275094276</v>
       </c>
-      <c r="T43" s="4">
+      <c r="T43" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U43" s="4">
+      <c r="U43" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V43" s="4">
+      <c r="V43" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W43" s="4">
+      <c r="W43" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6023,35 +6038,35 @@
       <c r="O44" t="s">
         <v>32</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="3">
         <f t="shared" si="12"/>
         <v>11.359398496240601</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="3">
         <f t="shared" si="10"/>
         <v>9.147413793103448</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R44" s="3">
         <f t="shared" si="10"/>
         <v>9.6827586206896559</v>
       </c>
-      <c r="S44" s="4">
+      <c r="S44" s="3">
         <f t="shared" si="10"/>
         <v>9.7631661442006266</v>
       </c>
-      <c r="T44" s="4">
+      <c r="T44" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U44" s="4">
+      <c r="U44" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V44" s="4">
+      <c r="V44" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W44" s="4">
+      <c r="W44" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6102,35 +6117,35 @@
       <c r="O45" t="s">
         <v>32</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="3">
         <f t="shared" si="12"/>
         <v>54.441873435768734</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="3">
         <f t="shared" si="10"/>
         <v>35.230245164173255</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="3">
         <f t="shared" si="10"/>
         <v>27.831407849293562</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S45" s="3">
         <f t="shared" si="10"/>
         <v>21.380084144427002</v>
       </c>
-      <c r="T45" s="4">
+      <c r="T45" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U45" s="4">
+      <c r="U45" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V45" s="4">
+      <c r="V45" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W45" s="4">
+      <c r="W45" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6181,35 +6196,35 @@
       <c r="O46" t="s">
         <v>32</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="3">
         <f t="shared" si="12"/>
         <v>37.246454810495628</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="3">
         <f t="shared" si="10"/>
         <v>25.228915451895045</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R46" s="3">
         <f t="shared" si="10"/>
         <v>18.89391253644315</v>
       </c>
-      <c r="S46" s="4">
+      <c r="S46" s="3">
         <f t="shared" si="10"/>
         <v>12.33552380952381</v>
       </c>
-      <c r="T46" s="4">
+      <c r="T46" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U46" s="4">
+      <c r="U46" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V46" s="4">
+      <c r="V46" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W46" s="4">
+      <c r="W46" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6260,35 +6275,35 @@
       <c r="O47" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="3">
         <f t="shared" si="12"/>
         <v>20.372605357142856</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="3">
         <f t="shared" si="10"/>
         <v>13.232730952380953</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="3">
         <f t="shared" si="10"/>
         <v>9.6004071428571436</v>
       </c>
-      <c r="S47" s="4">
+      <c r="S47" s="3">
         <f t="shared" si="10"/>
         <v>8.8243714285714283</v>
       </c>
-      <c r="T47" s="4">
+      <c r="T47" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U47" s="4">
+      <c r="U47" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V47" s="4">
+      <c r="V47" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W47" s="4">
+      <c r="W47" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6339,35 +6354,35 @@
       <c r="O48" t="s">
         <v>32</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="3">
         <f t="shared" si="12"/>
         <v>22.586353568072262</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="3">
         <f t="shared" si="10"/>
         <v>14.846024630541871</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="3">
         <f t="shared" si="10"/>
         <v>11.570586206896552</v>
       </c>
-      <c r="S48" s="4">
+      <c r="S48" s="3">
         <f t="shared" si="10"/>
         <v>9.8518105263157896</v>
       </c>
-      <c r="T48" s="4">
+      <c r="T48" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U48" s="4">
+      <c r="U48" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V48" s="4">
+      <c r="V48" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W48" s="4">
+      <c r="W48" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6418,35 +6433,35 @@
       <c r="O49" t="s">
         <v>32</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="3">
         <f t="shared" si="12"/>
         <v>25.28416770180727</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="3">
         <f t="shared" si="10"/>
         <v>15.805057142857143</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R49" s="3">
         <f t="shared" si="10"/>
         <v>11.815164179104478</v>
       </c>
-      <c r="S49" s="4">
+      <c r="S49" s="3">
         <f t="shared" si="10"/>
         <v>10.304146320346319</v>
       </c>
-      <c r="T49" s="4">
+      <c r="T49" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U49" s="4">
+      <c r="U49" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V49" s="4">
+      <c r="V49" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W49" s="4">
+      <c r="W49" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6497,35 +6512,35 @@
       <c r="O50" t="s">
         <v>32</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="3">
         <f t="shared" si="12"/>
         <v>36.877244444444443</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="3">
         <f t="shared" si="10"/>
         <v>23.023778306878306</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="3">
         <f t="shared" si="10"/>
         <v>17.515777777777778</v>
       </c>
-      <c r="S50" s="4">
+      <c r="S50" s="3">
         <f t="shared" si="10"/>
         <v>14.284313227513227</v>
       </c>
-      <c r="T50" s="4">
+      <c r="T50" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U50" s="4">
+      <c r="U50" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V50" s="4">
+      <c r="V50" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W50" s="4">
+      <c r="W50" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6576,35 +6591,35 @@
       <c r="O51" t="s">
         <v>32</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="3">
         <f t="shared" si="12"/>
         <v>38.425642033542978</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="3">
         <f t="shared" si="10"/>
         <v>27.596808163265305</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R51" s="3">
         <f t="shared" si="10"/>
         <v>20.197665995975854</v>
       </c>
-      <c r="S51" s="4">
+      <c r="S51" s="3">
         <f t="shared" si="10"/>
         <v>16.307683702213279</v>
       </c>
-      <c r="T51" s="4">
+      <c r="T51" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U51" s="4">
+      <c r="U51" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V51" s="4">
+      <c r="V51" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W51" s="4">
+      <c r="W51" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6655,35 +6670,35 @@
       <c r="O52" t="s">
         <v>32</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="3">
         <f t="shared" si="12"/>
         <v>37.546845481049566</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="3">
         <f t="shared" si="10"/>
         <v>23.540767346938775</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="3">
         <f t="shared" si="10"/>
         <v>17.75411078717201</v>
       </c>
-      <c r="S52" s="4">
+      <c r="S52" s="3">
         <f t="shared" si="10"/>
         <v>14.455771428571429</v>
       </c>
-      <c r="T52" s="4">
+      <c r="T52" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U52" s="4">
+      <c r="U52" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V52" s="4">
+      <c r="V52" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W52" s="4">
+      <c r="W52" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6692,36 +6707,36 @@
       <c r="A54" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2" t="s">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2" t="s">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2" t="s">
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -6840,35 +6855,35 @@
       <c r="O56" t="s">
         <v>32</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="3">
         <f>H56/D56</f>
         <v>1.3</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="3">
         <f t="shared" ref="Q56:S69" si="14">I56/E56</f>
         <v>1.3666666666666667</v>
       </c>
-      <c r="R56" s="4">
+      <c r="R56" s="3">
         <f t="shared" si="14"/>
         <v>1.1388888888888888</v>
       </c>
-      <c r="S56" s="4">
+      <c r="S56" s="3">
         <f t="shared" si="14"/>
         <v>1.2352941176470589</v>
       </c>
-      <c r="T56" s="4">
+      <c r="T56" s="3">
         <f>L56/D56</f>
         <v>0</v>
       </c>
-      <c r="U56" s="4">
+      <c r="U56" s="3">
         <f t="shared" ref="U56:W69" si="15">M56/E56</f>
         <v>0</v>
       </c>
-      <c r="V56" s="4">
+      <c r="V56" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W56" s="4">
+      <c r="W56" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -6919,35 +6934,35 @@
       <c r="O57" t="s">
         <v>32</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="3">
         <f t="shared" ref="P57:P69" si="16">H57/D57</f>
         <v>1.3902439024390243</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="3">
         <f t="shared" si="14"/>
         <v>1.4878048780487805</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="3">
         <f t="shared" si="14"/>
         <v>1.4772727272727273</v>
       </c>
-      <c r="S57" s="4">
+      <c r="S57" s="3">
         <f t="shared" si="14"/>
         <v>1.5555555555555556</v>
       </c>
-      <c r="T57" s="4">
+      <c r="T57" s="3">
         <f t="shared" ref="T57:T69" si="17">L57/D57</f>
         <v>0</v>
       </c>
-      <c r="U57" s="4">
+      <c r="U57" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V57" s="4">
+      <c r="V57" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W57" s="4">
+      <c r="W57" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -6998,35 +7013,35 @@
       <c r="O58" t="s">
         <v>32</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="3">
         <f t="shared" si="16"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="3">
         <f t="shared" si="14"/>
         <v>1.3658536585365855</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="3">
         <f t="shared" si="14"/>
         <v>1.4047619047619047</v>
       </c>
-      <c r="S58" s="4">
+      <c r="S58" s="3">
         <f t="shared" si="14"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="T58" s="4">
+      <c r="T58" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U58" s="4">
+      <c r="U58" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V58" s="4">
+      <c r="V58" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W58" s="4">
+      <c r="W58" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7077,35 +7092,35 @@
       <c r="O59" t="s">
         <v>32</v>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="3">
         <f t="shared" si="16"/>
         <v>0.82608695652173914</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="Q59" s="3">
         <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
-      <c r="R59" s="4">
+      <c r="R59" s="3">
         <f t="shared" si="14"/>
         <v>0.76</v>
       </c>
-      <c r="S59" s="4">
+      <c r="S59" s="3">
         <f t="shared" si="14"/>
         <v>0.6785714285714286</v>
       </c>
-      <c r="T59" s="4">
+      <c r="T59" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U59" s="4">
+      <c r="U59" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V59" s="4">
+      <c r="V59" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W59" s="4">
+      <c r="W59" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7156,35 +7171,35 @@
       <c r="O60" t="s">
         <v>32</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="3">
         <f t="shared" si="16"/>
         <v>0.68965517241379315</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="Q60" s="3">
         <f t="shared" si="14"/>
         <v>0.81034482758620685</v>
       </c>
-      <c r="R60" s="4">
+      <c r="R60" s="3">
         <f t="shared" si="14"/>
         <v>0.77419354838709675</v>
       </c>
-      <c r="S60" s="4">
+      <c r="S60" s="3">
         <f t="shared" si="14"/>
         <v>0.75806451612903225</v>
       </c>
-      <c r="T60" s="4">
+      <c r="T60" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U60" s="4">
+      <c r="U60" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V60" s="4">
+      <c r="V60" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W60" s="4">
+      <c r="W60" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7235,35 +7250,35 @@
       <c r="O61" t="s">
         <v>32</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="3">
         <f t="shared" si="16"/>
         <v>1.4210526315789473</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="Q61" s="3">
         <f t="shared" si="14"/>
         <v>1.125</v>
       </c>
-      <c r="R61" s="4">
+      <c r="R61" s="3">
         <f t="shared" si="14"/>
         <v>1.125</v>
       </c>
-      <c r="S61" s="4">
+      <c r="S61" s="3">
         <f t="shared" si="14"/>
         <v>1.2272727272727273</v>
       </c>
-      <c r="T61" s="4">
+      <c r="T61" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U61" s="4">
+      <c r="U61" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V61" s="4">
+      <c r="V61" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W61" s="4">
+      <c r="W61" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7314,35 +7329,35 @@
       <c r="O62" t="s">
         <v>32</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="3">
         <f t="shared" si="16"/>
         <v>1.2891566265060241</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="Q62" s="3">
         <f t="shared" si="14"/>
         <v>1.5180722891566265</v>
       </c>
-      <c r="R62" s="4">
+      <c r="R62" s="3">
         <f t="shared" si="14"/>
         <v>1.5494505494505495</v>
       </c>
-      <c r="S62" s="4">
+      <c r="S62" s="3">
         <f t="shared" si="14"/>
         <v>1.6043956043956045</v>
       </c>
-      <c r="T62" s="4">
+      <c r="T62" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U62" s="4">
+      <c r="U62" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V62" s="4">
+      <c r="V62" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W62" s="4">
+      <c r="W62" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7393,35 +7408,35 @@
       <c r="O63" t="s">
         <v>32</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="3">
         <f t="shared" si="16"/>
         <v>1.7346938775510203</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="Q63" s="3">
         <f t="shared" si="14"/>
         <v>1.8367346938775511</v>
       </c>
-      <c r="R63" s="4">
+      <c r="R63" s="3">
         <f t="shared" si="14"/>
         <v>1.8979591836734695</v>
       </c>
-      <c r="S63" s="4">
+      <c r="S63" s="3">
         <f t="shared" si="14"/>
         <v>1.5833333333333333</v>
       </c>
-      <c r="T63" s="4">
+      <c r="T63" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U63" s="4">
+      <c r="U63" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V63" s="4">
+      <c r="V63" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W63" s="4">
+      <c r="W63" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7472,35 +7487,35 @@
       <c r="O64" t="s">
         <v>32</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="3">
         <f t="shared" si="16"/>
         <v>1.5208333333333333</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q64" s="3">
         <f t="shared" si="14"/>
         <v>1.5833333333333333</v>
       </c>
-      <c r="R64" s="4">
+      <c r="R64" s="3">
         <f t="shared" si="14"/>
         <v>1.625</v>
       </c>
-      <c r="S64" s="4">
+      <c r="S64" s="3">
         <f t="shared" si="14"/>
         <v>1.6875</v>
       </c>
-      <c r="T64" s="4">
+      <c r="T64" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U64" s="4">
+      <c r="U64" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V64" s="4">
+      <c r="V64" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W64" s="4">
+      <c r="W64" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7551,35 +7566,35 @@
       <c r="O65" t="s">
         <v>32</v>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="3">
         <f t="shared" si="16"/>
         <v>1.5283018867924529</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="Q65" s="3">
         <f t="shared" si="14"/>
         <v>1.4655172413793103</v>
       </c>
-      <c r="R65" s="4">
+      <c r="R65" s="3">
         <f t="shared" si="14"/>
         <v>1.5517241379310345</v>
       </c>
-      <c r="S65" s="4">
+      <c r="S65" s="3">
         <f t="shared" si="14"/>
         <v>1.5964912280701755</v>
       </c>
-      <c r="T65" s="4">
+      <c r="T65" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U65" s="4">
+      <c r="U65" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V65" s="4">
+      <c r="V65" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W65" s="4">
+      <c r="W65" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7630,35 +7645,35 @@
       <c r="O66" t="s">
         <v>32</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="3">
         <f t="shared" si="16"/>
         <v>1.6842105263157894</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="3">
         <f t="shared" si="14"/>
         <v>1.5074626865671641</v>
       </c>
-      <c r="R66" s="4">
+      <c r="R66" s="3">
         <f t="shared" si="14"/>
         <v>1.5671641791044777</v>
       </c>
-      <c r="S66" s="4">
+      <c r="S66" s="3">
         <f t="shared" si="14"/>
         <v>1.6212121212121211</v>
       </c>
-      <c r="T66" s="4">
+      <c r="T66" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U66" s="4">
+      <c r="U66" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V66" s="4">
+      <c r="V66" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W66" s="4">
+      <c r="W66" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7709,35 +7724,35 @@
       <c r="O67" t="s">
         <v>32</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="3">
         <f t="shared" si="16"/>
         <v>1.8148148148148149</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="3">
         <f t="shared" si="14"/>
         <v>1.8703703703703705</v>
       </c>
-      <c r="R67" s="4">
+      <c r="R67" s="3">
         <f t="shared" si="14"/>
         <v>1.9444444444444444</v>
       </c>
-      <c r="S67" s="4">
+      <c r="S67" s="3">
         <f t="shared" si="14"/>
         <v>1.962962962962963</v>
       </c>
-      <c r="T67" s="4">
+      <c r="T67" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U67" s="4">
+      <c r="U67" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V67" s="4">
+      <c r="V67" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W67" s="4">
+      <c r="W67" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7788,35 +7803,35 @@
       <c r="O68" t="s">
         <v>32</v>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="3">
         <f t="shared" si="16"/>
         <v>1.7301587301587302</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="Q68" s="3">
         <f t="shared" si="14"/>
         <v>1.6428571428571428</v>
       </c>
-      <c r="R68" s="4">
+      <c r="R68" s="3">
         <f t="shared" si="14"/>
         <v>1.6901408450704225</v>
       </c>
-      <c r="S68" s="4">
+      <c r="S68" s="3">
         <f t="shared" si="14"/>
         <v>1.704225352112676</v>
       </c>
-      <c r="T68" s="4">
+      <c r="T68" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U68" s="4">
+      <c r="U68" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V68" s="4">
+      <c r="V68" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W68" s="4">
+      <c r="W68" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7867,35 +7882,35 @@
       <c r="O69" t="s">
         <v>32</v>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="3">
         <f t="shared" si="16"/>
         <v>1.8367346938775511</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="Q69" s="3">
         <f t="shared" si="14"/>
         <v>1.8979591836734695</v>
       </c>
-      <c r="R69" s="4">
+      <c r="R69" s="3">
         <f t="shared" si="14"/>
         <v>1.9795918367346939</v>
       </c>
-      <c r="S69" s="4">
+      <c r="S69" s="3">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="T69" s="4">
+      <c r="T69" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U69" s="4">
+      <c r="U69" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V69" s="4">
+      <c r="V69" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W69" s="4">
+      <c r="W69" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7904,36 +7919,36 @@
       <c r="A71" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2" t="s">
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2" t="s">
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2" t="s">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2" t="s">
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -8052,35 +8067,35 @@
       <c r="O73" t="s">
         <v>472</v>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="3">
         <f>H73/D73</f>
         <v>1.0010905125408942</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="Q73" s="3">
         <f t="shared" ref="Q73:S86" si="18">I73/E73</f>
         <v>1.0010905125408942</v>
       </c>
-      <c r="R73" s="4">
+      <c r="R73" s="3">
         <f t="shared" si="18"/>
         <v>1.0039721425071744</v>
       </c>
-      <c r="S73" s="4">
+      <c r="S73" s="3">
         <f t="shared" si="18"/>
         <v>1.002990242367013</v>
       </c>
-      <c r="T73" s="4">
+      <c r="T73" s="3">
         <f>L73/D73</f>
         <v>0.99127753544165753</v>
       </c>
-      <c r="U73" s="4">
+      <c r="U73" s="3">
         <f t="shared" ref="U73:W86" si="19">M73/E73</f>
         <v>0.99128353326063245</v>
       </c>
-      <c r="V73" s="4">
+      <c r="V73" s="3">
         <f t="shared" si="19"/>
         <v>0.99413748075173236</v>
       </c>
-      <c r="W73" s="4">
+      <c r="W73" s="3">
         <f t="shared" si="19"/>
         <v>1.0016453983492464</v>
       </c>
@@ -8131,35 +8146,35 @@
       <c r="O74" t="s">
         <v>482</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="3">
         <f t="shared" ref="P74:P86" si="20">H74/D74</f>
         <v>0.99377123442808613</v>
       </c>
-      <c r="Q74" s="4">
+      <c r="Q74" s="3">
         <f t="shared" si="18"/>
         <v>0.99320882852292025</v>
       </c>
-      <c r="R74" s="4">
+      <c r="R74" s="3">
         <f t="shared" si="18"/>
         <v>1.0048036168409156</v>
       </c>
-      <c r="S74" s="4">
+      <c r="S74" s="3">
         <f t="shared" si="18"/>
         <v>0.99934630070728581</v>
       </c>
-      <c r="T74" s="4">
+      <c r="T74" s="3">
         <f t="shared" ref="T74:T86" si="21">L74/D74</f>
         <v>1.0021409022272556</v>
       </c>
-      <c r="U74" s="4">
+      <c r="U74" s="3">
         <f t="shared" si="19"/>
         <v>1.0002758913412564</v>
       </c>
-      <c r="V74" s="4">
+      <c r="V74" s="3">
         <f t="shared" si="19"/>
         <v>1.0002806819252144</v>
       </c>
-      <c r="W74" s="4">
+      <c r="W74" s="3">
         <f t="shared" si="19"/>
         <v>0.99782801629852824</v>
       </c>
@@ -8210,35 +8225,35 @@
       <c r="O75" t="s">
         <v>494</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="3">
         <f t="shared" si="20"/>
         <v>0.99622641509433962</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="3">
         <f t="shared" si="18"/>
         <v>0.99404761904761907</v>
       </c>
-      <c r="R75" s="4">
+      <c r="R75" s="3">
         <f t="shared" si="18"/>
         <v>0.9967001356001286</v>
       </c>
-      <c r="S75" s="4">
+      <c r="S75" s="3">
         <f t="shared" si="18"/>
         <v>0.99243197416524365</v>
       </c>
-      <c r="T75" s="4">
+      <c r="T75" s="3">
         <f t="shared" si="21"/>
         <v>0.9874292452830189</v>
       </c>
-      <c r="U75" s="4">
+      <c r="U75" s="3">
         <f t="shared" si="19"/>
         <v>1.0024968671679197</v>
       </c>
-      <c r="V75" s="4">
+      <c r="V75" s="3">
         <f t="shared" si="19"/>
         <v>0.99387317338266146</v>
       </c>
-      <c r="W75" s="4">
+      <c r="W75" s="3">
         <f t="shared" si="19"/>
         <v>0.99606485626388952</v>
       </c>
@@ -8289,35 +8304,35 @@
       <c r="O76" t="s">
         <v>505</v>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="3">
         <f t="shared" si="20"/>
         <v>0.99185624999999999</v>
       </c>
-      <c r="Q76" s="4">
+      <c r="Q76" s="3">
         <f t="shared" si="18"/>
         <v>0.99878731086183614</v>
       </c>
-      <c r="R76" s="4">
+      <c r="R76" s="3">
         <f t="shared" si="18"/>
         <v>0.99750623441396513</v>
       </c>
-      <c r="S76" s="4">
+      <c r="S76" s="3">
         <f t="shared" si="18"/>
         <v>0.99930118798043321</v>
       </c>
-      <c r="T76" s="4">
+      <c r="T76" s="3">
         <f t="shared" si="21"/>
         <v>0.99999916666666666</v>
       </c>
-      <c r="U76" s="4">
+      <c r="U76" s="3">
         <f t="shared" si="19"/>
         <v>1.0009805076089562</v>
       </c>
-      <c r="V76" s="4">
+      <c r="V76" s="3">
         <f t="shared" si="19"/>
         <v>1.001476080029696</v>
       </c>
-      <c r="W76" s="4">
+      <c r="W76" s="3">
         <f t="shared" si="19"/>
         <v>1.0016355528934144</v>
       </c>
@@ -8368,35 +8383,35 @@
       <c r="O77" t="s">
         <v>516</v>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="3">
         <f t="shared" si="20"/>
         <v>0.99709379128137388</v>
       </c>
-      <c r="Q77" s="4">
+      <c r="Q77" s="3">
         <f t="shared" si="18"/>
         <v>0.9997353797300873</v>
       </c>
-      <c r="R77" s="4">
+      <c r="R77" s="3">
         <f t="shared" si="18"/>
         <v>0.99990314554683868</v>
       </c>
-      <c r="S77" s="4">
+      <c r="S77" s="3">
         <f t="shared" si="18"/>
         <v>0.99969860859841353</v>
       </c>
-      <c r="T77" s="4">
+      <c r="T77" s="3">
         <f t="shared" si="21"/>
         <v>0.99947133421400269</v>
       </c>
-      <c r="U77" s="4">
+      <c r="U77" s="3">
         <f t="shared" si="19"/>
         <v>1.0026460703889919</v>
       </c>
-      <c r="V77" s="4">
+      <c r="V77" s="3">
         <f t="shared" si="19"/>
         <v>1.0026817569080249</v>
       </c>
-      <c r="W77" s="4">
+      <c r="W77" s="3">
         <f t="shared" si="19"/>
         <v>1.0002266389248979</v>
       </c>
@@ -8447,35 +8462,35 @@
       <c r="O78" t="s">
         <v>524</v>
       </c>
-      <c r="P78" s="4">
+      <c r="P78" s="3">
         <f t="shared" si="20"/>
         <v>1.019672131147541</v>
       </c>
-      <c r="Q78" s="4">
+      <c r="Q78" s="3">
         <f t="shared" si="18"/>
         <v>0.9985423208563704</v>
       </c>
-      <c r="R78" s="4">
+      <c r="R78" s="3">
         <f t="shared" si="18"/>
         <v>0.9985423208563704</v>
       </c>
-      <c r="S78" s="4">
+      <c r="S78" s="3">
         <f t="shared" si="18"/>
         <v>0.99590111438452666</v>
       </c>
-      <c r="T78" s="4">
+      <c r="T78" s="3">
         <f t="shared" si="21"/>
         <v>1.0131163934426231</v>
       </c>
-      <c r="U78" s="4">
+      <c r="U78" s="3">
         <f t="shared" si="19"/>
         <v>1.0049638148811701</v>
       </c>
-      <c r="V78" s="4">
+      <c r="V78" s="3">
         <f t="shared" si="19"/>
         <v>1.0113826332834597</v>
       </c>
-      <c r="W78" s="4">
+      <c r="W78" s="3">
         <f t="shared" si="19"/>
         <v>1.0087047948422356</v>
       </c>
@@ -8526,35 +8541,35 @@
       <c r="O79" t="s">
         <v>534</v>
       </c>
-      <c r="P79" s="4">
+      <c r="P79" s="3">
         <f t="shared" si="20"/>
         <v>0.99035493827160492</v>
       </c>
-      <c r="Q79" s="4">
+      <c r="Q79" s="3">
         <f t="shared" si="18"/>
         <v>0.99305555555555558</v>
       </c>
-      <c r="R79" s="4">
+      <c r="R79" s="3">
         <f t="shared" si="18"/>
         <v>0.994054054054054</v>
       </c>
-      <c r="S79" s="4">
+      <c r="S79" s="3">
         <f t="shared" si="18"/>
         <v>0.99644787644787647</v>
       </c>
-      <c r="T79" s="4">
+      <c r="T79" s="3">
         <f t="shared" si="21"/>
         <v>0.99228240740740736</v>
       </c>
-      <c r="U79" s="4">
+      <c r="U79" s="3">
         <f t="shared" si="19"/>
         <v>1.0007656893004115</v>
       </c>
-      <c r="V79" s="4">
+      <c r="V79" s="3">
         <f t="shared" si="19"/>
         <v>0.99921621621621626</v>
       </c>
-      <c r="W79" s="4">
+      <c r="W79" s="3">
         <f t="shared" si="19"/>
         <v>0.97836512226512229</v>
       </c>
@@ -8605,35 +8620,35 @@
       <c r="O80" t="s">
         <v>543</v>
       </c>
-      <c r="P80" s="4">
+      <c r="P80" s="3">
         <f t="shared" si="20"/>
         <v>1.0323974082073435</v>
       </c>
-      <c r="Q80" s="4">
+      <c r="Q80" s="3">
         <f t="shared" si="18"/>
         <v>1.0306695464362852</v>
       </c>
-      <c r="R80" s="4">
+      <c r="R80" s="3">
         <f t="shared" si="18"/>
         <v>1.0289416846652268</v>
       </c>
-      <c r="S80" s="4">
+      <c r="S80" s="3">
         <f t="shared" si="18"/>
         <v>1.0142877351817796</v>
       </c>
-      <c r="T80" s="4">
+      <c r="T80" s="3">
         <f t="shared" si="21"/>
         <v>1.0388668106551475</v>
       </c>
-      <c r="U80" s="4">
+      <c r="U80" s="3">
         <f t="shared" si="19"/>
         <v>1.0367008639308855</v>
       </c>
-      <c r="V80" s="4">
+      <c r="V80" s="3">
         <f t="shared" si="19"/>
         <v>1.0367113030957524</v>
       </c>
-      <c r="W80" s="4">
+      <c r="W80" s="3">
         <f t="shared" si="19"/>
         <v>1.0072050502192673</v>
       </c>
@@ -8684,35 +8699,35 @@
       <c r="O81" t="s">
         <v>552</v>
       </c>
-      <c r="P81" s="4">
+      <c r="P81" s="3">
         <f t="shared" si="20"/>
         <v>1.0111987381703471</v>
       </c>
-      <c r="Q81" s="4">
+      <c r="Q81" s="3">
         <f t="shared" si="18"/>
         <v>1.0116719242902208</v>
       </c>
-      <c r="R81" s="4">
+      <c r="R81" s="3">
         <f t="shared" si="18"/>
         <v>1.0059936908517351</v>
       </c>
-      <c r="S81" s="4">
+      <c r="S81" s="3">
         <f t="shared" si="18"/>
         <v>1.0184983677910773</v>
       </c>
-      <c r="T81" s="4">
+      <c r="T81" s="3">
         <f t="shared" si="21"/>
         <v>1.0126163249211357</v>
       </c>
-      <c r="U81" s="4">
+      <c r="U81" s="3">
         <f t="shared" si="19"/>
         <v>1.0220670347003153</v>
       </c>
-      <c r="V81" s="4">
+      <c r="V81" s="3">
         <f t="shared" si="19"/>
         <v>1.0149810725552051</v>
       </c>
-      <c r="W81" s="4">
+      <c r="W81" s="3">
         <f t="shared" si="19"/>
         <v>1.011383519635968</v>
       </c>
@@ -8763,35 +8778,35 @@
       <c r="O82" t="s">
         <v>562</v>
       </c>
-      <c r="P82" s="4">
+      <c r="P82" s="3">
         <f t="shared" si="20"/>
         <v>1.0020640569395018</v>
       </c>
-      <c r="Q82" s="4">
+      <c r="Q82" s="3">
         <f t="shared" si="18"/>
         <v>1.0038461538461538</v>
       </c>
-      <c r="R82" s="4">
+      <c r="R82" s="3">
         <f t="shared" si="18"/>
         <v>1.0038461538461538</v>
       </c>
-      <c r="S82" s="4">
+      <c r="S82" s="3">
         <f t="shared" si="18"/>
         <v>1.0216076058772687</v>
       </c>
-      <c r="T82" s="4">
+      <c r="T82" s="3">
         <f t="shared" si="21"/>
         <v>1.0035519572953737</v>
       </c>
-      <c r="U82" s="4">
+      <c r="U82" s="3">
         <f t="shared" si="19"/>
         <v>1.0105747863247863</v>
       </c>
-      <c r="V82" s="4">
+      <c r="V82" s="3">
         <f t="shared" si="19"/>
         <v>1.008539886039886</v>
       </c>
-      <c r="W82" s="4">
+      <c r="W82" s="3">
         <f t="shared" si="19"/>
         <v>1.0090377412849323</v>
       </c>
@@ -8842,35 +8857,35 @@
       <c r="O83" t="s">
         <v>572</v>
       </c>
-      <c r="P83" s="4">
+      <c r="P83" s="3">
         <f t="shared" si="20"/>
         <v>0.99226450405489708</v>
       </c>
-      <c r="Q83" s="4">
+      <c r="Q83" s="3">
         <f t="shared" si="18"/>
         <v>1.0137667304015296</v>
       </c>
-      <c r="R83" s="4">
+      <c r="R83" s="3">
         <f t="shared" si="18"/>
         <v>1.0149139579349904</v>
       </c>
-      <c r="S83" s="4">
+      <c r="S83" s="3">
         <f t="shared" si="18"/>
         <v>1.0043359050400338</v>
       </c>
-      <c r="T83" s="4">
+      <c r="T83" s="3">
         <f t="shared" si="21"/>
         <v>1.0012426699937618</v>
       </c>
-      <c r="U83" s="4">
+      <c r="U83" s="3">
         <f t="shared" si="19"/>
         <v>1.0229311663479923</v>
       </c>
-      <c r="V83" s="4">
+      <c r="V83" s="3">
         <f t="shared" si="19"/>
         <v>1.019112810707457</v>
       </c>
-      <c r="W83" s="4">
+      <c r="W83" s="3">
         <f t="shared" si="19"/>
         <v>0.98434661594491679</v>
       </c>
@@ -8921,35 +8936,35 @@
       <c r="O84" t="s">
         <v>580</v>
       </c>
-      <c r="P84" s="4">
+      <c r="P84" s="3">
         <f t="shared" si="20"/>
         <v>1.003415559772296</v>
       </c>
-      <c r="Q84" s="4">
+      <c r="Q84" s="3">
         <f t="shared" si="18"/>
         <v>1.0037950664136623</v>
       </c>
-      <c r="R84" s="4">
+      <c r="R84" s="3">
         <f t="shared" si="18"/>
         <v>1.0030360531309297</v>
       </c>
-      <c r="S84" s="4">
+      <c r="S84" s="3">
         <f t="shared" si="18"/>
         <v>1.0060721062618596</v>
       </c>
-      <c r="T84" s="4">
+      <c r="T84" s="3">
         <f t="shared" si="21"/>
         <v>1.0113801391524351</v>
       </c>
-      <c r="U84" s="4">
+      <c r="U84" s="3">
         <f t="shared" si="19"/>
         <v>1.0151676154332701</v>
       </c>
-      <c r="V84" s="4">
+      <c r="V84" s="3">
         <f t="shared" si="19"/>
         <v>1.0132700822264389</v>
       </c>
-      <c r="W84" s="4">
+      <c r="W84" s="3">
         <f t="shared" si="19"/>
         <v>0.99240069576217582</v>
       </c>
@@ -9000,35 +9015,35 @@
       <c r="O85" t="s">
         <v>592</v>
       </c>
-      <c r="P85" s="4">
+      <c r="P85" s="3">
         <f t="shared" si="20"/>
         <v>1.0092307692307692</v>
       </c>
-      <c r="Q85" s="4">
+      <c r="Q85" s="3">
         <f t="shared" si="18"/>
         <v>1.0107244723331432</v>
       </c>
-      <c r="R85" s="4">
+      <c r="R85" s="3">
         <f t="shared" si="18"/>
         <v>1.0077141236528644</v>
       </c>
-      <c r="S85" s="4">
+      <c r="S85" s="3">
         <f t="shared" si="18"/>
         <v>1.0115165336374001</v>
       </c>
-      <c r="T85" s="4">
+      <c r="T85" s="3">
         <f t="shared" si="21"/>
         <v>0.99828490028490025</v>
       </c>
-      <c r="U85" s="4">
+      <c r="U85" s="3">
         <f t="shared" si="19"/>
         <v>1.0148160296634341</v>
       </c>
-      <c r="V85" s="4">
+      <c r="V85" s="3">
         <f t="shared" si="19"/>
         <v>1.007362733976177</v>
       </c>
-      <c r="W85" s="4">
+      <c r="W85" s="3">
         <f t="shared" si="19"/>
         <v>0.97662770809578103</v>
       </c>
@@ -9079,35 +9094,35 @@
       <c r="O86" t="s">
         <v>600</v>
       </c>
-      <c r="P86" s="4">
+      <c r="P86" s="3">
         <f t="shared" si="20"/>
         <v>1.0040404040404041</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="Q86" s="3">
         <f t="shared" si="18"/>
         <v>1.0072727272727273</v>
       </c>
-      <c r="R86" s="4">
+      <c r="R86" s="3">
         <f t="shared" si="18"/>
         <v>1.0040404040404041</v>
       </c>
-      <c r="S86" s="4">
+      <c r="S86" s="3">
         <f t="shared" si="18"/>
         <v>1.0096969696969698</v>
       </c>
-      <c r="T86" s="4">
+      <c r="T86" s="3">
         <f t="shared" si="21"/>
         <v>1.0121181818181819</v>
       </c>
-      <c r="U86" s="4">
+      <c r="U86" s="3">
         <f t="shared" si="19"/>
         <v>1.012106734006734</v>
       </c>
-      <c r="V86" s="4">
+      <c r="V86" s="3">
         <f t="shared" si="19"/>
         <v>1.0090797979797981</v>
       </c>
-      <c r="W86" s="4">
+      <c r="W86" s="3">
         <f t="shared" si="19"/>
         <v>0.99593905723905729</v>
       </c>
@@ -9116,36 +9131,36 @@
       <c r="A88" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2" t="s">
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2" t="s">
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2" t="s">
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2" t="s">
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -9228,7 +9243,7 @@
       <c r="C90">
         <v>418</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>601</v>
       </c>
       <c r="E90" t="s">
@@ -9264,35 +9279,35 @@
       <c r="O90" t="s">
         <v>611</v>
       </c>
-      <c r="P90" s="4">
+      <c r="P90" s="3">
         <f>H90/D90</f>
         <v>0.71601856492368854</v>
       </c>
-      <c r="Q90" s="4">
+      <c r="Q90" s="3">
         <f t="shared" ref="Q90:S103" si="22">I90/E90</f>
         <v>0.38073621445185502</v>
       </c>
-      <c r="R90" s="4">
+      <c r="R90" s="3">
         <f t="shared" si="22"/>
         <v>0.19745523864520004</v>
       </c>
-      <c r="S90" s="4">
+      <c r="S90" s="3">
         <f t="shared" si="22"/>
         <v>0.37419715766543654</v>
       </c>
-      <c r="T90" s="4">
+      <c r="T90" s="3">
         <f>L90/D90</f>
         <v>0.28349096812607355</v>
       </c>
-      <c r="U90" s="4">
+      <c r="U90" s="3">
         <f t="shared" ref="U90:W103" si="23">M90/E90</f>
         <v>0.24857893091055511</v>
       </c>
-      <c r="V90" s="4">
+      <c r="V90" s="3">
         <f t="shared" si="23"/>
         <v>0.18808354359221696</v>
       </c>
-      <c r="W90" s="4">
+      <c r="W90" s="3">
         <f t="shared" si="23"/>
         <v>0.13311819804758249</v>
       </c>
@@ -9343,35 +9358,35 @@
       <c r="O91" t="s">
         <v>621</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="3">
         <f t="shared" ref="P91:P103" si="24">H91/D91</f>
         <v>0.76988661476401254</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="3">
         <f t="shared" si="22"/>
         <v>0.53734123587535609</v>
       </c>
-      <c r="R91" s="4">
+      <c r="R91" s="3">
         <f t="shared" si="22"/>
         <v>0.28729003033524003</v>
       </c>
-      <c r="S91" s="4">
+      <c r="S91" s="3">
         <f t="shared" si="22"/>
         <v>0.15202395286380679</v>
       </c>
-      <c r="T91" s="4">
+      <c r="T91" s="3">
         <f t="shared" ref="T91:T103" si="25">L91/D91</f>
         <v>0.30651636313459835</v>
       </c>
-      <c r="U91" s="4">
+      <c r="U91" s="3">
         <f t="shared" si="23"/>
         <v>0.21801486362078148</v>
       </c>
-      <c r="V91" s="4">
+      <c r="V91" s="3">
         <f t="shared" si="23"/>
         <v>0.15966103010454555</v>
       </c>
-      <c r="W91" s="4">
+      <c r="W91" s="3">
         <f t="shared" si="23"/>
         <v>0.1030125723788011</v>
       </c>
@@ -9422,35 +9437,35 @@
       <c r="O92" t="s">
         <v>633</v>
       </c>
-      <c r="P92" s="4">
+      <c r="P92" s="3">
         <f t="shared" si="24"/>
         <v>0.71195496736954322</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="Q92" s="3">
         <f t="shared" si="22"/>
         <v>0.47801443643838765</v>
       </c>
-      <c r="R92" s="4">
+      <c r="R92" s="3">
         <f t="shared" si="22"/>
         <v>0.26157822206763559</v>
       </c>
-      <c r="S92" s="4">
+      <c r="S92" s="3">
         <f t="shared" si="22"/>
         <v>0.58656031571199629</v>
       </c>
-      <c r="T92" s="4">
+      <c r="T92" s="3">
         <f t="shared" si="25"/>
         <v>0.15237713327986593</v>
       </c>
-      <c r="U92" s="4">
+      <c r="U92" s="3">
         <f t="shared" si="23"/>
         <v>0.11459029370831755</v>
       </c>
-      <c r="V92" s="4">
+      <c r="V92" s="3">
         <f t="shared" si="23"/>
         <v>7.0625063290024617E-2</v>
       </c>
-      <c r="W92" s="4">
+      <c r="W92" s="3">
         <f t="shared" si="23"/>
         <v>5.2534100340872907E-2</v>
       </c>
@@ -9501,35 +9516,35 @@
       <c r="O93" t="s">
         <v>645</v>
       </c>
-      <c r="P93" s="4">
+      <c r="P93" s="3">
         <f t="shared" si="24"/>
         <v>0.74802307800778667</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="Q93" s="3">
         <f t="shared" si="22"/>
         <v>0.48247862521289775</v>
       </c>
-      <c r="R93" s="4">
+      <c r="R93" s="3">
         <f t="shared" si="22"/>
         <v>0.30544473437913822</v>
       </c>
-      <c r="S93" s="4">
+      <c r="S93" s="3">
         <f t="shared" si="22"/>
         <v>0.15932125644154546</v>
       </c>
-      <c r="T93" s="4">
+      <c r="T93" s="3">
         <f t="shared" si="25"/>
         <v>0.15893082698194744</v>
       </c>
-      <c r="U93" s="4">
+      <c r="U93" s="3">
         <f t="shared" si="23"/>
         <v>0.121067954271107</v>
       </c>
-      <c r="V93" s="4">
+      <c r="V93" s="3">
         <f t="shared" si="23"/>
         <v>0.11648234769020062</v>
       </c>
-      <c r="W93" s="4">
+      <c r="W93" s="3">
         <f t="shared" si="23"/>
         <v>7.4737290293128728E-2</v>
       </c>
@@ -9580,35 +9595,35 @@
       <c r="O94" t="s">
         <v>655</v>
       </c>
-      <c r="P94" s="4">
+      <c r="P94" s="3">
         <f t="shared" si="24"/>
         <v>0.29835801281346069</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="Q94" s="3">
         <f t="shared" si="22"/>
         <v>0.15020612349807877</v>
       </c>
-      <c r="R94" s="4">
+      <c r="R94" s="3">
         <f t="shared" si="22"/>
         <v>8.0164125960907953E-2</v>
       </c>
-      <c r="S94" s="4">
+      <c r="S94" s="3">
         <f t="shared" si="22"/>
         <v>4.0092742702012268E-2</v>
       </c>
-      <c r="T94" s="4">
+      <c r="T94" s="3">
         <f t="shared" si="25"/>
         <v>0.14944103627813571</v>
       </c>
-      <c r="U94" s="4">
+      <c r="U94" s="3">
         <f t="shared" si="23"/>
         <v>8.9745230956329011E-2</v>
       </c>
-      <c r="V94" s="4">
+      <c r="V94" s="3">
         <f t="shared" si="23"/>
         <v>5.763845725014257E-2</v>
       </c>
-      <c r="W94" s="4">
+      <c r="W94" s="3">
         <f t="shared" si="23"/>
         <v>3.0316525587544881E-2</v>
       </c>
@@ -9659,35 +9674,35 @@
       <c r="O95" t="s">
         <v>666</v>
       </c>
-      <c r="P95" s="4">
+      <c r="P95" s="3">
         <f t="shared" si="24"/>
         <v>0.12509952648457415</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="Q95" s="3">
         <f t="shared" si="22"/>
         <v>7.0277096954919377E-2</v>
       </c>
-      <c r="R95" s="4">
+      <c r="R95" s="3">
         <f t="shared" si="22"/>
         <v>3.3196137123057717E-2</v>
       </c>
-      <c r="S95" s="4">
+      <c r="S95" s="3">
         <f t="shared" si="22"/>
         <v>4.2432492816726508E-2</v>
       </c>
-      <c r="T95" s="4">
+      <c r="T95" s="3">
         <f t="shared" si="25"/>
         <v>0.14111802587588318</v>
       </c>
-      <c r="U95" s="4">
+      <c r="U95" s="3">
         <f t="shared" si="23"/>
         <v>8.4884747797773968E-2</v>
       </c>
-      <c r="V95" s="4">
+      <c r="V95" s="3">
         <f t="shared" si="23"/>
         <v>6.5228515569360754E-2</v>
       </c>
-      <c r="W95" s="4">
+      <c r="W95" s="3">
         <f t="shared" si="23"/>
         <v>5.3247151370927101E-2</v>
       </c>
@@ -9738,35 +9753,35 @@
       <c r="O96" t="s">
         <v>676</v>
       </c>
-      <c r="P96" s="4">
+      <c r="P96" s="3">
         <f t="shared" si="24"/>
         <v>0.94718047180471798</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="Q96" s="3">
         <f t="shared" si="22"/>
         <v>0.86180061800618002</v>
       </c>
-      <c r="R96" s="4">
+      <c r="R96" s="3">
         <f t="shared" si="22"/>
         <v>0.74230309911048509</v>
       </c>
-      <c r="S96" s="4">
+      <c r="S96" s="3">
         <f t="shared" si="22"/>
         <v>0.50027686886483769</v>
       </c>
-      <c r="T96" s="4">
+      <c r="T96" s="3">
         <f t="shared" si="25"/>
         <v>0.15357953579535794</v>
       </c>
-      <c r="U96" s="4">
+      <c r="U96" s="3">
         <f t="shared" si="23"/>
         <v>8.0745807458074581E-2</v>
       </c>
-      <c r="V96" s="4">
+      <c r="V96" s="3">
         <f t="shared" si="23"/>
         <v>5.3020655381270383E-2</v>
       </c>
-      <c r="W96" s="4">
+      <c r="W96" s="3">
         <f t="shared" si="23"/>
         <v>3.1825460153911245E-2</v>
       </c>
@@ -9817,35 +9832,35 @@
       <c r="O97" t="s">
         <v>686</v>
       </c>
-      <c r="P97" s="4">
+      <c r="P97" s="3">
         <f t="shared" si="24"/>
         <v>0.93146731139331029</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="Q97" s="3">
         <f t="shared" si="22"/>
         <v>0.72802701111454748</v>
       </c>
-      <c r="R97" s="4">
+      <c r="R97" s="3">
         <f t="shared" si="22"/>
         <v>0.50226719507947259</v>
       </c>
-      <c r="S97" s="4">
+      <c r="S97" s="3">
         <f t="shared" si="22"/>
         <v>0.34228114361871192</v>
       </c>
-      <c r="T97" s="4">
+      <c r="T97" s="3">
         <f t="shared" si="25"/>
         <v>6.7252414385514603E-2</v>
       </c>
-      <c r="U97" s="4">
+      <c r="U97" s="3">
         <f t="shared" si="23"/>
         <v>4.6789604502126429E-2</v>
       </c>
-      <c r="V97" s="4">
+      <c r="V97" s="3">
         <f t="shared" si="23"/>
         <v>3.3169993906881114E-2</v>
       </c>
-      <c r="W97" s="4">
+      <c r="W97" s="3">
         <f t="shared" si="23"/>
         <v>1.9168085997181068E-2</v>
       </c>
@@ -9896,35 +9911,35 @@
       <c r="O98" t="s">
         <v>695</v>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="3">
         <f t="shared" si="24"/>
         <v>0.99534583664838272</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="Q98" s="3">
         <f t="shared" si="22"/>
         <v>0.79768553303227707</v>
       </c>
-      <c r="R98" s="4">
+      <c r="R98" s="3">
         <f t="shared" si="22"/>
         <v>0.56421273709288511</v>
       </c>
-      <c r="S98" s="4">
+      <c r="S98" s="3">
         <f t="shared" si="22"/>
         <v>0.31871945221183412</v>
       </c>
-      <c r="T98" s="4">
+      <c r="T98" s="3">
         <f t="shared" si="25"/>
         <v>7.5298741738196118E-2</v>
       </c>
-      <c r="U98" s="4">
+      <c r="U98" s="3">
         <f t="shared" si="23"/>
         <v>5.8121714228173513E-2</v>
       </c>
-      <c r="V98" s="4">
+      <c r="V98" s="3">
         <f t="shared" si="23"/>
         <v>3.696884056447499E-2</v>
       </c>
-      <c r="W98" s="4">
+      <c r="W98" s="3">
         <f t="shared" si="23"/>
         <v>2.1014554496092207E-2</v>
       </c>
@@ -9975,35 +9990,35 @@
       <c r="O99" t="s">
         <v>704</v>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="3">
         <f t="shared" si="24"/>
         <v>0.90219770659311971</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="Q99" s="3">
         <f t="shared" si="22"/>
         <v>0.78971549357900739</v>
       </c>
-      <c r="R99" s="4">
+      <c r="R99" s="3">
         <f t="shared" si="22"/>
         <v>0.53643730442776627</v>
       </c>
-      <c r="S99" s="4">
+      <c r="S99" s="3">
         <f t="shared" si="22"/>
         <v>0.32410126847632176</v>
       </c>
-      <c r="T99" s="4">
+      <c r="T99" s="3">
         <f t="shared" si="25"/>
         <v>6.3013189039567111E-2</v>
       </c>
-      <c r="U99" s="4">
+      <c r="U99" s="3">
         <f t="shared" si="23"/>
         <v>4.9807730521387657E-2</v>
       </c>
-      <c r="V99" s="4">
+      <c r="V99" s="3">
         <f t="shared" si="23"/>
         <v>3.2773156953473187E-2</v>
       </c>
-      <c r="W99" s="4">
+      <c r="W99" s="3">
         <f t="shared" si="23"/>
         <v>1.7197254728125937E-2</v>
       </c>
@@ -10054,35 +10069,35 @@
       <c r="O100" t="s">
         <v>715</v>
       </c>
-      <c r="P100" s="4">
+      <c r="P100" s="3">
         <f t="shared" si="24"/>
         <v>0.88814976964746617</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="Q100" s="3">
         <f t="shared" si="22"/>
         <v>0.76302768224858941</v>
       </c>
-      <c r="R100" s="4">
+      <c r="R100" s="3">
         <f t="shared" si="22"/>
         <v>0.53055979017775812</v>
       </c>
-      <c r="S100" s="4">
+      <c r="S100" s="3">
         <f t="shared" si="22"/>
         <v>0.33123346270616766</v>
       </c>
-      <c r="T100" s="4">
+      <c r="T100" s="3">
         <f t="shared" si="25"/>
         <v>6.1505676562442185E-2</v>
       </c>
-      <c r="U100" s="4">
+      <c r="U100" s="3">
         <f t="shared" si="23"/>
         <v>4.4414295993058073E-2</v>
       </c>
-      <c r="V100" s="4">
+      <c r="V100" s="3">
         <f t="shared" si="23"/>
         <v>2.9474342993075577E-2</v>
       </c>
-      <c r="W100" s="4">
+      <c r="W100" s="3">
         <f t="shared" si="23"/>
         <v>1.6303794286358208E-2</v>
       </c>
@@ -10133,35 +10148,35 @@
       <c r="O101" t="s">
         <v>724</v>
       </c>
-      <c r="P101" s="4">
+      <c r="P101" s="3">
         <f t="shared" si="24"/>
         <v>0.98424614991542159</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="Q101" s="3">
         <f t="shared" si="22"/>
         <v>0.81236454221877652</v>
       </c>
-      <c r="R101" s="4">
+      <c r="R101" s="3">
         <f t="shared" si="22"/>
         <v>0.55505532844657457</v>
       </c>
-      <c r="S101" s="4">
+      <c r="S101" s="3">
         <f t="shared" si="22"/>
         <v>0.34355176910064844</v>
       </c>
-      <c r="T101" s="4">
+      <c r="T101" s="3">
         <f t="shared" si="25"/>
         <v>6.6954688821539335E-2</v>
       </c>
-      <c r="U101" s="4">
+      <c r="U101" s="3">
         <f t="shared" si="23"/>
         <v>4.7209789963349319E-2</v>
       </c>
-      <c r="V101" s="4">
+      <c r="V101" s="3">
         <f t="shared" si="23"/>
         <v>3.2418461023400062E-2</v>
       </c>
-      <c r="W101" s="4">
+      <c r="W101" s="3">
         <f t="shared" si="23"/>
         <v>1.7475155060614606E-2</v>
       </c>
@@ -10212,35 +10227,35 @@
       <c r="O102" t="s">
         <v>734</v>
       </c>
-      <c r="P102" s="4">
+      <c r="P102" s="3">
         <f t="shared" si="24"/>
         <v>0.90052290052290063</v>
       </c>
-      <c r="Q102" s="4">
+      <c r="Q102" s="3">
         <f t="shared" si="22"/>
         <v>0.79374291601449021</v>
       </c>
-      <c r="R102" s="4">
+      <c r="R102" s="3">
         <f t="shared" si="22"/>
         <v>0.55786617392289028</v>
       </c>
-      <c r="S102" s="4">
+      <c r="S102" s="3">
         <f t="shared" si="22"/>
         <v>0.34834847229321642</v>
       </c>
-      <c r="T102" s="4">
+      <c r="T102" s="3">
         <f t="shared" si="25"/>
         <v>6.1392061392061395E-2</v>
       </c>
-      <c r="U102" s="4">
+      <c r="U102" s="3">
         <f t="shared" si="23"/>
         <v>4.26610703842576E-2</v>
       </c>
-      <c r="V102" s="4">
+      <c r="V102" s="3">
         <f t="shared" si="23"/>
         <v>3.1410299149233843E-2</v>
       </c>
-      <c r="W102" s="4">
+      <c r="W102" s="3">
         <f t="shared" si="23"/>
         <v>1.8364653677111015E-2</v>
       </c>
@@ -10291,35 +10306,35 @@
       <c r="O103" t="s">
         <v>743</v>
       </c>
-      <c r="P103" s="4">
+      <c r="P103" s="3">
         <f t="shared" si="24"/>
         <v>0.97836962223544321</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="Q103" s="3">
         <f t="shared" si="22"/>
         <v>0.80624376596654879</v>
       </c>
-      <c r="R103" s="4">
+      <c r="R103" s="3">
         <f t="shared" si="22"/>
         <v>0.55750266956845917</v>
       </c>
-      <c r="S103" s="4">
+      <c r="S103" s="3">
         <f t="shared" si="22"/>
         <v>0.345882596173197</v>
       </c>
-      <c r="T103" s="4">
+      <c r="T103" s="3">
         <f t="shared" si="25"/>
         <v>6.7233535278443404E-2</v>
       </c>
-      <c r="U103" s="4">
+      <c r="U103" s="3">
         <f t="shared" si="23"/>
         <v>4.735501026587912E-2</v>
       </c>
-      <c r="V103" s="4">
+      <c r="V103" s="3">
         <f t="shared" si="23"/>
         <v>3.2563786465315402E-2</v>
       </c>
-      <c r="W103" s="4">
+      <c r="W103" s="3">
         <f t="shared" si="23"/>
         <v>1.7855041607877511E-2</v>
       </c>
@@ -10328,36 +10343,36 @@
       <c r="A105" t="s">
         <v>220</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2" t="s">
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2" t="s">
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2" t="s">
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2" t="s">
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -10476,35 +10491,35 @@
       <c r="O107" t="s">
         <v>611</v>
       </c>
-      <c r="P107" s="4">
+      <c r="P107" s="3">
         <f>H107/D107</f>
         <v>0.60442640707354989</v>
       </c>
-      <c r="Q107" s="4">
+      <c r="Q107" s="3">
         <f t="shared" ref="Q107:S120" si="26">I107/E107</f>
         <v>0.33544868071639766</v>
       </c>
-      <c r="R107" s="4">
+      <c r="R107" s="3">
         <f t="shared" si="26"/>
         <v>0.19904008758467656</v>
       </c>
-      <c r="S107" s="4">
+      <c r="S107" s="3">
         <f t="shared" si="26"/>
         <v>0.19018145918581034</v>
       </c>
-      <c r="T107" s="4">
+      <c r="T107" s="3">
         <f>L107/D107</f>
         <v>0.29993360615989811</v>
       </c>
-      <c r="U107" s="4">
+      <c r="U107" s="3">
         <f t="shared" ref="U107:W120" si="27">M107/E107</f>
         <v>0.27741406550645242</v>
       </c>
-      <c r="V107" s="4">
+      <c r="V107" s="3">
         <f t="shared" si="27"/>
         <v>0.24015126231135847</v>
       </c>
-      <c r="W107" s="4">
+      <c r="W107" s="3">
         <f t="shared" si="27"/>
         <v>0.20485708302447489</v>
       </c>
@@ -10555,35 +10570,35 @@
       <c r="O108" t="s">
         <v>621</v>
       </c>
-      <c r="P108" s="4">
+      <c r="P108" s="3">
         <f t="shared" ref="P108:P120" si="28">H108/D108</f>
         <v>0.57928395584320103</v>
       </c>
-      <c r="Q108" s="4">
+      <c r="Q108" s="3">
         <f t="shared" si="26"/>
         <v>0.40940278753577564</v>
       </c>
-      <c r="R108" s="4">
+      <c r="R108" s="3">
         <f t="shared" si="26"/>
         <v>0.23023459897305945</v>
       </c>
-      <c r="S108" s="4">
+      <c r="S108" s="3">
         <f t="shared" si="26"/>
         <v>0.13401010027705323</v>
       </c>
-      <c r="T108" s="4">
+      <c r="T108" s="3">
         <f t="shared" ref="T108:T120" si="29">L108/D108</f>
         <v>0.31673368905325772</v>
       </c>
-      <c r="U108" s="4">
+      <c r="U108" s="3">
         <f t="shared" si="27"/>
         <v>0.2325491544367492</v>
       </c>
-      <c r="V108" s="4">
+      <c r="V108" s="3">
         <f t="shared" si="27"/>
         <v>0.182545708221687</v>
       </c>
-      <c r="W108" s="4">
+      <c r="W108" s="3">
         <f t="shared" si="27"/>
         <v>0.13257716438065723</v>
       </c>
@@ -10634,35 +10649,35 @@
       <c r="O109" t="s">
         <v>633</v>
       </c>
-      <c r="P109" s="4">
+      <c r="P109" s="3">
         <f t="shared" si="28"/>
         <v>0.54722831137579331</v>
       </c>
-      <c r="Q109" s="4">
+      <c r="Q109" s="3">
         <f t="shared" si="26"/>
         <v>0.38474349926205786</v>
       </c>
-      <c r="R109" s="4">
+      <c r="R109" s="3">
         <f t="shared" si="26"/>
         <v>0.22611450261828459</v>
       </c>
-      <c r="S109" s="4">
+      <c r="S109" s="3">
         <f t="shared" si="26"/>
         <v>5.7919098348473724E-2</v>
       </c>
-      <c r="T109" s="4">
+      <c r="T109" s="3">
         <f t="shared" si="29"/>
         <v>0.15928493998133009</v>
       </c>
-      <c r="U109" s="4">
+      <c r="U109" s="3">
         <f t="shared" si="27"/>
         <v>0.12604941696131686</v>
       </c>
-      <c r="V109" s="4">
+      <c r="V109" s="3">
         <f t="shared" si="27"/>
         <v>8.4655889194249143E-2</v>
       </c>
-      <c r="W109" s="4">
+      <c r="W109" s="3">
         <f t="shared" si="27"/>
         <v>7.7097272890239918E-2</v>
       </c>
@@ -10713,35 +10728,35 @@
       <c r="O110" t="s">
         <v>645</v>
       </c>
-      <c r="P110" s="4">
+      <c r="P110" s="3">
         <f t="shared" si="28"/>
         <v>0.70342348083481909</v>
       </c>
-      <c r="Q110" s="4">
+      <c r="Q110" s="3">
         <f t="shared" si="26"/>
         <v>0.46145314221805561</v>
       </c>
-      <c r="R110" s="4">
+      <c r="R110" s="3">
         <f t="shared" si="26"/>
         <v>0.29808382461762051</v>
       </c>
-      <c r="S110" s="4">
+      <c r="S110" s="3">
         <f t="shared" si="26"/>
         <v>0.16426877103626938</v>
       </c>
-      <c r="T110" s="4">
+      <c r="T110" s="3">
         <f t="shared" si="29"/>
         <v>0.16126190942494817</v>
       </c>
-      <c r="U110" s="4">
+      <c r="U110" s="3">
         <f t="shared" si="27"/>
         <v>0.12443771484021644</v>
       </c>
-      <c r="V110" s="4">
+      <c r="V110" s="3">
         <f t="shared" si="27"/>
         <v>0.12265589063378451</v>
       </c>
-      <c r="W110" s="4">
+      <c r="W110" s="3">
         <f t="shared" si="27"/>
         <v>8.3145225186510907E-2</v>
       </c>
@@ -10792,35 +10807,35 @@
       <c r="O111" t="s">
         <v>655</v>
       </c>
-      <c r="P111" s="4">
+      <c r="P111" s="3">
         <f t="shared" si="28"/>
         <v>0.2846584836743028</v>
       </c>
-      <c r="Q111" s="4">
+      <c r="Q111" s="3">
         <f t="shared" si="26"/>
         <v>0.14539211768710503</v>
       </c>
-      <c r="R111" s="4">
+      <c r="R111" s="3">
         <f t="shared" si="26"/>
         <v>8.1543687174209137E-2</v>
       </c>
-      <c r="S111" s="4">
+      <c r="S111" s="3">
         <f t="shared" si="26"/>
         <v>4.4963306604026525E-2</v>
       </c>
-      <c r="T111" s="4">
+      <c r="T111" s="3">
         <f t="shared" si="29"/>
         <v>0.15370009020972475</v>
       </c>
-      <c r="U111" s="4">
+      <c r="U111" s="3">
         <f t="shared" si="27"/>
         <v>9.4860703238805619E-2</v>
       </c>
-      <c r="V111" s="4">
+      <c r="V111" s="3">
         <f t="shared" si="27"/>
         <v>6.4142027586895384E-2</v>
       </c>
-      <c r="W111" s="4">
+      <c r="W111" s="3">
         <f t="shared" si="27"/>
         <v>3.7127621867720666E-2</v>
       </c>
@@ -10871,35 +10886,35 @@
       <c r="O112" t="s">
         <v>666</v>
       </c>
-      <c r="P112" s="4">
+      <c r="P112" s="3">
         <f t="shared" si="28"/>
         <v>0.12444324470238899</v>
       </c>
-      <c r="Q112" s="4">
+      <c r="Q112" s="3">
         <f t="shared" si="26"/>
         <v>7.1002304459807514E-2</v>
       </c>
-      <c r="R112" s="4">
+      <c r="R112" s="3">
         <f t="shared" si="26"/>
         <v>3.4414419627357945E-2</v>
       </c>
-      <c r="S112" s="4">
+      <c r="S112" s="3">
         <f t="shared" si="26"/>
         <v>3.67610404550393E-2</v>
       </c>
-      <c r="T112" s="4">
+      <c r="T112" s="3">
         <f t="shared" si="29"/>
         <v>0.14281147598379129</v>
       </c>
-      <c r="U112" s="4">
+      <c r="U112" s="3">
         <f t="shared" si="27"/>
         <v>8.7247390538159136E-2</v>
       </c>
-      <c r="V112" s="4">
+      <c r="V112" s="3">
         <f t="shared" si="27"/>
         <v>6.8794343603393482E-2</v>
       </c>
-      <c r="W112" s="4">
+      <c r="W112" s="3">
         <f t="shared" si="27"/>
         <v>5.9540893694405544E-2</v>
       </c>
@@ -10950,35 +10965,35 @@
       <c r="O113" t="s">
         <v>676</v>
       </c>
-      <c r="P113" s="4">
+      <c r="P113" s="3">
         <f t="shared" si="28"/>
         <v>0.5625732381288342</v>
       </c>
-      <c r="Q113" s="4">
+      <c r="Q113" s="3">
         <f t="shared" si="26"/>
         <v>0.48292143696629486</v>
       </c>
-      <c r="R113" s="4">
+      <c r="R113" s="3">
         <f t="shared" si="26"/>
         <v>0.40122782472438301</v>
       </c>
-      <c r="S113" s="4">
+      <c r="S113" s="3">
         <f t="shared" si="26"/>
         <v>0.27727291831083256</v>
       </c>
-      <c r="T113" s="4">
+      <c r="T113" s="3">
         <f t="shared" si="29"/>
         <v>0.15567841315022279</v>
       </c>
-      <c r="U113" s="4">
+      <c r="U113" s="3">
         <f t="shared" si="27"/>
         <v>8.2952873686027301E-2</v>
       </c>
-      <c r="V113" s="4">
+      <c r="V113" s="3">
         <f t="shared" si="27"/>
         <v>5.5406570037495106E-2</v>
       </c>
-      <c r="W113" s="4">
+      <c r="W113" s="3">
         <f t="shared" si="27"/>
         <v>3.4689760484914144E-2</v>
       </c>
@@ -11029,35 +11044,35 @@
       <c r="O114" t="s">
         <v>686</v>
       </c>
-      <c r="P114" s="4">
+      <c r="P114" s="3">
         <f t="shared" si="28"/>
         <v>0.60664869683955147</v>
       </c>
-      <c r="Q114" s="4">
+      <c r="Q114" s="3">
         <f t="shared" si="26"/>
         <v>0.4715428964075114</v>
       </c>
-      <c r="R114" s="4">
+      <c r="R114" s="3">
         <f t="shared" si="26"/>
         <v>0.33124701401241297</v>
       </c>
-      <c r="S114" s="4">
+      <c r="S114" s="3">
         <f t="shared" si="26"/>
         <v>0.24145633180358714</v>
       </c>
-      <c r="T114" s="4">
+      <c r="T114" s="3">
         <f t="shared" si="29"/>
         <v>6.8328492893845086E-2</v>
       </c>
-      <c r="U114" s="4">
+      <c r="U114" s="3">
         <f t="shared" si="27"/>
         <v>4.828689010456487E-2</v>
       </c>
-      <c r="V114" s="4">
+      <c r="V114" s="3">
         <f t="shared" si="27"/>
         <v>3.5292870035607729E-2</v>
       </c>
-      <c r="W114" s="4">
+      <c r="W114" s="3">
         <f t="shared" si="27"/>
         <v>2.1995394411668163E-2</v>
       </c>
@@ -11108,35 +11123,35 @@
       <c r="O115" t="s">
         <v>695</v>
       </c>
-      <c r="P115" s="4">
+      <c r="P115" s="3">
         <f t="shared" si="28"/>
         <v>0.68833511899773259</v>
       </c>
-      <c r="Q115" s="4">
+      <c r="Q115" s="3">
         <f t="shared" si="26"/>
         <v>0.5567845308988113</v>
       </c>
-      <c r="R115" s="4">
+      <c r="R115" s="3">
         <f t="shared" si="26"/>
         <v>0.40787329703241176</v>
       </c>
-      <c r="S115" s="4">
+      <c r="S115" s="3">
         <f t="shared" si="26"/>
         <v>0.24693833016080011</v>
       </c>
-      <c r="T115" s="4">
+      <c r="T115" s="3">
         <f t="shared" si="29"/>
         <v>7.7068218420355217E-2</v>
       </c>
-      <c r="U115" s="4">
+      <c r="U115" s="3">
         <f t="shared" si="27"/>
         <v>6.0853395741131217E-2</v>
       </c>
-      <c r="V115" s="4">
+      <c r="V115" s="3">
         <f t="shared" si="27"/>
         <v>4.0443891349033603E-2</v>
       </c>
-      <c r="W115" s="4">
+      <c r="W115" s="3">
         <f t="shared" si="27"/>
         <v>2.4965294940422982E-2</v>
       </c>
@@ -11187,35 +11202,35 @@
       <c r="O116" t="s">
         <v>704</v>
       </c>
-      <c r="P116" s="4">
+      <c r="P116" s="3">
         <f t="shared" si="28"/>
         <v>0.60368786525707541</v>
       </c>
-      <c r="Q116" s="4">
+      <c r="Q116" s="3">
         <f t="shared" si="26"/>
         <v>0.53027383175753029</v>
       </c>
-      <c r="R116" s="4">
+      <c r="R116" s="3">
         <f t="shared" si="26"/>
         <v>0.36866003538807329</v>
       </c>
-      <c r="S116" s="4">
+      <c r="S116" s="3">
         <f t="shared" si="26"/>
         <v>0.24037510996635256</v>
       </c>
-      <c r="T116" s="4">
+      <c r="T116" s="3">
         <f t="shared" si="29"/>
         <v>6.4651528334099415E-2</v>
       </c>
-      <c r="U116" s="4">
+      <c r="U116" s="3">
         <f t="shared" si="27"/>
         <v>5.2173624636738039E-2</v>
       </c>
-      <c r="V116" s="4">
+      <c r="V116" s="3">
         <f t="shared" si="27"/>
         <v>3.5886614700396918E-2</v>
       </c>
-      <c r="W116" s="4">
+      <c r="W116" s="3">
         <f t="shared" si="27"/>
         <v>2.0407422906946766E-2</v>
       </c>
@@ -11266,35 +11281,35 @@
       <c r="O117" t="s">
         <v>715</v>
       </c>
-      <c r="P117" s="4">
+      <c r="P117" s="3">
         <f t="shared" si="28"/>
         <v>0.5589909442395844</v>
       </c>
-      <c r="Q117" s="4">
+      <c r="Q117" s="3">
         <f t="shared" si="26"/>
         <v>0.48299655858816326</v>
       </c>
-      <c r="R117" s="4">
+      <c r="R117" s="3">
         <f t="shared" si="26"/>
         <v>0.34778882903058106</v>
       </c>
-      <c r="S117" s="4">
+      <c r="S117" s="3">
         <f t="shared" si="26"/>
         <v>0.23415979041822232</v>
       </c>
-      <c r="T117" s="4">
+      <c r="T117" s="3">
         <f t="shared" si="29"/>
         <v>6.3227896964382455E-2</v>
       </c>
-      <c r="U117" s="4">
+      <c r="U117" s="3">
         <f t="shared" si="27"/>
         <v>4.6857064667918419E-2</v>
       </c>
-      <c r="V117" s="4">
+      <c r="V117" s="3">
         <f t="shared" si="27"/>
         <v>3.2716532509154891E-2</v>
       </c>
-      <c r="W117" s="4">
+      <c r="W117" s="3">
         <f t="shared" si="27"/>
         <v>1.9670515274160992E-2</v>
       </c>
@@ -11345,35 +11360,35 @@
       <c r="O118" t="s">
         <v>724</v>
       </c>
-      <c r="P118" s="4">
+      <c r="P118" s="3">
         <f t="shared" si="28"/>
         <v>0.60827956591566001</v>
       </c>
-      <c r="Q118" s="4">
+      <c r="Q118" s="3">
         <f t="shared" si="26"/>
         <v>0.50464116354614308</v>
       </c>
-      <c r="R118" s="4">
+      <c r="R118" s="3">
         <f t="shared" si="26"/>
         <v>0.35095153873363993</v>
       </c>
-      <c r="S118" s="4">
+      <c r="S118" s="3">
         <f t="shared" si="26"/>
         <v>0.23065175612030836</v>
       </c>
-      <c r="T118" s="4">
+      <c r="T118" s="3">
         <f t="shared" si="29"/>
         <v>6.8137523549512538E-2</v>
       </c>
-      <c r="U118" s="4">
+      <c r="U118" s="3">
         <f t="shared" si="27"/>
         <v>4.8877877139433305E-2</v>
       </c>
-      <c r="V118" s="4">
+      <c r="V118" s="3">
         <f t="shared" si="27"/>
         <v>3.4709350312463152E-2</v>
       </c>
-      <c r="W118" s="4">
+      <c r="W118" s="3">
         <f t="shared" si="27"/>
         <v>1.9944971587088307E-2</v>
       </c>
@@ -11424,35 +11439,35 @@
       <c r="O119" t="s">
         <v>734</v>
       </c>
-      <c r="P119" s="4">
+      <c r="P119" s="3">
         <f t="shared" si="28"/>
         <v>0.53438019903036493</v>
       </c>
-      <c r="Q119" s="4">
+      <c r="Q119" s="3">
         <f t="shared" si="26"/>
         <v>0.4665486462134375</v>
       </c>
-      <c r="R119" s="4">
+      <c r="R119" s="3">
         <f t="shared" si="26"/>
         <v>0.33285395925244821</v>
       </c>
-      <c r="S119" s="4">
+      <c r="S119" s="3">
         <f t="shared" si="26"/>
         <v>0.22062057907684066</v>
       </c>
-      <c r="T119" s="4">
+      <c r="T119" s="3">
         <f t="shared" si="29"/>
         <v>6.2660882878285279E-2</v>
       </c>
-      <c r="U119" s="4">
+      <c r="U119" s="3">
         <f t="shared" si="27"/>
         <v>4.4132861689444178E-2</v>
       </c>
-      <c r="V119" s="4">
+      <c r="V119" s="3">
         <f t="shared" si="27"/>
         <v>3.3609030048828217E-2</v>
       </c>
-      <c r="W119" s="4">
+      <c r="W119" s="3">
         <f t="shared" si="27"/>
         <v>2.0935706521280149E-2</v>
       </c>
@@ -11503,46 +11518,55 @@
       <c r="O120" t="s">
         <v>743</v>
       </c>
-      <c r="P120" s="4">
+      <c r="P120" s="3">
         <f t="shared" si="28"/>
         <v>0.62386383062403139</v>
       </c>
-      <c r="Q120" s="4">
+      <c r="Q120" s="3">
         <f t="shared" si="26"/>
         <v>0.51572928760553249</v>
       </c>
-      <c r="R120" s="4">
+      <c r="R120" s="3">
         <f t="shared" si="26"/>
         <v>0.3616969742355437</v>
       </c>
-      <c r="S120" s="4">
+      <c r="S120" s="3">
         <f t="shared" si="26"/>
         <v>0.23693585961708791</v>
       </c>
-      <c r="T120" s="4">
+      <c r="T120" s="3">
         <f t="shared" si="29"/>
         <v>6.8309268237089701E-2</v>
       </c>
-      <c r="U120" s="4">
+      <c r="U120" s="3">
         <f t="shared" si="27"/>
         <v>4.8870367154791539E-2</v>
       </c>
-      <c r="V120" s="4">
+      <c r="V120" s="3">
         <f t="shared" si="27"/>
         <v>3.4647863921921492E-2</v>
       </c>
-      <c r="W120" s="4">
+      <c r="W120" s="3">
         <f t="shared" si="27"/>
         <v>2.0140472226839574E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="T105:W105"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="T88:W88"/>
     <mergeCell ref="T54:W54"/>
     <mergeCell ref="T71:W71"/>
     <mergeCell ref="L3:O3"/>
@@ -11559,20 +11583,11 @@
     <mergeCell ref="P71:S71"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:O20"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="T88:W88"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="P105:S105"/>
+    <mergeCell ref="T105:W105"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="529">
   <si>
     <t>图</t>
     <rPh sb="0" eb="1">
@@ -180,402 +180,201 @@
     <t>9415000</t>
   </si>
   <si>
-    <t>22067275</t>
-  </si>
-  <si>
-    <t>14081672</t>
-  </si>
-  <si>
     <t>40792167</t>
   </si>
   <si>
     <t>21071260</t>
   </si>
   <si>
-    <t>59492563</t>
-  </si>
-  <si>
-    <t>38809041</t>
-  </si>
-  <si>
     <t>27508992</t>
   </si>
   <si>
     <t>14350992</t>
   </si>
   <si>
-    <t>39475293</t>
-  </si>
-  <si>
-    <t>25999197</t>
-  </si>
-  <si>
     <t>21749380</t>
   </si>
   <si>
     <t>11016024</t>
   </si>
   <si>
-    <t>24026705</t>
-  </si>
-  <si>
-    <t>13004490</t>
-  </si>
-  <si>
     <t>22577632</t>
   </si>
   <si>
     <t>11601632</t>
   </si>
   <si>
-    <t>25357123</t>
-  </si>
-  <si>
-    <t>16534937</t>
-  </si>
-  <si>
     <t>478170</t>
   </si>
   <si>
     <t>241920</t>
   </si>
   <si>
-    <t>538128</t>
-  </si>
-  <si>
-    <t>293840</t>
-  </si>
-  <si>
     <t>106680000</t>
   </si>
   <si>
     <t>54180000</t>
   </si>
   <si>
-    <t>163105254</t>
-  </si>
-  <si>
-    <t>108843690</t>
-  </si>
-  <si>
     <t>64988593</t>
   </si>
   <si>
     <t>33359408</t>
   </si>
   <si>
-    <t>96598638</t>
-  </si>
-  <si>
-    <t>63622075</t>
-  </si>
-  <si>
     <t>83890968</t>
   </si>
   <si>
     <t>44310000</t>
   </si>
   <si>
-    <t>135551658</t>
-  </si>
-  <si>
-    <t>93850635</t>
-  </si>
-  <si>
     <t>98299664</t>
   </si>
   <si>
     <t>50214928</t>
   </si>
   <si>
-    <t>162609195</t>
-  </si>
-  <si>
-    <t>109427891</t>
-  </si>
-  <si>
     <t>135021952</t>
   </si>
   <si>
     <t>68877952</t>
   </si>
   <si>
-    <t>235639804</t>
-  </si>
-  <si>
-    <t>163306371</t>
-  </si>
-  <si>
     <t>98105700</t>
   </si>
   <si>
     <t>50047014</t>
   </si>
   <si>
-    <t>153451623</t>
-  </si>
-  <si>
-    <t>106463681</t>
-  </si>
-  <si>
     <t>15154196</t>
   </si>
   <si>
     <t>7315000</t>
   </si>
   <si>
-    <t>11114175</t>
-  </si>
-  <si>
-    <t>2880342</t>
-  </si>
-  <si>
     <t>37051911</t>
   </si>
   <si>
     <t>17857000</t>
   </si>
   <si>
-    <t>21473647</t>
-  </si>
-  <si>
-    <t>1048893</t>
-  </si>
-  <si>
     <t>25052832</t>
   </si>
   <si>
     <t>11894832</t>
   </si>
   <si>
-    <t>14891877</t>
-  </si>
-  <si>
-    <t>1171135</t>
-  </si>
-  <si>
     <t>21092040</t>
   </si>
   <si>
     <t>10415832</t>
   </si>
   <si>
-    <t>19996419</t>
-  </si>
-  <si>
-    <t>9072900</t>
-  </si>
-  <si>
     <t>21304416</t>
   </si>
   <si>
     <t>10328416</t>
   </si>
   <si>
-    <t>19489359</t>
-  </si>
-  <si>
-    <t>6069787</t>
-  </si>
-  <si>
     <t>466200</t>
   </si>
   <si>
     <t>229950</t>
   </si>
   <si>
-    <t>433492</t>
-  </si>
-  <si>
-    <t>190996</t>
-  </si>
-  <si>
     <t>103250000</t>
   </si>
   <si>
     <t>50750000</t>
   </si>
   <si>
-    <t>44609984</t>
-  </si>
-  <si>
     <t>61446061</t>
   </si>
   <si>
     <t>29890620</t>
   </si>
   <si>
-    <t>33069804</t>
-  </si>
-  <si>
-    <t>2873255</t>
-  </si>
-  <si>
     <t>79239426</t>
   </si>
   <si>
     <t>39620000</t>
   </si>
   <si>
-    <t>28653196</t>
-  </si>
-  <si>
     <t>92292992</t>
   </si>
   <si>
     <t>45050418</t>
   </si>
   <si>
-    <t>35176683</t>
-  </si>
-  <si>
     <t>129465856</t>
   </si>
   <si>
     <t>63321856</t>
   </si>
   <si>
-    <t>40445638</t>
-  </si>
-  <si>
     <t>92758820</t>
   </si>
   <si>
     <t>45352620</t>
   </si>
   <si>
-    <t>37881363</t>
-  </si>
-  <si>
     <t>1168431</t>
   </si>
   <si>
     <t>1050000</t>
   </si>
   <si>
-    <t>5476550</t>
-  </si>
-  <si>
-    <t>5600665</t>
-  </si>
-  <si>
     <t>1870128</t>
   </si>
   <si>
     <t>1607130</t>
   </si>
   <si>
-    <t>19009458</t>
-  </si>
-  <si>
-    <t>18880074</t>
-  </si>
-  <si>
     <t>1228080</t>
   </si>
   <si>
-    <t>12291708</t>
-  </si>
-  <si>
-    <t>12414031</t>
-  </si>
-  <si>
     <t>328670</t>
   </si>
   <si>
     <t>300096</t>
   </si>
   <si>
-    <t>2015143</t>
-  </si>
-  <si>
-    <t>1965795</t>
-  </si>
-  <si>
     <t>636608</t>
   </si>
   <si>
-    <t>2933882</t>
-  </si>
-  <si>
-    <t>5232575</t>
-  </si>
-  <si>
     <t>5985</t>
   </si>
   <si>
-    <t>52318</t>
-  </si>
-  <si>
-    <t>51422</t>
-  </si>
-  <si>
     <t>1715000</t>
   </si>
   <si>
-    <t>59247635</t>
-  </si>
-  <si>
-    <t>55702359</t>
-  </si>
-  <si>
     <t>1771266</t>
   </si>
   <si>
     <t>1734394</t>
   </si>
   <si>
-    <t>31764417</t>
-  </si>
-  <si>
-    <t>30374410</t>
-  </si>
-  <si>
     <t>2325771</t>
   </si>
   <si>
     <t>2345000</t>
   </si>
   <si>
-    <t>53449231</t>
-  </si>
-  <si>
-    <t>51284500</t>
-  </si>
-  <si>
     <t>3003336</t>
   </si>
   <si>
     <t>2582255</t>
   </si>
   <si>
-    <t>63716256</t>
-  </si>
-  <si>
-    <t>59910242</t>
-  </si>
-  <si>
     <t>2778048</t>
   </si>
   <si>
-    <t>97597083</t>
-  </si>
-  <si>
-    <t>94768464</t>
-  </si>
-  <si>
     <t>2673440</t>
   </si>
   <si>
     <t>2347197</t>
   </si>
   <si>
-    <t>57785130</t>
-  </si>
-  <si>
-    <t>56616524</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
@@ -585,33 +384,21 @@
     <t>35</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -630,36 +417,18 @@
     <t>85</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -669,421 +438,193 @@
     <t>96</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>1831368</t>
   </si>
   <si>
     <t>1820880</t>
   </si>
   <si>
-    <t>1839760</t>
-  </si>
-  <si>
-    <t>1850688</t>
-  </si>
-  <si>
     <t>2134000</t>
   </si>
   <si>
     <t>2137044</t>
   </si>
   <si>
-    <t>2120016</t>
-  </si>
-  <si>
     <t>1908000</t>
   </si>
   <si>
-    <t>1857856</t>
-  </si>
-  <si>
-    <t>1833602</t>
-  </si>
-  <si>
     <t>2400000</t>
   </si>
   <si>
     <t>2394678</t>
   </si>
   <si>
-    <t>2333188</t>
-  </si>
-  <si>
-    <t>2352312</t>
-  </si>
-  <si>
     <t>7570000</t>
   </si>
   <si>
     <t>7558000</t>
   </si>
   <si>
-    <t>7572096</t>
-  </si>
-  <si>
-    <t>7575425</t>
-  </si>
-  <si>
     <t>1830000</t>
   </si>
   <si>
-    <t>1798106</t>
-  </si>
-  <si>
-    <t>1797610</t>
-  </si>
-  <si>
     <t>2778000</t>
   </si>
   <si>
-    <t>2865600</t>
-  </si>
-  <si>
-    <t>2863392</t>
-  </si>
-  <si>
     <t>2598000</t>
   </si>
   <si>
     <t>2555124</t>
   </si>
   <si>
-    <t>2559600</t>
-  </si>
-  <si>
-    <t>2585132</t>
-  </si>
-  <si>
     <t>3206000</t>
   </si>
   <si>
     <t>3138000</t>
   </si>
   <si>
-    <t>3181200</t>
-  </si>
-  <si>
-    <t>3206112</t>
-  </si>
-  <si>
     <t>3204000</t>
   </si>
   <si>
     <t>3145200</t>
   </si>
   <si>
-    <t>3170400</t>
-  </si>
-  <si>
-    <t>3210464</t>
-  </si>
-  <si>
     <t>3510000</t>
   </si>
   <si>
-    <t>3543624</t>
-  </si>
-  <si>
-    <t>3557160</t>
-  </si>
-  <si>
     <t>3012000</t>
   </si>
   <si>
     <t>2944800</t>
   </si>
   <si>
-    <t>2982000</t>
-  </si>
-  <si>
-    <t>3006940</t>
-  </si>
-  <si>
     <t>0.999992</t>
   </si>
   <si>
     <t>0.972712</t>
   </si>
   <si>
-    <t>0.949849</t>
-  </si>
-  <si>
-    <t>0.922738</t>
-  </si>
-  <si>
     <t>0.999990</t>
   </si>
   <si>
     <t>0.999997</t>
   </si>
   <si>
-    <t>0.902785</t>
-  </si>
-  <si>
-    <t>0.905686</t>
-  </si>
-  <si>
     <t>0.999986</t>
   </si>
   <si>
-    <t>0.913005</t>
-  </si>
-  <si>
-    <t>0.902267</t>
-  </si>
-  <si>
     <t>0.999913</t>
   </si>
   <si>
     <t>0.999893</t>
   </si>
   <si>
-    <t>0.912037</t>
-  </si>
-  <si>
-    <t>0.907180</t>
-  </si>
-  <si>
     <t>0.999886</t>
   </si>
   <si>
-    <t>0.929687</t>
-  </si>
-  <si>
-    <t>0.913885</t>
-  </si>
-  <si>
     <t>0.997222</t>
   </si>
   <si>
-    <t>0.902433</t>
-  </si>
-  <si>
-    <t>0.895340</t>
-  </si>
-  <si>
     <t>0.973229</t>
   </si>
   <si>
-    <t>0.939841</t>
-  </si>
-  <si>
-    <t>0.913194</t>
-  </si>
-  <si>
     <t>1.000000</t>
   </si>
   <si>
     <t>0.999983</t>
   </si>
   <si>
-    <t>0.932637</t>
-  </si>
-  <si>
-    <t>0.911547</t>
-  </si>
-  <si>
     <t>0.999989</t>
   </si>
   <si>
     <t>0.971489</t>
   </si>
   <si>
-    <t>0.935105</t>
-  </si>
-  <si>
-    <t>0.900925</t>
-  </si>
-  <si>
     <t>0.999993</t>
   </si>
   <si>
     <t>0.999985</t>
   </si>
   <si>
-    <t>0.923850</t>
-  </si>
-  <si>
-    <t>0.911853</t>
-  </si>
-  <si>
     <t>0.999999</t>
   </si>
   <si>
-    <t>0.914907</t>
-  </si>
-  <si>
-    <t>0.917556</t>
-  </si>
-  <si>
-    <t>0.937768</t>
-  </si>
-  <si>
-    <t>0.908637</t>
-  </si>
-  <si>
     <t>0.934281</t>
   </si>
   <si>
     <t>0.867847</t>
   </si>
   <si>
-    <t>0.740534</t>
-  </si>
-  <si>
-    <t>0.580242</t>
-  </si>
-  <si>
     <t>0.955101</t>
   </si>
   <si>
     <t>0.924497</t>
   </si>
   <si>
-    <t>0.654882</t>
-  </si>
-  <si>
-    <t>0.501953</t>
-  </si>
-  <si>
     <t>0.956619</t>
   </si>
   <si>
     <t>0.916857</t>
   </si>
   <si>
-    <t>0.666635</t>
-  </si>
-  <si>
-    <t>0.506085</t>
-  </si>
-  <si>
     <t>0.985459</t>
   </si>
   <si>
     <t>0.972816</t>
   </si>
   <si>
-    <t>0.892054</t>
-  </si>
-  <si>
-    <t>0.824066</t>
-  </si>
-  <si>
     <t>0.972179</t>
   </si>
   <si>
     <t>0.945966</t>
   </si>
   <si>
-    <t>0.865615</t>
-  </si>
-  <si>
-    <t>0.663731</t>
-  </si>
-  <si>
     <t>0.985397</t>
   </si>
   <si>
     <t>0.973850</t>
   </si>
   <si>
-    <t>0.875605</t>
-  </si>
-  <si>
-    <t>0.801776</t>
-  </si>
-  <si>
     <t>0.957902</t>
   </si>
   <si>
     <t>0.943051</t>
   </si>
   <si>
-    <t>0.626522</t>
-  </si>
-  <si>
-    <t>0.469430</t>
-  </si>
-  <si>
     <t>0.973394</t>
   </si>
   <si>
     <t>0.948151</t>
   </si>
   <si>
-    <t>0.654869</t>
-  </si>
-  <si>
-    <t>0.497151</t>
-  </si>
-  <si>
     <t>0.972751</t>
   </si>
   <si>
     <t>0.920843</t>
   </si>
   <si>
-    <t>0.602022</t>
-  </si>
-  <si>
-    <t>0.434760</t>
-  </si>
-  <si>
     <t>0.969926</t>
   </si>
   <si>
     <t>0.949353</t>
   </si>
   <si>
-    <t>0.586334</t>
-  </si>
-  <si>
-    <t>0.435645</t>
-  </si>
-  <si>
     <t>0.979750</t>
   </si>
   <si>
     <t>0.960306</t>
   </si>
   <si>
-    <t>0.561398</t>
-  </si>
-  <si>
-    <t>0.405030</t>
-  </si>
-  <si>
     <t>0.973225</t>
   </si>
   <si>
     <t>0.953892</t>
-  </si>
-  <si>
-    <t>0.622209</t>
-  </si>
-  <si>
-    <t>0.448411</t>
   </si>
   <si>
     <t>alexnet_mnist</t>
@@ -1097,9 +638,6 @@
     <t>33898459</t>
   </si>
   <si>
-    <t>37530475</t>
-  </si>
-  <si>
     <t>96904800</t>
   </si>
   <si>
@@ -1112,9 +650,6 @@
     <t>79753167</t>
   </si>
   <si>
-    <t>99975668</t>
-  </si>
-  <si>
     <t>179016000</t>
   </si>
   <si>
@@ -1127,9 +662,6 @@
     <t>53824992</t>
   </si>
   <si>
-    <t>65547986</t>
-  </si>
-  <si>
     <t>165828000</t>
   </si>
   <si>
@@ -1142,9 +674,6 @@
     <t>43184380</t>
   </si>
   <si>
-    <t>44178135</t>
-  </si>
-  <si>
     <t>77731200</t>
   </si>
   <si>
@@ -1157,9 +686,6 @@
     <t>44706870</t>
   </si>
   <si>
-    <t>50085557</t>
-  </si>
-  <si>
     <t>92695200</t>
   </si>
   <si>
@@ -1172,9 +698,6 @@
     <t>950670</t>
   </si>
   <si>
-    <t>1015250</t>
-  </si>
-  <si>
     <t>1748400</t>
   </si>
   <si>
@@ -1187,9 +710,6 @@
     <t>211680000</t>
   </si>
   <si>
-    <t>248143036</t>
-  </si>
-  <si>
     <t>532237200</t>
   </si>
   <si>
@@ -1202,9 +722,6 @@
     <t>128248093</t>
   </si>
   <si>
-    <t>161867988</t>
-  </si>
-  <si>
     <t>337999200</t>
   </si>
   <si>
@@ -1217,9 +734,6 @@
     <t>165986604</t>
   </si>
   <si>
-    <t>201590768</t>
-  </si>
-  <si>
     <t>416385600</t>
   </si>
   <si>
@@ -1232,9 +746,6 @@
     <t>193930713</t>
   </si>
   <si>
-    <t>251713923</t>
-  </si>
-  <si>
     <t>485779200</t>
   </si>
   <si>
@@ -1247,9 +758,6 @@
     <t>267309952</t>
   </si>
   <si>
-    <t>358735224</t>
-  </si>
-  <si>
     <t>651922800</t>
   </si>
   <si>
@@ -1262,9 +770,6 @@
     <t>194141650</t>
   </si>
   <si>
-    <t>246724200</t>
-  </si>
-  <si>
     <t>491738400</t>
   </si>
   <si>
@@ -1277,135 +782,63 @@
     <t>31458075</t>
   </si>
   <si>
-    <t>26577375</t>
-  </si>
-  <si>
     <t>76012911</t>
   </si>
   <si>
-    <t>61956752</t>
-  </si>
-  <si>
     <t>51368832</t>
   </si>
   <si>
-    <t>39920202</t>
-  </si>
-  <si>
     <t>42527040</t>
   </si>
   <si>
-    <t>40147849</t>
-  </si>
-  <si>
     <t>43067862</t>
   </si>
   <si>
-    <t>39607407</t>
-  </si>
-  <si>
     <t>938700</t>
   </si>
   <si>
-    <t>914500</t>
-  </si>
-  <si>
     <t>208250000</t>
   </si>
   <si>
-    <t>131041828</t>
-  </si>
-  <si>
     <t>124705561</t>
   </si>
   <si>
-    <t>98339154</t>
-  </si>
-  <si>
     <t>160328588</t>
   </si>
   <si>
-    <t>96412976</t>
-  </si>
-  <si>
     <t>187320161</t>
   </si>
   <si>
-    <t>121398813</t>
-  </si>
-  <si>
     <t>261753856</t>
   </si>
   <si>
-    <t>167058070</t>
-  </si>
-  <si>
     <t>187649044</t>
   </si>
   <si>
-    <t>126103480</t>
-  </si>
-  <si>
     <t>1220192</t>
   </si>
   <si>
-    <t>12813892</t>
-  </si>
-  <si>
     <t>819504</t>
   </si>
   <si>
-    <t>5239075</t>
-  </si>
-  <si>
-    <t>50375</t>
-  </si>
-  <si>
-    <t>58550604</t>
-  </si>
-  <si>
     <t>2829008</t>
   </si>
   <si>
-    <t>52588896</t>
-  </si>
-  <si>
     <t>3305276</t>
   </si>
   <si>
-    <t>65157555</t>
-  </si>
-  <si>
-    <t>95838577</t>
-  </si>
-  <si>
     <t>3246303</t>
   </si>
   <si>
-    <t>60310360</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>1834404</t>
   </si>
   <si>
-    <t>1825600</t>
-  </si>
-  <si>
     <t>1798800</t>
   </si>
   <si>
@@ -1415,9 +848,6 @@
     <t>1789472</t>
   </si>
   <si>
-    <t>2110878</t>
-  </si>
-  <si>
     <t>2120400</t>
   </si>
   <si>
@@ -1427,9 +857,6 @@
     <t>2113616</t>
   </si>
   <si>
-    <t>1840400</t>
-  </si>
-  <si>
     <t>1894800</t>
   </si>
   <si>
@@ -1439,9 +866,6 @@
     <t>1886880</t>
   </si>
   <si>
-    <t>2331966</t>
-  </si>
-  <si>
     <t>2403600</t>
   </si>
   <si>
@@ -1454,9 +878,6 @@
     <t>7566000</t>
   </si>
   <si>
-    <t>7542630</t>
-  </si>
-  <si>
     <t>7510800</t>
   </si>
   <si>
@@ -1466,9 +887,6 @@
     <t>7514496</t>
   </si>
   <si>
-    <t>1786000</t>
-  </si>
-  <si>
     <t>1868400</t>
   </si>
   <si>
@@ -1478,9 +896,6 @@
     <t>1865232</t>
   </si>
   <si>
-    <t>2850120</t>
-  </si>
-  <si>
     <t>2845200</t>
   </si>
   <si>
@@ -1499,9 +914,6 @@
     <t>2552928</t>
   </si>
   <si>
-    <t>3199560</t>
-  </si>
-  <si>
     <t>3168000</t>
   </si>
   <si>
@@ -1514,9 +926,6 @@
     <t>3210000</t>
   </si>
   <si>
-    <t>3184818</t>
-  </si>
-  <si>
     <t>3148800</t>
   </si>
   <si>
@@ -1526,9 +935,6 @@
     <t>3160304</t>
   </si>
   <si>
-    <t>3538800</t>
-  </si>
-  <si>
     <t>3460800</t>
   </si>
   <si>
@@ -1541,9 +947,6 @@
     <t>3018000</t>
   </si>
   <si>
-    <t>2983890</t>
-  </si>
-  <si>
     <t>2955600</t>
   </si>
   <si>
@@ -1556,9 +959,6 @@
     <t>0.999982</t>
   </si>
   <si>
-    <t>0.979927</t>
-  </si>
-  <si>
     <t>0.337270</t>
   </si>
   <si>
@@ -1577,9 +977,6 @@
     <t>0.373620</t>
   </si>
   <si>
-    <t>0.950962</t>
-  </si>
-  <si>
     <t>0.317385</t>
   </si>
   <si>
@@ -1589,9 +986,6 @@
     <t>0.272158</t>
   </si>
   <si>
-    <t>0.920656</t>
-  </si>
-  <si>
     <t>0.551468</t>
   </si>
   <si>
@@ -1613,9 +1007,6 @@
     <t>0.400639</t>
   </si>
   <si>
-    <t>0.918942</t>
-  </si>
-  <si>
     <t>0.538993</t>
   </si>
   <si>
@@ -1625,9 +1016,6 @@
     <t>0.473380</t>
   </si>
   <si>
-    <t>0.996987</t>
-  </si>
-  <si>
     <t>0.383998</t>
   </si>
   <si>
@@ -1646,9 +1034,6 @@
     <t>0.322721</t>
   </si>
   <si>
-    <t>0.998024</t>
-  </si>
-  <si>
     <t>0.391969</t>
   </si>
   <si>
@@ -1661,9 +1046,6 @@
     <t>0.999988</t>
   </si>
   <si>
-    <t>0.968517</t>
-  </si>
-  <si>
     <t>0.392538</t>
   </si>
   <si>
@@ -1673,9 +1055,6 @@
     <t>0.336610</t>
   </si>
   <si>
-    <t>0.948893</t>
-  </si>
-  <si>
     <t>0.405839</t>
   </si>
   <si>
@@ -1688,9 +1067,6 @@
     <t>0.999994</t>
   </si>
   <si>
-    <t>0.967377</t>
-  </si>
-  <si>
     <t>0.388332</t>
   </si>
   <si>
@@ -1703,70 +1079,34 @@
     <t>0.964148</t>
   </si>
   <si>
-    <t>0.870842</t>
-  </si>
-  <si>
     <t>0.977030</t>
   </si>
   <si>
-    <t>0.779402</t>
-  </si>
-  <si>
     <t>0.977822</t>
   </si>
   <si>
-    <t>0.802942</t>
-  </si>
-  <si>
     <t>0.992633</t>
   </si>
   <si>
-    <t>0.970305</t>
-  </si>
-  <si>
     <t>0.981930</t>
   </si>
   <si>
-    <t>0.876480</t>
-  </si>
-  <si>
     <t>0.991275</t>
   </si>
   <si>
-    <t>0.928220</t>
-  </si>
-  <si>
     <t>0.965505</t>
   </si>
   <si>
-    <t>0.823630</t>
-  </si>
-  <si>
     <t>0.986518</t>
   </si>
   <si>
-    <t>0.781618</t>
-  </si>
-  <si>
     <t>0.983273</t>
   </si>
   <si>
-    <t>0.809611</t>
-  </si>
-  <si>
-    <t>0.757553</t>
-  </si>
-  <si>
     <t>0.989771</t>
   </si>
   <si>
-    <t>0.737523</t>
-  </si>
-  <si>
     <t>0.983601</t>
-  </si>
-  <si>
-    <t>0.773973</t>
   </si>
   <si>
     <t>IMP LCTES</t>
@@ -1783,6 +1123,546 @@
   <si>
     <t>BaseLine / Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38871130</t>
+  </si>
+  <si>
+    <t>22715924</t>
+  </si>
+  <si>
+    <t>14526288</t>
+  </si>
+  <si>
+    <t>103063840</t>
+  </si>
+  <si>
+    <t>61116600</t>
+  </si>
+  <si>
+    <t>42816176</t>
+  </si>
+  <si>
+    <t>68874000</t>
+  </si>
+  <si>
+    <t>41324400</t>
+  </si>
+  <si>
+    <t>27549600</t>
+  </si>
+  <si>
+    <t>46196340</t>
+  </si>
+  <si>
+    <t>24479676</t>
+  </si>
+  <si>
+    <t>13313508</t>
+  </si>
+  <si>
+    <t>47059728</t>
+  </si>
+  <si>
+    <t>25659590</t>
+  </si>
+  <si>
+    <t>15145260</t>
+  </si>
+  <si>
+    <t>1034955</t>
+  </si>
+  <si>
+    <t>544455</t>
+  </si>
+  <si>
+    <t>306684</t>
+  </si>
+  <si>
+    <t>288751008</t>
+  </si>
+  <si>
+    <t>182199132</t>
+  </si>
+  <si>
+    <t>128611152</t>
+  </si>
+  <si>
+    <t>172194698</t>
+  </si>
+  <si>
+    <t>105965968</t>
+  </si>
+  <si>
+    <t>72563652</t>
+  </si>
+  <si>
+    <t>240136816</t>
+  </si>
+  <si>
+    <t>155802420</t>
+  </si>
+  <si>
+    <t>112921020</t>
+  </si>
+  <si>
+    <t>276733815</t>
+  </si>
+  <si>
+    <t>176467940</t>
+  </si>
+  <si>
+    <t>126736066</t>
+  </si>
+  <si>
+    <t>395037610</t>
+  </si>
+  <si>
+    <t>255939860</t>
+  </si>
+  <si>
+    <t>186947376</t>
+  </si>
+  <si>
+    <t>274863798</t>
+  </si>
+  <si>
+    <t>173705376</t>
+  </si>
+  <si>
+    <t>123598056</t>
+  </si>
+  <si>
+    <t>26320810</t>
+  </si>
+  <si>
+    <t>10577644</t>
+  </si>
+  <si>
+    <t>2421048</t>
+  </si>
+  <si>
+    <t>52363080</t>
+  </si>
+  <si>
+    <t>18169800</t>
+  </si>
+  <si>
+    <t>40773408</t>
+  </si>
+  <si>
+    <t>13223808</t>
+  </si>
+  <si>
+    <t>40941780</t>
+  </si>
+  <si>
+    <t>19755528</t>
+  </si>
+  <si>
+    <t>8589360</t>
+  </si>
+  <si>
+    <t>40504144</t>
+  </si>
+  <si>
+    <t>19128058</t>
+  </si>
+  <si>
+    <t>7689132</t>
+  </si>
+  <si>
+    <t>917235</t>
+  </si>
+  <si>
+    <t>426735</t>
+  </si>
+  <si>
+    <t>180116</t>
+  </si>
+  <si>
+    <t>136971632</t>
+  </si>
+  <si>
+    <t>30366522</t>
+  </si>
+  <si>
+    <t>92720222</t>
+  </si>
+  <si>
+    <t>26491492</t>
+  </si>
+  <si>
+    <t>98706544</t>
+  </si>
+  <si>
+    <t>14293800</t>
+  </si>
+  <si>
+    <t>122725431</t>
+  </si>
+  <si>
+    <t>22459556</t>
+  </si>
+  <si>
+    <t>159127826</t>
+  </si>
+  <si>
+    <t>20030076</t>
+  </si>
+  <si>
+    <t>121491522</t>
+  </si>
+  <si>
+    <t>25053660</t>
+  </si>
+  <si>
+    <t>6275160</t>
+  </si>
+  <si>
+    <t>6069140</t>
+  </si>
+  <si>
+    <t>6052620</t>
+  </si>
+  <si>
+    <t>25350380</t>
+  </si>
+  <si>
+    <t>21473400</t>
+  </si>
+  <si>
+    <t>22643170</t>
+  </si>
+  <si>
+    <t>14050296</t>
+  </si>
+  <si>
+    <t>2627280</t>
+  </si>
+  <si>
+    <t>2362074</t>
+  </si>
+  <si>
+    <t>3277792</t>
+  </si>
+  <si>
+    <t>3265766</t>
+  </si>
+  <si>
+    <t>3728064</t>
+  </si>
+  <si>
+    <t>58860</t>
+  </si>
+  <si>
+    <t>63284</t>
+  </si>
+  <si>
+    <t>75889688</t>
+  </si>
+  <si>
+    <t>75916305</t>
+  </si>
+  <si>
+    <t>39737238</t>
+  </si>
+  <si>
+    <t>70715136</t>
+  </si>
+  <si>
+    <t>70754310</t>
+  </si>
+  <si>
+    <t>77004192</t>
+  </si>
+  <si>
+    <t>117954892</t>
+  </si>
+  <si>
+    <t>76686138</t>
+  </si>
+  <si>
+    <t>74325858</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>1840896</t>
+  </si>
+  <si>
+    <t>1828450</t>
+  </si>
+  <si>
+    <t>1860200</t>
+  </si>
+  <si>
+    <t>2075520</t>
+  </si>
+  <si>
+    <t>2093454</t>
+  </si>
+  <si>
+    <t>2112700</t>
+  </si>
+  <si>
+    <t>1827400</t>
+  </si>
+  <si>
+    <t>2344600</t>
+  </si>
+  <si>
+    <t>2361944</t>
+  </si>
+  <si>
+    <t>7526016</t>
+  </si>
+  <si>
+    <t>7542720</t>
+  </si>
+  <si>
+    <t>7641250</t>
+  </si>
+  <si>
+    <t>1762000</t>
+  </si>
+  <si>
+    <t>1765518</t>
+  </si>
+  <si>
+    <t>2857701</t>
+  </si>
+  <si>
+    <t>2839320</t>
+  </si>
+  <si>
+    <t>2562021</t>
+  </si>
+  <si>
+    <t>2573112</t>
+  </si>
+  <si>
+    <t>3184104</t>
+  </si>
+  <si>
+    <t>3182760</t>
+  </si>
+  <si>
+    <t>3171000</t>
+  </si>
+  <si>
+    <t>3196368</t>
+  </si>
+  <si>
+    <t>3524000</t>
+  </si>
+  <si>
+    <t>3552192</t>
+  </si>
+  <si>
+    <t>2969967</t>
+  </si>
+  <si>
+    <t>2971680</t>
+  </si>
+  <si>
+    <t>0.973812</t>
+  </si>
+  <si>
+    <t>0.960720</t>
+  </si>
+  <si>
+    <t>0.974920</t>
+  </si>
+  <si>
+    <t>0.962122</t>
+  </si>
+  <si>
+    <t>0.955209</t>
+  </si>
+  <si>
+    <t>0.978950</t>
+  </si>
+  <si>
+    <t>0.964854</t>
+  </si>
+  <si>
+    <t>0.972317</t>
+  </si>
+  <si>
+    <t>0.957723</t>
+  </si>
+  <si>
+    <t>0.960627</t>
+  </si>
+  <si>
+    <t>0.951796</t>
+  </si>
+  <si>
+    <t>0.956946</t>
+  </si>
+  <si>
+    <t>0.953469</t>
+  </si>
+  <si>
+    <t>0.951983</t>
+  </si>
+  <si>
+    <t>0.960126</t>
+  </si>
+  <si>
+    <t>0.951521</t>
+  </si>
+  <si>
+    <t>0.950906</t>
+  </si>
+  <si>
+    <t>0.951042</t>
+  </si>
+  <si>
+    <t>0.960357</t>
+  </si>
+  <si>
+    <t>0.952744</t>
+  </si>
+  <si>
+    <t>0.840807</t>
+  </si>
+  <si>
+    <t>0.719388</t>
+  </si>
+  <si>
+    <t>0.562482</t>
+  </si>
+  <si>
+    <t>0.756048</t>
+  </si>
+  <si>
+    <t>0.637480</t>
+  </si>
+  <si>
+    <t>0.454976</t>
+  </si>
+  <si>
+    <t>0.764167</t>
+  </si>
+  <si>
+    <t>0.636806</t>
+  </si>
+  <si>
+    <t>0.477604</t>
+  </si>
+  <si>
+    <t>0.927914</t>
+  </si>
+  <si>
+    <t>0.875548</t>
+  </si>
+  <si>
+    <t>0.804939</t>
+  </si>
+  <si>
+    <t>0.932836</t>
+  </si>
+  <si>
+    <t>0.855411</t>
+  </si>
+  <si>
+    <t>0.724633</t>
+  </si>
+  <si>
+    <t>0.910547</t>
+  </si>
+  <si>
+    <t>0.865430</t>
+  </si>
+  <si>
+    <t>0.768197</t>
+  </si>
+  <si>
+    <t>0.707800</t>
+  </si>
+  <si>
+    <t>0.560864</t>
+  </si>
+  <si>
+    <t>0.397279</t>
+  </si>
+  <si>
+    <t>0.734744</t>
+  </si>
+  <si>
+    <t>0.596979</t>
+  </si>
+  <si>
+    <t>0.435890</t>
+  </si>
+  <si>
+    <t>0.679655</t>
+  </si>
+  <si>
+    <t>0.523773</t>
+  </si>
+  <si>
+    <t>0.361337</t>
+  </si>
+  <si>
+    <t>0.689062</t>
+  </si>
+  <si>
+    <t>0.540287</t>
+  </si>
+  <si>
+    <t>0.376149</t>
+  </si>
+  <si>
+    <t>0.669748</t>
+  </si>
+  <si>
+    <t>0.516871</t>
+  </si>
+  <si>
+    <t>0.353810</t>
+  </si>
+  <si>
+    <t>0.694736</t>
+  </si>
+  <si>
+    <t>0.549660</t>
+  </si>
+  <si>
+    <t>0.386248</t>
   </si>
 </sst>
 </file>
@@ -1829,14 +1709,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2116,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="R109" sqref="R109"/>
+    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="117" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2178,31 +2057,31 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2215,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -2224,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -2233,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
@@ -2242,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
@@ -2251,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -2271,7 +2150,7 @@
         <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -2280,51 +2159,51 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="J5" t="s">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="K5" t="s">
-        <v>343</v>
+        <v>189</v>
       </c>
       <c r="L5" t="s">
-        <v>344</v>
-      </c>
-      <c r="M5" s="4">
+        <v>190</v>
+      </c>
+      <c r="M5" s="2">
         <f>(G5-D5)/G5</f>
-        <v>9.6775114090615691E-2</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5:O16" si="0">(H5-E5)/H5</f>
-        <v>0.2073757181165323</v>
-      </c>
-      <c r="O5" s="4">
+        <v>0.12792710168189089</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5:O12" si="0">(H5-E5)/H5</f>
+        <v>0.23000895759292028</v>
+      </c>
+      <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>0.33140041892752509</v>
-      </c>
-      <c r="P5" s="4">
+        <v>0.35186470211798088</v>
+      </c>
+      <c r="P5" s="2">
         <f>(J5-D5)/J5</f>
         <v>0.65018802990151159</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
         <f t="shared" ref="Q5:R16" si="1">(K5-E5)/K5</f>
         <v>0.67431075830802734</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="2">
         <f t="shared" si="1"/>
         <v>0.67766833869440102</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>460</v>
@@ -2333,53 +2212,53 @@
         <v>566</v>
       </c>
       <c r="D6" t="s">
-        <v>345</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="J6" t="s">
-        <v>347</v>
+        <v>192</v>
       </c>
       <c r="K6" t="s">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="L6" t="s">
-        <v>349</v>
-      </c>
-      <c r="M6" s="4">
+        <v>194</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" ref="M6:M16" si="2">(G6-D6)/G6</f>
-        <v>0.20227422736500245</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.31433165856377715</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.45705280375261009</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" ref="P6:P16" si="3">(J6-D6)/J6</f>
+        <v>0.22617702775289569</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N16" si="3">(H6-E6)/H6</f>
+        <v>0.3325517617144933</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O16" si="4">(I6-F6)/I6</f>
+        <v>0.50786683985977632</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6:P16" si="5">(J6-D6)/J6</f>
         <v>0.55449140300308353</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
         <f t="shared" si="1"/>
         <v>0.59705060067337679</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="2">
         <f t="shared" si="1"/>
         <v>0.59586615941280852</v>
       </c>
@@ -2395,53 +2274,53 @@
         <v>506</v>
       </c>
       <c r="D7" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>196</v>
       </c>
       <c r="K7" t="s">
-        <v>353</v>
+        <v>197</v>
       </c>
       <c r="L7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M7" s="4">
+        <v>198</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="2"/>
-        <v>0.17884598315499731</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.30313393747324435</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.44802172159393999</v>
-      </c>
-      <c r="P7" s="4">
+        <v>0.21850056625141562</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="3"/>
+        <v>0.33431599732845485</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.47908528617475388</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="5"/>
         <v>0.67541674506114768</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
         <f t="shared" si="1"/>
         <v>0.70153946831110736</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <f t="shared" si="1"/>
         <v>0.70316215322997033</v>
       </c>
@@ -2457,53 +2336,53 @@
         <v>529</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>359</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>360</v>
       </c>
       <c r="J8" t="s">
-        <v>357</v>
+        <v>200</v>
       </c>
       <c r="K8" t="s">
-        <v>358</v>
+        <v>201</v>
       </c>
       <c r="L8" t="s">
-        <v>359</v>
-      </c>
-      <c r="M8" s="4">
+        <v>202</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>2.2494272336303921E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="0"/>
-        <v>9.478307574842243E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.15290611165835799</v>
-      </c>
-      <c r="P8" s="4">
+        <v>6.5199104517803794E-2</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="3"/>
+        <v>0.11153317552078712</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.17256789119742144</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="5"/>
         <v>0.44443955580256062</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <f t="shared" si="1"/>
         <v>0.45770348056575783</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <f t="shared" si="1"/>
         <v>0.47816022890411897</v>
       </c>
@@ -2519,53 +2398,53 @@
         <v>1898</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
         <v>361</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>363</v>
       </c>
       <c r="J9" t="s">
-        <v>362</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="L9" t="s">
-        <v>364</v>
-      </c>
-      <c r="M9" s="4">
+        <v>206</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="2"/>
-        <v>0.1073899807084106</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10961381541588926</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.29835644369252812</v>
-      </c>
-      <c r="P9" s="4">
+        <v>4.9997271552440763E-2</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="3"/>
+        <v>0.12010940159215326</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23397604266945565</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="5"/>
         <v>0.51770026926960622</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <f t="shared" si="1"/>
         <v>0.55520601352043675</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <f t="shared" si="1"/>
         <v>0.57647658372737987</v>
       </c>
@@ -2581,53 +2460,53 @@
         <v>324</v>
       </c>
       <c r="D10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H10" t="s">
         <v>365</v>
       </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>366</v>
       </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
       <c r="J10" t="s">
-        <v>367</v>
+        <v>208</v>
       </c>
       <c r="K10" t="s">
-        <v>368</v>
+        <v>209</v>
       </c>
       <c r="L10" t="s">
-        <v>369</v>
-      </c>
-      <c r="M10" s="4">
+        <v>210</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="2"/>
-        <v>6.3609948288598867E-2</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11141958790473643</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17669479989109721</v>
-      </c>
-      <c r="P10" s="4">
+        <v>8.1438323405365456E-2</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="3"/>
+        <v>0.121745598809819</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.21117502054231718</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="5"/>
         <v>0.45626286890871653</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="2">
         <f t="shared" si="1"/>
         <v>0.50204889224440918</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="2">
         <f t="shared" si="1"/>
         <v>0.51390842381913016</v>
       </c>
@@ -2643,53 +2522,53 @@
         <v>794</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>369</v>
       </c>
       <c r="J11" t="s">
-        <v>372</v>
+        <v>212</v>
       </c>
       <c r="K11" t="s">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="L11" t="s">
-        <v>374</v>
-      </c>
-      <c r="M11" s="4">
+        <v>214</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="2"/>
-        <v>0.14694362004984898</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.34594381613237302</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.50222194782260687</v>
-      </c>
-      <c r="P11" s="4">
+        <v>0.26691165005387618</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" si="3"/>
+        <v>0.41448678251661486</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.57873015553114715</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="5"/>
         <v>0.60228259129576056</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="2">
         <f t="shared" si="1"/>
         <v>0.64201806216860369</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="2">
         <f t="shared" si="1"/>
         <v>0.65491739589941234</v>
       </c>
@@ -2705,53 +2584,53 @@
         <v>695</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>372</v>
       </c>
       <c r="J12" t="s">
-        <v>377</v>
+        <v>216</v>
       </c>
       <c r="K12" t="s">
-        <v>378</v>
+        <v>217</v>
       </c>
       <c r="L12" t="s">
-        <v>379</v>
-      </c>
-      <c r="M12" s="4">
+        <v>218</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="2"/>
-        <v>0.20769946803811512</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.32723075246671696</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.47566299904553566</v>
-      </c>
-      <c r="P12" s="4">
+        <v>0.25521462339101753</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="3"/>
+        <v>0.38670316303815577</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54027385501490466</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="5"/>
         <v>0.620566874122779</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="2">
         <f t="shared" si="1"/>
         <v>0.65169127537964877</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="2">
         <f t="shared" si="1"/>
         <v>0.65963126841821862</v>
       </c>
@@ -2767,53 +2646,53 @@
         <v>894</v>
       </c>
       <c r="D13" t="s">
-        <v>380</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>374</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
       <c r="K13" t="s">
-        <v>383</v>
+        <v>221</v>
       </c>
       <c r="L13" t="s">
-        <v>384</v>
-      </c>
-      <c r="M13" s="4">
+        <v>222</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="2"/>
-        <v>0.17661604424266095</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.3811144087960916</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.52786680665506414</v>
-      </c>
-      <c r="P13" s="4">
+        <v>0.30878318966301277</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="3"/>
+        <v>0.46155542385028425</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.60760184419163055</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="5"/>
         <v>0.60136324599121582</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="2">
         <f t="shared" si="1"/>
         <v>0.63152728766997268</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="2">
         <f t="shared" si="1"/>
         <v>0.63593592587323511</v>
       </c>
@@ -2829,53 +2708,53 @@
         <v>892</v>
       </c>
       <c r="D14" t="s">
-        <v>385</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>377</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="K14" t="s">
-        <v>388</v>
+        <v>225</v>
       </c>
       <c r="L14" t="s">
-        <v>389</v>
-      </c>
-      <c r="M14" s="4">
+        <v>226</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="2"/>
-        <v>0.22955905383112241</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.39548520611026949</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.54111399259261972</v>
-      </c>
-      <c r="P14" s="4">
+        <v>0.29921569938968245</v>
+      </c>
+      <c r="N14" s="2">
         <f t="shared" si="3"/>
+        <v>0.44296021135623842</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.60378344077683455</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="5"/>
         <v>0.60078423901229205</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="2">
         <f t="shared" si="1"/>
         <v>0.63711556046116946</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="2">
         <f t="shared" si="1"/>
         <v>0.6454323669160803</v>
       </c>
@@ -2891,53 +2770,53 @@
         <v>1009</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
+        <v>227</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="J15" t="s">
-        <v>392</v>
+        <v>228</v>
       </c>
       <c r="K15" t="s">
-        <v>393</v>
+        <v>229</v>
       </c>
       <c r="L15" t="s">
-        <v>394</v>
-      </c>
-      <c r="M15" s="4">
+        <v>230</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="2"/>
-        <v>0.254854460570061</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.42699853883769145</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.57822862893695681</v>
-      </c>
-      <c r="P15" s="4">
+        <v>0.32333037353076333</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="3"/>
+        <v>0.47244656615815916</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.63156502394556213</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="5"/>
         <v>0.58996686110686725</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="2">
         <f t="shared" si="1"/>
         <v>0.62440460318189794</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="2">
         <f t="shared" si="1"/>
         <v>0.63875299153462117</v>
       </c>
@@ -2953,53 +2832,53 @@
         <v>830</v>
       </c>
       <c r="D16" t="s">
-        <v>395</v>
+        <v>231</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="J16" t="s">
-        <v>397</v>
+        <v>232</v>
       </c>
       <c r="K16" t="s">
-        <v>398</v>
+        <v>233</v>
       </c>
       <c r="L16" t="s">
-        <v>399</v>
-      </c>
-      <c r="M16" s="4">
+        <v>234</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="2"/>
-        <v>0.21312279054912328</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36067342865444962</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5299146757850689</v>
-      </c>
-      <c r="P16" s="4">
+        <v>0.29368053773309211</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="3"/>
+        <v>0.43521782538267556</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.59508251489004005</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="5"/>
         <v>0.60519322875740433</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="2">
         <f t="shared" si="1"/>
         <v>0.6385432889671061</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="2">
         <f t="shared" si="1"/>
         <v>0.64831950498870805</v>
       </c>
@@ -3008,31 +2887,31 @@
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -3045,7 +2924,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -3054,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -3063,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
         <v>23</v>
@@ -3072,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s">
         <v>23</v>
@@ -3081,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="Q19" t="s">
         <v>23</v>
@@ -3101,60 +2980,60 @@
         <v>418</v>
       </c>
       <c r="D20" t="s">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="J20" t="s">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>343</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="M20" s="1">
         <f>G20/D20</f>
-        <v>0.84485064645563979</v>
+        <v>0.83669487087178729</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20:O31" si="4">H20/E20</f>
-        <v>0.733405784114182</v>
+        <f>H20/E20</f>
+        <v>0.6980010024946226</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="4"/>
-        <v>0.3937583048530417</v>
+        <f>I20/F20</f>
+        <v>0.33097033492822969</v>
       </c>
       <c r="P20" s="1">
         <f>J20/D20</f>
         <v>3.0804427797950127</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" ref="Q20:R31" si="5">K20/E20</f>
+        <f t="shared" ref="Q20:R31" si="6">K20/E20</f>
         <v>3.54388619495221</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9930341763499659</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="B21">
         <v>460</v>
@@ -3163,54 +3042,54 @@
         <v>566</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" t="s">
-        <v>89</v>
+        <v>389</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>347</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" ref="M21:M31" si="6">G21/D21</f>
-        <v>0.8150819536433751</v>
+        <f t="shared" ref="M21:M31" si="7">G21/D21</f>
+        <v>0.68887086826605026</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="4"/>
-        <v>0.57955572116104892</v>
+        <f t="shared" ref="N21:N31" si="8">H21/E21</f>
+        <v>0.49038766178618964</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="4"/>
-        <v>5.8738477907823265E-2</v>
+        <f t="shared" ref="O21:O31" si="9">I21/F21</f>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" ref="P21:P31" si="7">J21/D21</f>
+        <f t="shared" ref="P21:P31" si="10">J21/D21</f>
         <v>2.355073600588721</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7322199116801289</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9198247745981969</v>
       </c>
     </row>
@@ -3225,54 +3104,54 @@
         <v>506</v>
       </c>
       <c r="D22" t="s">
-        <v>404</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" t="s">
-        <v>93</v>
+        <v>391</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>352</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>353</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c r="M22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.79373827304463529</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="8"/>
+        <v>0.52783685293542859</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="10"/>
+        <v>3.2281831909279153</v>
+      </c>
+      <c r="Q22" s="1">
         <f t="shared" si="6"/>
-        <v>0.77712886288712968</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="4"/>
-        <v>0.59441890641345463</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="4"/>
-        <v>9.8457464552672957E-2</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="7"/>
-        <v>3.2281831909279153</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="5"/>
         <v>3.6790097822074568</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.064473882439029</v>
       </c>
     </row>
@@ -3287,54 +3166,54 @@
         <v>529</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>393</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>394</v>
       </c>
       <c r="J23" t="s">
-        <v>357</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>358</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>359</v>
+        <v>202</v>
       </c>
       <c r="M23" s="1">
+        <f t="shared" si="7"/>
+        <v>0.96272348134269392</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="8"/>
+        <v>0.93663429426456613</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="9"/>
+        <v>0.82464463712548364</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8278064967606493</v>
+      </c>
+      <c r="Q23" s="1">
         <f t="shared" si="6"/>
-        <v>0.94405462971323661</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="4"/>
-        <v>0.94805523790017465</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="4"/>
-        <v>0.87106819695248539</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="7"/>
-        <v>1.8278064967606493</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="5"/>
         <v>1.901478756914931</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0267199010122283</v>
       </c>
     </row>
@@ -3349,54 +3228,54 @@
         <v>1898</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>397</v>
       </c>
       <c r="J24" t="s">
-        <v>362</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>364</v>
+        <v>206</v>
       </c>
       <c r="M24" s="1">
+        <f t="shared" si="7"/>
+        <v>0.94047259648041037</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.89784474730497188</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.74446381710419096</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="10"/>
+        <v>2.1523055869362637</v>
+      </c>
+      <c r="Q24" s="1">
         <f t="shared" si="6"/>
-        <v>0.91965110782606296</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="4"/>
-        <v>0.9148037195668729</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="4"/>
-        <v>0.58767840102490065</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="7"/>
-        <v>2.1523055869362637</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="5"/>
         <v>2.3825929328454722</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6522101743384465</v>
       </c>
     </row>
@@ -3411,54 +3290,54 @@
         <v>324</v>
       </c>
       <c r="D25" t="s">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>399</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>400</v>
       </c>
       <c r="J25" t="s">
-        <v>367</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>368</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="M25" s="1">
+        <f t="shared" si="7"/>
+        <v>0.97713326941514866</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="8"/>
+        <v>0.9153474903474903</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="9"/>
+        <v>0.78328332246140464</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8625759028443591</v>
+      </c>
+      <c r="Q25" s="1">
         <f t="shared" si="6"/>
-        <v>0.9742196654948333</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="4"/>
-        <v>0.9298412698412698</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="4"/>
-        <v>0.83059795607740816</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="7"/>
-        <v>1.8625759028443591</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="5"/>
         <v>2.0597919347919347</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1643139813002827</v>
       </c>
     </row>
@@ -3473,54 +3352,54 @@
         <v>794</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="3">
+        <v>402</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>372</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>374</v>
+        <v>214</v>
       </c>
       <c r="M26" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65772692436974789</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="8"/>
+        <v>0.29410675060532687</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="10"/>
+        <v>2.5557608643457383</v>
+      </c>
+      <c r="Q26" s="1">
         <f t="shared" si="6"/>
-        <v>0.62925247539015605</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="4"/>
-        <v>0.43205795641646488</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="7"/>
-        <v>2.5557608643457383</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="5"/>
         <v>2.88623595157385</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0937120394088669</v>
       </c>
     </row>
@@ -3535,54 +3414,54 @@
         <v>695</v>
       </c>
       <c r="D27" t="s">
-        <v>414</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" t="s">
-        <v>112</v>
+        <v>404</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>377</v>
+        <v>216</v>
       </c>
       <c r="K27" t="s">
-        <v>378</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s">
-        <v>379</v>
+        <v>218</v>
       </c>
       <c r="M27" s="1">
+        <f t="shared" si="7"/>
+        <v>0.74351313010010833</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="8"/>
+        <v>0.431134096618496</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="10"/>
+        <v>2.7103779277333109</v>
+      </c>
+      <c r="Q27" s="1">
         <f t="shared" si="6"/>
-        <v>0.78857071979332183</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="4"/>
-        <v>0.53819241562123887</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="4"/>
-        <v>9.6125640752851557E-2</v>
-      </c>
-      <c r="P27" s="1">
-        <f t="shared" si="7"/>
-        <v>2.7103779277333109</v>
-      </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="5"/>
         <v>3.0365380947690039</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.278942156435698</v>
       </c>
     </row>
@@ -3597,54 +3476,54 @@
         <v>894</v>
       </c>
       <c r="D28" t="s">
-        <v>416</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>406</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>383</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s">
-        <v>384</v>
+        <v>222</v>
       </c>
       <c r="M28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.61565155179935849</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="8"/>
+        <v>0.18038747529544194</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="10"/>
+        <v>2.5970764490235516</v>
+      </c>
+      <c r="Q28" s="1">
         <f t="shared" si="6"/>
-        <v>0.60134613048547525</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" si="4"/>
-        <v>0.36160277082269626</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="7"/>
-        <v>2.5970764490235516</v>
-      </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="5"/>
         <v>2.8732178347682629</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0719168349318524</v>
       </c>
     </row>
@@ -3659,54 +3538,54 @@
         <v>892</v>
       </c>
       <c r="D29" t="s">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>408</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>388</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>389</v>
+        <v>226</v>
       </c>
       <c r="M29" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65516402689831132</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.2433506110626471</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="10"/>
+        <v>2.59330975057191</v>
+      </c>
+      <c r="Q29" s="1">
         <f t="shared" si="6"/>
-        <v>0.64808193817428972</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="4"/>
-        <v>0.38114143054328548</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" si="7"/>
-        <v>2.59330975057191</v>
-      </c>
-      <c r="Q29" s="1">
-        <f t="shared" si="5"/>
         <v>2.9350463359124817</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1436553818435158</v>
       </c>
     </row>
@@ -3721,54 +3600,54 @@
         <v>1009</v>
       </c>
       <c r="D30" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>410</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>392</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>393</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>394</v>
+        <v>230</v>
       </c>
       <c r="M30" s="1">
+        <f t="shared" si="7"/>
+        <v>0.60792925243477602</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="8"/>
+        <v>0.15471319326077757</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="10"/>
+        <v>2.4905948281426653</v>
+      </c>
+      <c r="Q30" s="1">
         <f t="shared" si="6"/>
-        <v>0.6382258223542655</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" si="4"/>
-        <v>0.31240389744149993</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <f t="shared" si="7"/>
-        <v>2.4905948281426653</v>
-      </c>
-      <c r="Q30" s="1">
-        <f t="shared" si="5"/>
         <v>2.776699448849278</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0110802500798459</v>
       </c>
     </row>
@@ -3783,54 +3662,54 @@
         <v>830</v>
       </c>
       <c r="D31" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>397</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s">
-        <v>398</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
-        <v>399</v>
+        <v>234</v>
       </c>
       <c r="M31" s="1">
+        <f t="shared" si="7"/>
+        <v>0.64744013297504466</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="8"/>
+        <v>0.27009463897880548</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="10"/>
+        <v>2.6205217437718469</v>
+      </c>
+      <c r="Q31" s="1">
         <f t="shared" si="6"/>
-        <v>0.67201770556315754</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" si="4"/>
-        <v>0.40838556376633511</v>
-      </c>
-      <c r="O31" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
-        <f t="shared" si="7"/>
-        <v>2.6205217437718469</v>
-      </c>
-      <c r="Q31" s="1">
-        <f t="shared" si="5"/>
         <v>2.9260566704061133</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1378162496455553</v>
       </c>
     </row>
@@ -3838,31 +3717,31 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -3875,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -3884,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="H34" t="s">
         <v>23</v>
@@ -3893,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s">
         <v>23</v>
@@ -3902,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="N34" t="s">
         <v>23</v>
@@ -3911,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="Q34" t="s">
         <v>23</v>
@@ -3931,22 +3810,22 @@
         <v>418</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>247</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>413</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>414</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>415</v>
       </c>
       <c r="J35" t="s">
         <v>25</v>
@@ -3959,32 +3838,32 @@
       </c>
       <c r="M35" s="1">
         <f>G35/D35</f>
-        <v>4.4882690592955861</v>
+        <v>5.1427644174031624</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" ref="N35:O46" si="8">H35/E35</f>
-        <v>4.6870974837196204</v>
+        <f>H35/E35</f>
+        <v>5.1942647875655474</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="8"/>
-        <v>5.333966666666667</v>
+        <f>I35/F35</f>
+        <v>5.7644000000000002</v>
       </c>
       <c r="P35">
         <f>J35/D35</f>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" ref="Q35:R46" si="9">K35/E35</f>
+        <f t="shared" ref="Q35:R46" si="11">K35/E35</f>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="B36">
         <v>460</v>
@@ -3993,22 +3872,22 @@
         <v>566</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>417</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>418</v>
       </c>
       <c r="J36" t="s">
         <v>25</v>
@@ -4020,27 +3899,27 @@
         <v>25</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" ref="M36:M46" si="10">G36/D36</f>
-        <v>10.16478978978979</v>
+        <f t="shared" ref="M36:M46" si="12">G36/D36</f>
+        <v>13.555425083202861</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="8"/>
-        <v>10.16478978978979</v>
+        <f t="shared" ref="N36:N46" si="13">H36/E36</f>
+        <v>11.482315648982315</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="8"/>
-        <v>11.747695581564653</v>
+        <f t="shared" ref="O36:O46" si="14">I36/F36</f>
+        <v>14.089196269125708</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P46" si="11">J36/D36</f>
+        <f t="shared" ref="P36:P46" si="15">J36/D36</f>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4055,22 +3934,22 @@
         <v>506</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>419</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
+        <v>419</v>
       </c>
       <c r="J37" t="s">
         <v>25</v>
@@ -4082,27 +3961,27 @@
         <v>25</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="10"/>
-        <v>10.434085727314182</v>
+        <f t="shared" si="12"/>
+        <v>11.440863787375415</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="8"/>
-        <v>10.008882157514169</v>
+        <f t="shared" si="13"/>
+        <v>11.440863787375415</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="8"/>
-        <v>10.108487232102144</v>
+        <f t="shared" si="14"/>
+        <v>11.440863787375415</v>
       </c>
       <c r="P37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4117,22 +3996,22 @@
         <v>529</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>420</v>
       </c>
       <c r="H38" t="s">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="I38" t="s">
-        <v>139</v>
+        <v>421</v>
       </c>
       <c r="J38" t="s">
         <v>25</v>
@@ -4144,27 +4023,27 @@
         <v>25</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="10"/>
-        <v>6.1312045516779747</v>
+        <f t="shared" si="12"/>
+        <v>7.9936714637782575</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="8"/>
-        <v>6.1312045516779747</v>
+        <f t="shared" si="13"/>
+        <v>7.1867648401131836</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="8"/>
-        <v>6.5505538227767115</v>
+        <f t="shared" si="14"/>
+        <v>7.8710612603966732</v>
       </c>
       <c r="P38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q38">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4179,22 +4058,22 @@
         <v>1898</v>
       </c>
       <c r="D39" t="s">
-        <v>426</v>
+        <v>248</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>423</v>
       </c>
       <c r="I39" t="s">
-        <v>142</v>
+        <v>424</v>
       </c>
       <c r="J39" t="s">
         <v>25</v>
@@ -4206,27 +4085,27 @@
         <v>25</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="10"/>
-        <v>6.3929828286378099</v>
+        <f t="shared" si="12"/>
+        <v>3.999726663933306</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="8"/>
-        <v>4.6086162913441235</v>
+        <f t="shared" si="13"/>
+        <v>5.129948099929627</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="8"/>
-        <v>8.2194615838946419</v>
+        <f t="shared" si="14"/>
+        <v>5.8561375289031865</v>
       </c>
       <c r="P39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4241,22 +4120,22 @@
         <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H40" t="s">
-        <v>144</v>
+        <v>425</v>
       </c>
       <c r="I40" t="s">
-        <v>145</v>
+        <v>426</v>
       </c>
       <c r="J40" t="s">
         <v>25</v>
@@ -4268,27 +4147,27 @@
         <v>25</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="10"/>
-        <v>8.41687552213868</v>
+        <f t="shared" si="12"/>
+        <v>9.8345864661654137</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="8"/>
-        <v>8.7415204678362581</v>
+        <f t="shared" si="13"/>
+        <v>9.8345864661654137</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="8"/>
-        <v>8.5918128654970758</v>
+        <f t="shared" si="14"/>
+        <v>10.573767752715121</v>
       </c>
       <c r="P40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4303,22 +4182,22 @@
         <v>794</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>428</v>
       </c>
       <c r="I41" t="s">
-        <v>148</v>
+        <v>428</v>
       </c>
       <c r="J41" t="s">
         <v>25</v>
@@ -4330,27 +4209,27 @@
         <v>25</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="10"/>
-        <v>34.140293877551024</v>
+        <f t="shared" si="12"/>
+        <v>44.250546938775507</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="8"/>
-        <v>34.546725947521864</v>
+        <f t="shared" si="13"/>
+        <v>44.266067055393584</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="8"/>
-        <v>32.479509620991251</v>
+        <f t="shared" si="14"/>
+        <v>44.266067055393584</v>
       </c>
       <c r="P41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4365,22 +4244,22 @@
         <v>695</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>429</v>
       </c>
       <c r="H42" t="s">
-        <v>151</v>
+        <v>429</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>429</v>
       </c>
       <c r="J42" t="s">
         <v>25</v>
@@ -4392,27 +4271,27 @@
         <v>25</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="10"/>
-        <v>17.933171528161214</v>
+        <f t="shared" si="12"/>
+        <v>22.434370670469598</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="8"/>
-        <v>17.933171528161214</v>
+        <f t="shared" si="13"/>
+        <v>22.434370670469598</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="8"/>
-        <v>17.512981479410101</v>
+        <f t="shared" si="14"/>
+        <v>22.911309656283404</v>
       </c>
       <c r="P42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4427,22 +4306,22 @@
         <v>894</v>
       </c>
       <c r="D43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" t="s">
         <v>430</v>
       </c>
-      <c r="E43" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>431</v>
       </c>
-      <c r="H43" t="s">
-        <v>155</v>
-      </c>
       <c r="I43" t="s">
-        <v>156</v>
+        <v>431</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
@@ -4454,27 +4333,27 @@
         <v>25</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="10"/>
-        <v>18.589164823853448</v>
+        <f t="shared" si="12"/>
+        <v>24.996442569268098</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="8"/>
-        <v>22.981295664964435</v>
+        <f t="shared" si="13"/>
+        <v>30.421873004693929</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="8"/>
-        <v>21.869722814498935</v>
+        <f t="shared" si="14"/>
+        <v>30.172413646055436</v>
       </c>
       <c r="P43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4489,22 +4368,22 @@
         <v>892</v>
       </c>
       <c r="D44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" t="s">
         <v>432</v>
       </c>
-      <c r="E44" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" t="s">
-        <v>433</v>
-      </c>
       <c r="H44" t="s">
-        <v>159</v>
+        <v>432</v>
       </c>
       <c r="I44" t="s">
-        <v>160</v>
+        <v>432</v>
       </c>
       <c r="J44" t="s">
         <v>25</v>
@@ -4516,27 +4395,27 @@
         <v>25</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="10"/>
-        <v>19.713196416880162</v>
+        <f t="shared" si="12"/>
+        <v>23.297356105813858</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="8"/>
-        <v>21.215160741255723</v>
+        <f t="shared" si="13"/>
+        <v>25.639552817267198</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="8"/>
-        <v>23.20074585972338</v>
+        <f t="shared" si="14"/>
+        <v>29.82052198562884</v>
       </c>
       <c r="P44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4551,22 +4430,22 @@
         <v>1009</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>433</v>
       </c>
       <c r="I45" t="s">
-        <v>163</v>
+        <v>433</v>
       </c>
       <c r="J45" t="s">
         <v>25</v>
@@ -4578,27 +4457,27 @@
         <v>25</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="10"/>
-        <v>34.498531702835947</v>
+        <f t="shared" si="12"/>
+        <v>42.459630647130645</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="8"/>
-        <v>35.131532284539361</v>
+        <f t="shared" si="13"/>
+        <v>42.459630647130645</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="8"/>
-        <v>34.113328495403969</v>
+        <f t="shared" si="14"/>
+        <v>42.459630647130645</v>
       </c>
       <c r="P45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4613,22 +4492,22 @@
         <v>830</v>
       </c>
       <c r="D46" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>434</v>
+      </c>
+      <c r="H46" t="s">
         <v>435</v>
       </c>
-      <c r="E46" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" t="s">
-        <v>436</v>
-      </c>
-      <c r="H46" t="s">
-        <v>166</v>
-      </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>435</v>
       </c>
       <c r="J46" t="s">
         <v>25</v>
@@ -4640,27 +4519,27 @@
         <v>25</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="10"/>
-        <v>18.578167225918222</v>
+        <f t="shared" si="12"/>
+        <v>23.622606392564094</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="8"/>
-        <v>21.614522861930695</v>
+        <f t="shared" si="13"/>
+        <v>27.801580734933271</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="8"/>
-        <v>24.120908470827118</v>
+        <f t="shared" si="14"/>
+        <v>31.665794562620864</v>
       </c>
       <c r="P46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q46">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="R46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4668,31 +4547,31 @@
       <c r="A48" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -4705,7 +4584,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
@@ -4714,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="H49" t="s">
         <v>23</v>
@@ -4723,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="K49" t="s">
         <v>23</v>
@@ -4732,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="N49" t="s">
         <v>23</v>
@@ -4741,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="Q49" t="s">
         <v>23</v>
@@ -4761,22 +4640,22 @@
         <v>418</v>
       </c>
       <c r="D50" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>436</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="I50" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="J50" t="s">
         <v>25</v>
@@ -4789,14 +4668,14 @@
       </c>
       <c r="M50" s="1">
         <f>G50/D50</f>
-        <v>1.0625</v>
+        <v>1.125</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" ref="N50:O61" si="12">H50/E50</f>
-        <v>1.0303030303030303</v>
+        <f>H50/E50</f>
+        <v>1.0606060606060606</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="12"/>
+        <f>I50/F50</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="P50">
@@ -4804,17 +4683,17 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" ref="Q50:R61" si="13">K50/E50</f>
+        <f t="shared" ref="Q50:R61" si="16">K50/E50</f>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="B51">
         <v>460</v>
@@ -4823,22 +4702,22 @@
         <v>566</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>437</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="I51" t="s">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="J51" t="s">
         <v>25</v>
@@ -4850,27 +4729,27 @@
         <v>25</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" ref="M51:M61" si="14">G51/D51</f>
-        <v>1.125</v>
+        <f t="shared" ref="M51:M61" si="17">G51/D51</f>
+        <v>1.2708333333333333</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="12"/>
-        <v>1.125</v>
+        <f t="shared" ref="N51:N61" si="18">H51/E51</f>
+        <v>1.0833333333333333</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="12"/>
-        <v>1.2</v>
+        <f t="shared" ref="O51:O61" si="19">I51/F51</f>
+        <v>1.2222222222222223</v>
       </c>
       <c r="P51">
-        <f t="shared" ref="P51:P61" si="15">J51/D51</f>
+        <f t="shared" ref="P51:P61" si="20">J51/D51</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4885,22 +4764,22 @@
         <v>506</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="G52" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="I52" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="J52" t="s">
         <v>25</v>
@@ -4912,27 +4791,27 @@
         <v>25</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="14"/>
-        <v>1.4857142857142858</v>
+        <f t="shared" si="17"/>
+        <v>1.4571428571428571</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4857142857142858</v>
+        <f t="shared" si="18"/>
+        <v>1.4571428571428571</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5142857142857142</v>
+        <f t="shared" si="19"/>
+        <v>1.4571428571428571</v>
       </c>
       <c r="P52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4947,22 +4826,22 @@
         <v>529</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="H53" t="s">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="I53" t="s">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="J53" t="s">
         <v>25</v>
@@ -4974,27 +4853,27 @@
         <v>25</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="14"/>
-        <v>0.56521739130434778</v>
+        <f t="shared" si="17"/>
+        <v>0.52173913043478259</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="12"/>
-        <v>0.56521739130434778</v>
+        <f t="shared" si="18"/>
+        <v>0.47826086956521741</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="12"/>
-        <v>0.54166666666666663</v>
+        <f t="shared" si="19"/>
+        <v>0.45833333333333331</v>
       </c>
       <c r="P53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5009,22 +4888,22 @@
         <v>1898</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="H54" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
+        <v>441</v>
       </c>
       <c r="J54" t="s">
         <v>25</v>
@@ -5036,27 +4915,27 @@
         <v>25</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="14"/>
-        <v>0.44642857142857145</v>
+        <f t="shared" si="17"/>
+        <v>0.25</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="12"/>
-        <v>0.43103448275862066</v>
+        <f t="shared" si="19"/>
+        <v>0.27586206896551724</v>
       </c>
       <c r="P54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5071,22 +4950,22 @@
         <v>324</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="H55" t="s">
-        <v>182</v>
+        <v>439</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="J55" t="s">
         <v>25</v>
@@ -5098,27 +4977,27 @@
         <v>25</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="18"/>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="19"/>
         <v>0.68421052631578949</v>
       </c>
-      <c r="N55" s="1">
-        <f t="shared" si="12"/>
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="O55" s="1">
-        <f t="shared" si="12"/>
-        <v>0.73684210526315785</v>
-      </c>
       <c r="P55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5133,22 +5012,22 @@
         <v>794</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
-        <v>191</v>
+        <v>442</v>
       </c>
       <c r="H56" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="J56" t="s">
         <v>25</v>
@@ -5160,27 +5039,27 @@
         <v>25</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="14"/>
-        <v>1.7142857142857142</v>
+        <f t="shared" si="17"/>
+        <v>1.6734693877551021</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.7346938775510203</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7755102040816326</v>
+        <f t="shared" si="19"/>
+        <v>1.7346938775510203</v>
       </c>
       <c r="P56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5195,22 +5074,22 @@
         <v>695</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>443</v>
       </c>
       <c r="H57" t="s">
-        <v>189</v>
+        <v>443</v>
       </c>
       <c r="I57" t="s">
-        <v>190</v>
+        <v>443</v>
       </c>
       <c r="J57" t="s">
         <v>25</v>
@@ -5222,27 +5101,27 @@
         <v>25</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="14"/>
-        <v>1.7380952380952381</v>
+        <f t="shared" si="17"/>
+        <v>1.6428571428571428</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7380952380952381</v>
+        <f t="shared" si="18"/>
+        <v>1.6428571428571428</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="12"/>
-        <v>1.574468085106383</v>
+        <f t="shared" si="19"/>
+        <v>1.4680851063829787</v>
       </c>
       <c r="P57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5257,22 +5136,22 @@
         <v>894</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>444</v>
       </c>
       <c r="I58" t="s">
-        <v>195</v>
+        <v>444</v>
       </c>
       <c r="J58" t="s">
         <v>25</v>
@@ -5284,27 +5163,27 @@
         <v>25</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.8461538461538463</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7017543859649122</v>
+        <f t="shared" si="18"/>
+        <v>1.736842105263158</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4925373134328359</v>
+        <f t="shared" si="19"/>
+        <v>1.4776119402985075</v>
       </c>
       <c r="P58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5319,22 +5198,22 @@
         <v>892</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
-        <v>438</v>
+        <v>121</v>
       </c>
       <c r="H59" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="I59" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="J59" t="s">
         <v>25</v>
@@ -5346,27 +5225,27 @@
         <v>25</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="14"/>
-        <v>1.8269230769230769</v>
+        <f t="shared" si="17"/>
+        <v>1.8461538461538463</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.5238095238095237</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5076923076923077</v>
+        <f t="shared" si="19"/>
+        <v>1.476923076923077</v>
       </c>
       <c r="P59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5381,22 +5260,22 @@
         <v>1009</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="G60" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>445</v>
       </c>
       <c r="I60" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="J60" t="s">
         <v>25</v>
@@ -5408,27 +5287,27 @@
         <v>25</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="14"/>
-        <v>1.7301587301587302</v>
+        <f t="shared" si="17"/>
+        <v>1.6825396825396826</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7619047619047619</v>
+        <f t="shared" si="18"/>
+        <v>1.6825396825396826</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7777777777777777</v>
+        <f t="shared" si="19"/>
+        <v>1.6825396825396826</v>
       </c>
       <c r="P60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5443,22 +5322,22 @@
         <v>830</v>
       </c>
       <c r="D61" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="E61" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="F61" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="G61" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H61" t="s">
-        <v>204</v>
+        <v>446</v>
       </c>
       <c r="I61" t="s">
-        <v>205</v>
+        <v>446</v>
       </c>
       <c r="J61" t="s">
         <v>25</v>
@@ -5470,27 +5349,27 @@
         <v>25</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="14"/>
-        <v>1.7254901960784315</v>
+        <f t="shared" si="17"/>
+        <v>1.7450980392156863</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="12"/>
-        <v>1.6071428571428572</v>
+        <f t="shared" si="18"/>
+        <v>1.5892857142857142</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5593220338983051</v>
+        <f t="shared" si="19"/>
+        <v>1.5084745762711864</v>
       </c>
       <c r="P61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -5498,31 +5377,31 @@
       <c r="A63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -5535,7 +5414,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
@@ -5544,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
@@ -5553,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="K64" t="s">
         <v>23</v>
@@ -5562,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="N64" t="s">
         <v>23</v>
@@ -5571,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="Q64" t="s">
         <v>23</v>
@@ -5591,60 +5470,60 @@
         <v>418</v>
       </c>
       <c r="D65" t="s">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="E65" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="G65" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H65" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="I65" t="s">
-        <v>209</v>
+        <v>449</v>
       </c>
       <c r="J65" t="s">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="K65" t="s">
-        <v>445</v>
+        <v>256</v>
       </c>
       <c r="L65" t="s">
-        <v>446</v>
+        <v>257</v>
       </c>
       <c r="M65" s="1">
         <f>G65/D65</f>
-        <v>0.99520062101914297</v>
+        <v>1.0035390241190054</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" ref="N65:O76" si="16">H65/E65</f>
-        <v>1.0045823668427099</v>
+        <f>H65/E65</f>
+        <v>0.99840665557113595</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0163701067615658</v>
+        <f>I65/F65</f>
+        <v>1.0215939545714161</v>
       </c>
       <c r="P65" s="1">
         <f>J65/D65</f>
         <v>0.98059097123643424</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" ref="Q65:R76" si="17">K65/E65</f>
+        <f t="shared" ref="Q65:R76" si="21">K65/E65</f>
         <v>0.98104477090349951</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.98275119722332061</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="B66">
         <v>460</v>
@@ -5653,54 +5532,54 @@
         <v>566</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="G66" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H66" t="s">
-        <v>212</v>
+        <v>451</v>
       </c>
       <c r="I66" t="s">
-        <v>212</v>
+        <v>452</v>
       </c>
       <c r="J66" t="s">
-        <v>448</v>
+        <v>258</v>
       </c>
       <c r="K66" t="s">
-        <v>449</v>
+        <v>259</v>
       </c>
       <c r="L66" t="s">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" ref="M66:M76" si="18">G66/D66</f>
-        <v>0.98916494845360825</v>
+        <f t="shared" ref="M66:M76" si="22">G66/D66</f>
+        <v>0.97259606373008434</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="16"/>
-        <v>0.99344704779756321</v>
+        <f t="shared" ref="N66:N76" si="23">H66/E66</f>
+        <v>0.98099999999999998</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="16"/>
-        <v>0.99203198436719131</v>
+        <f t="shared" ref="O66:O76" si="24">I66/F66</f>
+        <v>0.98860856397902896</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" ref="P66:P76" si="19">J66/D66</f>
+        <f t="shared" ref="P66:P76" si="25">J66/D66</f>
         <v>0.9936269915651359</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.99156794751640109</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.98903719343167473</v>
       </c>
     </row>
@@ -5715,54 +5594,54 @@
         <v>506</v>
       </c>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="G67" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H67" t="s">
-        <v>214</v>
+        <v>453</v>
       </c>
       <c r="I67" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="J67" t="s">
-        <v>452</v>
+        <v>261</v>
       </c>
       <c r="K67" t="s">
-        <v>453</v>
+        <v>262</v>
       </c>
       <c r="L67" t="s">
-        <v>454</v>
+        <v>263</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="18"/>
-        <v>0.96457023060796643</v>
+        <f t="shared" si="22"/>
+        <v>0.95775681341719077</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="16"/>
-        <v>0.97371907756813414</v>
+        <f t="shared" si="23"/>
+        <v>0.95775681341719077</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="16"/>
-        <v>0.96100733752620549</v>
+        <f t="shared" si="24"/>
+        <v>0.95775681341719077</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.99308176100628931</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.99336373165618452</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.98893081761006285</v>
       </c>
     </row>
@@ -5777,54 +5656,54 @@
         <v>529</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="G68" t="s">
+        <v>454</v>
+      </c>
+      <c r="H68" t="s">
         <v>455</v>
       </c>
-      <c r="H68" t="s">
-        <v>218</v>
-      </c>
       <c r="I68" t="s">
-        <v>219</v>
+        <v>455</v>
       </c>
       <c r="J68" t="s">
-        <v>456</v>
+        <v>264</v>
       </c>
       <c r="K68" t="s">
-        <v>457</v>
+        <v>265</v>
       </c>
       <c r="L68" t="s">
-        <v>458</v>
+        <v>266</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="18"/>
-        <v>0.97165250000000003</v>
+        <f t="shared" si="22"/>
+        <v>0.97691666666666666</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="16"/>
-        <v>0.9721616666666667</v>
+        <f t="shared" si="23"/>
+        <v>0.98414333333333337</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="16"/>
-        <v>0.98230826858558851</v>
+        <f t="shared" si="24"/>
+        <v>0.98633052126423681</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.0015000000000001</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.99833833333333333</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0035319988741702</v>
       </c>
     </row>
@@ -5839,54 +5718,54 @@
         <v>1898</v>
       </c>
       <c r="D69" t="s">
-        <v>459</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="G69" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H69" t="s">
-        <v>222</v>
+        <v>457</v>
       </c>
       <c r="I69" t="s">
-        <v>223</v>
+        <v>458</v>
       </c>
       <c r="J69" t="s">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="K69" t="s">
-        <v>462</v>
+        <v>269</v>
       </c>
       <c r="L69" t="s">
-        <v>463</v>
+        <v>270</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="18"/>
-        <v>0.99691118160190328</v>
+        <f t="shared" si="22"/>
+        <v>0.99471530531324348</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0002768824306474</v>
+        <f t="shared" si="23"/>
+        <v>0.99639630118890354</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0023055041016142</v>
+        <f t="shared" si="24"/>
+        <v>1.0110148187351151</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.99270420301348139</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.99005416116248346</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.99424397988885949</v>
       </c>
     </row>
@@ -5901,54 +5780,54 @@
         <v>324</v>
       </c>
       <c r="D70" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="G70" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H70" t="s">
-        <v>225</v>
+        <v>459</v>
       </c>
       <c r="I70" t="s">
-        <v>226</v>
+        <v>460</v>
       </c>
       <c r="J70" t="s">
-        <v>465</v>
+        <v>271</v>
       </c>
       <c r="K70" t="s">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="L70" t="s">
-        <v>467</v>
+        <v>273</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="18"/>
-        <v>0.9759562841530055</v>
+        <f t="shared" si="22"/>
+        <v>0.96284153005464479</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="16"/>
-        <v>0.9825715846994536</v>
+        <f t="shared" si="23"/>
+        <v>0.96284153005464479</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="16"/>
-        <v>0.9823005464480874</v>
+        <f t="shared" si="24"/>
+        <v>0.96476393442622954</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.020983606557377</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0229584699453551</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0192524590163934</v>
       </c>
     </row>
@@ -5963,54 +5842,54 @@
         <v>794</v>
       </c>
       <c r="D71" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="H71" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="I71" t="s">
-        <v>229</v>
+        <v>462</v>
       </c>
       <c r="J71" t="s">
-        <v>469</v>
+        <v>274</v>
       </c>
       <c r="K71" t="s">
-        <v>470</v>
+        <v>275</v>
       </c>
       <c r="L71" t="s">
-        <v>471</v>
+        <v>276</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="18"/>
-        <v>1.0259611231101511</v>
+        <f t="shared" si="22"/>
+        <v>1.0286900647948165</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0315334773218143</v>
+        <f t="shared" si="23"/>
+        <v>1.02207343412527</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0307386609071274</v>
+        <f t="shared" si="24"/>
+        <v>1.02207343412527</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.0241900647948163</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0278473722102233</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0179524838012959</v>
       </c>
     </row>
@@ -6025,54 +5904,54 @@
         <v>695</v>
       </c>
       <c r="D72" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="G72" t="s">
-        <v>232</v>
+        <v>463</v>
       </c>
       <c r="H72" t="s">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="I72" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="J72" t="s">
-        <v>472</v>
+        <v>277</v>
       </c>
       <c r="K72" t="s">
-        <v>473</v>
+        <v>278</v>
       </c>
       <c r="L72" t="s">
-        <v>474</v>
+        <v>279</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="18"/>
-        <v>0.98521939953810622</v>
+        <f t="shared" si="22"/>
+        <v>0.9861512702078522</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="16"/>
-        <v>0.98521939953810622</v>
+        <f t="shared" si="23"/>
+        <v>0.99042032332563512</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0117442441149627</v>
+        <f t="shared" si="24"/>
+        <v>1.0070399714456129</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.97690531177829099</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.98409699769053116</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.99914055051731343</v>
       </c>
     </row>
@@ -6087,54 +5966,54 @@
         <v>894</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="G73" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H73" t="s">
-        <v>236</v>
+        <v>466</v>
       </c>
       <c r="I73" t="s">
-        <v>237</v>
+        <v>466</v>
       </c>
       <c r="J73" t="s">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="K73" t="s">
-        <v>477</v>
+        <v>281</v>
       </c>
       <c r="L73" t="s">
-        <v>478</v>
+        <v>282</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="18"/>
-        <v>0.99861423220973777</v>
+        <f t="shared" si="22"/>
+        <v>0.99379026217228461</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="16"/>
-        <v>0.99226450405489708</v>
+        <f t="shared" si="23"/>
+        <v>0.99275109170305675</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0217055449330783</v>
+        <f t="shared" si="24"/>
+        <v>1.0142638623326961</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.9887640449438202</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.98919151590767307</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0065570427023582</v>
       </c>
     </row>
@@ -6149,54 +6028,54 @@
         <v>892</v>
       </c>
       <c r="D74" t="s">
-        <v>479</v>
+        <v>283</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="G74" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="H74" t="s">
-        <v>240</v>
+        <v>467</v>
       </c>
       <c r="I74" t="s">
-        <v>241</v>
+        <v>468</v>
       </c>
       <c r="J74" t="s">
-        <v>481</v>
+        <v>284</v>
       </c>
       <c r="K74" t="s">
-        <v>482</v>
+        <v>285</v>
       </c>
       <c r="L74" t="s">
-        <v>483</v>
+        <v>286</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="18"/>
-        <v>0.99215514018691586</v>
+        <f t="shared" si="22"/>
+        <v>0.98785046728971959</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="16"/>
-        <v>0.98951310861423225</v>
+        <f t="shared" si="23"/>
+        <v>0.98970037453183524</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0207503497392854</v>
+        <f t="shared" si="24"/>
+        <v>1.0162685997710796</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.98093457943925233</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.97546004993757807</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0048022383314257</v>
       </c>
     </row>
@@ -6211,54 +6090,54 @@
         <v>1009</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="G75" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="H75" t="s">
-        <v>243</v>
+        <v>469</v>
       </c>
       <c r="I75" t="s">
-        <v>244</v>
+        <v>470</v>
       </c>
       <c r="J75" t="s">
-        <v>485</v>
+        <v>287</v>
       </c>
       <c r="K75" t="s">
-        <v>486</v>
+        <v>288</v>
       </c>
       <c r="L75" t="s">
-        <v>487</v>
+        <v>289</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="18"/>
-        <v>1.0082051282051283</v>
+        <f t="shared" si="22"/>
+        <v>1.0039886039886039</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0095794871794872</v>
+        <f t="shared" si="23"/>
+        <v>1.0039886039886039</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0134358974358975</v>
+        <f t="shared" si="24"/>
+        <v>1.0120205128205129</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.98598290598290594</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.9897504273504274</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.99119772079772084</v>
       </c>
     </row>
@@ -6273,54 +6152,54 @@
         <v>830</v>
       </c>
       <c r="D76" t="s">
-        <v>488</v>
+        <v>290</v>
       </c>
       <c r="E76" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="G76" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="H76" t="s">
-        <v>247</v>
+        <v>472</v>
       </c>
       <c r="I76" t="s">
-        <v>248</v>
+        <v>472</v>
       </c>
       <c r="J76" t="s">
-        <v>490</v>
+        <v>291</v>
       </c>
       <c r="K76" t="s">
-        <v>491</v>
+        <v>292</v>
       </c>
       <c r="L76" t="s">
-        <v>492</v>
+        <v>293</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="18"/>
-        <v>0.98869781312127236</v>
+        <f t="shared" si="22"/>
+        <v>0.9840844930417495</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="16"/>
-        <v>0.99003984063745021</v>
+        <f t="shared" si="23"/>
+        <v>0.98661354581673311</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0211016028253193</v>
+        <f t="shared" si="24"/>
+        <v>1.0091279543602283</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.979324055666004</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.97102124833997339</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0017169247487097</v>
       </c>
     </row>
@@ -6328,31 +6207,31 @@
       <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2" t="s">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -6365,7 +6244,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -6374,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="H79" t="s">
         <v>23</v>
@@ -6383,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="K79" t="s">
         <v>23</v>
@@ -6392,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="N79" t="s">
         <v>23</v>
@@ -6401,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="Q79" t="s">
         <v>23</v>
@@ -6421,60 +6300,60 @@
         <v>418</v>
       </c>
       <c r="D80" t="s">
-        <v>493</v>
+        <v>294</v>
       </c>
       <c r="E80" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="G80" t="s">
-        <v>494</v>
+        <v>154</v>
       </c>
       <c r="H80" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="I80" t="s">
-        <v>252</v>
+        <v>474</v>
       </c>
       <c r="J80" t="s">
-        <v>495</v>
+        <v>295</v>
       </c>
       <c r="K80" t="s">
-        <v>496</v>
+        <v>296</v>
       </c>
       <c r="L80" t="s">
-        <v>497</v>
+        <v>297</v>
       </c>
       <c r="M80" s="1">
         <f>G80/D80</f>
-        <v>0.97994463900350204</v>
+        <v>1.0000180003240058</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" ref="N80:O91" si="20">H80/E80</f>
-        <v>0.94985659885279083</v>
+        <f>H80/E80</f>
+        <v>0.97381979055832446</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="20"/>
-        <v>0.94862405316270382</v>
+        <f>I80/F80</f>
+        <v>0.98767158213325223</v>
       </c>
       <c r="P80" s="1">
         <f>J80/D80</f>
         <v>0.33727607096927747</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" ref="Q80:R91" si="21">K80/E80</f>
+        <f t="shared" ref="Q80:R91" si="26">K80/E80</f>
         <v>0.30428743429947441</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.28758255269802369</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="B81">
         <v>460</v>
@@ -6483,54 +6362,54 @@
         <v>566</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="G81" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="H81" t="s">
-        <v>255</v>
+        <v>475</v>
       </c>
       <c r="I81" t="s">
-        <v>256</v>
+        <v>476</v>
       </c>
       <c r="J81" t="s">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="K81" t="s">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="L81" t="s">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" ref="M81:M91" si="22">G81/D81</f>
-        <v>0.9027940279402793</v>
+        <f t="shared" ref="M81:M91" si="27">G81/D81</f>
+        <v>1.000010000100001</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="20"/>
-        <v>0.9027940279402793</v>
+        <f t="shared" ref="N81:N91" si="28">H81/E81</f>
+        <v>0.97492974929749299</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="20"/>
-        <v>0.90568871706615117</v>
+        <f t="shared" ref="O81:O91" si="29">I81/F81</f>
+        <v>0.96212488637465909</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" ref="P81:P91" si="23">J81/D81</f>
+        <f t="shared" ref="P81:P91" si="30">J81/D81</f>
         <v>0.43527935279352792</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.38486084860848607</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.37362112086336258</v>
       </c>
     </row>
@@ -6545,54 +6424,54 @@
         <v>506</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="E82" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="G82" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>477</v>
       </c>
       <c r="I82" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="J82" t="s">
-        <v>502</v>
+        <v>301</v>
       </c>
       <c r="K82" t="s">
-        <v>503</v>
+        <v>302</v>
       </c>
       <c r="L82" t="s">
-        <v>504</v>
+        <v>303</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="22"/>
-        <v>0.95097531365439114</v>
+        <f t="shared" si="27"/>
+        <v>0.95522237311322356</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="20"/>
-        <v>0.91301778224895136</v>
+        <f t="shared" si="28"/>
+        <v>0.95522237311322356</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="20"/>
-        <v>0.90227963191484684</v>
+        <f t="shared" si="29"/>
+        <v>0.95522237311322356</v>
       </c>
       <c r="P82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.31738944345220826</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.28551699723796131</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.2721618102653437</v>
       </c>
     </row>
@@ -6607,54 +6486,54 @@
         <v>529</v>
       </c>
       <c r="D83" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="G83" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="H83" t="s">
-        <v>262</v>
+        <v>479</v>
       </c>
       <c r="I83" t="s">
-        <v>263</v>
+        <v>479</v>
       </c>
       <c r="J83" t="s">
-        <v>506</v>
+        <v>304</v>
       </c>
       <c r="K83" t="s">
-        <v>507</v>
+        <v>305</v>
       </c>
       <c r="L83" t="s">
-        <v>508</v>
+        <v>306</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="22"/>
-        <v>0.92073610404105155</v>
+        <f t="shared" si="27"/>
+        <v>0.9790351760603172</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="20"/>
-        <v>0.91211635412280867</v>
+        <f t="shared" si="28"/>
+        <v>0.96493794960161527</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="20"/>
-        <v>0.90727707864741525</v>
+        <f t="shared" si="29"/>
+        <v>0.9649572504257955</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.55151598189042439</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.53445749780230878</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.50770832479075267</v>
       </c>
     </row>
@@ -6669,54 +6548,54 @@
         <v>1898</v>
       </c>
       <c r="D84" t="s">
-        <v>509</v>
+        <v>307</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>480</v>
       </c>
       <c r="I84" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="J84" t="s">
-        <v>510</v>
+        <v>308</v>
       </c>
       <c r="K84" t="s">
-        <v>511</v>
+        <v>309</v>
       </c>
       <c r="L84" t="s">
-        <v>512</v>
+        <v>310</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="22"/>
-        <v>0.92975022301516508</v>
+        <f t="shared" si="27"/>
+        <v>1.0000680046243144</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="20"/>
-        <v>0.92979299640158974</v>
+        <f t="shared" si="28"/>
+        <v>0.97242785677567234</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="20"/>
-        <v>0.91398919476820351</v>
+        <f t="shared" si="29"/>
+        <v>0.95783219286998711</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.47361620590200132</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.432468301386358</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.4006846780532981</v>
       </c>
     </row>
@@ -6731,54 +6610,54 @@
         <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="E85" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="G85" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="H85" t="s">
-        <v>268</v>
+        <v>482</v>
       </c>
       <c r="I85" t="s">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="J85" t="s">
-        <v>514</v>
+        <v>311</v>
       </c>
       <c r="K85" t="s">
-        <v>515</v>
+        <v>312</v>
       </c>
       <c r="L85" t="s">
-        <v>516</v>
+        <v>313</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="22"/>
-        <v>0.92150193236811861</v>
+        <f t="shared" si="27"/>
+        <v>0.96330305588926035</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="20"/>
-        <v>0.90494694260656106</v>
+        <f t="shared" si="28"/>
+        <v>0.96330305588926035</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="20"/>
-        <v>0.89783418336137788</v>
+        <f t="shared" si="29"/>
+        <v>0.95444745503007344</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.54049449370350833</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.49204690630571724</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.47469871302478284</v>
       </c>
     </row>
@@ -6793,54 +6672,54 @@
         <v>794</v>
       </c>
       <c r="D86" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="F86" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="H86" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="I86" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="J86" t="s">
-        <v>518</v>
+        <v>314</v>
       </c>
       <c r="K86" t="s">
-        <v>519</v>
+        <v>315</v>
       </c>
       <c r="L86" t="s">
-        <v>520</v>
+        <v>316</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="22"/>
-        <v>1.0244115208239786</v>
+        <f t="shared" si="27"/>
+        <v>0.98326909699567111</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="20"/>
-        <v>0.96569358290803087</v>
+        <f t="shared" si="28"/>
+        <v>0.97969645376370829</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="20"/>
-        <v>0.93831359320365504</v>
+        <f t="shared" si="29"/>
+        <v>0.97969645376370829</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.39456078682406709</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.3523446177621094</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.33438173338443472</v>
       </c>
     </row>
@@ -6855,54 +6734,54 @@
         <v>695</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c r="F87" t="s">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="G87" t="s">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="H87" t="s">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="I87" t="s">
-        <v>276</v>
+        <v>486</v>
       </c>
       <c r="J87" t="s">
-        <v>521</v>
+        <v>317</v>
       </c>
       <c r="K87" t="s">
-        <v>522</v>
+        <v>318</v>
       </c>
       <c r="L87" t="s">
-        <v>523</v>
+        <v>319</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="22"/>
-        <v>0.93263700000000005</v>
+        <f t="shared" si="27"/>
+        <v>0.95198300000000002</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="20"/>
-        <v>0.93263700000000005</v>
+        <f t="shared" si="28"/>
+        <v>0.95198300000000002</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="20"/>
-        <v>0.91156249656244159</v>
+        <f t="shared" si="29"/>
+        <v>0.95199918398612782</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.37431700000000001</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.33904200000000001</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.32272648635026796</v>
       </c>
     </row>
@@ -6917,54 +6796,54 @@
         <v>894</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="E88" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="F88" t="s">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="G88" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="H88" t="s">
-        <v>279</v>
+        <v>488</v>
       </c>
       <c r="I88" t="s">
-        <v>280</v>
+        <v>488</v>
       </c>
       <c r="J88" t="s">
-        <v>525</v>
+        <v>320</v>
       </c>
       <c r="K88" t="s">
-        <v>526</v>
+        <v>321</v>
       </c>
       <c r="L88" t="s">
-        <v>527</v>
+        <v>322</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="22"/>
-        <v>0.99803497838476218</v>
+        <f t="shared" si="27"/>
+        <v>0.96013656150217652</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="20"/>
-        <v>0.93511528626814888</v>
+        <f t="shared" si="28"/>
+        <v>0.95153146684613521</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="20"/>
-        <v>0.92736510655293058</v>
+        <f t="shared" si="29"/>
+        <v>0.97944598446302522</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.3919733117064288</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.35843594279537072</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.34508471017170544</v>
       </c>
     </row>
@@ -6979,54 +6858,54 @@
         <v>892</v>
       </c>
       <c r="D89" t="s">
-        <v>528</v>
+        <v>323</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="G89" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="H89" t="s">
-        <v>283</v>
+        <v>489</v>
       </c>
       <c r="I89" t="s">
-        <v>284</v>
+        <v>489</v>
       </c>
       <c r="J89" t="s">
-        <v>530</v>
+        <v>324</v>
       </c>
       <c r="K89" t="s">
-        <v>531</v>
+        <v>325</v>
       </c>
       <c r="L89" t="s">
-        <v>532</v>
+        <v>326</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="22"/>
-        <v>0.96852862234346815</v>
+        <f t="shared" si="27"/>
+        <v>0.95091741100893212</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="20"/>
-        <v>0.92385646699526891</v>
+        <f t="shared" si="28"/>
+        <v>0.95091265638859468</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="20"/>
-        <v>0.91186667800016996</v>
+        <f t="shared" si="29"/>
+        <v>0.95092026380395711</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.39254271051252615</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.35197346381424666</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.33661504922573843</v>
       </c>
     </row>
@@ -7041,54 +6920,54 @@
         <v>1009</v>
       </c>
       <c r="D90" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="E90" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="G90" t="s">
-        <v>533</v>
+        <v>490</v>
       </c>
       <c r="H90" t="s">
-        <v>286</v>
+        <v>490</v>
       </c>
       <c r="I90" t="s">
-        <v>287</v>
+        <v>490</v>
       </c>
       <c r="J90" t="s">
-        <v>534</v>
+        <v>327</v>
       </c>
       <c r="K90" t="s">
-        <v>535</v>
+        <v>328</v>
       </c>
       <c r="L90" t="s">
-        <v>536</v>
+        <v>329</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="22"/>
-        <v>0.94889394889394896</v>
+        <f t="shared" si="27"/>
+        <v>0.95104295104295111</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="20"/>
-        <v>0.91490791490791501</v>
+        <f t="shared" si="28"/>
+        <v>0.95104295104295111</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="20"/>
-        <v>0.9175569175569176</v>
+        <f t="shared" si="29"/>
+        <v>0.95104295104295111</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.40583940583940586</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.36799036799036799</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.34690834690834693</v>
       </c>
     </row>
@@ -7103,54 +6982,54 @@
         <v>830</v>
       </c>
       <c r="D91" t="s">
-        <v>537</v>
+        <v>330</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="F91" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="G91" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="H91" t="s">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="I91" t="s">
-        <v>289</v>
+        <v>492</v>
       </c>
       <c r="J91" t="s">
-        <v>539</v>
+        <v>331</v>
       </c>
       <c r="K91" t="s">
-        <v>540</v>
+        <v>332</v>
       </c>
       <c r="L91" t="s">
-        <v>541</v>
+        <v>333</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="22"/>
-        <v>0.96738280429682577</v>
+        <f t="shared" si="27"/>
+        <v>0.96036276217657301</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="20"/>
-        <v>0.93777831556147118</v>
+        <f t="shared" si="28"/>
+        <v>0.95275448029928334</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="20"/>
-        <v>0.90863972591917774</v>
+        <f t="shared" si="29"/>
+        <v>0.9527468582405747</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.38833433000598</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.35178286961156574</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.33546600639801921</v>
       </c>
     </row>
@@ -7158,31 +7037,31 @@
       <c r="A93" t="s">
         <v>33</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2" t="s">
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2" t="s">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -7195,7 +7074,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="E94" t="s">
         <v>23</v>
@@ -7204,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="H94" t="s">
         <v>23</v>
@@ -7213,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="K94" t="s">
         <v>23</v>
@@ -7222,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="N94" t="s">
         <v>23</v>
@@ -7231,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="Q94" t="s">
         <v>23</v>
@@ -7251,60 +7130,60 @@
         <v>418</v>
       </c>
       <c r="D95" t="s">
-        <v>542</v>
+        <v>334</v>
       </c>
       <c r="E95" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="F95" t="s">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="G95" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="H95" t="s">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="I95" t="s">
-        <v>293</v>
+        <v>495</v>
       </c>
       <c r="J95" t="s">
-        <v>495</v>
+        <v>295</v>
       </c>
       <c r="K95" t="s">
-        <v>496</v>
+        <v>296</v>
       </c>
       <c r="L95" t="s">
-        <v>497</v>
+        <v>297</v>
       </c>
       <c r="M95" s="1">
         <f>G95/D95</f>
-        <v>0.90322440123300574</v>
+        <v>0.87207254487900199</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" ref="N95:O106" si="24">H95/E95</f>
-        <v>0.79262448877800151</v>
+        <f>H95/E95</f>
+        <v>0.76999104123919893</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="24"/>
-        <v>0.66859941902201658</v>
+        <f>I95/F95</f>
+        <v>0.6481349823183119</v>
       </c>
       <c r="P95" s="1">
         <f>J95/D95</f>
         <v>0.3498114397374677</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" ref="Q95:R106" si="25">K95/E95</f>
+        <f t="shared" ref="Q95:R106" si="31">K95/E95</f>
         <v>0.325688952253123</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.32233216223597017</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="B96">
         <v>460</v>
@@ -7313,54 +7192,54 @@
         <v>566</v>
       </c>
       <c r="D96" t="s">
-        <v>544</v>
+        <v>335</v>
       </c>
       <c r="E96" t="s">
-        <v>294</v>
+        <v>163</v>
       </c>
       <c r="F96" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="G96" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="H96" t="s">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="I96" t="s">
-        <v>297</v>
+        <v>498</v>
       </c>
       <c r="J96" t="s">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="K96" t="s">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="L96" t="s">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" ref="M96:M106" si="26">G96/D96</f>
-        <v>0.79772576072382639</v>
+        <f t="shared" ref="M96:M106" si="32">G96/D96</f>
+        <v>0.77382270759342098</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="24"/>
-        <v>0.68566779848413939</v>
+        <f t="shared" ref="N96:N106" si="33">H96/E96</f>
+        <v>0.66744773589390027</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="24"/>
-        <v>0.54294713774084713</v>
+        <f t="shared" ref="O96:O106" si="34">I96/F96</f>
+        <v>0.49213356019543597</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" ref="P96:P106" si="27">J96/D96</f>
+        <f t="shared" ref="P96:P106" si="35">J96/D96</f>
         <v>0.44550832625405568</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.40294900748716628</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.40413327463474735</v>
       </c>
     </row>
@@ -7375,54 +7254,54 @@
         <v>506</v>
       </c>
       <c r="D97" t="s">
-        <v>546</v>
+        <v>336</v>
       </c>
       <c r="E97" t="s">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="F97" t="s">
-        <v>299</v>
+        <v>166</v>
       </c>
       <c r="G97" t="s">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="H97" t="s">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I97" t="s">
+        <v>501</v>
+      </c>
+      <c r="J97" t="s">
         <v>301</v>
       </c>
-      <c r="J97" t="s">
-        <v>502</v>
-      </c>
       <c r="K97" t="s">
-        <v>503</v>
+        <v>302</v>
       </c>
       <c r="L97" t="s">
-        <v>504</v>
+        <v>303</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="26"/>
-        <v>0.82115354328292889</v>
+        <f t="shared" si="32"/>
+        <v>0.78149908674584956</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="24"/>
-        <v>0.69686573233439852</v>
+        <f t="shared" si="33"/>
+        <v>0.66568403930927567</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="24"/>
-        <v>0.55197811654380124</v>
+        <f t="shared" si="34"/>
+        <v>0.52091438468594331</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.32458361542284792</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.29846051562847908</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.29683800200031196</v>
       </c>
     </row>
@@ -7437,54 +7316,54 @@
         <v>529</v>
       </c>
       <c r="D98" t="s">
-        <v>548</v>
+        <v>337</v>
       </c>
       <c r="E98" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="F98" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="G98" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="H98" t="s">
+        <v>503</v>
+      </c>
+      <c r="I98" t="s">
+        <v>504</v>
+      </c>
+      <c r="J98" t="s">
         <v>304</v>
       </c>
-      <c r="I98" t="s">
+      <c r="K98" t="s">
         <v>305</v>
       </c>
-      <c r="J98" t="s">
-        <v>506</v>
-      </c>
-      <c r="K98" t="s">
-        <v>507</v>
-      </c>
       <c r="L98" t="s">
-        <v>508</v>
+        <v>306</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="26"/>
-        <v>0.97750628882980917</v>
+        <f t="shared" si="32"/>
+        <v>0.93480067658439725</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="24"/>
-        <v>0.90521675686152347</v>
+        <f t="shared" si="33"/>
+        <v>0.88846720157814785</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="24"/>
-        <v>0.84709338662193057</v>
+        <f t="shared" si="34"/>
+        <v>0.82743190901465435</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.55556081653541634</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.54229653389943167</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.52183969013667542</v>
       </c>
     </row>
@@ -7499,54 +7378,54 @@
         <v>1898</v>
       </c>
       <c r="D99" t="s">
-        <v>550</v>
+        <v>338</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="F99" t="s">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="G99" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="H99" t="s">
+        <v>506</v>
+      </c>
+      <c r="I99" t="s">
+        <v>507</v>
+      </c>
+      <c r="J99" t="s">
         <v>308</v>
       </c>
-      <c r="I99" t="s">
+      <c r="K99" t="s">
         <v>309</v>
       </c>
-      <c r="J99" t="s">
-        <v>510</v>
-      </c>
-      <c r="K99" t="s">
-        <v>511</v>
-      </c>
       <c r="L99" t="s">
-        <v>512</v>
+        <v>310</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="26"/>
-        <v>0.89260945281231863</v>
+        <f t="shared" si="32"/>
+        <v>0.95000254600633449</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="24"/>
-        <v>0.89038644118007071</v>
+        <f t="shared" si="33"/>
+        <v>0.87989043170033499</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="24"/>
-        <v>0.70164361086973526</v>
+        <f t="shared" si="34"/>
+        <v>0.76602436028356202</v>
       </c>
       <c r="P99" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.4822991455602742</v>
       </c>
       <c r="Q99" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.44479360282417124</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.42352367844087424</v>
       </c>
     </row>
@@ -7561,54 +7440,54 @@
         <v>324</v>
       </c>
       <c r="D100" t="s">
-        <v>552</v>
+        <v>339</v>
       </c>
       <c r="E100" t="s">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="F100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G100" t="s">
+        <v>508</v>
+      </c>
+      <c r="H100" t="s">
+        <v>509</v>
+      </c>
+      <c r="I100" t="s">
+        <v>510</v>
+      </c>
+      <c r="J100" t="s">
         <v>311</v>
       </c>
-      <c r="G100" t="s">
-        <v>553</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="K100" t="s">
         <v>312</v>
       </c>
-      <c r="I100" t="s">
+      <c r="L100" t="s">
         <v>313</v>
       </c>
-      <c r="J100" t="s">
-        <v>514</v>
-      </c>
-      <c r="K100" t="s">
-        <v>515</v>
-      </c>
-      <c r="L100" t="s">
-        <v>516</v>
-      </c>
       <c r="M100" s="1">
-        <f t="shared" si="26"/>
-        <v>0.93639000277420492</v>
+        <f t="shared" si="32"/>
+        <v>0.91856144863937861</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="24"/>
-        <v>0.88858094757747386</v>
+        <f t="shared" si="33"/>
+        <v>0.87825516010298399</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="24"/>
-        <v>0.82330543718231763</v>
+        <f t="shared" si="34"/>
+        <v>0.78882476767469323</v>
       </c>
       <c r="P100" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.54373710625204918</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.49795158702533093</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.48609128715921346</v>
       </c>
     </row>
@@ -7623,54 +7502,54 @@
         <v>794</v>
       </c>
       <c r="D101" t="s">
-        <v>554</v>
+        <v>340</v>
       </c>
       <c r="E101" t="s">
+        <v>173</v>
+      </c>
+      <c r="F101" t="s">
+        <v>174</v>
+      </c>
+      <c r="G101" t="s">
+        <v>511</v>
+      </c>
+      <c r="H101" t="s">
+        <v>512</v>
+      </c>
+      <c r="I101" t="s">
+        <v>513</v>
+      </c>
+      <c r="J101" t="s">
         <v>314</v>
       </c>
-      <c r="F101" t="s">
+      <c r="K101" t="s">
         <v>315</v>
       </c>
-      <c r="G101" t="s">
-        <v>555</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="L101" t="s">
         <v>316</v>
       </c>
-      <c r="I101" t="s">
-        <v>317</v>
-      </c>
-      <c r="J101" t="s">
-        <v>518</v>
-      </c>
-      <c r="K101" t="s">
-        <v>519</v>
-      </c>
-      <c r="L101" t="s">
-        <v>520</v>
-      </c>
       <c r="M101" s="1">
-        <f t="shared" si="26"/>
-        <v>0.85305617267647504</v>
+        <f t="shared" si="32"/>
+        <v>0.73308786593544317</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="24"/>
-        <v>0.65405646924215632</v>
+        <f t="shared" si="33"/>
+        <v>0.58551292303388025</v>
       </c>
       <c r="O101" s="1">
-        <f t="shared" si="24"/>
-        <v>0.49777795686553539</v>
+        <f t="shared" si="34"/>
+        <v>0.42126989950702559</v>
       </c>
       <c r="P101" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.39771725677236269</v>
       </c>
       <c r="Q101" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.35798234057346157</v>
       </c>
       <c r="R101" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.34508207933611229</v>
       </c>
     </row>
@@ -7685,54 +7564,54 @@
         <v>695</v>
       </c>
       <c r="D102" t="s">
-        <v>556</v>
+        <v>341</v>
       </c>
       <c r="E102" t="s">
+        <v>175</v>
+      </c>
+      <c r="F102" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102" t="s">
+        <v>514</v>
+      </c>
+      <c r="H102" t="s">
+        <v>515</v>
+      </c>
+      <c r="I102" t="s">
+        <v>516</v>
+      </c>
+      <c r="J102" t="s">
+        <v>317</v>
+      </c>
+      <c r="K102" t="s">
         <v>318</v>
       </c>
-      <c r="F102" t="s">
+      <c r="L102" t="s">
         <v>319</v>
       </c>
-      <c r="G102" t="s">
-        <v>557</v>
-      </c>
-      <c r="H102" t="s">
-        <v>320</v>
-      </c>
-      <c r="I102" t="s">
-        <v>321</v>
-      </c>
-      <c r="J102" t="s">
-        <v>521</v>
-      </c>
-      <c r="K102" t="s">
-        <v>522</v>
-      </c>
-      <c r="L102" t="s">
-        <v>523</v>
-      </c>
       <c r="M102" s="1">
-        <f t="shared" si="26"/>
-        <v>0.79229978571095516</v>
+        <f t="shared" si="32"/>
+        <v>0.74478519398530985</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="24"/>
-        <v>0.67276868359574848</v>
+        <f t="shared" si="33"/>
+        <v>0.61329636303490676</v>
       </c>
       <c r="O102" s="1">
-        <f t="shared" si="24"/>
-        <v>0.52433736820400978</v>
+        <f t="shared" si="34"/>
+        <v>0.45972635160433306</v>
       </c>
       <c r="P102" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.37943250908751791</v>
       </c>
       <c r="Q102" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.34830911224026451</v>
       </c>
       <c r="R102" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.3403687809220261</v>
       </c>
     </row>
@@ -7747,54 +7626,54 @@
         <v>894</v>
       </c>
       <c r="D103" t="s">
-        <v>558</v>
+        <v>342</v>
       </c>
       <c r="E103" t="s">
+        <v>177</v>
+      </c>
+      <c r="F103" t="s">
+        <v>178</v>
+      </c>
+      <c r="G103" t="s">
+        <v>517</v>
+      </c>
+      <c r="H103" t="s">
+        <v>518</v>
+      </c>
+      <c r="I103" t="s">
+        <v>519</v>
+      </c>
+      <c r="J103" t="s">
+        <v>320</v>
+      </c>
+      <c r="K103" t="s">
+        <v>321</v>
+      </c>
+      <c r="L103" t="s">
         <v>322</v>
       </c>
-      <c r="F103" t="s">
-        <v>323</v>
-      </c>
-      <c r="G103" t="s">
-        <v>559</v>
-      </c>
-      <c r="H103" t="s">
-        <v>324</v>
-      </c>
-      <c r="I103" t="s">
-        <v>325</v>
-      </c>
-      <c r="J103" t="s">
-        <v>525</v>
-      </c>
-      <c r="K103" t="s">
-        <v>526</v>
-      </c>
-      <c r="L103" t="s">
-        <v>527</v>
-      </c>
       <c r="M103" s="1">
-        <f t="shared" si="26"/>
-        <v>0.82338373981590063</v>
+        <f t="shared" si="32"/>
+        <v>0.69121698653375008</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="24"/>
-        <v>0.6188860253034949</v>
+        <f t="shared" si="33"/>
+        <v>0.53844509026462073</v>
       </c>
       <c r="O103" s="1">
-        <f t="shared" si="24"/>
-        <v>0.4721326002369568</v>
+        <f t="shared" si="34"/>
+        <v>0.39239805265392691</v>
       </c>
       <c r="P103" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.39863700111769573</v>
       </c>
       <c r="Q103" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.36847250735285797</v>
       </c>
       <c r="R103" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.36406423244787656</v>
       </c>
     </row>
@@ -7809,54 +7688,54 @@
         <v>892</v>
       </c>
       <c r="D104" t="s">
-        <v>558</v>
+        <v>342</v>
       </c>
       <c r="E104" t="s">
+        <v>179</v>
+      </c>
+      <c r="F104" t="s">
+        <v>180</v>
+      </c>
+      <c r="G104" t="s">
+        <v>520</v>
+      </c>
+      <c r="H104" t="s">
+        <v>521</v>
+      </c>
+      <c r="I104" t="s">
+        <v>522</v>
+      </c>
+      <c r="J104" t="s">
+        <v>324</v>
+      </c>
+      <c r="K104" t="s">
+        <v>325</v>
+      </c>
+      <c r="L104" t="s">
         <v>326</v>
       </c>
-      <c r="F104" t="s">
-        <v>327</v>
-      </c>
-      <c r="G104" t="s">
-        <v>560</v>
-      </c>
-      <c r="H104" t="s">
-        <v>328</v>
-      </c>
-      <c r="I104" t="s">
-        <v>329</v>
-      </c>
-      <c r="J104" t="s">
-        <v>530</v>
-      </c>
-      <c r="K104" t="s">
-        <v>531</v>
-      </c>
-      <c r="L104" t="s">
-        <v>532</v>
-      </c>
       <c r="M104" s="1">
-        <f t="shared" si="26"/>
-        <v>0.77044015242969155</v>
+        <f t="shared" si="32"/>
+        <v>0.70078401420561731</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="24"/>
-        <v>0.60451415881211557</v>
+        <f t="shared" si="33"/>
+        <v>0.55703940300600252</v>
       </c>
       <c r="O104" s="1">
-        <f t="shared" si="24"/>
-        <v>0.45888620987135448</v>
+        <f t="shared" si="34"/>
+        <v>0.39621615984781217</v>
       </c>
       <c r="P104" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.39921568069091701</v>
       </c>
       <c r="Q104" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.36288438499431913</v>
       </c>
       <c r="R104" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.35456779511941294</v>
       </c>
     </row>
@@ -7871,54 +7750,54 @@
         <v>1009</v>
       </c>
       <c r="D105" t="s">
-        <v>561</v>
+        <v>343</v>
       </c>
       <c r="E105" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
       <c r="F105" t="s">
-        <v>331</v>
+        <v>182</v>
       </c>
       <c r="G105" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
       <c r="H105" t="s">
-        <v>332</v>
+        <v>524</v>
       </c>
       <c r="I105" t="s">
-        <v>333</v>
+        <v>525</v>
       </c>
       <c r="J105" t="s">
-        <v>534</v>
+        <v>327</v>
       </c>
       <c r="K105" t="s">
-        <v>535</v>
+        <v>328</v>
       </c>
       <c r="L105" t="s">
-        <v>536</v>
+        <v>329</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="26"/>
-        <v>0.74514508911657351</v>
+        <f t="shared" si="32"/>
+        <v>0.67666965388963718</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="24"/>
-        <v>0.57300127583567229</v>
+        <f t="shared" si="33"/>
+        <v>0.52755396784894104</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="24"/>
-        <v>0.42177181023548743</v>
+        <f t="shared" si="34"/>
+        <v>0.36843464479030646</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.41003322990873647</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.3755958152589946</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.36124735240642047</v>
       </c>
     </row>
@@ -7933,59 +7812,78 @@
         <v>830</v>
       </c>
       <c r="D106" t="s">
-        <v>563</v>
+        <v>344</v>
       </c>
       <c r="E106" t="s">
-        <v>334</v>
+        <v>183</v>
       </c>
       <c r="F106" t="s">
-        <v>335</v>
+        <v>184</v>
       </c>
       <c r="G106" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="H106" t="s">
-        <v>336</v>
+        <v>527</v>
       </c>
       <c r="I106" t="s">
-        <v>337</v>
+        <v>528</v>
       </c>
       <c r="J106" t="s">
-        <v>539</v>
+        <v>331</v>
       </c>
       <c r="K106" t="s">
-        <v>540</v>
+        <v>332</v>
       </c>
       <c r="L106" t="s">
-        <v>541</v>
+        <v>333</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="26"/>
-        <v>0.78687699585502668</v>
+        <f t="shared" si="32"/>
+        <v>0.7063189240352542</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="24"/>
-        <v>0.63932697988645992</v>
+        <f t="shared" si="33"/>
+        <v>0.56478203909681735</v>
       </c>
       <c r="O106" s="1">
-        <f t="shared" si="24"/>
-        <v>0.47008571200932603</v>
+        <f t="shared" si="34"/>
+        <v>0.40491795716915541</v>
       </c>
       <c r="P106" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.39480643065633325</v>
       </c>
       <c r="Q106" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.36145701148244241</v>
       </c>
       <c r="R106" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.35168027407714925</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:L63"/>
     <mergeCell ref="P93:R93"/>
     <mergeCell ref="D93:F93"/>
     <mergeCell ref="G93:I93"/>
@@ -8002,25 +7900,6 @@
     <mergeCell ref="P63:R63"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="P78:R78"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:L78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="510">
   <si>
     <t>图</t>
     <rPh sb="0" eb="1">
@@ -246,78 +246,6 @@
     <t>50047014</t>
   </si>
   <si>
-    <t>15154196</t>
-  </si>
-  <si>
-    <t>7315000</t>
-  </si>
-  <si>
-    <t>37051911</t>
-  </si>
-  <si>
-    <t>17857000</t>
-  </si>
-  <si>
-    <t>25052832</t>
-  </si>
-  <si>
-    <t>11894832</t>
-  </si>
-  <si>
-    <t>21092040</t>
-  </si>
-  <si>
-    <t>10415832</t>
-  </si>
-  <si>
-    <t>21304416</t>
-  </si>
-  <si>
-    <t>10328416</t>
-  </si>
-  <si>
-    <t>466200</t>
-  </si>
-  <si>
-    <t>229950</t>
-  </si>
-  <si>
-    <t>103250000</t>
-  </si>
-  <si>
-    <t>50750000</t>
-  </si>
-  <si>
-    <t>61446061</t>
-  </si>
-  <si>
-    <t>29890620</t>
-  </si>
-  <si>
-    <t>79239426</t>
-  </si>
-  <si>
-    <t>39620000</t>
-  </si>
-  <si>
-    <t>92292992</t>
-  </si>
-  <si>
-    <t>45050418</t>
-  </si>
-  <si>
-    <t>129465856</t>
-  </si>
-  <si>
-    <t>63321856</t>
-  </si>
-  <si>
-    <t>92758820</t>
-  </si>
-  <si>
-    <t>45352620</t>
-  </si>
-  <si>
     <t>1168431</t>
   </si>
   <si>
@@ -779,42 +707,6 @@
     <t>142308188</t>
   </si>
   <si>
-    <t>31458075</t>
-  </si>
-  <si>
-    <t>76012911</t>
-  </si>
-  <si>
-    <t>51368832</t>
-  </si>
-  <si>
-    <t>42527040</t>
-  </si>
-  <si>
-    <t>43067862</t>
-  </si>
-  <si>
-    <t>938700</t>
-  </si>
-  <si>
-    <t>208250000</t>
-  </si>
-  <si>
-    <t>124705561</t>
-  </si>
-  <si>
-    <t>160328588</t>
-  </si>
-  <si>
-    <t>187320161</t>
-  </si>
-  <si>
-    <t>261753856</t>
-  </si>
-  <si>
-    <t>187649044</t>
-  </si>
-  <si>
     <t>1220192</t>
   </si>
   <si>
@@ -1233,90 +1125,6 @@
     <t>123598056</t>
   </si>
   <si>
-    <t>26320810</t>
-  </si>
-  <si>
-    <t>10577644</t>
-  </si>
-  <si>
-    <t>2421048</t>
-  </si>
-  <si>
-    <t>52363080</t>
-  </si>
-  <si>
-    <t>18169800</t>
-  </si>
-  <si>
-    <t>40773408</t>
-  </si>
-  <si>
-    <t>13223808</t>
-  </si>
-  <si>
-    <t>40941780</t>
-  </si>
-  <si>
-    <t>19755528</t>
-  </si>
-  <si>
-    <t>8589360</t>
-  </si>
-  <si>
-    <t>40504144</t>
-  </si>
-  <si>
-    <t>19128058</t>
-  </si>
-  <si>
-    <t>7689132</t>
-  </si>
-  <si>
-    <t>917235</t>
-  </si>
-  <si>
-    <t>426735</t>
-  </si>
-  <si>
-    <t>180116</t>
-  </si>
-  <si>
-    <t>136971632</t>
-  </si>
-  <si>
-    <t>30366522</t>
-  </si>
-  <si>
-    <t>92720222</t>
-  </si>
-  <si>
-    <t>26491492</t>
-  </si>
-  <si>
-    <t>98706544</t>
-  </si>
-  <si>
-    <t>14293800</t>
-  </si>
-  <si>
-    <t>122725431</t>
-  </si>
-  <si>
-    <t>22459556</t>
-  </si>
-  <si>
-    <t>159127826</t>
-  </si>
-  <si>
-    <t>20030076</t>
-  </si>
-  <si>
-    <t>121491522</t>
-  </si>
-  <si>
-    <t>25053660</t>
-  </si>
-  <si>
     <t>6275160</t>
   </si>
   <si>
@@ -1663,6 +1471,141 @@
   </si>
   <si>
     <t>0.386248</t>
+  </si>
+  <si>
+    <t>38131</t>
+  </si>
+  <si>
+    <t>35407</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>174310</t>
+  </si>
+  <si>
+    <t>173404</t>
+  </si>
+  <si>
+    <t>172932</t>
+  </si>
+  <si>
+    <t>38961</t>
+  </si>
+  <si>
+    <t>35714</t>
+  </si>
+  <si>
+    <t>415580</t>
+  </si>
+  <si>
+    <t>412950</t>
+  </si>
+  <si>
+    <t>411694</t>
+  </si>
+  <si>
+    <t>35088</t>
+  </si>
+  <si>
+    <t>275496</t>
+  </si>
+  <si>
+    <t>14290</t>
+  </si>
+  <si>
+    <t>12504</t>
+  </si>
+  <si>
+    <t>218940</t>
+  </si>
+  <si>
+    <t>214734</t>
+  </si>
+  <si>
+    <t>14634</t>
+  </si>
+  <si>
+    <t>10976</t>
+  </si>
+  <si>
+    <t>234128</t>
+  </si>
+  <si>
+    <t>233269</t>
+  </si>
+  <si>
+    <t>233004</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>4905</t>
+  </si>
+  <si>
+    <t>4868</t>
+  </si>
+  <si>
+    <t>925484</t>
+  </si>
+  <si>
+    <t>893133</t>
+  </si>
+  <si>
+    <t>42173</t>
+  </si>
+  <si>
+    <t>36902</t>
+  </si>
+  <si>
+    <t>575902</t>
+  </si>
+  <si>
+    <t>54404</t>
+  </si>
+  <si>
+    <t>40803</t>
+  </si>
+  <si>
+    <t>736616</t>
+  </si>
+  <si>
+    <t>714690</t>
+  </si>
+  <si>
+    <t>63563</t>
+  </si>
+  <si>
+    <t>47672</t>
+  </si>
+  <si>
+    <t>39727</t>
+  </si>
+  <si>
+    <t>802127</t>
+  </si>
+  <si>
+    <t>44096</t>
+  </si>
+  <si>
+    <t>1112782</t>
+  </si>
+  <si>
+    <t>63653</t>
+  </si>
+  <si>
+    <t>47740</t>
+  </si>
+  <si>
+    <t>39783</t>
+  </si>
+  <si>
+    <t>861642</t>
+  </si>
+  <si>
+    <t>835122</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1615,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1683,6 +1626,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1706,8 +1667,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1717,8 +1684,14 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1995,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D81" zoomScale="117" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2073,12 +2046,12 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -2094,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -2103,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -2112,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
@@ -2121,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
@@ -2130,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -2150,7 +2123,7 @@
         <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -2159,29 +2132,29 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="H5" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="I5" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="J5" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="M5" s="2">
         <f>(G5-D5)/G5</f>
         <v>0.12792710168189089</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:O12" si="0">(H5-E5)/H5</f>
+        <f t="shared" ref="N5:O5" si="0">(H5-E5)/H5</f>
         <v>0.23000895759292028</v>
       </c>
       <c r="O5" s="2">
@@ -2203,7 +2176,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B6">
         <v>460</v>
@@ -2212,7 +2185,7 @@
         <v>566</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -2221,22 +2194,22 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="H6" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="J6" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L6" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ref="M6:M16" si="2">(G6-D6)/G6</f>
@@ -2274,7 +2247,7 @@
         <v>506</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -2283,22 +2256,22 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="H7" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="I7" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="J7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="L7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="2"/>
@@ -2336,7 +2309,7 @@
         <v>529</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -2345,22 +2318,22 @@
         <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="H8" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="I8" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="J8" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="K8" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="L8" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
@@ -2398,7 +2371,7 @@
         <v>1898</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -2407,22 +2380,22 @@
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="H9" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="I9" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="L9" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="2"/>
@@ -2460,7 +2433,7 @@
         <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -2469,22 +2442,22 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="H10" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="I10" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L10" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
@@ -2522,7 +2495,7 @@
         <v>794</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -2531,22 +2504,22 @@
         <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="H11" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="I11" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="J11" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="K11" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="L11" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="2"/>
@@ -2584,7 +2557,7 @@
         <v>695</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -2593,22 +2566,22 @@
         <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="H12" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="J12" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K12" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="L12" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="2"/>
@@ -2646,7 +2619,7 @@
         <v>894</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
         <v>50</v>
@@ -2655,22 +2628,22 @@
         <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="H13" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="I13" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="J13" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="K13" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="2"/>
@@ -2708,7 +2681,7 @@
         <v>892</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
@@ -2717,22 +2690,22 @@
         <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="H14" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="I14" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="K14" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="2"/>
@@ -2770,7 +2743,7 @@
         <v>1009</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
         <v>54</v>
@@ -2779,22 +2752,22 @@
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="H15" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="I15" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="J15" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K15" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L15" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="2"/>
@@ -2832,7 +2805,7 @@
         <v>830</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -2841,22 +2814,22 @@
         <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="H16" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="I16" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="J16" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="L16" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="2"/>
@@ -2903,12 +2876,12 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2924,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -2933,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -2942,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
         <v>23</v>
@@ -2951,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s">
         <v>23</v>
@@ -2960,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q19" t="s">
         <v>23</v>
@@ -2980,60 +2953,60 @@
         <v>418</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>465</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>466</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>467</v>
       </c>
       <c r="G20" t="s">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="H20" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="I20" t="s">
-        <v>387</v>
+        <v>470</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="M20" s="1">
         <f>G20/D20</f>
-        <v>0.83669487087178729</v>
+        <v>4.5713461488028111</v>
       </c>
       <c r="N20" s="1">
         <f>H20/E20</f>
-        <v>0.6980010024946226</v>
+        <v>4.8974496568475159</v>
       </c>
       <c r="O20" s="1">
         <f>I20/F20</f>
-        <v>0.33097033492822969</v>
+        <v>4.9409142857142854</v>
       </c>
       <c r="P20" s="1">
         <f>J20/D20</f>
-        <v>3.0804427797950127</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" ref="Q20:R31" si="6">K20/E20</f>
-        <v>3.54388619495221</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="6"/>
-        <v>3.9930341763499659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B21">
         <v>460</v>
@@ -3042,55 +3015,55 @@
         <v>566</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>471</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>471</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>472</v>
       </c>
       <c r="G21" t="s">
-        <v>388</v>
+        <v>473</v>
       </c>
       <c r="H21" t="s">
-        <v>389</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="I21" t="s">
+        <v>475</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ref="M21:M31" si="7">G21/D21</f>
-        <v>0.68887086826605026</v>
+        <v>10.666563999897333</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ref="N21:N31" si="8">H21/E21</f>
-        <v>0.49038766178618964</v>
+        <v>10.5990605990606</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ref="O21:O31" si="9">I21/F21</f>
-        <v>0</v>
+        <v>11.527524220193762</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" ref="P21:P31" si="10">J21/D21</f>
-        <v>2.355073600588721</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="6"/>
-        <v>2.7322199116801289</v>
+        <f t="shared" ref="Q21:Q31" si="11">K21/E21</f>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="6"/>
-        <v>2.9198247745981969</v>
+        <f t="shared" ref="R21:R31" si="12">L21/F21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -3104,55 +3077,55 @@
         <v>506</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>476</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>476</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>476</v>
       </c>
       <c r="G22" t="s">
-        <v>390</v>
+        <v>477</v>
       </c>
       <c r="H22" t="s">
-        <v>391</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>477</v>
+      </c>
+      <c r="I22" t="s">
+        <v>477</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="7"/>
-        <v>0.79373827304463529</v>
+        <v>7.8515731874145009</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="8"/>
-        <v>0.52783685293542859</v>
+        <v>7.8515731874145009</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.8515731874145009</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="10"/>
-        <v>3.2281831909279153</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="6"/>
-        <v>3.6790097822074568</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="6"/>
-        <v>4.064473882439029</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -3166,55 +3139,55 @@
         <v>529</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>478</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>478</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>479</v>
       </c>
       <c r="G23" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="H23" t="s">
-        <v>393</v>
+        <v>481</v>
       </c>
       <c r="I23" t="s">
-        <v>394</v>
+        <v>481</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="7"/>
-        <v>0.96272348134269392</v>
+        <v>15.321203638908328</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="8"/>
-        <v>0.93663429426456613</v>
+        <v>15.026871938418475</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="9"/>
-        <v>0.82464463712548364</v>
+        <v>17.173224568138195</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="10"/>
-        <v>1.8278064967606493</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="6"/>
-        <v>1.901478756914931</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="6"/>
-        <v>2.0267199010122283</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -3228,55 +3201,55 @@
         <v>1898</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>482</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>483</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>483</v>
       </c>
       <c r="G24" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="H24" t="s">
-        <v>396</v>
+        <v>485</v>
       </c>
       <c r="I24" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="7"/>
-        <v>0.94047259648041037</v>
+        <v>15.998906655733224</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="8"/>
-        <v>0.89784474730497188</v>
+        <v>21.252642128279884</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="9"/>
-        <v>0.74446381710419096</v>
+        <v>21.228498542274053</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="10"/>
-        <v>2.1523055869362637</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="6"/>
-        <v>2.3825929328454722</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="6"/>
-        <v>2.6522101743384465</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -3290,55 +3263,55 @@
         <v>324</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>487</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>487</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>487</v>
       </c>
       <c r="G25" t="s">
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="H25" t="s">
-        <v>399</v>
+        <v>488</v>
       </c>
       <c r="I25" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="7"/>
-        <v>0.97713326941514866</v>
+        <v>15.571428571428571</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="8"/>
-        <v>0.9153474903474903</v>
+        <v>15.571428571428571</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="9"/>
-        <v>0.78328332246140464</v>
+        <v>15.453968253968254</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" si="10"/>
-        <v>1.8625759028443591</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="6"/>
-        <v>2.0597919347919347</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1643139813002827</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -3352,55 +3325,55 @@
         <v>794</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>467</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>467</v>
       </c>
       <c r="G26" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
       <c r="H26" t="s">
-        <v>402</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+        <v>491</v>
+      </c>
+      <c r="I26" t="s">
+        <v>491</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="7"/>
-        <v>0.65772692436974789</v>
+        <v>26.442399999999999</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="8"/>
-        <v>0.29410675060532687</v>
+        <v>25.518085714285714</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>25.518085714285714</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="10"/>
-        <v>2.5557608643457383</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="6"/>
-        <v>2.88623595157385</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="6"/>
-        <v>3.0937120394088669</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -3414,55 +3387,55 @@
         <v>695</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>492</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>492</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>493</v>
       </c>
       <c r="G27" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="H27" t="s">
-        <v>404</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="I27" t="s">
+        <v>494</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="7"/>
-        <v>0.74351313010010833</v>
+        <v>13.655703886372798</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="8"/>
-        <v>0.431134096618496</v>
+        <v>13.655703886372798</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15.606254403555363</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="10"/>
-        <v>2.7103779277333109</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="6"/>
-        <v>3.0365380947690039</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="6"/>
-        <v>3.278942156435698</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -3476,55 +3449,55 @@
         <v>894</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>495</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>467</v>
       </c>
       <c r="G28" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="H28" t="s">
-        <v>406</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+        <v>498</v>
+      </c>
+      <c r="I28" t="s">
+        <v>498</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="7"/>
-        <v>0.61565155179935849</v>
+        <v>13.539739725020219</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="8"/>
-        <v>0.18038747529544194</v>
+        <v>17.515623851187414</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>20.419714285714285</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="10"/>
-        <v>2.5970764490235516</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="6"/>
-        <v>2.8732178347682629</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="6"/>
-        <v>3.0719168349318524</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -3538,55 +3511,55 @@
         <v>892</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>499</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="G29" t="s">
-        <v>407</v>
+        <v>502</v>
       </c>
       <c r="H29" t="s">
-        <v>408</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+        <v>502</v>
+      </c>
+      <c r="I29" t="s">
+        <v>502</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="7"/>
-        <v>0.65516402689831132</v>
+        <v>12.619401223982505</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="8"/>
-        <v>0.2433506110626471</v>
+        <v>16.825956536331599</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>20.190978427769526</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="10"/>
-        <v>2.59330975057191</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="6"/>
-        <v>2.9350463359124817</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="6"/>
-        <v>3.1436553818435158</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -3600,55 +3573,55 @@
         <v>1009</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>503</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="G30" t="s">
-        <v>409</v>
+        <v>504</v>
       </c>
       <c r="H30" t="s">
-        <v>410</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+        <v>504</v>
+      </c>
+      <c r="I30" t="s">
+        <v>504</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="7"/>
-        <v>0.60792925243477602</v>
+        <v>25.235440856313499</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="8"/>
-        <v>0.15471319326077757</v>
+        <v>25.235440856313499</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>25.235440856313499</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="10"/>
-        <v>2.4905948281426653</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="6"/>
-        <v>2.776699448849278</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="6"/>
-        <v>3.0110802500798459</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -3662,55 +3635,55 @@
         <v>830</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>505</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="G31" t="s">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="H31" t="s">
-        <v>412</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
+        <v>509</v>
+      </c>
+      <c r="I31" t="s">
+        <v>509</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="L31" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="7"/>
-        <v>0.64744013297504466</v>
+        <v>13.536549730570437</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="8"/>
-        <v>0.27009463897880548</v>
+        <v>17.493129451193969</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>20.991931226905965</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="10"/>
-        <v>2.6205217437718469</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="6"/>
-        <v>2.9260566704061133</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="6"/>
-        <v>3.1378162496455553</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -3733,12 +3706,12 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -3754,7 +3727,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -3763,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H34" t="s">
         <v>23</v>
@@ -3772,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s">
         <v>23</v>
@@ -3781,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="N34" t="s">
         <v>23</v>
@@ -3790,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q34" t="s">
         <v>23</v>
@@ -3810,22 +3783,22 @@
         <v>418</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="H35" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="I35" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="J35" t="s">
         <v>25</v>
@@ -3853,17 +3826,17 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" ref="Q35:R46" si="11">K35/E35</f>
+        <f t="shared" ref="Q35:R46" si="13">K35/E35</f>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B36">
         <v>460</v>
@@ -3872,22 +3845,22 @@
         <v>566</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="H36" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="I36" t="s">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="J36" t="s">
         <v>25</v>
@@ -3899,27 +3872,27 @@
         <v>25</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" ref="M36:M46" si="12">G36/D36</f>
+        <f t="shared" ref="M36:M46" si="14">G36/D36</f>
         <v>13.555425083202861</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" ref="N36:N46" si="13">H36/E36</f>
+        <f t="shared" ref="N36:N46" si="15">H36/E36</f>
         <v>11.482315648982315</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" ref="O36:O46" si="14">I36/F36</f>
+        <f t="shared" ref="O36:O46" si="16">I36/F36</f>
         <v>14.089196269125708</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P46" si="15">J36/D36</f>
+        <f t="shared" ref="P36:P46" si="17">J36/D36</f>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3934,22 +3907,22 @@
         <v>506</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="H37" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="I37" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="J37" t="s">
         <v>25</v>
@@ -3961,27 +3934,27 @@
         <v>25</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="12"/>
-        <v>11.440863787375415</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" si="13"/>
-        <v>11.440863787375415</v>
-      </c>
-      <c r="O37" s="1">
         <f t="shared" si="14"/>
         <v>11.440863787375415</v>
       </c>
+      <c r="N37" s="1">
+        <f t="shared" si="15"/>
+        <v>11.440863787375415</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="16"/>
+        <v>11.440863787375415</v>
+      </c>
       <c r="P37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3996,22 +3969,22 @@
         <v>529</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="H38" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="I38" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
         <v>25</v>
@@ -4023,27 +3996,27 @@
         <v>25</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.9936714637782575</v>
       </c>
       <c r="N38" s="1">
+        <f t="shared" si="15"/>
+        <v>7.1867648401131836</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="16"/>
+        <v>7.8710612603966732</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="13"/>
-        <v>7.1867648401131836</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="14"/>
-        <v>7.8710612603966732</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4058,22 +4031,22 @@
         <v>1898</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="H39" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="I39" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="J39" t="s">
         <v>25</v>
@@ -4085,27 +4058,27 @@
         <v>25</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.999726663933306</v>
       </c>
       <c r="N39" s="1">
+        <f t="shared" si="15"/>
+        <v>5.129948099929627</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="16"/>
+        <v>5.8561375289031865</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="13"/>
-        <v>5.129948099929627</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="14"/>
-        <v>5.8561375289031865</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4120,22 +4093,22 @@
         <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="H40" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="I40" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="J40" t="s">
         <v>25</v>
@@ -4147,27 +4120,27 @@
         <v>25</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.8345864661654137</v>
       </c>
       <c r="N40" s="1">
+        <f t="shared" si="15"/>
+        <v>9.8345864661654137</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="16"/>
+        <v>10.573767752715121</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="13"/>
-        <v>9.8345864661654137</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="14"/>
-        <v>10.573767752715121</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4182,22 +4155,22 @@
         <v>794</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="H41" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="I41" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="J41" t="s">
         <v>25</v>
@@ -4209,27 +4182,27 @@
         <v>25</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44.250546938775507</v>
       </c>
       <c r="N41" s="1">
+        <f t="shared" si="15"/>
+        <v>44.266067055393584</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="16"/>
+        <v>44.266067055393584</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="13"/>
-        <v>44.266067055393584</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="14"/>
-        <v>44.266067055393584</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4244,22 +4217,22 @@
         <v>695</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="H42" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="I42" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
         <v>25</v>
@@ -4271,27 +4244,27 @@
         <v>25</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22.434370670469598</v>
       </c>
       <c r="N42" s="1">
+        <f t="shared" si="15"/>
+        <v>22.434370670469598</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="16"/>
+        <v>22.911309656283404</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="13"/>
-        <v>22.434370670469598</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="14"/>
-        <v>22.911309656283404</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4306,22 +4279,22 @@
         <v>894</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="H43" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="I43" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
@@ -4333,27 +4306,27 @@
         <v>25</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.996442569268098</v>
       </c>
       <c r="N43" s="1">
+        <f t="shared" si="15"/>
+        <v>30.421873004693929</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="16"/>
+        <v>30.172413646055436</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="13"/>
-        <v>30.421873004693929</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="14"/>
-        <v>30.172413646055436</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4368,22 +4341,22 @@
         <v>892</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="H44" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="I44" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="J44" t="s">
         <v>25</v>
@@ -4395,27 +4368,27 @@
         <v>25</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.297356105813858</v>
       </c>
       <c r="N44" s="1">
+        <f t="shared" si="15"/>
+        <v>25.639552817267198</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="16"/>
+        <v>29.82052198562884</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="13"/>
-        <v>25.639552817267198</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="14"/>
-        <v>29.82052198562884</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4430,22 +4403,22 @@
         <v>1009</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="H45" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="I45" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="J45" t="s">
         <v>25</v>
@@ -4457,27 +4430,27 @@
         <v>25</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="12"/>
-        <v>42.459630647130645</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="13"/>
-        <v>42.459630647130645</v>
-      </c>
-      <c r="O45" s="1">
         <f t="shared" si="14"/>
         <v>42.459630647130645</v>
       </c>
+      <c r="N45" s="1">
+        <f t="shared" si="15"/>
+        <v>42.459630647130645</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="16"/>
+        <v>42.459630647130645</v>
+      </c>
       <c r="P45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4492,22 +4465,22 @@
         <v>830</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="H46" t="s">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="I46" t="s">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="J46" t="s">
         <v>25</v>
@@ -4519,27 +4492,27 @@
         <v>25</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.622606392564094</v>
       </c>
       <c r="N46" s="1">
+        <f t="shared" si="15"/>
+        <v>27.801580734933271</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="16"/>
+        <v>31.665794562620864</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="13"/>
-        <v>27.801580734933271</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="14"/>
-        <v>31.665794562620864</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4563,12 +4536,12 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -4584,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
@@ -4593,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H49" t="s">
         <v>23</v>
@@ -4602,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s">
         <v>23</v>
@@ -4611,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="N49" t="s">
         <v>23</v>
@@ -4620,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q49" t="s">
         <v>23</v>
@@ -4640,22 +4613,22 @@
         <v>418</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
       <c r="H50" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s">
         <v>25</v>
@@ -4683,17 +4656,17 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" ref="Q50:R61" si="16">K50/E50</f>
+        <f t="shared" ref="Q50:R61" si="18">K50/E50</f>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B51">
         <v>460</v>
@@ -4702,22 +4675,22 @@
         <v>566</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="H51" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="J51" t="s">
         <v>25</v>
@@ -4729,27 +4702,27 @@
         <v>25</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" ref="M51:M61" si="17">G51/D51</f>
+        <f t="shared" ref="M51:M61" si="19">G51/D51</f>
         <v>1.2708333333333333</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" ref="N51:N61" si="18">H51/E51</f>
+        <f t="shared" ref="N51:N61" si="20">H51/E51</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" ref="O51:O61" si="19">I51/F51</f>
+        <f t="shared" ref="O51:O61" si="21">I51/F51</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="P51">
-        <f t="shared" ref="P51:P61" si="20">J51/D51</f>
+        <f t="shared" ref="P51:P61" si="22">J51/D51</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4764,22 +4737,22 @@
         <v>506</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="I52" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="J52" t="s">
         <v>25</v>
@@ -4791,27 +4764,27 @@
         <v>25</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="17"/>
-        <v>1.4571428571428571</v>
-      </c>
-      <c r="N52" s="1">
-        <f t="shared" si="18"/>
-        <v>1.4571428571428571</v>
-      </c>
-      <c r="O52" s="1">
         <f t="shared" si="19"/>
         <v>1.4571428571428571</v>
       </c>
+      <c r="N52" s="1">
+        <f t="shared" si="20"/>
+        <v>1.4571428571428571</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="21"/>
+        <v>1.4571428571428571</v>
+      </c>
       <c r="P52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4826,22 +4799,22 @@
         <v>529</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>439</v>
+        <v>375</v>
       </c>
       <c r="H53" t="s">
-        <v>440</v>
+        <v>376</v>
       </c>
       <c r="I53" t="s">
-        <v>440</v>
+        <v>376</v>
       </c>
       <c r="J53" t="s">
         <v>25</v>
@@ -4853,27 +4826,27 @@
         <v>25</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="N53" s="1">
+        <f t="shared" si="20"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="21"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="18"/>
-        <v>0.47826086956521741</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="19"/>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4888,22 +4861,22 @@
         <v>1898</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="J54" t="s">
         <v>25</v>
@@ -4915,27 +4888,27 @@
         <v>25</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="N54" s="1">
+        <f t="shared" si="20"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="21"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <f t="shared" si="18"/>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="O54" s="1">
-        <f t="shared" si="19"/>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4950,22 +4923,22 @@
         <v>324</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s">
-        <v>439</v>
+        <v>375</v>
       </c>
       <c r="H55" t="s">
-        <v>439</v>
+        <v>375</v>
       </c>
       <c r="I55" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s">
         <v>25</v>
@@ -4977,27 +4950,27 @@
         <v>25</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.63157894736842102</v>
       </c>
       <c r="N55" s="1">
+        <f t="shared" si="20"/>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="21"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <f t="shared" si="18"/>
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="O55" s="1">
-        <f t="shared" si="19"/>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5012,22 +4985,22 @@
         <v>794</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="J56" t="s">
         <v>25</v>
@@ -5039,27 +5012,27 @@
         <v>25</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.6734693877551021</v>
       </c>
       <c r="N56" s="1">
+        <f t="shared" si="20"/>
+        <v>1.7346938775510203</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="21"/>
+        <v>1.7346938775510203</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="18"/>
-        <v>1.7346938775510203</v>
-      </c>
-      <c r="O56" s="1">
-        <f t="shared" si="19"/>
-        <v>1.7346938775510203</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5074,22 +5047,22 @@
         <v>695</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G57" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="H57" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="I57" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="J57" t="s">
         <v>25</v>
@@ -5101,27 +5074,27 @@
         <v>25</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="N57" s="1">
+        <f t="shared" si="20"/>
+        <v>1.6428571428571428</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="21"/>
+        <v>1.4680851063829787</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <f t="shared" si="18"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="O57" s="1">
-        <f t="shared" si="19"/>
-        <v>1.4680851063829787</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5136,22 +5109,22 @@
         <v>894</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="H58" t="s">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="I58" t="s">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="J58" t="s">
         <v>25</v>
@@ -5163,27 +5136,27 @@
         <v>25</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.8461538461538463</v>
       </c>
       <c r="N58" s="1">
+        <f t="shared" si="20"/>
+        <v>1.736842105263158</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="21"/>
+        <v>1.4776119402985075</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="18"/>
-        <v>1.736842105263158</v>
-      </c>
-      <c r="O58" s="1">
-        <f t="shared" si="19"/>
-        <v>1.4776119402985075</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5198,22 +5171,22 @@
         <v>892</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="H59" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="I59" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="J59" t="s">
         <v>25</v>
@@ -5225,27 +5198,27 @@
         <v>25</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.8461538461538463</v>
       </c>
       <c r="N59" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5238095238095237</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="21"/>
+        <v>1.476923076923077</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="18"/>
-        <v>1.5238095238095237</v>
-      </c>
-      <c r="O59" s="1">
-        <f t="shared" si="19"/>
-        <v>1.476923076923077</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5260,22 +5233,22 @@
         <v>1009</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="G60" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="H60" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="I60" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="J60" t="s">
         <v>25</v>
@@ -5287,27 +5260,27 @@
         <v>25</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="17"/>
-        <v>1.6825396825396826</v>
-      </c>
-      <c r="N60" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6825396825396826</v>
-      </c>
-      <c r="O60" s="1">
         <f t="shared" si="19"/>
         <v>1.6825396825396826</v>
       </c>
+      <c r="N60" s="1">
+        <f t="shared" si="20"/>
+        <v>1.6825396825396826</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="21"/>
+        <v>1.6825396825396826</v>
+      </c>
       <c r="P60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5322,22 +5295,22 @@
         <v>830</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G61" t="s">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="H61" t="s">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="I61" t="s">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="J61" t="s">
         <v>25</v>
@@ -5349,27 +5322,27 @@
         <v>25</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7450980392156863</v>
       </c>
       <c r="N61" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5892857142857142</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="21"/>
+        <v>1.5084745762711864</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="18"/>
-        <v>1.5892857142857142</v>
-      </c>
-      <c r="O61" s="1">
-        <f t="shared" si="19"/>
-        <v>1.5084745762711864</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5393,12 +5366,12 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -5414,7 +5387,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
@@ -5423,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
@@ -5432,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K64" t="s">
         <v>23</v>
@@ -5441,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="N64" t="s">
         <v>23</v>
@@ -5450,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q64" t="s">
         <v>23</v>
@@ -5470,31 +5443,31 @@
         <v>418</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G65" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="H65" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="I65" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="J65" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="K65" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="L65" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="M65" s="1">
         <f>G65/D65</f>
@@ -5513,17 +5486,17 @@
         <v>0.98059097123643424</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" ref="Q65:R76" si="21">K65/E65</f>
+        <f t="shared" ref="Q65:R76" si="23">K65/E65</f>
         <v>0.98104477090349951</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.98275119722332061</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B66">
         <v>460</v>
@@ -5532,54 +5505,54 @@
         <v>566</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F66" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G66" t="s">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="H66" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="I66" t="s">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="J66" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="K66" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="L66" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" ref="M66:M76" si="22">G66/D66</f>
+        <f t="shared" ref="M66:M76" si="24">G66/D66</f>
         <v>0.97259606373008434</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" ref="N66:N76" si="23">H66/E66</f>
+        <f t="shared" ref="N66:N76" si="25">H66/E66</f>
         <v>0.98099999999999998</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" ref="O66:O76" si="24">I66/F66</f>
+        <f t="shared" ref="O66:O76" si="26">I66/F66</f>
         <v>0.98860856397902896</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" ref="P66:P76" si="25">J66/D66</f>
+        <f t="shared" ref="P66:P76" si="27">J66/D66</f>
         <v>0.9936269915651359</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.99156794751640109</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.98903719343167473</v>
       </c>
     </row>
@@ -5594,54 +5567,54 @@
         <v>506</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G67" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="H67" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="I67" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="J67" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="K67" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="L67" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="22"/>
-        <v>0.95775681341719077</v>
-      </c>
-      <c r="N67" s="1">
-        <f t="shared" si="23"/>
-        <v>0.95775681341719077</v>
-      </c>
-      <c r="O67" s="1">
         <f t="shared" si="24"/>
         <v>0.95775681341719077</v>
       </c>
+      <c r="N67" s="1">
+        <f t="shared" si="25"/>
+        <v>0.95775681341719077</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="26"/>
+        <v>0.95775681341719077</v>
+      </c>
       <c r="P67" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.99308176100628931</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.99336373165618452</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.98893081761006285</v>
       </c>
     </row>
@@ -5656,54 +5629,54 @@
         <v>529</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G68" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="H68" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="I68" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="J68" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="K68" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="L68" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.97691666666666666</v>
       </c>
       <c r="N68" s="1">
+        <f t="shared" si="25"/>
+        <v>0.98414333333333337</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="26"/>
+        <v>0.98633052126423681</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="27"/>
+        <v>1.0015000000000001</v>
+      </c>
+      <c r="Q68" s="1">
         <f t="shared" si="23"/>
-        <v>0.98414333333333337</v>
-      </c>
-      <c r="O68" s="1">
-        <f t="shared" si="24"/>
-        <v>0.98633052126423681</v>
-      </c>
-      <c r="P68" s="1">
-        <f t="shared" si="25"/>
-        <v>1.0015000000000001</v>
-      </c>
-      <c r="Q68" s="1">
-        <f t="shared" si="21"/>
         <v>0.99833833333333333</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0035319988741702</v>
       </c>
     </row>
@@ -5718,54 +5691,54 @@
         <v>1898</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="H69" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="I69" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="J69" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="K69" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="L69" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.99471530531324348</v>
       </c>
       <c r="N69" s="1">
+        <f t="shared" si="25"/>
+        <v>0.99639630118890354</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="26"/>
+        <v>1.0110148187351151</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="27"/>
+        <v>0.99270420301348139</v>
+      </c>
+      <c r="Q69" s="1">
         <f t="shared" si="23"/>
-        <v>0.99639630118890354</v>
-      </c>
-      <c r="O69" s="1">
-        <f t="shared" si="24"/>
-        <v>1.0110148187351151</v>
-      </c>
-      <c r="P69" s="1">
-        <f t="shared" si="25"/>
-        <v>0.99270420301348139</v>
-      </c>
-      <c r="Q69" s="1">
-        <f t="shared" si="21"/>
         <v>0.99005416116248346</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.99424397988885949</v>
       </c>
     </row>
@@ -5780,54 +5753,54 @@
         <v>324</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F70" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G70" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="H70" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="I70" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="J70" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="K70" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="L70" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.96284153005464479</v>
       </c>
       <c r="N70" s="1">
+        <f t="shared" si="25"/>
+        <v>0.96284153005464479</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="26"/>
+        <v>0.96476393442622954</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" si="27"/>
+        <v>1.020983606557377</v>
+      </c>
+      <c r="Q70" s="1">
         <f t="shared" si="23"/>
-        <v>0.96284153005464479</v>
-      </c>
-      <c r="O70" s="1">
-        <f t="shared" si="24"/>
-        <v>0.96476393442622954</v>
-      </c>
-      <c r="P70" s="1">
-        <f t="shared" si="25"/>
-        <v>1.020983606557377</v>
-      </c>
-      <c r="Q70" s="1">
-        <f t="shared" si="21"/>
         <v>1.0229584699453551</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0192524590163934</v>
       </c>
     </row>
@@ -5842,54 +5815,54 @@
         <v>794</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E71" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="H71" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="I71" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="J71" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="K71" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="L71" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0286900647948165</v>
       </c>
       <c r="N71" s="1">
+        <f t="shared" si="25"/>
+        <v>1.02207343412527</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="26"/>
+        <v>1.02207343412527</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="27"/>
+        <v>1.0241900647948163</v>
+      </c>
+      <c r="Q71" s="1">
         <f t="shared" si="23"/>
-        <v>1.02207343412527</v>
-      </c>
-      <c r="O71" s="1">
-        <f t="shared" si="24"/>
-        <v>1.02207343412527</v>
-      </c>
-      <c r="P71" s="1">
-        <f t="shared" si="25"/>
-        <v>1.0241900647948163</v>
-      </c>
-      <c r="Q71" s="1">
-        <f t="shared" si="21"/>
         <v>1.0278473722102233</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0179524838012959</v>
       </c>
     </row>
@@ -5904,54 +5877,54 @@
         <v>695</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G72" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="H72" t="s">
-        <v>464</v>
+        <v>400</v>
       </c>
       <c r="I72" t="s">
-        <v>464</v>
+        <v>400</v>
       </c>
       <c r="J72" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="K72" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="L72" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.9861512702078522</v>
       </c>
       <c r="N72" s="1">
+        <f t="shared" si="25"/>
+        <v>0.99042032332563512</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="26"/>
+        <v>1.0070399714456129</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="27"/>
+        <v>0.97690531177829099</v>
+      </c>
+      <c r="Q72" s="1">
         <f t="shared" si="23"/>
-        <v>0.99042032332563512</v>
-      </c>
-      <c r="O72" s="1">
-        <f t="shared" si="24"/>
-        <v>1.0070399714456129</v>
-      </c>
-      <c r="P72" s="1">
-        <f t="shared" si="25"/>
-        <v>0.97690531177829099</v>
-      </c>
-      <c r="Q72" s="1">
-        <f t="shared" si="21"/>
         <v>0.98409699769053116</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.99914055051731343</v>
       </c>
     </row>
@@ -5966,54 +5939,54 @@
         <v>894</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="G73" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="H73" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="I73" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="J73" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="K73" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="L73" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.99379026217228461</v>
       </c>
       <c r="N73" s="1">
+        <f t="shared" si="25"/>
+        <v>0.99275109170305675</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="26"/>
+        <v>1.0142638623326961</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" si="27"/>
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="Q73" s="1">
         <f t="shared" si="23"/>
-        <v>0.99275109170305675</v>
-      </c>
-      <c r="O73" s="1">
-        <f t="shared" si="24"/>
-        <v>1.0142638623326961</v>
-      </c>
-      <c r="P73" s="1">
-        <f t="shared" si="25"/>
-        <v>0.9887640449438202</v>
-      </c>
-      <c r="Q73" s="1">
-        <f t="shared" si="21"/>
         <v>0.98919151590767307</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0065570427023582</v>
       </c>
     </row>
@@ -6028,54 +6001,54 @@
         <v>892</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="G74" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="H74" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="I74" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
       <c r="J74" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="K74" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="L74" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.98785046728971959</v>
       </c>
       <c r="N74" s="1">
+        <f t="shared" si="25"/>
+        <v>0.98970037453183524</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="26"/>
+        <v>1.0162685997710796</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="27"/>
+        <v>0.98093457943925233</v>
+      </c>
+      <c r="Q74" s="1">
         <f t="shared" si="23"/>
-        <v>0.98970037453183524</v>
-      </c>
-      <c r="O74" s="1">
-        <f t="shared" si="24"/>
-        <v>1.0162685997710796</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="25"/>
-        <v>0.98093457943925233</v>
-      </c>
-      <c r="Q74" s="1">
-        <f t="shared" si="21"/>
         <v>0.97546004993757807</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0048022383314257</v>
       </c>
     </row>
@@ -6090,54 +6063,54 @@
         <v>1009</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F75" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="G75" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="H75" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="I75" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="J75" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="K75" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="L75" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0039886039886039</v>
       </c>
       <c r="N75" s="1">
+        <f t="shared" si="25"/>
+        <v>1.0039886039886039</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="26"/>
+        <v>1.0120205128205129</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="27"/>
+        <v>0.98598290598290594</v>
+      </c>
+      <c r="Q75" s="1">
         <f t="shared" si="23"/>
-        <v>1.0039886039886039</v>
-      </c>
-      <c r="O75" s="1">
-        <f t="shared" si="24"/>
-        <v>1.0120205128205129</v>
-      </c>
-      <c r="P75" s="1">
-        <f t="shared" si="25"/>
-        <v>0.98598290598290594</v>
-      </c>
-      <c r="Q75" s="1">
-        <f t="shared" si="21"/>
         <v>0.9897504273504274</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.99119772079772084</v>
       </c>
     </row>
@@ -6152,54 +6125,54 @@
         <v>830</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F76" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="G76" t="s">
-        <v>471</v>
+        <v>407</v>
       </c>
       <c r="H76" t="s">
-        <v>472</v>
+        <v>408</v>
       </c>
       <c r="I76" t="s">
-        <v>472</v>
+        <v>408</v>
       </c>
       <c r="J76" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="K76" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="L76" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.9840844930417495</v>
       </c>
       <c r="N76" s="1">
+        <f t="shared" si="25"/>
+        <v>0.98661354581673311</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="26"/>
+        <v>1.0091279543602283</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="27"/>
+        <v>0.979324055666004</v>
+      </c>
+      <c r="Q76" s="1">
         <f t="shared" si="23"/>
-        <v>0.98661354581673311</v>
-      </c>
-      <c r="O76" s="1">
-        <f t="shared" si="24"/>
-        <v>1.0091279543602283</v>
-      </c>
-      <c r="P76" s="1">
-        <f t="shared" si="25"/>
-        <v>0.979324055666004</v>
-      </c>
-      <c r="Q76" s="1">
-        <f t="shared" si="21"/>
         <v>0.97102124833997339</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0017169247487097</v>
       </c>
     </row>
@@ -6223,12 +6196,12 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
@@ -6244,7 +6217,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -6253,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H79" t="s">
         <v>23</v>
@@ -6262,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K79" t="s">
         <v>23</v>
@@ -6271,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="N79" t="s">
         <v>23</v>
@@ -6280,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q79" t="s">
         <v>23</v>
@@ -6300,31 +6273,31 @@
         <v>418</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="E80" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="H80" t="s">
-        <v>473</v>
+        <v>409</v>
       </c>
       <c r="I80" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="J80" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="K80" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="L80" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="M80" s="1">
         <f>G80/D80</f>
@@ -6343,17 +6316,17 @@
         <v>0.33727607096927747</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" ref="Q80:R91" si="26">K80/E80</f>
+        <f t="shared" ref="Q80:R91" si="28">K80/E80</f>
         <v>0.30428743429947441</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.28758255269802369</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B81">
         <v>460</v>
@@ -6362,54 +6335,54 @@
         <v>566</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F81" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="G81" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="H81" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="I81" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
       <c r="J81" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="K81" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="L81" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" ref="M81:M91" si="27">G81/D81</f>
+        <f t="shared" ref="M81:M91" si="29">G81/D81</f>
         <v>1.000010000100001</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ref="N81:N91" si="28">H81/E81</f>
+        <f t="shared" ref="N81:N91" si="30">H81/E81</f>
         <v>0.97492974929749299</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" ref="O81:O91" si="29">I81/F81</f>
+        <f t="shared" ref="O81:O91" si="31">I81/F81</f>
         <v>0.96212488637465909</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" ref="P81:P91" si="30">J81/D81</f>
+        <f t="shared" ref="P81:P91" si="32">J81/D81</f>
         <v>0.43527935279352792</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.38486084860848607</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.37362112086336258</v>
       </c>
     </row>
@@ -6424,54 +6397,54 @@
         <v>506</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G82" t="s">
-        <v>477</v>
+        <v>413</v>
       </c>
       <c r="H82" t="s">
-        <v>477</v>
+        <v>413</v>
       </c>
       <c r="I82" t="s">
-        <v>477</v>
+        <v>413</v>
       </c>
       <c r="J82" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="K82" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="L82" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="27"/>
-        <v>0.95522237311322356</v>
-      </c>
-      <c r="N82" s="1">
-        <f t="shared" si="28"/>
-        <v>0.95522237311322356</v>
-      </c>
-      <c r="O82" s="1">
         <f t="shared" si="29"/>
         <v>0.95522237311322356</v>
       </c>
+      <c r="N82" s="1">
+        <f t="shared" si="30"/>
+        <v>0.95522237311322356</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="31"/>
+        <v>0.95522237311322356</v>
+      </c>
       <c r="P82" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.31738944345220826</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.28551699723796131</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.2721618102653437</v>
       </c>
     </row>
@@ -6486,54 +6459,54 @@
         <v>529</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G83" t="s">
-        <v>478</v>
+        <v>414</v>
       </c>
       <c r="H83" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="I83" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="J83" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="K83" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="L83" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.9790351760603172</v>
       </c>
       <c r="N83" s="1">
+        <f t="shared" si="30"/>
+        <v>0.96493794960161527</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="31"/>
+        <v>0.9649572504257955</v>
+      </c>
+      <c r="P83" s="1">
+        <f t="shared" si="32"/>
+        <v>0.55151598189042439</v>
+      </c>
+      <c r="Q83" s="1">
         <f t="shared" si="28"/>
-        <v>0.96493794960161527</v>
-      </c>
-      <c r="O83" s="1">
-        <f t="shared" si="29"/>
-        <v>0.9649572504257955</v>
-      </c>
-      <c r="P83" s="1">
-        <f t="shared" si="30"/>
-        <v>0.55151598189042439</v>
-      </c>
-      <c r="Q83" s="1">
-        <f t="shared" si="26"/>
         <v>0.53445749780230878</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.50770832479075267</v>
       </c>
     </row>
@@ -6548,54 +6521,54 @@
         <v>1898</v>
       </c>
       <c r="D84" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="F84" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G84" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="H84" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="I84" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="J84" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="K84" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="L84" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000680046243144</v>
       </c>
       <c r="N84" s="1">
+        <f t="shared" si="30"/>
+        <v>0.97242785677567234</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="31"/>
+        <v>0.95783219286998711</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="shared" si="32"/>
+        <v>0.47361620590200132</v>
+      </c>
+      <c r="Q84" s="1">
         <f t="shared" si="28"/>
-        <v>0.97242785677567234</v>
-      </c>
-      <c r="O84" s="1">
-        <f t="shared" si="29"/>
-        <v>0.95783219286998711</v>
-      </c>
-      <c r="P84" s="1">
-        <f t="shared" si="30"/>
-        <v>0.47361620590200132</v>
-      </c>
-      <c r="Q84" s="1">
-        <f t="shared" si="26"/>
         <v>0.432468301386358</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.4006846780532981</v>
       </c>
     </row>
@@ -6610,54 +6583,54 @@
         <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F85" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="G85" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="H85" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="I85" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="J85" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="K85" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="L85" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.96330305588926035</v>
       </c>
       <c r="N85" s="1">
+        <f t="shared" si="30"/>
+        <v>0.96330305588926035</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="31"/>
+        <v>0.95444745503007344</v>
+      </c>
+      <c r="P85" s="1">
+        <f t="shared" si="32"/>
+        <v>0.54049449370350833</v>
+      </c>
+      <c r="Q85" s="1">
         <f t="shared" si="28"/>
-        <v>0.96330305588926035</v>
-      </c>
-      <c r="O85" s="1">
-        <f t="shared" si="29"/>
-        <v>0.95444745503007344</v>
-      </c>
-      <c r="P85" s="1">
-        <f t="shared" si="30"/>
-        <v>0.54049449370350833</v>
-      </c>
-      <c r="Q85" s="1">
-        <f t="shared" si="26"/>
         <v>0.49204690630571724</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.47469871302478284</v>
       </c>
     </row>
@@ -6672,54 +6645,54 @@
         <v>794</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G86" t="s">
-        <v>484</v>
+        <v>420</v>
       </c>
       <c r="H86" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="I86" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="J86" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="K86" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="L86" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.98326909699567111</v>
       </c>
       <c r="N86" s="1">
+        <f t="shared" si="30"/>
+        <v>0.97969645376370829</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="31"/>
+        <v>0.97969645376370829</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" si="32"/>
+        <v>0.39456078682406709</v>
+      </c>
+      <c r="Q86" s="1">
         <f t="shared" si="28"/>
-        <v>0.97969645376370829</v>
-      </c>
-      <c r="O86" s="1">
-        <f t="shared" si="29"/>
-        <v>0.97969645376370829</v>
-      </c>
-      <c r="P86" s="1">
-        <f t="shared" si="30"/>
-        <v>0.39456078682406709</v>
-      </c>
-      <c r="Q86" s="1">
-        <f t="shared" si="26"/>
         <v>0.3523446177621094</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.33438173338443472</v>
       </c>
     </row>
@@ -6734,54 +6707,54 @@
         <v>695</v>
       </c>
       <c r="D87" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F87" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="G87" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="H87" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="I87" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="J87" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="K87" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="L87" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.95198300000000002</v>
       </c>
       <c r="N87" s="1">
+        <f t="shared" si="30"/>
+        <v>0.95198300000000002</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="31"/>
+        <v>0.95199918398612782</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" si="32"/>
+        <v>0.37431700000000001</v>
+      </c>
+      <c r="Q87" s="1">
         <f t="shared" si="28"/>
-        <v>0.95198300000000002</v>
-      </c>
-      <c r="O87" s="1">
-        <f t="shared" si="29"/>
-        <v>0.95199918398612782</v>
-      </c>
-      <c r="P87" s="1">
-        <f t="shared" si="30"/>
-        <v>0.37431700000000001</v>
-      </c>
-      <c r="Q87" s="1">
-        <f t="shared" si="26"/>
         <v>0.33904200000000001</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.32272648635026796</v>
       </c>
     </row>
@@ -6796,54 +6769,54 @@
         <v>894</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E88" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F88" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="G88" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="H88" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="I88" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="J88" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="K88" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="L88" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.96013656150217652</v>
       </c>
       <c r="N88" s="1">
+        <f t="shared" si="30"/>
+        <v>0.95153146684613521</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="31"/>
+        <v>0.97944598446302522</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="32"/>
+        <v>0.3919733117064288</v>
+      </c>
+      <c r="Q88" s="1">
         <f t="shared" si="28"/>
-        <v>0.95153146684613521</v>
-      </c>
-      <c r="O88" s="1">
-        <f t="shared" si="29"/>
-        <v>0.97944598446302522</v>
-      </c>
-      <c r="P88" s="1">
-        <f t="shared" si="30"/>
-        <v>0.3919733117064288</v>
-      </c>
-      <c r="Q88" s="1">
-        <f t="shared" si="26"/>
         <v>0.35843594279537072</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.34508471017170544</v>
       </c>
     </row>
@@ -6858,54 +6831,54 @@
         <v>892</v>
       </c>
       <c r="D89" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="G89" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="H89" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="I89" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="J89" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="K89" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="L89" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.95091741100893212</v>
       </c>
       <c r="N89" s="1">
+        <f t="shared" si="30"/>
+        <v>0.95091265638859468</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="31"/>
+        <v>0.95092026380395711</v>
+      </c>
+      <c r="P89" s="1">
+        <f t="shared" si="32"/>
+        <v>0.39254271051252615</v>
+      </c>
+      <c r="Q89" s="1">
         <f t="shared" si="28"/>
-        <v>0.95091265638859468</v>
-      </c>
-      <c r="O89" s="1">
-        <f t="shared" si="29"/>
-        <v>0.95092026380395711</v>
-      </c>
-      <c r="P89" s="1">
-        <f t="shared" si="30"/>
-        <v>0.39254271051252615</v>
-      </c>
-      <c r="Q89" s="1">
-        <f t="shared" si="26"/>
         <v>0.35197346381424666</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.33661504922573843</v>
       </c>
     </row>
@@ -6920,54 +6893,54 @@
         <v>1009</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E90" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="G90" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="H90" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="I90" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="J90" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="K90" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="L90" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="27"/>
-        <v>0.95104295104295111</v>
-      </c>
-      <c r="N90" s="1">
-        <f t="shared" si="28"/>
-        <v>0.95104295104295111</v>
-      </c>
-      <c r="O90" s="1">
         <f t="shared" si="29"/>
         <v>0.95104295104295111</v>
       </c>
+      <c r="N90" s="1">
+        <f t="shared" si="30"/>
+        <v>0.95104295104295111</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="31"/>
+        <v>0.95104295104295111</v>
+      </c>
       <c r="P90" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.40583940583940586</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.36799036799036799</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.34690834690834693</v>
       </c>
     </row>
@@ -6982,54 +6955,54 @@
         <v>830</v>
       </c>
       <c r="D91" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="E91" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F91" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="G91" t="s">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="H91" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="I91" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="J91" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="K91" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="L91" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.96036276217657301</v>
       </c>
       <c r="N91" s="1">
+        <f t="shared" si="30"/>
+        <v>0.95275448029928334</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="31"/>
+        <v>0.9527468582405747</v>
+      </c>
+      <c r="P91" s="1">
+        <f t="shared" si="32"/>
+        <v>0.38833433000598</v>
+      </c>
+      <c r="Q91" s="1">
         <f t="shared" si="28"/>
-        <v>0.95275448029928334</v>
-      </c>
-      <c r="O91" s="1">
-        <f t="shared" si="29"/>
-        <v>0.9527468582405747</v>
-      </c>
-      <c r="P91" s="1">
-        <f t="shared" si="30"/>
-        <v>0.38833433000598</v>
-      </c>
-      <c r="Q91" s="1">
-        <f t="shared" si="26"/>
         <v>0.35178286961156574</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.33546600639801921</v>
       </c>
     </row>
@@ -7053,12 +7026,12 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
@@ -7074,7 +7047,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E94" t="s">
         <v>23</v>
@@ -7083,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H94" t="s">
         <v>23</v>
@@ -7092,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K94" t="s">
         <v>23</v>
@@ -7101,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="N94" t="s">
         <v>23</v>
@@ -7110,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Q94" t="s">
         <v>23</v>
@@ -7130,31 +7103,31 @@
         <v>418</v>
       </c>
       <c r="D95" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="E95" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G95" t="s">
-        <v>493</v>
+        <v>429</v>
       </c>
       <c r="H95" t="s">
-        <v>494</v>
+        <v>430</v>
       </c>
       <c r="I95" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="J95" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="K95" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="L95" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="M95" s="1">
         <f>G95/D95</f>
@@ -7173,17 +7146,17 @@
         <v>0.3498114397374677</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" ref="Q95:R106" si="31">K95/E95</f>
+        <f t="shared" ref="Q95:R106" si="33">K95/E95</f>
         <v>0.325688952253123</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.32233216223597017</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B96">
         <v>460</v>
@@ -7192,54 +7165,54 @@
         <v>566</v>
       </c>
       <c r="D96" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F96" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="G96" t="s">
-        <v>496</v>
+        <v>432</v>
       </c>
       <c r="H96" t="s">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="I96" t="s">
-        <v>498</v>
+        <v>434</v>
       </c>
       <c r="J96" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="K96" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="L96" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" ref="M96:M106" si="32">G96/D96</f>
+        <f t="shared" ref="M96:M106" si="34">G96/D96</f>
         <v>0.77382270759342098</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" ref="N96:N106" si="33">H96/E96</f>
+        <f t="shared" ref="N96:N106" si="35">H96/E96</f>
         <v>0.66744773589390027</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" ref="O96:O106" si="34">I96/F96</f>
+        <f t="shared" ref="O96:O106" si="36">I96/F96</f>
         <v>0.49213356019543597</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" ref="P96:P106" si="35">J96/D96</f>
+        <f t="shared" ref="P96:P106" si="37">J96/D96</f>
         <v>0.44550832625405568</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.40294900748716628</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.40413327463474735</v>
       </c>
     </row>
@@ -7254,54 +7227,54 @@
         <v>506</v>
       </c>
       <c r="D97" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F97" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G97" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="H97" t="s">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="I97" t="s">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="J97" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="K97" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="L97" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.78149908674584956</v>
       </c>
       <c r="N97" s="1">
+        <f t="shared" si="35"/>
+        <v>0.66568403930927567</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="36"/>
+        <v>0.52091438468594331</v>
+      </c>
+      <c r="P97" s="1">
+        <f t="shared" si="37"/>
+        <v>0.32458361542284792</v>
+      </c>
+      <c r="Q97" s="1">
         <f t="shared" si="33"/>
-        <v>0.66568403930927567</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="34"/>
-        <v>0.52091438468594331</v>
-      </c>
-      <c r="P97" s="1">
-        <f t="shared" si="35"/>
-        <v>0.32458361542284792</v>
-      </c>
-      <c r="Q97" s="1">
-        <f t="shared" si="31"/>
         <v>0.29846051562847908</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.29683800200031196</v>
       </c>
     </row>
@@ -7316,54 +7289,54 @@
         <v>529</v>
       </c>
       <c r="D98" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="E98" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="G98" t="s">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="H98" t="s">
-        <v>503</v>
+        <v>439</v>
       </c>
       <c r="I98" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="J98" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="K98" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="L98" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.93480067658439725</v>
       </c>
       <c r="N98" s="1">
+        <f t="shared" si="35"/>
+        <v>0.88846720157814785</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="36"/>
+        <v>0.82743190901465435</v>
+      </c>
+      <c r="P98" s="1">
+        <f t="shared" si="37"/>
+        <v>0.55556081653541634</v>
+      </c>
+      <c r="Q98" s="1">
         <f t="shared" si="33"/>
-        <v>0.88846720157814785</v>
-      </c>
-      <c r="O98" s="1">
-        <f t="shared" si="34"/>
-        <v>0.82743190901465435</v>
-      </c>
-      <c r="P98" s="1">
-        <f t="shared" si="35"/>
-        <v>0.55556081653541634</v>
-      </c>
-      <c r="Q98" s="1">
-        <f t="shared" si="31"/>
         <v>0.54229653389943167</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.52183969013667542</v>
       </c>
     </row>
@@ -7378,54 +7351,54 @@
         <v>1898</v>
       </c>
       <c r="D99" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F99" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="G99" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="H99" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="I99" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="J99" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="K99" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="L99" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.95000254600633449</v>
       </c>
       <c r="N99" s="1">
+        <f t="shared" si="35"/>
+        <v>0.87989043170033499</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="36"/>
+        <v>0.76602436028356202</v>
+      </c>
+      <c r="P99" s="1">
+        <f t="shared" si="37"/>
+        <v>0.4822991455602742</v>
+      </c>
+      <c r="Q99" s="1">
         <f t="shared" si="33"/>
-        <v>0.87989043170033499</v>
-      </c>
-      <c r="O99" s="1">
-        <f t="shared" si="34"/>
-        <v>0.76602436028356202</v>
-      </c>
-      <c r="P99" s="1">
-        <f t="shared" si="35"/>
-        <v>0.4822991455602742</v>
-      </c>
-      <c r="Q99" s="1">
-        <f t="shared" si="31"/>
         <v>0.44479360282417124</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.42352367844087424</v>
       </c>
     </row>
@@ -7440,54 +7413,54 @@
         <v>324</v>
       </c>
       <c r="D100" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="F100" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G100" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="H100" t="s">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="I100" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="J100" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="K100" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="L100" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.91856144863937861</v>
       </c>
       <c r="N100" s="1">
+        <f t="shared" si="35"/>
+        <v>0.87825516010298399</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="36"/>
+        <v>0.78882476767469323</v>
+      </c>
+      <c r="P100" s="1">
+        <f t="shared" si="37"/>
+        <v>0.54373710625204918</v>
+      </c>
+      <c r="Q100" s="1">
         <f t="shared" si="33"/>
-        <v>0.87825516010298399</v>
-      </c>
-      <c r="O100" s="1">
-        <f t="shared" si="34"/>
-        <v>0.78882476767469323</v>
-      </c>
-      <c r="P100" s="1">
-        <f t="shared" si="35"/>
-        <v>0.54373710625204918</v>
-      </c>
-      <c r="Q100" s="1">
-        <f t="shared" si="31"/>
         <v>0.49795158702533093</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.48609128715921346</v>
       </c>
     </row>
@@ -7502,54 +7475,54 @@
         <v>794</v>
       </c>
       <c r="D101" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="E101" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F101" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="G101" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="H101" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="I101" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="J101" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="K101" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="L101" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.73308786593544317</v>
       </c>
       <c r="N101" s="1">
+        <f t="shared" si="35"/>
+        <v>0.58551292303388025</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="36"/>
+        <v>0.42126989950702559</v>
+      </c>
+      <c r="P101" s="1">
+        <f t="shared" si="37"/>
+        <v>0.39771725677236269</v>
+      </c>
+      <c r="Q101" s="1">
         <f t="shared" si="33"/>
-        <v>0.58551292303388025</v>
-      </c>
-      <c r="O101" s="1">
-        <f t="shared" si="34"/>
-        <v>0.42126989950702559</v>
-      </c>
-      <c r="P101" s="1">
-        <f t="shared" si="35"/>
-        <v>0.39771725677236269</v>
-      </c>
-      <c r="Q101" s="1">
-        <f t="shared" si="31"/>
         <v>0.35798234057346157</v>
       </c>
       <c r="R101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.34508207933611229</v>
       </c>
     </row>
@@ -7564,54 +7537,54 @@
         <v>695</v>
       </c>
       <c r="D102" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="E102" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F102" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G102" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="H102" t="s">
-        <v>515</v>
+        <v>451</v>
       </c>
       <c r="I102" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="J102" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="K102" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="L102" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.74478519398530985</v>
       </c>
       <c r="N102" s="1">
+        <f t="shared" si="35"/>
+        <v>0.61329636303490676</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" si="36"/>
+        <v>0.45972635160433306</v>
+      </c>
+      <c r="P102" s="1">
+        <f t="shared" si="37"/>
+        <v>0.37943250908751791</v>
+      </c>
+      <c r="Q102" s="1">
         <f t="shared" si="33"/>
-        <v>0.61329636303490676</v>
-      </c>
-      <c r="O102" s="1">
-        <f t="shared" si="34"/>
-        <v>0.45972635160433306</v>
-      </c>
-      <c r="P102" s="1">
-        <f t="shared" si="35"/>
-        <v>0.37943250908751791</v>
-      </c>
-      <c r="Q102" s="1">
-        <f t="shared" si="31"/>
         <v>0.34830911224026451</v>
       </c>
       <c r="R102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.3403687809220261</v>
       </c>
     </row>
@@ -7626,54 +7599,54 @@
         <v>894</v>
       </c>
       <c r="D103" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="E103" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F103" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G103" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="H103" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="I103" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="J103" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="K103" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="L103" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69121698653375008</v>
       </c>
       <c r="N103" s="1">
+        <f t="shared" si="35"/>
+        <v>0.53844509026462073</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" si="36"/>
+        <v>0.39239805265392691</v>
+      </c>
+      <c r="P103" s="1">
+        <f t="shared" si="37"/>
+        <v>0.39863700111769573</v>
+      </c>
+      <c r="Q103" s="1">
         <f t="shared" si="33"/>
-        <v>0.53844509026462073</v>
-      </c>
-      <c r="O103" s="1">
-        <f t="shared" si="34"/>
-        <v>0.39239805265392691</v>
-      </c>
-      <c r="P103" s="1">
-        <f t="shared" si="35"/>
-        <v>0.39863700111769573</v>
-      </c>
-      <c r="Q103" s="1">
-        <f t="shared" si="31"/>
         <v>0.36847250735285797</v>
       </c>
       <c r="R103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.36406423244787656</v>
       </c>
     </row>
@@ -7688,54 +7661,54 @@
         <v>892</v>
       </c>
       <c r="D104" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F104" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G104" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="H104" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="I104" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="J104" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="K104" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="L104" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70078401420561731</v>
       </c>
       <c r="N104" s="1">
+        <f t="shared" si="35"/>
+        <v>0.55703940300600252</v>
+      </c>
+      <c r="O104" s="1">
+        <f t="shared" si="36"/>
+        <v>0.39621615984781217</v>
+      </c>
+      <c r="P104" s="1">
+        <f t="shared" si="37"/>
+        <v>0.39921568069091701</v>
+      </c>
+      <c r="Q104" s="1">
         <f t="shared" si="33"/>
-        <v>0.55703940300600252</v>
-      </c>
-      <c r="O104" s="1">
-        <f t="shared" si="34"/>
-        <v>0.39621615984781217</v>
-      </c>
-      <c r="P104" s="1">
-        <f t="shared" si="35"/>
-        <v>0.39921568069091701</v>
-      </c>
-      <c r="Q104" s="1">
-        <f t="shared" si="31"/>
         <v>0.36288438499431913</v>
       </c>
       <c r="R104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.35456779511941294</v>
       </c>
     </row>
@@ -7750,54 +7723,54 @@
         <v>1009</v>
       </c>
       <c r="D105" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="E105" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F105" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="G105" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="H105" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="I105" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="J105" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="K105" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="L105" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67666965388963718</v>
       </c>
       <c r="N105" s="1">
+        <f t="shared" si="35"/>
+        <v>0.52755396784894104</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="36"/>
+        <v>0.36843464479030646</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="37"/>
+        <v>0.41003322990873647</v>
+      </c>
+      <c r="Q105" s="1">
         <f t="shared" si="33"/>
-        <v>0.52755396784894104</v>
-      </c>
-      <c r="O105" s="1">
-        <f t="shared" si="34"/>
-        <v>0.36843464479030646</v>
-      </c>
-      <c r="P105" s="1">
-        <f t="shared" si="35"/>
-        <v>0.41003322990873647</v>
-      </c>
-      <c r="Q105" s="1">
-        <f t="shared" si="31"/>
         <v>0.3755958152589946</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.36124735240642047</v>
       </c>
     </row>
@@ -7812,59 +7785,78 @@
         <v>830</v>
       </c>
       <c r="D106" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="E106" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="H106" t="s">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="I106" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="J106" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="K106" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="L106" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.7063189240352542</v>
       </c>
       <c r="N106" s="1">
+        <f t="shared" si="35"/>
+        <v>0.56478203909681735</v>
+      </c>
+      <c r="O106" s="1">
+        <f t="shared" si="36"/>
+        <v>0.40491795716915541</v>
+      </c>
+      <c r="P106" s="1">
+        <f t="shared" si="37"/>
+        <v>0.39480643065633325</v>
+      </c>
+      <c r="Q106" s="1">
         <f t="shared" si="33"/>
-        <v>0.56478203909681735</v>
-      </c>
-      <c r="O106" s="1">
-        <f t="shared" si="34"/>
-        <v>0.40491795716915541</v>
-      </c>
-      <c r="P106" s="1">
-        <f t="shared" si="35"/>
-        <v>0.39480643065633325</v>
-      </c>
-      <c r="Q106" s="1">
-        <f t="shared" si="31"/>
         <v>0.36145701148244241</v>
       </c>
       <c r="R106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.35168027407714925</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:L93"/>
     <mergeCell ref="D78:F78"/>
     <mergeCell ref="G78:I78"/>
     <mergeCell ref="J78:L78"/>
@@ -7881,25 +7873,6 @@
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="P78:R78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="654">
   <si>
     <t>图</t>
     <rPh sb="0" eb="1">
@@ -1001,14 +1001,6 @@
     <t>0.983601</t>
   </si>
   <si>
-    <t>IMP LCTES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMP BaseLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LCTES / Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1606,6 +1598,448 @@
   </si>
   <si>
     <t>835122</t>
+  </si>
+  <si>
+    <t>5495000</t>
+  </si>
+  <si>
+    <t>11515000</t>
+  </si>
+  <si>
+    <t>8365000</t>
+  </si>
+  <si>
+    <t>5664312</t>
+  </si>
+  <si>
+    <t>6113632</t>
+  </si>
+  <si>
+    <t>124616</t>
+  </si>
+  <si>
+    <t>27930000</t>
+  </si>
+  <si>
+    <t>17885000</t>
+  </si>
+  <si>
+    <t>23310000</t>
+  </si>
+  <si>
+    <t>26136174</t>
+  </si>
+  <si>
+    <t>35921704</t>
+  </si>
+  <si>
+    <t>26101845</t>
+  </si>
+  <si>
+    <t>128-Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98544396</t>
+  </si>
+  <si>
+    <t>152451134</t>
+  </si>
+  <si>
+    <t>101870129</t>
+  </si>
+  <si>
+    <t>91480320</t>
+  </si>
+  <si>
+    <t>55862494</t>
+  </si>
+  <si>
+    <t>102620444</t>
+  </si>
+  <si>
+    <t>184984</t>
+  </si>
+  <si>
+    <t>8848490</t>
+  </si>
+  <si>
+    <t>8370960</t>
+  </si>
+  <si>
+    <t>20662200</t>
+  </si>
+  <si>
+    <t>31650927</t>
+  </si>
+  <si>
+    <t>10187766</t>
+  </si>
+  <si>
+    <t>71828841</t>
+  </si>
+  <si>
+    <t>97341425</t>
+  </si>
+  <si>
+    <t>72551721</t>
+  </si>
+  <si>
+    <t>62679919</t>
+  </si>
+  <si>
+    <t>50058080</t>
+  </si>
+  <si>
+    <t>80268541</t>
+  </si>
+  <si>
+    <t>255438</t>
+  </si>
+  <si>
+    <t>13742693</t>
+  </si>
+  <si>
+    <t>10865920</t>
+  </si>
+  <si>
+    <t>24915208</t>
+  </si>
+  <si>
+    <t>26238672</t>
+  </si>
+  <si>
+    <t>14812474</t>
+  </si>
+  <si>
+    <t>35805</t>
+  </si>
+  <si>
+    <t>38584</t>
+  </si>
+  <si>
+    <t>35754</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>884659</t>
+  </si>
+  <si>
+    <t>232855</t>
+  </si>
+  <si>
+    <t>214640</t>
+  </si>
+  <si>
+    <t>411051</t>
+  </si>
+  <si>
+    <t>172674</t>
+  </si>
+  <si>
+    <t>2255715</t>
+  </si>
+  <si>
+    <t>2855216</t>
+  </si>
+  <si>
+    <t>2324010</t>
+  </si>
+  <si>
+    <t>1750000</t>
+  </si>
+  <si>
+    <t>6512</t>
+  </si>
+  <si>
+    <t>312600</t>
+  </si>
+  <si>
+    <t>1610000</t>
+  </si>
+  <si>
+    <t>1540000</t>
+  </si>
+  <si>
+    <t>1225000</t>
+  </si>
+  <si>
+    <t>76080674</t>
+  </si>
+  <si>
+    <t>3259970</t>
+  </si>
+  <si>
+    <t>2790320</t>
+  </si>
+  <si>
+    <t>21785703</t>
+  </si>
+  <si>
+    <t>6043590</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>2968817</t>
+  </si>
+  <si>
+    <t>3489486</t>
+  </si>
+  <si>
+    <t>3145572</t>
+  </si>
+  <si>
+    <t>2539614</t>
+  </si>
+  <si>
+    <t>1865600</t>
+  </si>
+  <si>
+    <t>7549500</t>
+  </si>
+  <si>
+    <t>1918272</t>
+  </si>
+  <si>
+    <t>2136706</t>
+  </si>
+  <si>
+    <t>1834176</t>
+  </si>
+  <si>
+    <t>3608576</t>
+  </si>
+  <si>
+    <t>3247104</t>
+  </si>
+  <si>
+    <t>2914279</t>
+  </si>
+  <si>
+    <t>1800136</t>
+  </si>
+  <si>
+    <t>7587825</t>
+  </si>
+  <si>
+    <t>2427084</t>
+  </si>
+  <si>
+    <t>2090400</t>
+  </si>
+  <si>
+    <t>1843450</t>
+  </si>
+  <si>
+    <t>(LCTES - Algorithm) / LCTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(BaseLine - Algorithm) / LCTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2970686</t>
+  </si>
+  <si>
+    <t>3504489</t>
+  </si>
+  <si>
+    <t>3159988</t>
+  </si>
+  <si>
+    <t>3155446</t>
+  </si>
+  <si>
+    <t>2555543</t>
+  </si>
+  <si>
+    <t>2840264</t>
+  </si>
+  <si>
+    <t>1868879</t>
+  </si>
+  <si>
+    <t>7496857</t>
+  </si>
+  <si>
+    <t>2405012</t>
+  </si>
+  <si>
+    <t>1878405</t>
+  </si>
+  <si>
+    <t>2114367</t>
+  </si>
+  <si>
+    <t>1799110</t>
+  </si>
+  <si>
+    <t>0.953258</t>
+  </si>
+  <si>
+    <t>0.974016</t>
+  </si>
+  <si>
+    <t>0.971172</t>
+  </si>
+  <si>
+    <t>0.994906</t>
+  </si>
+  <si>
+    <t>0.979016</t>
+  </si>
+  <si>
+    <t>0.954269</t>
+  </si>
+  <si>
+    <t>0.955728</t>
+  </si>
+  <si>
+    <t>0.956955</t>
+  </si>
+  <si>
+    <t>0.950480</t>
+  </si>
+  <si>
+    <t>0.952977</t>
+  </si>
+  <si>
+    <t>0.275807</t>
+  </si>
+  <si>
+    <t>0.371214</t>
+  </si>
+  <si>
+    <t>0.264052</t>
+  </si>
+  <si>
+    <t>0.493127</t>
+  </si>
+  <si>
+    <t>0.399294</t>
+  </si>
+  <si>
+    <t>0.461156</t>
+  </si>
+  <si>
+    <t>0.318272</t>
+  </si>
+  <si>
+    <t>0.315931</t>
+  </si>
+  <si>
+    <t>0.325483</t>
+  </si>
+  <si>
+    <t>0.328536</t>
+  </si>
+  <si>
+    <t>0.339752</t>
+  </si>
+  <si>
+    <t>0.332314</t>
+  </si>
+  <si>
+    <t>0.743474</t>
+  </si>
+  <si>
+    <t>0.845867</t>
+  </si>
+  <si>
+    <t>0.786480</t>
+  </si>
+  <si>
+    <t>0.945972</t>
+  </si>
+  <si>
+    <t>0.897564</t>
+  </si>
+  <si>
+    <t>0.945279</t>
+  </si>
+  <si>
+    <t>0.914689</t>
+  </si>
+  <si>
+    <t>0.884254</t>
+  </si>
+  <si>
+    <t>0.875215</t>
+  </si>
+  <si>
+    <t>0.911987</t>
+  </si>
+  <si>
+    <t>0.920668</t>
+  </si>
+  <si>
+    <t>0.914485</t>
+  </si>
+  <si>
+    <t>0.401009</t>
+  </si>
+  <si>
+    <t>0.307737</t>
+  </si>
+  <si>
+    <t>0.318403</t>
+  </si>
+  <si>
+    <t>0.640104</t>
+  </si>
+  <si>
+    <t>0.620148</t>
+  </si>
+  <si>
+    <t>0.636795</t>
+  </si>
+  <si>
+    <t>0.248949</t>
+  </si>
+  <si>
+    <t>0.283104</t>
+  </si>
+  <si>
+    <t>0.223013</t>
+  </si>
+  <si>
+    <t>0.233983</t>
+  </si>
+  <si>
+    <t>0.216935</t>
+  </si>
+  <si>
+    <t>0.242223</t>
+  </si>
+  <si>
+    <t>LCTES / BaseLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1650,12 +2084,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1676,13 +2116,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1966,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="K86" zoomScale="117" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1978,15 +2419,12 @@
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1"/>
+    <col min="6" max="8" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2464,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2035,28 +2473,39 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>309</v>
-      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>310</v>
+        <v>593</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2076,31 +2525,31 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H4" t="s">
         <v>162</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>520</v>
+      </c>
+      <c r="L4" t="s">
         <v>162</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
       <c r="O4" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="P4" t="s">
         <v>162</v>
@@ -2111,8 +2560,35 @@
       <c r="R4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>520</v>
+      </c>
+      <c r="T4" t="s">
+        <v>162</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>520</v>
+      </c>
+      <c r="X4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2132,49 +2608,82 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" t="s">
         <v>313</v>
       </c>
-      <c r="H5" t="s">
-        <v>314</v>
-      </c>
-      <c r="I5" t="s">
-        <v>315</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>532</v>
+      </c>
+      <c r="L5" t="s">
         <v>164</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>165</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>166</v>
       </c>
-      <c r="M5" s="2">
-        <f>(G5-D5)/G5</f>
+      <c r="O5" t="s">
+        <v>544</v>
+      </c>
+      <c r="P5" s="2">
+        <f>(H5-D5)/H5</f>
         <v>0.12792710168189089</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" ref="N5:O5" si="0">(H5-E5)/H5</f>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:S16" si="0">(I5-E5)/I5</f>
         <v>0.23000895759292028</v>
       </c>
-      <c r="O5" s="2">
+      <c r="R5" s="2">
         <f t="shared" si="0"/>
         <v>0.35186470211798088</v>
       </c>
-      <c r="P5" s="2">
-        <f>(J5-D5)/J5</f>
+      <c r="S5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46062758017802924</v>
+      </c>
+      <c r="T5" s="2">
+        <f>(L5-D5)/L5</f>
         <v>0.65018802990151159</v>
       </c>
-      <c r="Q5" s="2">
-        <f t="shared" ref="Q5:R16" si="1">(K5-E5)/K5</f>
+      <c r="U5" s="2">
+        <f t="shared" ref="U5:W16" si="1">(M5-E5)/M5</f>
         <v>0.67431075830802734</v>
       </c>
-      <c r="R5" s="2">
+      <c r="V5" s="2">
         <f t="shared" si="1"/>
         <v>0.67766833869440102</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62902888470892848</v>
+      </c>
+      <c r="X5" s="1">
+        <f>H5/L5</f>
+        <v>0.40112698235794303</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5:AA16" si="2">I5/M5</f>
+        <v>0.42297796176151731</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49732156597382765</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68778287813365946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -2194,49 +2703,82 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" t="s">
         <v>316</v>
       </c>
-      <c r="H6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I6" t="s">
-        <v>318</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>531</v>
+      </c>
+      <c r="L6" t="s">
         <v>168</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>169</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="2">
-        <f t="shared" ref="M6:M16" si="2">(G6-D6)/G6</f>
+      <c r="O6" t="s">
+        <v>543</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6:P16" si="3">(H6-D6)/H6</f>
         <v>0.22617702775289569</v>
       </c>
-      <c r="N6" s="2">
-        <f t="shared" ref="N6:N16" si="3">(H6-E6)/H6</f>
+      <c r="Q6" s="2">
+        <f t="shared" si="0"/>
         <v>0.3325517617144933</v>
       </c>
-      <c r="O6" s="2">
-        <f t="shared" ref="O6:O16" si="4">(I6-F6)/I6</f>
+      <c r="R6" s="2">
+        <f t="shared" si="0"/>
         <v>0.50786683985977632</v>
       </c>
-      <c r="P6" s="2">
-        <f t="shared" ref="P6:P16" si="5">(J6-D6)/J6</f>
+      <c r="S6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6361875909669249</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" ref="T6:T16" si="4">(L6-D6)/L6</f>
         <v>0.55449140300308353</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="U6" s="2">
         <f t="shared" si="1"/>
         <v>0.59705060067337679</v>
       </c>
-      <c r="R6" s="2">
+      <c r="V6" s="2">
         <f t="shared" si="1"/>
         <v>0.59586615941280852</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.56114394813883872</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" ref="X6:X16" si="5">H6/L6</f>
+        <v>0.5757241810787862</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6037163276686307</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82118798999856368</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2062701572701546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2256,49 +2798,82 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" t="s">
         <v>319</v>
       </c>
-      <c r="H7" t="s">
-        <v>320</v>
-      </c>
-      <c r="I7" t="s">
-        <v>321</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L7" t="s">
         <v>172</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>173</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="2">
-        <f t="shared" si="2"/>
+      <c r="O7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="3"/>
         <v>0.21850056625141562</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q7" s="2">
+        <f t="shared" si="0"/>
         <v>0.33431599732845485</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47908528617475388</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59515443660404022</v>
+      </c>
+      <c r="T7" s="2">
         <f t="shared" si="4"/>
-        <v>0.47908528617475388</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="5"/>
         <v>0.67541674506114768</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <f t="shared" si="1"/>
         <v>0.70153946831110736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <f t="shared" si="1"/>
         <v>0.70316215322997033</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66426128170392962</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41533396048918159</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44835166609247162</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56983962804631272</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82930072267508259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2318,49 +2893,82 @@
         <v>41</v>
       </c>
       <c r="G8" t="s">
+        <v>511</v>
+      </c>
+      <c r="H8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" t="s">
         <v>322</v>
       </c>
-      <c r="H8" t="s">
-        <v>323</v>
-      </c>
-      <c r="I8" t="s">
-        <v>324</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>529</v>
+      </c>
+      <c r="L8" t="s">
         <v>176</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>177</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
+      <c r="O8" t="s">
+        <v>541</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="3"/>
         <v>6.5199104517803794E-2</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q8" s="2">
+        <f t="shared" si="0"/>
         <v>0.11153317552078712</v>
       </c>
-      <c r="O8" s="2">
+      <c r="R8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17256789119742144</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32333782505232372</v>
+      </c>
+      <c r="T8" s="2">
         <f t="shared" si="4"/>
-        <v>0.17256789119742144</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="5"/>
         <v>0.44443955580256062</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="U8" s="2">
         <f t="shared" si="1"/>
         <v>0.45770348056575783</v>
       </c>
-      <c r="R8" s="2">
+      <c r="V8" s="2">
         <f t="shared" si="1"/>
         <v>0.47816022890411897</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47870847567440217</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.59430884895640357</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61037340336496726</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63067382271527195</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77038667687595708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2380,49 +2988,82 @@
         <v>43</v>
       </c>
       <c r="G9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" t="s">
         <v>325</v>
       </c>
-      <c r="H9" t="s">
-        <v>326</v>
-      </c>
-      <c r="I9" t="s">
-        <v>327</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>528</v>
+      </c>
+      <c r="L9" t="s">
         <v>180</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>181</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>182</v>
       </c>
-      <c r="M9" s="2">
-        <f t="shared" si="2"/>
+      <c r="O9" t="s">
+        <v>540</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="3"/>
         <v>4.9997271552440763E-2</v>
       </c>
-      <c r="N9" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
         <v>0.12010940159215326</v>
       </c>
-      <c r="O9" s="2">
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23397604266945565</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30907623786657384</v>
+      </c>
+      <c r="T9" s="2">
         <f t="shared" si="4"/>
-        <v>0.23397604266945565</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="5"/>
         <v>0.51770026926960622</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="U9" s="2">
         <f t="shared" si="1"/>
         <v>0.55520601352043675</v>
       </c>
-      <c r="R9" s="2">
+      <c r="V9" s="2">
         <f t="shared" si="1"/>
         <v>0.57647658372737987</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55513580926242045</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50768246899515834</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50551055697653047</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55288534022946634</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64386870899320825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2442,49 +3083,82 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
+        <v>513</v>
+      </c>
+      <c r="H10" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" t="s">
+        <v>327</v>
+      </c>
+      <c r="J10" t="s">
         <v>328</v>
       </c>
-      <c r="H10" t="s">
-        <v>329</v>
-      </c>
-      <c r="I10" t="s">
-        <v>330</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>527</v>
+      </c>
+      <c r="L10" t="s">
         <v>184</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>185</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>186</v>
       </c>
-      <c r="M10" s="2">
-        <f t="shared" si="2"/>
+      <c r="O10" t="s">
+        <v>539</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="3"/>
         <v>8.1438323405365456E-2</v>
       </c>
-      <c r="N10" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q10" s="2">
+        <f t="shared" si="0"/>
         <v>0.121745598809819</v>
       </c>
-      <c r="O10" s="2">
+      <c r="R10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21117502054231718</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32634173766379793</v>
+      </c>
+      <c r="T10" s="2">
         <f t="shared" si="4"/>
-        <v>0.21117502054231718</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="5"/>
         <v>0.45626286890871653</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="U10" s="2">
         <f t="shared" si="1"/>
         <v>0.50204889224440918</v>
       </c>
-      <c r="R10" s="2">
+      <c r="V10" s="2">
         <f t="shared" si="1"/>
         <v>0.51390842381913016</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51214776188350986</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.59194406314344539</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56697820936710841</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61622234188762348</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72418355921984978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2504,49 +3178,82 @@
         <v>47</v>
       </c>
       <c r="G11" t="s">
+        <v>514</v>
+      </c>
+      <c r="H11" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" t="s">
+        <v>330</v>
+      </c>
+      <c r="J11" t="s">
         <v>331</v>
       </c>
-      <c r="H11" t="s">
-        <v>332</v>
-      </c>
-      <c r="I11" t="s">
-        <v>333</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>526</v>
+      </c>
+      <c r="L11" t="s">
         <v>188</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>189</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>190</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" si="2"/>
+      <c r="O11" t="s">
+        <v>538</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="3"/>
         <v>0.26691165005387618</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
         <v>0.41448678251661486</v>
       </c>
-      <c r="O11" s="2">
+      <c r="R11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57873015553114715</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72783200976990514</v>
+      </c>
+      <c r="T11" s="2">
         <f t="shared" si="4"/>
-        <v>0.57873015553114715</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="5"/>
         <v>0.60228259129576056</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="U11" s="2">
         <f t="shared" si="1"/>
         <v>0.64201806216860369</v>
       </c>
-      <c r="R11" s="2">
+      <c r="V11" s="2">
         <f t="shared" si="1"/>
         <v>0.65491739589941234</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65204300897907186</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54252316072608231</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61139855966027712</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81914860185560179</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2784640498199662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2566,49 +3273,82 @@
         <v>49</v>
       </c>
       <c r="G12" t="s">
+        <v>515</v>
+      </c>
+      <c r="H12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I12" t="s">
+        <v>333</v>
+      </c>
+      <c r="J12" t="s">
         <v>334</v>
       </c>
-      <c r="H12" t="s">
-        <v>335</v>
-      </c>
-      <c r="I12" t="s">
-        <v>336</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>525</v>
+      </c>
+      <c r="L12" t="s">
         <v>192</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>193</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>194</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" si="2"/>
+      <c r="O12" t="s">
+        <v>537</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="3"/>
         <v>0.25521462339101753</v>
       </c>
-      <c r="N12" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
         <v>0.38670316303815577</v>
       </c>
-      <c r="O12" s="2">
+      <c r="R12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54027385501490466</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67983885574460745</v>
+      </c>
+      <c r="T12" s="2">
         <f t="shared" si="4"/>
-        <v>0.54027385501490466</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="5"/>
         <v>0.620566874122779</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="U12" s="2">
         <f t="shared" si="1"/>
         <v>0.65169127537964877</v>
       </c>
-      <c r="R12" s="2">
+      <c r="V12" s="2">
         <f t="shared" si="1"/>
         <v>0.65963126841821862</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6427150222301774</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50945297503662734</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56792845426336513</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74037279648912813</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.115953588311817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2628,49 +3368,82 @@
         <v>51</v>
       </c>
       <c r="G13" t="s">
+        <v>516</v>
+      </c>
+      <c r="H13" t="s">
+        <v>335</v>
+      </c>
+      <c r="I13" t="s">
+        <v>336</v>
+      </c>
+      <c r="J13" t="s">
         <v>337</v>
       </c>
-      <c r="H13" t="s">
-        <v>338</v>
-      </c>
-      <c r="I13" t="s">
-        <v>339</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>524</v>
+      </c>
+      <c r="L13" t="s">
         <v>196</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>197</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>198</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" si="2"/>
+      <c r="O13" t="s">
+        <v>536</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="3"/>
         <v>0.30878318966301277</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
         <v>0.46155542385028425</v>
       </c>
-      <c r="O13" s="2">
+      <c r="R13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60760184419163055</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74519109683918905</v>
+      </c>
+      <c r="T13" s="2">
         <f t="shared" si="4"/>
-        <v>0.60760184419163055</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="5"/>
         <v>0.60136324599121582</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="U13" s="2">
         <f t="shared" si="1"/>
         <v>0.63152728766997268</v>
       </c>
-      <c r="R13" s="2">
+      <c r="V13" s="2">
         <f t="shared" si="1"/>
         <v>0.63593592587323511</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62811055961958084</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5767173888818441</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68432802307135243</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9277925207797314</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4594836984393678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2690,49 +3463,82 @@
         <v>53</v>
       </c>
       <c r="G14" t="s">
+        <v>517</v>
+      </c>
+      <c r="H14" t="s">
+        <v>338</v>
+      </c>
+      <c r="I14" t="s">
+        <v>339</v>
+      </c>
+      <c r="J14" t="s">
         <v>340</v>
       </c>
-      <c r="H14" t="s">
-        <v>341</v>
-      </c>
-      <c r="I14" t="s">
-        <v>342</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>523</v>
+      </c>
+      <c r="L14" t="s">
         <v>200</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>201</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>202</v>
       </c>
-      <c r="M14" s="2">
-        <f t="shared" si="2"/>
+      <c r="O14" t="s">
+        <v>535</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="3"/>
         <v>0.29921569938968245</v>
       </c>
-      <c r="N14" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
         <v>0.44296021135623842</v>
       </c>
-      <c r="O14" s="2">
+      <c r="R14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60378344077683455</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74343633156683253</v>
+      </c>
+      <c r="T14" s="2">
         <f t="shared" si="4"/>
-        <v>0.60378344077683455</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="5"/>
         <v>0.60078423901229205</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="U14" s="2">
         <f t="shared" si="1"/>
         <v>0.63711556046116946</v>
       </c>
-      <c r="R14" s="2">
+      <c r="V14" s="2">
         <f t="shared" si="1"/>
         <v>0.6454323669160803</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63975804240398382</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56966995499189754</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6514515604394332</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89488342884784056</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4041035497972543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2752,49 +3558,82 @@
         <v>55</v>
       </c>
       <c r="G15" t="s">
+        <v>518</v>
+      </c>
+      <c r="H15" t="s">
+        <v>341</v>
+      </c>
+      <c r="I15" t="s">
+        <v>342</v>
+      </c>
+      <c r="J15" t="s">
         <v>343</v>
       </c>
-      <c r="H15" t="s">
-        <v>344</v>
-      </c>
-      <c r="I15" t="s">
-        <v>345</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>522</v>
+      </c>
+      <c r="L15" t="s">
         <v>204</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>205</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>206</v>
       </c>
-      <c r="M15" s="2">
-        <f t="shared" si="2"/>
+      <c r="O15" t="s">
+        <v>534</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="3"/>
         <v>0.32333037353076333</v>
       </c>
-      <c r="N15" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
         <v>0.47244656615815916</v>
       </c>
-      <c r="O15" s="2">
+      <c r="R15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63156502394556213</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76437233979512409</v>
+      </c>
+      <c r="T15" s="2">
         <f t="shared" si="4"/>
-        <v>0.63156502394556213</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="5"/>
         <v>0.58996686110686725</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="U15" s="2">
         <f t="shared" si="1"/>
         <v>0.62440460318189794</v>
       </c>
-      <c r="R15" s="2">
+      <c r="V15" s="2">
         <f t="shared" si="1"/>
         <v>0.63875299153462117</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63097207586595327</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.60595765326814766</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71195706960501859</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98049053956267984</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5661485744635442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2814,49 +3653,116 @@
         <v>57</v>
       </c>
       <c r="G16" t="s">
+        <v>519</v>
+      </c>
+      <c r="H16" t="s">
+        <v>344</v>
+      </c>
+      <c r="I16" t="s">
+        <v>345</v>
+      </c>
+      <c r="J16" t="s">
         <v>346</v>
       </c>
-      <c r="H16" t="s">
-        <v>347</v>
-      </c>
-      <c r="I16" t="s">
-        <v>348</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>521</v>
+      </c>
+      <c r="L16" t="s">
         <v>208</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>209</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>210</v>
       </c>
-      <c r="M16" s="2">
-        <f t="shared" si="2"/>
+      <c r="O16" t="s">
+        <v>533</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="3"/>
         <v>0.29368053773309211</v>
       </c>
-      <c r="N16" s="2">
-        <f t="shared" si="3"/>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
         <v>0.43521782538267556</v>
       </c>
-      <c r="O16" s="2">
+      <c r="R16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59508251489004005</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73512603395529463</v>
+      </c>
+      <c r="T16" s="2">
         <f t="shared" si="4"/>
-        <v>0.59508251489004005</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="5"/>
         <v>0.60519322875740433</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="U16" s="2">
         <f t="shared" si="1"/>
         <v>0.6385432889671061</v>
       </c>
-      <c r="R16" s="2">
+      <c r="V16" s="2">
         <f t="shared" si="1"/>
         <v>0.64831950498870805</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63661052250585526</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.55896346105978301</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63999312881608506</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86852385472015148</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3719335385071854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P17" s="2">
+        <f>AVERAGE(P5:P16)</f>
+        <v>0.20969795574360472</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" ref="Q17:W17" si="6">AVERAGE(Q5:Q16)</f>
+        <v>0.32196957207172966</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.45946438474265205</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.58721017300022027</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.57655465935274541</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.60942994095429281</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.61901927845150695</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.60255294941472115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2865,28 +3771,33 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2906,31 +3817,31 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
+        <v>520</v>
+      </c>
+      <c r="H19" t="s">
         <v>162</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>1</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>520</v>
+      </c>
+      <c r="L19" t="s">
         <v>162</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>23</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
-        <v>162</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
-      </c>
       <c r="O19" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="P19" t="s">
         <v>162</v>
@@ -2941,8 +3852,23 @@
       <c r="R19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" t="s">
+        <v>520</v>
+      </c>
+      <c r="T19" t="s">
+        <v>162</v>
+      </c>
+      <c r="U19" t="s">
+        <v>23</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2953,58 +3879,75 @@
         <v>418</v>
       </c>
       <c r="D20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E20" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" t="s">
         <v>465</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
+        <v>465</v>
+      </c>
+      <c r="H20" t="s">
         <v>466</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>467</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>468</v>
       </c>
-      <c r="H20" t="s">
-        <v>469</v>
-      </c>
-      <c r="I20" t="s">
-        <v>470</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
-      </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>553</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="1">
-        <f>G20/D20</f>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="1">
+        <f>H20/D20</f>
         <v>4.5713461488028111</v>
       </c>
-      <c r="N20" s="1">
-        <f>H20/E20</f>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:S32" si="7">I20/E20</f>
         <v>4.8974496568475159</v>
       </c>
-      <c r="O20" s="1">
-        <f>I20/F20</f>
+      <c r="R20" s="1">
+        <f t="shared" si="7"/>
         <v>4.9409142857142854</v>
       </c>
-      <c r="P20" s="1">
-        <f>J20/D20</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" ref="Q20:R31" si="6">K20/E20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="1">
+        <f t="shared" si="7"/>
+        <v>4.9335428571428572</v>
+      </c>
+      <c r="T20" s="1">
+        <f>L20/D20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:W31" si="8">M20/E20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -3015,58 +3958,75 @@
         <v>566</v>
       </c>
       <c r="D21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E21" t="s">
+        <v>469</v>
+      </c>
+      <c r="F21" t="s">
+        <v>470</v>
+      </c>
+      <c r="G21" t="s">
+        <v>465</v>
+      </c>
+      <c r="H21" t="s">
         <v>471</v>
       </c>
-      <c r="E21" t="s">
-        <v>471</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>472</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>473</v>
       </c>
-      <c r="H21" t="s">
-        <v>474</v>
-      </c>
-      <c r="I21" t="s">
-        <v>475</v>
-      </c>
-      <c r="J21" t="s">
-        <v>25</v>
-      </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>552</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" ref="M21:M31" si="7">G21/D21</f>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" ref="P21:P31" si="9">H21/D21</f>
         <v>10.666563999897333</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" ref="N21:N31" si="8">H21/E21</f>
+      <c r="Q21" s="1">
+        <f t="shared" si="7"/>
         <v>10.5990605990606</v>
       </c>
-      <c r="O21" s="1">
-        <f t="shared" ref="O21:O31" si="9">I21/F21</f>
+      <c r="R21" s="1">
+        <f t="shared" si="7"/>
         <v>11.527524220193762</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" ref="P21:P31" si="10">J21/D21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" ref="Q21:Q31" si="11">K21/E21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" ref="R21:R31" si="12">L21/F21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="1">
+        <f t="shared" si="7"/>
+        <v>11.744314285714285</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" ref="T21:T31" si="10">L21/D21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3077,58 +4037,75 @@
         <v>506</v>
       </c>
       <c r="D22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G22" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>475</v>
       </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>475</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="9"/>
+        <v>7.8515731874145009</v>
+      </c>
+      <c r="Q22" s="1">
         <f t="shared" si="7"/>
         <v>7.8515731874145009</v>
       </c>
-      <c r="N22" s="1">
+      <c r="R22" s="1">
+        <f t="shared" si="7"/>
+        <v>7.8515731874145009</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="7"/>
+        <v>7.8713142857142859</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
         <f t="shared" si="8"/>
-        <v>7.8515731874145009</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="9"/>
-        <v>7.8515731874145009</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3139,58 +4116,75 @@
         <v>529</v>
       </c>
       <c r="D23" t="s">
+        <v>476</v>
+      </c>
+      <c r="E23" t="s">
+        <v>476</v>
+      </c>
+      <c r="F23" t="s">
+        <v>477</v>
+      </c>
+      <c r="G23" t="s">
+        <v>477</v>
+      </c>
+      <c r="H23" t="s">
         <v>478</v>
       </c>
-      <c r="E23" t="s">
-        <v>478</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>479</v>
       </c>
-      <c r="G23" t="s">
-        <v>480</v>
-      </c>
-      <c r="H23" t="s">
-        <v>481</v>
-      </c>
-      <c r="I23" t="s">
-        <v>481</v>
-      </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>479</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>551</v>
       </c>
       <c r="L23" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="9"/>
+        <v>15.321203638908328</v>
+      </c>
+      <c r="Q23" s="1">
         <f t="shared" si="7"/>
-        <v>15.321203638908328</v>
-      </c>
-      <c r="N23" s="1">
+        <v>15.026871938418475</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="7"/>
+        <v>17.173224568138195</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="7"/>
+        <v>17.165706973768394</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
         <f t="shared" si="8"/>
-        <v>15.026871938418475</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="9"/>
-        <v>17.173224568138195</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3201,58 +4195,75 @@
         <v>1898</v>
       </c>
       <c r="D24" t="s">
+        <v>480</v>
+      </c>
+      <c r="E24" t="s">
+        <v>481</v>
+      </c>
+      <c r="F24" t="s">
+        <v>481</v>
+      </c>
+      <c r="G24" t="s">
+        <v>481</v>
+      </c>
+      <c r="H24" t="s">
         <v>482</v>
       </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>483</v>
       </c>
-      <c r="F24" t="s">
-        <v>483</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>484</v>
       </c>
-      <c r="H24" t="s">
-        <v>485</v>
-      </c>
-      <c r="I24" t="s">
-        <v>486</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
-      </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>550</v>
       </c>
       <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="9"/>
+        <v>15.998906655733224</v>
+      </c>
+      <c r="Q24" s="1">
         <f t="shared" si="7"/>
-        <v>15.998906655733224</v>
-      </c>
-      <c r="N24" s="1">
+        <v>21.252642128279884</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="7"/>
+        <v>21.228498542274053</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="7"/>
+        <v>21.214923469387756</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
         <f t="shared" si="8"/>
-        <v>21.252642128279884</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="9"/>
-        <v>21.228498542274053</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3263,58 +4274,75 @@
         <v>324</v>
       </c>
       <c r="D25" t="s">
+        <v>485</v>
+      </c>
+      <c r="E25" t="s">
+        <v>485</v>
+      </c>
+      <c r="F25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G25" t="s">
+        <v>548</v>
+      </c>
+      <c r="H25" t="s">
+        <v>486</v>
+      </c>
+      <c r="I25" t="s">
+        <v>486</v>
+      </c>
+      <c r="J25" t="s">
         <v>487</v>
       </c>
-      <c r="E25" t="s">
+      <c r="K25" t="s">
         <v>487</v>
       </c>
-      <c r="F25" t="s">
-        <v>487</v>
-      </c>
-      <c r="G25" t="s">
-        <v>488</v>
-      </c>
-      <c r="H25" t="s">
-        <v>488</v>
-      </c>
-      <c r="I25" t="s">
-        <v>489</v>
-      </c>
-      <c r="J25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" t="s">
-        <v>25</v>
-      </c>
       <c r="L25" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="9"/>
+        <v>15.571428571428571</v>
+      </c>
+      <c r="Q25" s="1">
         <f t="shared" si="7"/>
         <v>15.571428571428571</v>
       </c>
-      <c r="N25" s="1">
+      <c r="R25" s="1">
+        <f t="shared" si="7"/>
+        <v>15.453968253968254</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="7"/>
+        <v>16.445945945945947</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
         <f t="shared" si="8"/>
-        <v>15.571428571428571</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="9"/>
-        <v>15.453968253968254</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3325,58 +4353,75 @@
         <v>794</v>
       </c>
       <c r="D26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G26" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="H26" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>489</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>549</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="9"/>
+        <v>26.442399999999999</v>
+      </c>
+      <c r="Q26" s="1">
         <f t="shared" si="7"/>
-        <v>26.442399999999999</v>
-      </c>
-      <c r="N26" s="1">
+        <v>25.518085714285714</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="7"/>
+        <v>25.518085714285714</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="7"/>
+        <v>25.275971428571427</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
         <f t="shared" si="8"/>
-        <v>25.518085714285714</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="9"/>
-        <v>25.518085714285714</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3387,58 +4432,75 @@
         <v>695</v>
       </c>
       <c r="D27" t="s">
+        <v>490</v>
+      </c>
+      <c r="E27" t="s">
+        <v>490</v>
+      </c>
+      <c r="F27" t="s">
+        <v>491</v>
+      </c>
+      <c r="G27" t="s">
+        <v>465</v>
+      </c>
+      <c r="H27" t="s">
         <v>492</v>
       </c>
-      <c r="E27" t="s">
+      <c r="I27" t="s">
         <v>492</v>
       </c>
-      <c r="F27" t="s">
-        <v>493</v>
-      </c>
-      <c r="G27" t="s">
-        <v>494</v>
-      </c>
-      <c r="H27" t="s">
-        <v>494</v>
-      </c>
-      <c r="I27" t="s">
-        <v>494</v>
-      </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>492</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>492</v>
       </c>
       <c r="L27" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="9"/>
+        <v>13.655703886372798</v>
+      </c>
+      <c r="Q27" s="1">
         <f t="shared" si="7"/>
         <v>13.655703886372798</v>
       </c>
-      <c r="N27" s="1">
+      <c r="R27" s="1">
+        <f t="shared" si="7"/>
+        <v>15.606254403555363</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="7"/>
+        <v>16.454342857142858</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
         <f t="shared" si="8"/>
-        <v>13.655703886372798</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="9"/>
-        <v>15.606254403555363</v>
-      </c>
-      <c r="P27" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3449,58 +4511,75 @@
         <v>894</v>
       </c>
       <c r="D28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E28" t="s">
+        <v>494</v>
+      </c>
+      <c r="F28" t="s">
+        <v>465</v>
+      </c>
+      <c r="G28" t="s">
+        <v>465</v>
+      </c>
+      <c r="H28" t="s">
         <v>495</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>496</v>
       </c>
-      <c r="F28" t="s">
-        <v>467</v>
-      </c>
-      <c r="G28" t="s">
-        <v>497</v>
-      </c>
-      <c r="H28" t="s">
-        <v>498</v>
-      </c>
-      <c r="I28" t="s">
-        <v>498</v>
-      </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>496</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>496</v>
       </c>
       <c r="L28" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="9"/>
+        <v>13.539739725020219</v>
+      </c>
+      <c r="Q28" s="1">
         <f t="shared" si="7"/>
-        <v>13.539739725020219</v>
-      </c>
-      <c r="N28" s="1">
+        <v>17.515623851187414</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="7"/>
+        <v>20.419714285714285</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="7"/>
+        <v>20.419714285714285</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
         <f t="shared" si="8"/>
-        <v>17.515623851187414</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="9"/>
-        <v>20.419714285714285</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3511,58 +4590,75 @@
         <v>892</v>
       </c>
       <c r="D29" t="s">
+        <v>497</v>
+      </c>
+      <c r="E29" t="s">
+        <v>498</v>
+      </c>
+      <c r="F29" t="s">
         <v>499</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>547</v>
+      </c>
+      <c r="H29" t="s">
         <v>500</v>
       </c>
-      <c r="F29" t="s">
-        <v>501</v>
-      </c>
-      <c r="G29" t="s">
-        <v>502</v>
-      </c>
-      <c r="H29" t="s">
-        <v>502</v>
-      </c>
       <c r="I29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="L29" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="9"/>
+        <v>12.619401223982505</v>
+      </c>
+      <c r="Q29" s="1">
         <f t="shared" si="7"/>
-        <v>12.619401223982505</v>
-      </c>
-      <c r="N29" s="1">
+        <v>16.825956536331599</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="7"/>
+        <v>20.190978427769526</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="7"/>
+        <v>22.434608715108798</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
         <f t="shared" si="8"/>
-        <v>16.825956536331599</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="9"/>
-        <v>20.190978427769526</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3573,58 +4669,75 @@
         <v>1009</v>
       </c>
       <c r="D30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="H30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>502</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>502</v>
       </c>
       <c r="L30" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="9"/>
+        <v>25.235440856313499</v>
+      </c>
+      <c r="Q30" s="1">
         <f t="shared" si="7"/>
         <v>25.235440856313499</v>
       </c>
-      <c r="N30" s="1">
+      <c r="R30" s="1">
+        <f t="shared" si="7"/>
+        <v>25.235440856313499</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="7"/>
+        <v>28.840503835786855</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
         <f t="shared" si="8"/>
-        <v>25.235440856313499</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" si="9"/>
-        <v>25.235440856313499</v>
-      </c>
-      <c r="P30" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3635,58 +4748,109 @@
         <v>830</v>
       </c>
       <c r="D31" t="s">
+        <v>503</v>
+      </c>
+      <c r="E31" t="s">
+        <v>504</v>
+      </c>
+      <c r="F31" t="s">
         <v>505</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
+        <v>545</v>
+      </c>
+      <c r="H31" t="s">
         <v>506</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>507</v>
       </c>
-      <c r="G31" t="s">
-        <v>508</v>
-      </c>
-      <c r="H31" t="s">
-        <v>509</v>
-      </c>
-      <c r="I31" t="s">
-        <v>509</v>
-      </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>507</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>507</v>
       </c>
       <c r="L31" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="9"/>
+        <v>13.536549730570437</v>
+      </c>
+      <c r="Q31" s="1">
         <f t="shared" si="7"/>
-        <v>13.536549730570437</v>
-      </c>
-      <c r="N31" s="1">
+        <v>17.493129451193969</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="7"/>
+        <v>20.991931226905965</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="7"/>
+        <v>23.324172601591957</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
         <f t="shared" si="8"/>
-        <v>17.493129451193969</v>
-      </c>
-      <c r="O31" s="1">
-        <f t="shared" si="9"/>
-        <v>20.991931226905965</v>
-      </c>
-      <c r="P31" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P32" s="1">
+        <f>AVERAGE(P20:P31)</f>
+        <v>14.584188135370352</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" ref="Q32:W32" si="11">AVERAGE(Q20:Q31)</f>
+        <v>15.953580531427876</v>
+      </c>
+      <c r="R32" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>17.178175664353947</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="11"/>
+        <v>18.010421795132476</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3695,28 +4859,33 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3"/>
+      <c r="T33" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3736,31 +4905,31 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
+        <v>520</v>
+      </c>
+      <c r="H34" t="s">
         <v>162</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>23</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
+        <v>520</v>
+      </c>
+      <c r="L34" t="s">
         <v>162</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>23</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>1</v>
       </c>
-      <c r="M34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N34" t="s">
-        <v>23</v>
-      </c>
       <c r="O34" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="P34" t="s">
         <v>162</v>
@@ -3771,8 +4940,23 @@
       <c r="R34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" t="s">
+        <v>520</v>
+      </c>
+      <c r="T34" t="s">
+        <v>162</v>
+      </c>
+      <c r="U34" t="s">
+        <v>23</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3792,49 +4976,66 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
+        <v>562</v>
+      </c>
+      <c r="H35" t="s">
+        <v>347</v>
+      </c>
+      <c r="I35" t="s">
+        <v>348</v>
+      </c>
+      <c r="J35" t="s">
         <v>349</v>
       </c>
-      <c r="H35" t="s">
-        <v>350</v>
-      </c>
-      <c r="I35" t="s">
-        <v>351</v>
-      </c>
-      <c r="J35" t="s">
-        <v>25</v>
-      </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>567</v>
       </c>
       <c r="L35" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="1">
-        <f>G35/D35</f>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="1">
+        <f>H35/D35</f>
         <v>5.1427644174031624</v>
       </c>
-      <c r="N35" s="1">
-        <f>H35/E35</f>
+      <c r="Q35" s="1">
+        <f t="shared" ref="Q35:S46" si="12">I35/E35</f>
         <v>5.1942647875655474</v>
       </c>
-      <c r="O35" s="1">
-        <f>I35/F35</f>
+      <c r="R35" s="1">
+        <f t="shared" si="12"/>
         <v>5.7644000000000002</v>
       </c>
-      <c r="P35">
-        <f>J35/D35</f>
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" ref="Q35:R46" si="13">K35/E35</f>
-        <v>0</v>
-      </c>
-      <c r="R35">
+      <c r="S35" s="1">
+        <f t="shared" si="12"/>
+        <v>4.9335428571428572</v>
+      </c>
+      <c r="T35" s="1">
+        <f>L35/D35</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" ref="U35:W46" si="13">M35/E35</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W35" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -3854,49 +5055,66 @@
         <v>61</v>
       </c>
       <c r="G36" t="s">
+        <v>561</v>
+      </c>
+      <c r="H36" t="s">
+        <v>350</v>
+      </c>
+      <c r="I36" t="s">
+        <v>351</v>
+      </c>
+      <c r="J36" t="s">
         <v>352</v>
       </c>
-      <c r="H36" t="s">
-        <v>353</v>
-      </c>
-      <c r="I36" t="s">
-        <v>354</v>
-      </c>
-      <c r="J36" t="s">
-        <v>25</v>
-      </c>
       <c r="K36" t="s">
-        <v>25</v>
+        <v>566</v>
       </c>
       <c r="L36" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="1">
-        <f t="shared" ref="M36:M46" si="14">G36/D36</f>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" ref="P36:P46" si="14">H36/D36</f>
         <v>13.555425083202861</v>
       </c>
-      <c r="N36" s="1">
-        <f t="shared" ref="N36:N46" si="15">H36/E36</f>
+      <c r="Q36" s="1">
+        <f t="shared" si="12"/>
         <v>11.482315648982315</v>
       </c>
-      <c r="O36" s="1">
-        <f t="shared" ref="O36:O46" si="16">I36/F36</f>
+      <c r="R36" s="1">
+        <f t="shared" si="12"/>
         <v>14.089196269125708</v>
       </c>
-      <c r="P36">
-        <f t="shared" ref="P36:P46" si="17">J36/D36</f>
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="S36" s="1">
+        <f t="shared" si="12"/>
+        <v>14.146560389610389</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" ref="T36:T46" si="15">L36/D36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R36">
+      <c r="V36" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W36" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -3916,49 +5134,66 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>355</v>
+        <v>560</v>
       </c>
       <c r="H37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="1">
         <f t="shared" si="14"/>
         <v>11.440863787375415</v>
       </c>
-      <c r="N37" s="1">
+      <c r="Q37" s="1">
+        <f t="shared" si="12"/>
+        <v>11.440863787375415</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="12"/>
+        <v>11.440863787375415</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="12"/>
+        <v>8.7268919254658393</v>
+      </c>
+      <c r="T37" s="1">
         <f t="shared" si="15"/>
-        <v>11.440863787375415</v>
-      </c>
-      <c r="O37" s="1">
-        <f t="shared" si="16"/>
-        <v>11.440863787375415</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R37">
+      <c r="V37" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W37" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3978,49 +5213,66 @@
         <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>356</v>
+        <v>559</v>
       </c>
       <c r="H38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>565</v>
       </c>
       <c r="L38" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="1">
         <f t="shared" si="14"/>
         <v>7.9936714637782575</v>
       </c>
-      <c r="N38" s="1">
+      <c r="Q38" s="1">
+        <f t="shared" si="12"/>
+        <v>7.1867648401131836</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="12"/>
+        <v>7.8710612603966732</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="12"/>
+        <v>8.9261676263595646</v>
+      </c>
+      <c r="T38" s="1">
         <f t="shared" si="15"/>
-        <v>7.1867648401131836</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="16"/>
-        <v>7.8710612603966732</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R38">
+      <c r="V38" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W38" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -4040,49 +5292,66 @@
         <v>65</v>
       </c>
       <c r="G39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" t="s">
+        <v>356</v>
+      </c>
+      <c r="I39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J39" t="s">
         <v>358</v>
       </c>
-      <c r="H39" t="s">
-        <v>359</v>
-      </c>
-      <c r="I39" t="s">
-        <v>360</v>
-      </c>
-      <c r="J39" t="s">
-        <v>25</v>
-      </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>564</v>
       </c>
       <c r="L39" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="1">
         <f t="shared" si="14"/>
         <v>3.999726663933306</v>
       </c>
-      <c r="N39" s="1">
+      <c r="Q39" s="1">
+        <f t="shared" si="12"/>
+        <v>5.129948099929627</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="12"/>
+        <v>5.8561375289031865</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="12"/>
+        <v>5.120843596059113</v>
+      </c>
+      <c r="T39" s="1">
         <f t="shared" si="15"/>
-        <v>5.129948099929627</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="16"/>
-        <v>5.8561375289031865</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R39">
+      <c r="V39" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W39" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -4102,49 +5371,66 @@
         <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>361</v>
+        <v>558</v>
       </c>
       <c r="H40" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="1">
         <f t="shared" si="14"/>
         <v>9.8345864661654137</v>
       </c>
-      <c r="N40" s="1">
+      <c r="Q40" s="1">
+        <f t="shared" si="12"/>
+        <v>9.8345864661654137</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="12"/>
+        <v>10.573767752715121</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="12"/>
+        <v>9.7180589680589673</v>
+      </c>
+      <c r="T40" s="1">
         <f t="shared" si="15"/>
-        <v>9.8345864661654137</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="16"/>
-        <v>10.573767752715121</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R40">
+      <c r="V40" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W40" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -4164,49 +5450,66 @@
         <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>363</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>563</v>
       </c>
       <c r="L41" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="1">
         <f t="shared" si="14"/>
         <v>44.250546938775507</v>
       </c>
-      <c r="N41" s="1">
+      <c r="Q41" s="1">
+        <f t="shared" si="12"/>
+        <v>44.266067055393584</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="12"/>
+        <v>44.266067055393584</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="12"/>
+        <v>44.361909037900872</v>
+      </c>
+      <c r="T41" s="1">
         <f t="shared" si="15"/>
-        <v>44.266067055393584</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="16"/>
-        <v>44.266067055393584</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R41">
+      <c r="V41" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W41" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4226,49 +5529,66 @@
         <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>365</v>
+        <v>557</v>
       </c>
       <c r="H42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>25</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s">
         <v>25</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="1">
         <f t="shared" si="14"/>
         <v>22.434370670469598</v>
       </c>
-      <c r="N42" s="1">
+      <c r="Q42" s="1">
+        <f t="shared" si="12"/>
+        <v>22.434370670469598</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="12"/>
+        <v>22.911309656283404</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="12"/>
+        <v>22.706993142857144</v>
+      </c>
+      <c r="T42" s="1">
         <f t="shared" si="15"/>
-        <v>22.434370670469598</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="16"/>
-        <v>22.911309656283404</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R42">
+      <c r="V42" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W42" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -4288,49 +5608,66 @@
         <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>366</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>365</v>
       </c>
       <c r="K43" t="s">
-        <v>25</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="1">
         <f t="shared" si="14"/>
         <v>24.996442569268098</v>
       </c>
-      <c r="N43" s="1">
+      <c r="Q43" s="1">
+        <f t="shared" si="12"/>
+        <v>30.421873004693929</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="12"/>
+        <v>30.172413646055436</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="12"/>
+        <v>30.172413646055436</v>
+      </c>
+      <c r="T43" s="1">
         <f t="shared" si="15"/>
-        <v>30.421873004693929</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="16"/>
-        <v>30.172413646055436</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R43">
+      <c r="V43" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W43" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4350,49 +5687,66 @@
         <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>368</v>
+        <v>556</v>
       </c>
       <c r="H44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>366</v>
       </c>
       <c r="K44" t="s">
-        <v>25</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s">
         <v>25</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="1">
         <f t="shared" si="14"/>
         <v>23.297356105813858</v>
       </c>
-      <c r="N44" s="1">
+      <c r="Q44" s="1">
+        <f t="shared" si="12"/>
+        <v>25.639552817267198</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="12"/>
+        <v>29.82052198562884</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="12"/>
+        <v>33.134191333083763</v>
+      </c>
+      <c r="T44" s="1">
         <f t="shared" si="15"/>
-        <v>25.639552817267198</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="16"/>
-        <v>29.82052198562884</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R44">
+      <c r="V44" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W44" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -4412,49 +5766,66 @@
         <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>369</v>
+        <v>555</v>
       </c>
       <c r="H45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>367</v>
       </c>
       <c r="K45" t="s">
-        <v>25</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="1">
         <f t="shared" si="14"/>
         <v>42.459630647130645</v>
       </c>
-      <c r="N45" s="1">
+      <c r="Q45" s="1">
+        <f t="shared" si="12"/>
+        <v>42.459630647130645</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="12"/>
+        <v>42.459630647130645</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="12"/>
+        <v>41.312073062073061</v>
+      </c>
+      <c r="T45" s="1">
         <f t="shared" si="15"/>
-        <v>42.459630647130645</v>
-      </c>
-      <c r="O45" s="1">
-        <f t="shared" si="16"/>
-        <v>42.459630647130645</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R45">
+      <c r="V45" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W45" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4474,49 +5845,100 @@
         <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>370</v>
+        <v>554</v>
       </c>
       <c r="H46" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J46" t="s">
-        <v>25</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s">
-        <v>25</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s">
         <v>25</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="1">
         <f t="shared" si="14"/>
         <v>23.622606392564094</v>
       </c>
-      <c r="N46" s="1">
+      <c r="Q46" s="1">
+        <f t="shared" si="12"/>
+        <v>27.801580734933271</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="12"/>
+        <v>31.665794562620864</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="12"/>
+        <v>32.950021611772762</v>
+      </c>
+      <c r="T46" s="1">
         <f t="shared" si="15"/>
-        <v>27.801580734933271</v>
-      </c>
-      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P47" s="1">
+        <f>AVERAGE(P35:P46)</f>
+        <v>19.418999267156682</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" ref="Q47:W47" si="16">AVERAGE(Q35:Q46)</f>
+        <v>20.274318213334979</v>
+      </c>
+      <c r="R47" s="1">
         <f t="shared" si="16"/>
-        <v>31.665794562620864</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+        <v>21.407597012635737</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="16"/>
+        <v>21.35080559970331</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -4525,28 +5947,33 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3"/>
+      <c r="T48" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4566,31 +5993,31 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
+        <v>520</v>
+      </c>
+      <c r="H49" t="s">
         <v>162</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>23</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>1</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
+        <v>520</v>
+      </c>
+      <c r="L49" t="s">
         <v>162</v>
       </c>
-      <c r="K49" t="s">
+      <c r="M49" t="s">
         <v>23</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
         <v>1</v>
       </c>
-      <c r="M49" t="s">
-        <v>162</v>
-      </c>
-      <c r="N49" t="s">
-        <v>23</v>
-      </c>
       <c r="O49" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="P49" t="s">
         <v>162</v>
@@ -4601,8 +6028,23 @@
       <c r="R49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" t="s">
+        <v>520</v>
+      </c>
+      <c r="T49" t="s">
+        <v>162</v>
+      </c>
+      <c r="U49" t="s">
+        <v>23</v>
+      </c>
+      <c r="V49" t="s">
+        <v>1</v>
+      </c>
+      <c r="W49" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -4622,49 +6064,66 @@
         <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="I50" t="s">
         <v>79</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="L50" t="s">
         <v>25</v>
       </c>
-      <c r="M50" s="1">
-        <f>G50/D50</f>
+      <c r="M50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="1">
+        <f>H50/D50</f>
         <v>1.125</v>
       </c>
-      <c r="N50" s="1">
-        <f>H50/E50</f>
+      <c r="Q50" s="1">
+        <f t="shared" ref="Q50:S61" si="17">I50/E50</f>
         <v>1.0606060606060606</v>
       </c>
-      <c r="O50" s="1">
-        <f>I50/F50</f>
+      <c r="R50" s="1">
+        <f t="shared" si="17"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="P50">
-        <f>J50/D50</f>
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" ref="Q50:R61" si="18">K50/E50</f>
-        <v>0</v>
-      </c>
-      <c r="R50">
+      <c r="S50" s="1">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T50" s="1">
+        <f>L50/D50</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" ref="U50:W61" si="18">M50/E50</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W50" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -4684,49 +6143,66 @@
         <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>373</v>
+        <v>574</v>
       </c>
       <c r="H51" t="s">
+        <v>371</v>
+      </c>
+      <c r="I51" t="s">
         <v>82</v>
       </c>
-      <c r="I51" t="s">
-        <v>374</v>
-      </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s">
-        <v>25</v>
+        <v>569</v>
       </c>
       <c r="L51" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="1">
-        <f t="shared" ref="M51:M61" si="19">G51/D51</f>
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" ref="P51:P61" si="19">H51/D51</f>
         <v>1.2708333333333333</v>
       </c>
-      <c r="N51" s="1">
-        <f t="shared" ref="N51:N61" si="20">H51/E51</f>
+      <c r="Q51" s="1">
+        <f t="shared" si="17"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="O51" s="1">
-        <f t="shared" ref="O51:O61" si="21">I51/F51</f>
+      <c r="R51" s="1">
+        <f t="shared" si="17"/>
         <v>1.2222222222222223</v>
       </c>
-      <c r="P51">
-        <f t="shared" ref="P51:P61" si="22">J51/D51</f>
-        <v>0</v>
-      </c>
-      <c r="Q51">
+      <c r="S51" s="1">
+        <f t="shared" si="17"/>
+        <v>1.2045454545454546</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" ref="T51:T61" si="20">L51/D51</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R51">
+      <c r="V51" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W51" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -4746,7 +6222,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>217</v>
+        <v>573</v>
       </c>
       <c r="H52" t="s">
         <v>217</v>
@@ -4755,40 +6231,57 @@
         <v>217</v>
       </c>
       <c r="J52" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="K52" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s">
         <v>25</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="1">
         <f t="shared" si="19"/>
         <v>1.4571428571428571</v>
       </c>
-      <c r="N52" s="1">
+      <c r="Q52" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4571428571428571</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4571428571428571</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="17"/>
+        <v>1.1086956521739131</v>
+      </c>
+      <c r="T52" s="1">
         <f t="shared" si="20"/>
-        <v>1.4571428571428571</v>
-      </c>
-      <c r="O52" s="1">
-        <f t="shared" si="21"/>
-        <v>1.4571428571428571</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R52">
+      <c r="V52" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W52" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -4808,49 +6301,66 @@
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>375</v>
+        <v>572</v>
       </c>
       <c r="H53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J53" t="s">
-        <v>25</v>
+        <v>374</v>
       </c>
       <c r="K53" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="L53" t="s">
         <v>25</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="1">
         <f t="shared" si="19"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="N53" s="1">
+      <c r="Q53" s="1">
+        <f t="shared" si="17"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="17"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="17"/>
+        <v>0.52</v>
+      </c>
+      <c r="T53" s="1">
         <f t="shared" si="20"/>
-        <v>0.47826086956521741</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="21"/>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R53">
+      <c r="V53" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W53" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -4870,49 +6380,66 @@
         <v>86</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s">
         <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="K54" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="L54" t="s">
         <v>25</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="1">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="N54" s="1">
+      <c r="Q54" s="1">
+        <f t="shared" si="17"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="17"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="17"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="T54" s="1">
         <f t="shared" si="20"/>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="O54" s="1">
-        <f t="shared" si="21"/>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R54">
+      <c r="V54" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W54" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -4932,49 +6459,66 @@
         <v>88</v>
       </c>
       <c r="G55" t="s">
-        <v>375</v>
+        <v>571</v>
       </c>
       <c r="H55" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" t="s">
         <v>85</v>
       </c>
-      <c r="J55" t="s">
-        <v>25</v>
-      </c>
       <c r="K55" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="L55" t="s">
         <v>25</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="1">
         <f t="shared" si="19"/>
         <v>0.63157894736842102</v>
       </c>
-      <c r="N55" s="1">
+      <c r="Q55" s="1">
+        <f t="shared" si="17"/>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="17"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="17"/>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="T55" s="1">
         <f t="shared" si="20"/>
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="O55" s="1">
-        <f t="shared" si="21"/>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R55">
+      <c r="V55" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W55" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -4994,49 +6538,66 @@
         <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>378</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="I56" t="s">
         <v>90</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s">
-        <v>25</v>
+        <v>575</v>
       </c>
       <c r="L56" t="s">
         <v>25</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="1">
         <f t="shared" si="19"/>
         <v>1.6734693877551021</v>
       </c>
-      <c r="N56" s="1">
+      <c r="Q56" s="1">
+        <f t="shared" si="17"/>
+        <v>1.7346938775510203</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="17"/>
+        <v>1.7346938775510203</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="17"/>
+        <v>1.7551020408163265</v>
+      </c>
+      <c r="T56" s="1">
         <f t="shared" si="20"/>
-        <v>1.7346938775510203</v>
-      </c>
-      <c r="O56" s="1">
-        <f t="shared" si="21"/>
-        <v>1.7346938775510203</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R56">
+      <c r="V56" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W56" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -5056,49 +6617,66 @@
         <v>92</v>
       </c>
       <c r="G57" t="s">
-        <v>379</v>
+        <v>570</v>
       </c>
       <c r="H57" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I57" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="K57" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="L57" t="s">
         <v>25</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="1">
         <f t="shared" si="19"/>
         <v>1.6428571428571428</v>
       </c>
-      <c r="N57" s="1">
+      <c r="Q57" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6428571428571428</v>
+      </c>
+      <c r="R57" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4680851063829787</v>
+      </c>
+      <c r="S57" s="1">
+        <f t="shared" si="17"/>
+        <v>1.38</v>
+      </c>
+      <c r="T57" s="1">
         <f t="shared" si="20"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="O57" s="1">
-        <f t="shared" si="21"/>
-        <v>1.4680851063829787</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R57">
+      <c r="V57" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W57" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -5118,49 +6696,66 @@
         <v>94</v>
       </c>
       <c r="G58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" t="s">
         <v>97</v>
       </c>
-      <c r="H58" t="s">
-        <v>380</v>
-      </c>
       <c r="I58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>378</v>
       </c>
       <c r="K58" t="s">
-        <v>25</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s">
         <v>25</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="1">
         <f t="shared" si="19"/>
         <v>1.8461538461538463</v>
       </c>
-      <c r="N58" s="1">
+      <c r="Q58" s="1">
+        <f t="shared" si="17"/>
+        <v>1.736842105263158</v>
+      </c>
+      <c r="R58" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4776119402985075</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4776119402985075</v>
+      </c>
+      <c r="T58" s="1">
         <f t="shared" si="20"/>
-        <v>1.736842105263158</v>
-      </c>
-      <c r="O58" s="1">
-        <f t="shared" si="21"/>
-        <v>1.4776119402985075</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R58">
+      <c r="V58" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W58" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -5180,7 +6775,7 @@
         <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H59" t="s">
         <v>97</v>
@@ -5189,40 +6784,57 @@
         <v>97</v>
       </c>
       <c r="J59" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="L59" t="s">
         <v>25</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="1">
         <f t="shared" si="19"/>
         <v>1.8461538461538463</v>
       </c>
-      <c r="N59" s="1">
+      <c r="Q59" s="1">
+        <f t="shared" si="17"/>
+        <v>1.5238095238095237</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="17"/>
+        <v>1.476923076923077</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="17"/>
+        <v>1.476923076923077</v>
+      </c>
+      <c r="T59" s="1">
         <f t="shared" si="20"/>
-        <v>1.5238095238095237</v>
-      </c>
-      <c r="O59" s="1">
-        <f t="shared" si="21"/>
-        <v>1.476923076923077</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R59">
+      <c r="V59" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W59" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -5242,49 +6854,66 @@
         <v>95</v>
       </c>
       <c r="G60" t="s">
-        <v>381</v>
+        <v>568</v>
       </c>
       <c r="H60" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I60" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J60" t="s">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="K60" t="s">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="L60" t="s">
         <v>25</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="1">
         <f t="shared" si="19"/>
         <v>1.6825396825396826</v>
       </c>
-      <c r="N60" s="1">
+      <c r="Q60" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6825396825396826</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6825396825396826</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4324324324324325</v>
+      </c>
+      <c r="T60" s="1">
         <f t="shared" si="20"/>
-        <v>1.6825396825396826</v>
-      </c>
-      <c r="O60" s="1">
-        <f t="shared" si="21"/>
-        <v>1.6825396825396826</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R60">
+      <c r="V60" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W60" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -5304,49 +6933,100 @@
         <v>99</v>
       </c>
       <c r="G61" t="s">
-        <v>382</v>
+        <v>95</v>
       </c>
       <c r="H61" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I61" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="K61" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="L61" t="s">
         <v>25</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="1">
         <f t="shared" si="19"/>
         <v>1.7450980392156863</v>
       </c>
-      <c r="N61" s="1">
+      <c r="Q61" s="1">
+        <f t="shared" si="17"/>
+        <v>1.5892857142857142</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" si="17"/>
+        <v>1.5084745762711864</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="17"/>
+        <v>1.4126984126984128</v>
+      </c>
+      <c r="T61" s="1">
         <f t="shared" si="20"/>
-        <v>1.5892857142857142</v>
-      </c>
-      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P62" s="1">
+        <f>AVERAGE(P50:P61)</f>
+        <v>1.3077138510795583</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" ref="Q62:W62" si="21">AVERAGE(Q50:Q61)</f>
+        <v>1.2385274520555798</v>
+      </c>
+      <c r="R62" s="1">
         <f t="shared" si="21"/>
-        <v>1.5084745762711864</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.2177304945510699</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="21"/>
+        <v>1.1333581175951701</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -5355,28 +7035,33 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3"/>
+      <c r="T63" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -5396,31 +7081,31 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
+        <v>520</v>
+      </c>
+      <c r="H64" t="s">
         <v>162</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>1</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
+        <v>520</v>
+      </c>
+      <c r="L64" t="s">
         <v>162</v>
       </c>
-      <c r="K64" t="s">
+      <c r="M64" t="s">
         <v>23</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" t="s">
         <v>1</v>
       </c>
-      <c r="M64" t="s">
-        <v>162</v>
-      </c>
-      <c r="N64" t="s">
-        <v>23</v>
-      </c>
       <c r="O64" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="P64" t="s">
         <v>162</v>
@@ -5431,8 +7116,23 @@
       <c r="R64" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" t="s">
+        <v>520</v>
+      </c>
+      <c r="T64" t="s">
+        <v>162</v>
+      </c>
+      <c r="U64" t="s">
+        <v>23</v>
+      </c>
+      <c r="V64" t="s">
+        <v>1</v>
+      </c>
+      <c r="W64" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -5452,49 +7152,66 @@
         <v>101</v>
       </c>
       <c r="G65" t="s">
+        <v>584</v>
+      </c>
+      <c r="H65" t="s">
+        <v>381</v>
+      </c>
+      <c r="I65" t="s">
+        <v>382</v>
+      </c>
+      <c r="J65" t="s">
         <v>383</v>
       </c>
-      <c r="H65" t="s">
-        <v>384</v>
-      </c>
-      <c r="I65" t="s">
-        <v>385</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
+        <v>592</v>
+      </c>
+      <c r="L65" t="s">
         <v>219</v>
       </c>
-      <c r="K65" t="s">
+      <c r="M65" t="s">
         <v>220</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>221</v>
       </c>
-      <c r="M65" s="1">
-        <f>G65/D65</f>
+      <c r="O65" t="s">
+        <v>606</v>
+      </c>
+      <c r="P65" s="1">
+        <f>H65/D65</f>
         <v>1.0035390241190054</v>
       </c>
-      <c r="N65" s="1">
-        <f>H65/E65</f>
+      <c r="Q65" s="1">
+        <f t="shared" ref="Q65:S76" si="22">I65/E65</f>
         <v>0.99840665557113595</v>
       </c>
-      <c r="O65" s="1">
-        <f>I65/F65</f>
+      <c r="R65" s="1">
+        <f t="shared" si="22"/>
         <v>1.0215939545714161</v>
       </c>
-      <c r="P65" s="1">
-        <f>J65/D65</f>
+      <c r="S65" s="1">
+        <f t="shared" si="22"/>
+        <v>1.005056221431313</v>
+      </c>
+      <c r="T65" s="1">
+        <f>L65/D65</f>
         <v>0.98059097123643424</v>
       </c>
-      <c r="Q65" s="1">
-        <f t="shared" ref="Q65:R76" si="23">K65/E65</f>
+      <c r="U65" s="1">
+        <f t="shared" ref="U65:W76" si="23">M65/E65</f>
         <v>0.98104477090349951</v>
       </c>
-      <c r="R65" s="1">
+      <c r="V65" s="1">
         <f t="shared" si="23"/>
         <v>0.98275119722332061</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W65" s="1">
+        <f t="shared" si="23"/>
+        <v>0.98088187829303186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -5514,49 +7231,66 @@
         <v>103</v>
       </c>
       <c r="G66" t="s">
+        <v>583</v>
+      </c>
+      <c r="H66" t="s">
+        <v>384</v>
+      </c>
+      <c r="I66" t="s">
+        <v>385</v>
+      </c>
+      <c r="J66" t="s">
         <v>386</v>
       </c>
-      <c r="H66" t="s">
-        <v>387</v>
-      </c>
-      <c r="I66" t="s">
-        <v>388</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
+        <v>591</v>
+      </c>
+      <c r="L66" t="s">
         <v>222</v>
       </c>
-      <c r="K66" t="s">
+      <c r="M66" t="s">
         <v>223</v>
       </c>
-      <c r="L66" t="s">
+      <c r="N66" t="s">
         <v>224</v>
       </c>
-      <c r="M66" s="1">
-        <f t="shared" ref="M66:M76" si="24">G66/D66</f>
+      <c r="O66" t="s">
+        <v>605</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" ref="P66:P76" si="24">H66/D66</f>
         <v>0.97259606373008434</v>
       </c>
-      <c r="N66" s="1">
-        <f t="shared" ref="N66:N76" si="25">H66/E66</f>
+      <c r="Q66" s="1">
+        <f t="shared" si="22"/>
         <v>0.98099999999999998</v>
       </c>
-      <c r="O66" s="1">
-        <f t="shared" ref="O66:O76" si="26">I66/F66</f>
+      <c r="R66" s="1">
+        <f t="shared" si="22"/>
         <v>0.98860856397902896</v>
       </c>
-      <c r="P66" s="1">
-        <f t="shared" ref="P66:P76" si="27">J66/D66</f>
+      <c r="S66" s="1">
+        <f t="shared" si="22"/>
+        <v>0.97832832406517323</v>
+      </c>
+      <c r="T66" s="1">
+        <f t="shared" ref="T66:T76" si="25">L66/D66</f>
         <v>0.9936269915651359</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="U66" s="1">
         <f t="shared" si="23"/>
         <v>0.99156794751640109</v>
       </c>
-      <c r="R66" s="1">
+      <c r="V66" s="1">
         <f t="shared" si="23"/>
         <v>0.98903719343167473</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W66" s="1">
+        <f t="shared" si="23"/>
+        <v>0.98954512225827984</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -5576,49 +7310,66 @@
         <v>104</v>
       </c>
       <c r="G67" t="s">
-        <v>389</v>
+        <v>582</v>
       </c>
       <c r="H67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J67" t="s">
+        <v>387</v>
+      </c>
+      <c r="K67" t="s">
+        <v>387</v>
+      </c>
+      <c r="L67" t="s">
         <v>225</v>
       </c>
-      <c r="K67" t="s">
+      <c r="M67" t="s">
         <v>226</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" t="s">
         <v>227</v>
       </c>
-      <c r="M67" s="1">
+      <c r="O67" t="s">
+        <v>604</v>
+      </c>
+      <c r="P67" s="1">
         <f t="shared" si="24"/>
         <v>0.95775681341719077</v>
       </c>
-      <c r="N67" s="1">
+      <c r="Q67" s="1">
+        <f t="shared" si="22"/>
+        <v>0.95775681341719077</v>
+      </c>
+      <c r="R67" s="1">
+        <f t="shared" si="22"/>
+        <v>0.95775681341719077</v>
+      </c>
+      <c r="S67" s="1">
+        <f t="shared" si="22"/>
+        <v>0.9526281987121743</v>
+      </c>
+      <c r="T67" s="1">
         <f t="shared" si="25"/>
-        <v>0.95775681341719077</v>
-      </c>
-      <c r="O67" s="1">
-        <f t="shared" si="26"/>
-        <v>0.95775681341719077</v>
-      </c>
-      <c r="P67" s="1">
-        <f t="shared" si="27"/>
         <v>0.99308176100628931</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="U67" s="1">
         <f t="shared" si="23"/>
         <v>0.99336373165618452</v>
       </c>
-      <c r="R67" s="1">
+      <c r="V67" s="1">
         <f t="shared" si="23"/>
         <v>0.98893081761006285</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W67" s="1">
+        <f t="shared" si="23"/>
+        <v>0.97921723300970875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5638,49 +7389,66 @@
         <v>106</v>
       </c>
       <c r="G68" t="s">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="H68" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I68" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J68" t="s">
+        <v>389</v>
+      </c>
+      <c r="K68" t="s">
+        <v>590</v>
+      </c>
+      <c r="L68" t="s">
         <v>228</v>
       </c>
-      <c r="K68" t="s">
+      <c r="M68" t="s">
         <v>229</v>
       </c>
-      <c r="L68" t="s">
+      <c r="N68" t="s">
         <v>230</v>
       </c>
-      <c r="M68" s="1">
+      <c r="O68" t="s">
+        <v>603</v>
+      </c>
+      <c r="P68" s="1">
         <f t="shared" si="24"/>
         <v>0.97691666666666666</v>
       </c>
-      <c r="N68" s="1">
+      <c r="Q68" s="1">
+        <f t="shared" si="22"/>
+        <v>0.98414333333333337</v>
+      </c>
+      <c r="R68" s="1">
+        <f t="shared" si="22"/>
+        <v>0.98633052126423681</v>
+      </c>
+      <c r="S68" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0135325083372377</v>
+      </c>
+      <c r="T68" s="1">
         <f t="shared" si="25"/>
-        <v>0.98414333333333337</v>
-      </c>
-      <c r="O68" s="1">
-        <f t="shared" si="26"/>
-        <v>0.98633052126423681</v>
-      </c>
-      <c r="P68" s="1">
-        <f t="shared" si="27"/>
         <v>1.0015000000000001</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="U68" s="1">
         <f t="shared" si="23"/>
         <v>0.99833833333333333</v>
       </c>
-      <c r="R68" s="1">
+      <c r="V68" s="1">
         <f t="shared" si="23"/>
         <v>1.0035319988741702</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W68" s="1">
+        <f t="shared" si="23"/>
+        <v>1.004315402738907</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -5700,49 +7468,66 @@
         <v>108</v>
       </c>
       <c r="G69" t="s">
+        <v>581</v>
+      </c>
+      <c r="H69" t="s">
+        <v>390</v>
+      </c>
+      <c r="I69" t="s">
+        <v>391</v>
+      </c>
+      <c r="J69" t="s">
         <v>392</v>
       </c>
-      <c r="H69" t="s">
-        <v>393</v>
-      </c>
-      <c r="I69" t="s">
-        <v>394</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
+        <v>589</v>
+      </c>
+      <c r="L69" t="s">
         <v>232</v>
       </c>
-      <c r="K69" t="s">
+      <c r="M69" t="s">
         <v>233</v>
       </c>
-      <c r="L69" t="s">
+      <c r="N69" t="s">
         <v>234</v>
       </c>
-      <c r="M69" s="1">
+      <c r="O69" t="s">
+        <v>602</v>
+      </c>
+      <c r="P69" s="1">
         <f t="shared" si="24"/>
         <v>0.99471530531324348</v>
       </c>
-      <c r="N69" s="1">
+      <c r="Q69" s="1">
+        <f t="shared" si="22"/>
+        <v>0.99639630118890354</v>
+      </c>
+      <c r="R69" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0110148187351151</v>
+      </c>
+      <c r="S69" s="1">
+        <f t="shared" si="22"/>
+        <v>1.005076495132128</v>
+      </c>
+      <c r="T69" s="1">
         <f t="shared" si="25"/>
-        <v>0.99639630118890354</v>
-      </c>
-      <c r="O69" s="1">
-        <f t="shared" si="26"/>
-        <v>1.0110148187351151</v>
-      </c>
-      <c r="P69" s="1">
-        <f t="shared" si="27"/>
         <v>0.99270420301348139</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="U69" s="1">
         <f t="shared" si="23"/>
         <v>0.99005416116248346</v>
       </c>
-      <c r="R69" s="1">
+      <c r="V69" s="1">
         <f t="shared" si="23"/>
         <v>0.99424397988885949</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W69" s="1">
+        <f t="shared" si="23"/>
+        <v>0.99302695542751174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -5762,49 +7547,66 @@
         <v>109</v>
       </c>
       <c r="G70" t="s">
-        <v>395</v>
+        <v>580</v>
       </c>
       <c r="H70" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I70" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J70" t="s">
+        <v>394</v>
+      </c>
+      <c r="K70" t="s">
+        <v>588</v>
+      </c>
+      <c r="L70" t="s">
         <v>235</v>
       </c>
-      <c r="K70" t="s">
+      <c r="M70" t="s">
         <v>236</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>237</v>
       </c>
-      <c r="M70" s="1">
+      <c r="O70" t="s">
+        <v>601</v>
+      </c>
+      <c r="P70" s="1">
         <f t="shared" si="24"/>
         <v>0.96284153005464479</v>
       </c>
-      <c r="N70" s="1">
+      <c r="Q70" s="1">
+        <f t="shared" si="22"/>
+        <v>0.96284153005464479</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" si="22"/>
+        <v>0.96476393442622954</v>
+      </c>
+      <c r="S70" s="1">
+        <f t="shared" si="22"/>
+        <v>0.96490994854202405</v>
+      </c>
+      <c r="T70" s="1">
         <f t="shared" si="25"/>
-        <v>0.96284153005464479</v>
-      </c>
-      <c r="O70" s="1">
-        <f t="shared" si="26"/>
-        <v>0.96476393442622954</v>
-      </c>
-      <c r="P70" s="1">
-        <f t="shared" si="27"/>
         <v>1.020983606557377</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="U70" s="1">
         <f t="shared" si="23"/>
         <v>1.0229584699453551</v>
       </c>
-      <c r="R70" s="1">
+      <c r="V70" s="1">
         <f t="shared" si="23"/>
         <v>1.0192524590163934</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W70" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0017576114922813</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -5824,49 +7626,66 @@
         <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>397</v>
+        <v>110</v>
       </c>
       <c r="H71" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J71" t="s">
+        <v>396</v>
+      </c>
+      <c r="K71" t="s">
+        <v>587</v>
+      </c>
+      <c r="L71" t="s">
         <v>238</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
         <v>239</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>240</v>
       </c>
-      <c r="M71" s="1">
+      <c r="O71" t="s">
+        <v>600</v>
+      </c>
+      <c r="P71" s="1">
         <f t="shared" si="24"/>
         <v>1.0286900647948165</v>
       </c>
-      <c r="N71" s="1">
+      <c r="Q71" s="1">
+        <f t="shared" si="22"/>
+        <v>1.02207343412527</v>
+      </c>
+      <c r="R71" s="1">
+        <f t="shared" si="22"/>
+        <v>1.02207343412527</v>
+      </c>
+      <c r="S71" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0490565154787617</v>
+      </c>
+      <c r="T71" s="1">
         <f t="shared" si="25"/>
-        <v>1.02207343412527</v>
-      </c>
-      <c r="O71" s="1">
-        <f t="shared" si="26"/>
-        <v>1.02207343412527</v>
-      </c>
-      <c r="P71" s="1">
-        <f t="shared" si="27"/>
         <v>1.0241900647948163</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="U71" s="1">
         <f t="shared" si="23"/>
         <v>1.0278473722102233</v>
       </c>
-      <c r="R71" s="1">
+      <c r="V71" s="1">
         <f t="shared" si="23"/>
         <v>1.0179524838012959</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W71" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0224132469402447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -5886,49 +7705,66 @@
         <v>112</v>
       </c>
       <c r="G72" t="s">
-        <v>399</v>
+        <v>579</v>
       </c>
       <c r="H72" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I72" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J72" t="s">
+        <v>398</v>
+      </c>
+      <c r="K72" t="s">
+        <v>398</v>
+      </c>
+      <c r="L72" t="s">
         <v>241</v>
       </c>
-      <c r="K72" t="s">
+      <c r="M72" t="s">
         <v>242</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>243</v>
       </c>
-      <c r="M72" s="1">
+      <c r="O72" t="s">
+        <v>599</v>
+      </c>
+      <c r="P72" s="1">
         <f t="shared" si="24"/>
         <v>0.9861512702078522</v>
       </c>
-      <c r="N72" s="1">
+      <c r="Q72" s="1">
+        <f t="shared" si="22"/>
+        <v>0.99042032332563512</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0070399714456129</v>
+      </c>
+      <c r="S72" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0131901934703462</v>
+      </c>
+      <c r="T72" s="1">
         <f t="shared" si="25"/>
-        <v>0.99042032332563512</v>
-      </c>
-      <c r="O72" s="1">
-        <f t="shared" si="26"/>
-        <v>1.0070399714456129</v>
-      </c>
-      <c r="P72" s="1">
-        <f t="shared" si="27"/>
         <v>0.97690531177829099</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="U72" s="1">
         <f t="shared" si="23"/>
         <v>0.98409699769053116</v>
       </c>
-      <c r="R72" s="1">
+      <c r="V72" s="1">
         <f t="shared" si="23"/>
         <v>0.99914055051731343</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W72" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0062722130213488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -5948,49 +7784,66 @@
         <v>114</v>
       </c>
       <c r="G73" t="s">
-        <v>401</v>
+        <v>114</v>
       </c>
       <c r="H73" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I73" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J73" t="s">
+        <v>400</v>
+      </c>
+      <c r="K73" t="s">
+        <v>400</v>
+      </c>
+      <c r="L73" t="s">
         <v>244</v>
       </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
         <v>245</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>246</v>
       </c>
-      <c r="M73" s="1">
+      <c r="O73" t="s">
+        <v>598</v>
+      </c>
+      <c r="P73" s="1">
         <f t="shared" si="24"/>
         <v>0.99379026217228461</v>
       </c>
-      <c r="N73" s="1">
+      <c r="Q73" s="1">
+        <f t="shared" si="22"/>
+        <v>0.99275109170305675</v>
+      </c>
+      <c r="R73" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0142638623326961</v>
+      </c>
+      <c r="S73" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0142638623326961</v>
+      </c>
+      <c r="T73" s="1">
         <f t="shared" si="25"/>
-        <v>0.99275109170305675</v>
-      </c>
-      <c r="O73" s="1">
-        <f t="shared" si="26"/>
-        <v>1.0142638623326961</v>
-      </c>
-      <c r="P73" s="1">
-        <f t="shared" si="27"/>
         <v>0.9887640449438202</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="U73" s="1">
         <f t="shared" si="23"/>
         <v>0.98919151590767307</v>
       </c>
-      <c r="R73" s="1">
+      <c r="V73" s="1">
         <f t="shared" si="23"/>
         <v>1.0065570427023582</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W73" s="1">
+        <f t="shared" si="23"/>
+        <v>1.005559592096877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -6010,49 +7863,66 @@
         <v>116</v>
       </c>
       <c r="G74" t="s">
-        <v>403</v>
+        <v>578</v>
       </c>
       <c r="H74" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I74" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J74" t="s">
+        <v>402</v>
+      </c>
+      <c r="K74" t="s">
+        <v>586</v>
+      </c>
+      <c r="L74" t="s">
         <v>248</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
         <v>249</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
         <v>250</v>
       </c>
-      <c r="M74" s="1">
+      <c r="O74" t="s">
+        <v>597</v>
+      </c>
+      <c r="P74" s="1">
         <f t="shared" si="24"/>
         <v>0.98785046728971959</v>
       </c>
-      <c r="N74" s="1">
+      <c r="Q74" s="1">
+        <f t="shared" si="22"/>
+        <v>0.98970037453183524</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0162685997710796</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0322777542526447</v>
+      </c>
+      <c r="T74" s="1">
         <f t="shared" si="25"/>
-        <v>0.98970037453183524</v>
-      </c>
-      <c r="O74" s="1">
-        <f t="shared" si="26"/>
-        <v>1.0162685997710796</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="27"/>
         <v>0.98093457943925233</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="U74" s="1">
         <f t="shared" si="23"/>
         <v>0.97546004993757807</v>
       </c>
-      <c r="R74" s="1">
+      <c r="V74" s="1">
         <f t="shared" si="23"/>
         <v>1.0048022383314257</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W74" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0045829502551524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -6072,49 +7942,66 @@
         <v>117</v>
       </c>
       <c r="G75" t="s">
-        <v>405</v>
+        <v>577</v>
       </c>
       <c r="H75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J75" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" t="s">
+        <v>585</v>
+      </c>
+      <c r="L75" t="s">
         <v>251</v>
       </c>
-      <c r="K75" t="s">
+      <c r="M75" t="s">
         <v>252</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>253</v>
       </c>
-      <c r="M75" s="1">
+      <c r="O75" t="s">
+        <v>596</v>
+      </c>
+      <c r="P75" s="1">
         <f t="shared" si="24"/>
         <v>1.0039886039886039</v>
       </c>
-      <c r="N75" s="1">
+      <c r="Q75" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0039886039886039</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0120205128205129</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0341282355051717</v>
+      </c>
+      <c r="T75" s="1">
         <f t="shared" si="25"/>
-        <v>1.0039886039886039</v>
-      </c>
-      <c r="O75" s="1">
-        <f t="shared" si="26"/>
-        <v>1.0120205128205129</v>
-      </c>
-      <c r="P75" s="1">
-        <f t="shared" si="27"/>
         <v>0.98598290598290594</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="U75" s="1">
         <f t="shared" si="23"/>
         <v>0.9897504273504274</v>
       </c>
-      <c r="R75" s="1">
+      <c r="V75" s="1">
         <f t="shared" si="23"/>
         <v>0.99119772079772084</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W75" s="1">
+        <f t="shared" si="23"/>
+        <v>1.004299487087783</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6134,49 +8021,100 @@
         <v>119</v>
       </c>
       <c r="G76" t="s">
-        <v>407</v>
+        <v>576</v>
       </c>
       <c r="H76" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I76" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J76" t="s">
+        <v>406</v>
+      </c>
+      <c r="K76" t="s">
+        <v>406</v>
+      </c>
+      <c r="L76" t="s">
         <v>255</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>256</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>257</v>
       </c>
-      <c r="M76" s="1">
+      <c r="O76" t="s">
+        <v>595</v>
+      </c>
+      <c r="P76" s="1">
         <f t="shared" si="24"/>
         <v>0.9840844930417495</v>
       </c>
-      <c r="N76" s="1">
+      <c r="Q76" s="1">
+        <f t="shared" si="22"/>
+        <v>0.98661354581673311</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0091279543602283</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0009643571833495</v>
+      </c>
+      <c r="T76" s="1">
         <f t="shared" si="25"/>
-        <v>0.98661354581673311</v>
-      </c>
-      <c r="O76" s="1">
-        <f t="shared" si="26"/>
-        <v>1.0091279543602283</v>
-      </c>
-      <c r="P76" s="1">
-        <f t="shared" si="27"/>
         <v>0.979324055666004</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="U76" s="1">
         <f t="shared" si="23"/>
         <v>0.97102124833997339</v>
       </c>
-      <c r="R76" s="1">
+      <c r="V76" s="1">
         <f t="shared" si="23"/>
         <v>1.0017169247487097</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W76" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0006295436869299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P77" s="1">
+        <f>AVERAGE(P65:P76)</f>
+        <v>0.98774338039965526</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" ref="Q77:W77" si="26">AVERAGE(Q65:Q76)</f>
+        <v>0.9888410005880286</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" si="26"/>
+        <v>1.0009052451040512</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="26"/>
+        <v>1.0052843845369184</v>
+      </c>
+      <c r="T77" s="1">
+        <f t="shared" si="26"/>
+        <v>0.99321570799865055</v>
+      </c>
+      <c r="U77" s="1">
+        <f t="shared" si="26"/>
+        <v>0.99289125216280516</v>
+      </c>
+      <c r="V77" s="1">
+        <f t="shared" si="26"/>
+        <v>0.99992621724527553</v>
+      </c>
+      <c r="W77" s="1">
+        <f t="shared" si="26"/>
+        <v>0.99937510302567134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -6185,28 +8123,33 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" s="3"/>
+      <c r="T78" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -6226,31 +8169,31 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
+        <v>520</v>
+      </c>
+      <c r="H79" t="s">
         <v>162</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>23</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>1</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
+        <v>520</v>
+      </c>
+      <c r="L79" t="s">
         <v>162</v>
       </c>
-      <c r="K79" t="s">
+      <c r="M79" t="s">
         <v>23</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79" t="s">
         <v>1</v>
       </c>
-      <c r="M79" t="s">
-        <v>162</v>
-      </c>
-      <c r="N79" t="s">
-        <v>23</v>
-      </c>
       <c r="O79" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="P79" t="s">
         <v>162</v>
@@ -6261,8 +8204,23 @@
       <c r="R79" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" t="s">
+        <v>520</v>
+      </c>
+      <c r="T79" t="s">
+        <v>162</v>
+      </c>
+      <c r="U79" t="s">
+        <v>23</v>
+      </c>
+      <c r="V79" t="s">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -6282,49 +8240,66 @@
         <v>121</v>
       </c>
       <c r="G80" t="s">
+        <v>607</v>
+      </c>
+      <c r="H80" t="s">
         <v>130</v>
       </c>
-      <c r="H80" t="s">
-        <v>409</v>
-      </c>
       <c r="I80" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J80" t="s">
+        <v>408</v>
+      </c>
+      <c r="K80" t="s">
+        <v>612</v>
+      </c>
+      <c r="L80" t="s">
         <v>259</v>
       </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
         <v>260</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>261</v>
       </c>
-      <c r="M80" s="1">
-        <f>G80/D80</f>
+      <c r="O80" t="s">
+        <v>617</v>
+      </c>
+      <c r="P80" s="1">
+        <f>H80/D80</f>
         <v>1.0000180003240058</v>
       </c>
-      <c r="N80" s="1">
-        <f>H80/E80</f>
+      <c r="Q80" s="1">
+        <f t="shared" ref="Q80:S91" si="27">I80/E80</f>
         <v>0.97381979055832446</v>
       </c>
-      <c r="O80" s="1">
-        <f>I80/F80</f>
+      <c r="R80" s="1">
+        <f t="shared" si="27"/>
         <v>0.98767158213325223</v>
       </c>
-      <c r="P80" s="1">
-        <f>J80/D80</f>
+      <c r="S80" s="1">
+        <f t="shared" si="27"/>
+        <v>1.0010605733180313</v>
+      </c>
+      <c r="T80" s="1">
+        <f>L80/D80</f>
         <v>0.33727607096927747</v>
       </c>
-      <c r="Q80" s="1">
-        <f t="shared" ref="Q80:R91" si="28">K80/E80</f>
+      <c r="U80" s="1">
+        <f t="shared" ref="U80:W91" si="28">M80/E80</f>
         <v>0.30428743429947441</v>
       </c>
-      <c r="R80" s="1">
+      <c r="V80" s="1">
         <f t="shared" si="28"/>
         <v>0.28758255269802369</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W80" s="1">
+        <f t="shared" si="28"/>
+        <v>0.2893309051694295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6344,49 +8319,66 @@
         <v>123</v>
       </c>
       <c r="G81" t="s">
+        <v>608</v>
+      </c>
+      <c r="H81" t="s">
         <v>130</v>
       </c>
-      <c r="H81" t="s">
-        <v>411</v>
-      </c>
       <c r="I81" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J81" t="s">
+        <v>410</v>
+      </c>
+      <c r="K81" t="s">
+        <v>613</v>
+      </c>
+      <c r="L81" t="s">
         <v>262</v>
       </c>
-      <c r="K81" t="s">
+      <c r="M81" t="s">
         <v>263</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
         <v>264</v>
       </c>
-      <c r="M81" s="1">
-        <f t="shared" ref="M81:M91" si="29">G81/D81</f>
+      <c r="O81" t="s">
+        <v>618</v>
+      </c>
+      <c r="P81" s="1">
+        <f t="shared" ref="P81:P91" si="29">H81/D81</f>
         <v>1.000010000100001</v>
       </c>
-      <c r="N81" s="1">
-        <f t="shared" ref="N81:N91" si="30">H81/E81</f>
+      <c r="Q81" s="1">
+        <f t="shared" si="27"/>
         <v>0.97492974929749299</v>
       </c>
-      <c r="O81" s="1">
-        <f t="shared" ref="O81:O91" si="31">I81/F81</f>
+      <c r="R81" s="1">
+        <f t="shared" si="27"/>
         <v>0.96212488637465909</v>
       </c>
-      <c r="P81" s="1">
-        <f t="shared" ref="P81:P91" si="32">J81/D81</f>
+      <c r="S81" s="1">
+        <f t="shared" si="27"/>
+        <v>0.98122412773506806</v>
+      </c>
+      <c r="T81" s="1">
+        <f t="shared" ref="T81:T91" si="30">L81/D81</f>
         <v>0.43527935279352792</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="U81" s="1">
         <f t="shared" si="28"/>
         <v>0.38486084860848607</v>
       </c>
-      <c r="R81" s="1">
+      <c r="V81" s="1">
         <f t="shared" si="28"/>
         <v>0.37362112086336258</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W81" s="1">
+        <f t="shared" si="28"/>
+        <v>0.38111694263749257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -6406,49 +8398,66 @@
         <v>124</v>
       </c>
       <c r="G82" t="s">
-        <v>413</v>
+        <v>609</v>
       </c>
       <c r="H82" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I82" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J82" t="s">
+        <v>411</v>
+      </c>
+      <c r="K82" t="s">
+        <v>411</v>
+      </c>
+      <c r="L82" t="s">
         <v>265</v>
       </c>
-      <c r="K82" t="s">
+      <c r="M82" t="s">
         <v>266</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>267</v>
       </c>
-      <c r="M82" s="1">
+      <c r="O82" t="s">
+        <v>619</v>
+      </c>
+      <c r="P82" s="1">
         <f t="shared" si="29"/>
         <v>0.95522237311322356</v>
       </c>
-      <c r="N82" s="1">
+      <c r="Q82" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95522237311322356</v>
+      </c>
+      <c r="R82" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95522237311322356</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="27"/>
+        <v>0.98356315874016131</v>
+      </c>
+      <c r="T82" s="1">
         <f t="shared" si="30"/>
-        <v>0.95522237311322356</v>
-      </c>
-      <c r="O82" s="1">
-        <f t="shared" si="31"/>
-        <v>0.95522237311322356</v>
-      </c>
-      <c r="P82" s="1">
-        <f t="shared" si="32"/>
         <v>0.31738944345220826</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="U82" s="1">
         <f t="shared" si="28"/>
         <v>0.28551699723796131</v>
       </c>
-      <c r="R82" s="1">
+      <c r="V82" s="1">
         <f t="shared" si="28"/>
         <v>0.2721618102653437</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W82" s="1">
+        <f t="shared" si="28"/>
+        <v>0.2718900462533928</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -6468,49 +8477,66 @@
         <v>126</v>
       </c>
       <c r="G83" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
       <c r="H83" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I83" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J83" t="s">
+        <v>413</v>
+      </c>
+      <c r="K83" t="s">
+        <v>614</v>
+      </c>
+      <c r="L83" t="s">
         <v>268</v>
       </c>
-      <c r="K83" t="s">
+      <c r="M83" t="s">
         <v>269</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>270</v>
       </c>
-      <c r="M83" s="1">
+      <c r="O83" t="s">
+        <v>620</v>
+      </c>
+      <c r="P83" s="1">
         <f t="shared" si="29"/>
         <v>0.9790351760603172</v>
       </c>
-      <c r="N83" s="1">
+      <c r="Q83" s="1">
+        <f t="shared" si="27"/>
+        <v>0.96493794960161527</v>
+      </c>
+      <c r="R83" s="1">
+        <f t="shared" si="27"/>
+        <v>0.9649572504257955</v>
+      </c>
+      <c r="S83" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95705740514235016</v>
+      </c>
+      <c r="T83" s="1">
         <f t="shared" si="30"/>
-        <v>0.96493794960161527</v>
-      </c>
-      <c r="O83" s="1">
-        <f t="shared" si="31"/>
-        <v>0.9649572504257955</v>
-      </c>
-      <c r="P83" s="1">
-        <f t="shared" si="32"/>
         <v>0.55151598189042439</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="U83" s="1">
         <f t="shared" si="28"/>
         <v>0.53445749780230878</v>
       </c>
-      <c r="R83" s="1">
+      <c r="V83" s="1">
         <f t="shared" si="28"/>
         <v>0.50770832479075267</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W83" s="1">
+        <f t="shared" si="28"/>
+        <v>0.49317977023541515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -6530,49 +8556,66 @@
         <v>127</v>
       </c>
       <c r="G84" t="s">
+        <v>127</v>
+      </c>
+      <c r="H84" t="s">
         <v>130</v>
       </c>
-      <c r="H84" t="s">
-        <v>416</v>
-      </c>
       <c r="I84" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J84" t="s">
+        <v>415</v>
+      </c>
+      <c r="K84" t="s">
+        <v>615</v>
+      </c>
+      <c r="L84" t="s">
         <v>272</v>
       </c>
-      <c r="K84" t="s">
+      <c r="M84" t="s">
         <v>273</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
         <v>274</v>
       </c>
-      <c r="M84" s="1">
+      <c r="O84" t="s">
+        <v>621</v>
+      </c>
+      <c r="P84" s="1">
         <f t="shared" si="29"/>
         <v>1.0000680046243144</v>
       </c>
-      <c r="N84" s="1">
+      <c r="Q84" s="1">
+        <f t="shared" si="27"/>
+        <v>0.97242785677567234</v>
+      </c>
+      <c r="R84" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95783219286998711</v>
+      </c>
+      <c r="S84" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95058836707384631</v>
+      </c>
+      <c r="T84" s="1">
         <f t="shared" si="30"/>
-        <v>0.97242785677567234</v>
-      </c>
-      <c r="O84" s="1">
-        <f t="shared" si="31"/>
-        <v>0.95783219286998711</v>
-      </c>
-      <c r="P84" s="1">
-        <f t="shared" si="32"/>
         <v>0.47361620590200132</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="U84" s="1">
         <f t="shared" si="28"/>
         <v>0.432468301386358</v>
       </c>
-      <c r="R84" s="1">
+      <c r="V84" s="1">
         <f t="shared" si="28"/>
         <v>0.4006846780532981</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W84" s="1">
+        <f t="shared" si="28"/>
+        <v>0.39933952470581641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -6592,49 +8635,66 @@
         <v>128</v>
       </c>
       <c r="G85" t="s">
-        <v>418</v>
+        <v>610</v>
       </c>
       <c r="H85" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I85" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J85" t="s">
+        <v>417</v>
+      </c>
+      <c r="K85" t="s">
+        <v>417</v>
+      </c>
+      <c r="L85" t="s">
         <v>275</v>
       </c>
-      <c r="K85" t="s">
+      <c r="M85" t="s">
         <v>276</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>277</v>
       </c>
-      <c r="M85" s="1">
+      <c r="O85" t="s">
+        <v>622</v>
+      </c>
+      <c r="P85" s="1">
         <f t="shared" si="29"/>
         <v>0.96330305588926035</v>
       </c>
-      <c r="N85" s="1">
+      <c r="Q85" s="1">
+        <f t="shared" si="27"/>
+        <v>0.96330305588926035</v>
+      </c>
+      <c r="R85" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95444745503007344</v>
+      </c>
+      <c r="S85" s="1">
+        <f t="shared" si="27"/>
+        <v>0.9566692732780786</v>
+      </c>
+      <c r="T85" s="1">
         <f t="shared" si="30"/>
-        <v>0.96330305588926035</v>
-      </c>
-      <c r="O85" s="1">
-        <f t="shared" si="31"/>
-        <v>0.95444745503007344</v>
-      </c>
-      <c r="P85" s="1">
-        <f t="shared" si="32"/>
         <v>0.54049449370350833</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="U85" s="1">
         <f t="shared" si="28"/>
         <v>0.49204690630571724</v>
       </c>
-      <c r="R85" s="1">
+      <c r="V85" s="1">
         <f t="shared" si="28"/>
         <v>0.47469871302478284</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W85" s="1">
+        <f t="shared" si="28"/>
+        <v>0.4635171563946745</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -6654,49 +8714,66 @@
         <v>129</v>
       </c>
       <c r="G86" t="s">
-        <v>420</v>
+        <v>129</v>
       </c>
       <c r="H86" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I86" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J86" t="s">
+        <v>419</v>
+      </c>
+      <c r="K86" t="s">
+        <v>616</v>
+      </c>
+      <c r="L86" t="s">
         <v>278</v>
       </c>
-      <c r="K86" t="s">
+      <c r="M86" t="s">
         <v>279</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
         <v>280</v>
       </c>
-      <c r="M86" s="1">
+      <c r="O86" t="s">
+        <v>623</v>
+      </c>
+      <c r="P86" s="1">
         <f t="shared" si="29"/>
         <v>0.98326909699567111</v>
       </c>
-      <c r="N86" s="1">
+      <c r="Q86" s="1">
+        <f t="shared" si="27"/>
+        <v>0.97969645376370829</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" si="27"/>
+        <v>0.97969645376370829</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" si="27"/>
+        <v>0.97919092012260212</v>
+      </c>
+      <c r="T86" s="1">
         <f t="shared" si="30"/>
-        <v>0.97969645376370829</v>
-      </c>
-      <c r="O86" s="1">
-        <f t="shared" si="31"/>
-        <v>0.97969645376370829</v>
-      </c>
-      <c r="P86" s="1">
-        <f t="shared" si="32"/>
         <v>0.39456078682406709</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="U86" s="1">
         <f t="shared" si="28"/>
         <v>0.3523446177621094</v>
       </c>
-      <c r="R86" s="1">
+      <c r="V86" s="1">
         <f t="shared" si="28"/>
         <v>0.33438173338443472</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W86" s="1">
+        <f t="shared" si="28"/>
+        <v>0.32702683541078204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -6716,49 +8793,66 @@
         <v>131</v>
       </c>
       <c r="G87" t="s">
-        <v>422</v>
+        <v>611</v>
       </c>
       <c r="H87" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I87" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J87" t="s">
+        <v>420</v>
+      </c>
+      <c r="K87" t="s">
+        <v>420</v>
+      </c>
+      <c r="L87" t="s">
         <v>281</v>
       </c>
-      <c r="K87" t="s">
+      <c r="M87" t="s">
         <v>282</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>283</v>
       </c>
-      <c r="M87" s="1">
+      <c r="O87" t="s">
+        <v>624</v>
+      </c>
+      <c r="P87" s="1">
         <f t="shared" si="29"/>
         <v>0.95198300000000002</v>
       </c>
-      <c r="N87" s="1">
+      <c r="Q87" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95198300000000002</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95199918398612782</v>
+      </c>
+      <c r="S87" s="1">
+        <f t="shared" si="27"/>
+        <v>0.97238758099969769</v>
+      </c>
+      <c r="T87" s="1">
         <f t="shared" si="30"/>
-        <v>0.95198300000000002</v>
-      </c>
-      <c r="O87" s="1">
-        <f t="shared" si="31"/>
-        <v>0.95199918398612782</v>
-      </c>
-      <c r="P87" s="1">
-        <f t="shared" si="32"/>
         <v>0.37431700000000001</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="U87" s="1">
         <f t="shared" si="28"/>
         <v>0.33904200000000001</v>
       </c>
-      <c r="R87" s="1">
+      <c r="V87" s="1">
         <f t="shared" si="28"/>
         <v>0.32272648635026796</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W87" s="1">
+        <f t="shared" si="28"/>
+        <v>0.32270259117317801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -6778,49 +8872,66 @@
         <v>133</v>
       </c>
       <c r="G88" t="s">
-        <v>423</v>
+        <v>133</v>
       </c>
       <c r="H88" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I88" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J88" t="s">
+        <v>422</v>
+      </c>
+      <c r="K88" t="s">
+        <v>422</v>
+      </c>
+      <c r="L88" t="s">
         <v>284</v>
       </c>
-      <c r="K88" t="s">
+      <c r="M88" t="s">
         <v>285</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>286</v>
       </c>
-      <c r="M88" s="1">
+      <c r="O88" t="s">
+        <v>625</v>
+      </c>
+      <c r="P88" s="1">
         <f t="shared" si="29"/>
         <v>0.96013656150217652</v>
       </c>
-      <c r="N88" s="1">
+      <c r="Q88" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95153146684613521</v>
+      </c>
+      <c r="R88" s="1">
+        <f t="shared" si="27"/>
+        <v>0.97944598446302522</v>
+      </c>
+      <c r="S88" s="1">
+        <f t="shared" si="27"/>
+        <v>0.97944598446302522</v>
+      </c>
+      <c r="T88" s="1">
         <f t="shared" si="30"/>
-        <v>0.95153146684613521</v>
-      </c>
-      <c r="O88" s="1">
-        <f t="shared" si="31"/>
-        <v>0.97944598446302522</v>
-      </c>
-      <c r="P88" s="1">
-        <f t="shared" si="32"/>
         <v>0.3919733117064288</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="U88" s="1">
         <f t="shared" si="28"/>
         <v>0.35843594279537072</v>
       </c>
-      <c r="R88" s="1">
+      <c r="V88" s="1">
         <f t="shared" si="28"/>
         <v>0.34508471017170544</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W88" s="1">
+        <f t="shared" si="28"/>
+        <v>0.3350351882522602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -6840,49 +8951,66 @@
         <v>135</v>
       </c>
       <c r="G89" t="s">
-        <v>425</v>
+        <v>134</v>
       </c>
       <c r="H89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J89" t="s">
+        <v>423</v>
+      </c>
+      <c r="K89" t="s">
+        <v>423</v>
+      </c>
+      <c r="L89" t="s">
         <v>288</v>
       </c>
-      <c r="K89" t="s">
+      <c r="M89" t="s">
         <v>289</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89" t="s">
         <v>290</v>
       </c>
-      <c r="M89" s="1">
+      <c r="O89" t="s">
+        <v>626</v>
+      </c>
+      <c r="P89" s="1">
         <f t="shared" si="29"/>
         <v>0.95091741100893212</v>
       </c>
-      <c r="N89" s="1">
+      <c r="Q89" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95091265638859468</v>
+      </c>
+      <c r="R89" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95092026380395711</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95091265638859468</v>
+      </c>
+      <c r="T89" s="1">
         <f t="shared" si="30"/>
-        <v>0.95091265638859468</v>
-      </c>
-      <c r="O89" s="1">
-        <f t="shared" si="31"/>
-        <v>0.95092026380395711</v>
-      </c>
-      <c r="P89" s="1">
-        <f t="shared" si="32"/>
         <v>0.39254271051252615</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="U89" s="1">
         <f t="shared" si="28"/>
         <v>0.35197346381424666</v>
       </c>
-      <c r="R89" s="1">
+      <c r="V89" s="1">
         <f t="shared" si="28"/>
         <v>0.33661504922573843</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W89" s="1">
+        <f t="shared" si="28"/>
+        <v>0.32853829976809834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -6902,49 +9030,66 @@
         <v>136</v>
       </c>
       <c r="G90" t="s">
-        <v>426</v>
+        <v>136</v>
       </c>
       <c r="H90" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I90" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J90" t="s">
+        <v>424</v>
+      </c>
+      <c r="K90" t="s">
+        <v>424</v>
+      </c>
+      <c r="L90" t="s">
         <v>291</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>292</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>293</v>
       </c>
-      <c r="M90" s="1">
+      <c r="O90" t="s">
+        <v>627</v>
+      </c>
+      <c r="P90" s="1">
         <f t="shared" si="29"/>
         <v>0.95104295104295111</v>
       </c>
-      <c r="N90" s="1">
+      <c r="Q90" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95104295104295111</v>
+      </c>
+      <c r="R90" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95104295104295111</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95104295104295111</v>
+      </c>
+      <c r="T90" s="1">
         <f t="shared" si="30"/>
-        <v>0.95104295104295111</v>
-      </c>
-      <c r="O90" s="1">
-        <f t="shared" si="31"/>
-        <v>0.95104295104295111</v>
-      </c>
-      <c r="P90" s="1">
-        <f t="shared" si="32"/>
         <v>0.40583940583940586</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="U90" s="1">
         <f t="shared" si="28"/>
         <v>0.36799036799036799</v>
       </c>
-      <c r="R90" s="1">
+      <c r="V90" s="1">
         <f t="shared" si="28"/>
         <v>0.34690834690834693</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W90" s="1">
+        <f t="shared" si="28"/>
+        <v>0.33975233975233976</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -6964,49 +9109,100 @@
         <v>123</v>
       </c>
       <c r="G91" t="s">
-        <v>427</v>
+        <v>132</v>
       </c>
       <c r="H91" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I91" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J91" t="s">
+        <v>426</v>
+      </c>
+      <c r="K91" t="s">
+        <v>426</v>
+      </c>
+      <c r="L91" t="s">
         <v>295</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>296</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>297</v>
       </c>
-      <c r="M91" s="1">
+      <c r="O91" t="s">
+        <v>628</v>
+      </c>
+      <c r="P91" s="1">
         <f t="shared" si="29"/>
         <v>0.96036276217657301</v>
       </c>
-      <c r="N91" s="1">
+      <c r="Q91" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95275448029928334</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" si="27"/>
+        <v>0.9527468582405747</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="27"/>
+        <v>0.95275448029928334</v>
+      </c>
+      <c r="T91" s="1">
         <f t="shared" si="30"/>
-        <v>0.95275448029928334</v>
-      </c>
-      <c r="O91" s="1">
-        <f t="shared" si="31"/>
-        <v>0.9527468582405747</v>
-      </c>
-      <c r="P91" s="1">
-        <f t="shared" si="32"/>
         <v>0.38833433000598</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="U91" s="1">
         <f t="shared" si="28"/>
         <v>0.35178286961156574</v>
       </c>
-      <c r="R91" s="1">
+      <c r="V91" s="1">
         <f t="shared" si="28"/>
         <v>0.33546600639801921</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W91" s="1">
+        <f t="shared" si="28"/>
+        <v>0.33231765549421044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P92" s="1">
+        <f>AVERAGE(P80:P91)</f>
+        <v>0.97128069940311867</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" ref="Q92:W92" si="31">AVERAGE(Q80:Q91)</f>
+        <v>0.96188014863135496</v>
+      </c>
+      <c r="R92" s="1">
+        <f t="shared" si="31"/>
+        <v>0.96234228627061114</v>
+      </c>
+      <c r="S92" s="1">
+        <f t="shared" si="31"/>
+        <v>0.96799145655030738</v>
+      </c>
+      <c r="T92" s="1">
+        <f t="shared" si="31"/>
+        <v>0.4169282577999463</v>
+      </c>
+      <c r="U92" s="1">
+        <f t="shared" si="31"/>
+        <v>0.37960060396783057</v>
+      </c>
+      <c r="V92" s="1">
+        <f t="shared" si="31"/>
+        <v>0.36146996101117296</v>
+      </c>
+      <c r="W92" s="1">
+        <f t="shared" si="31"/>
+        <v>0.35697893793725749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -7015,28 +9211,33 @@
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="3"/>
+      <c r="H93" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3"/>
+      <c r="T93" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -7056,31 +9257,31 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
+        <v>520</v>
+      </c>
+      <c r="H94" t="s">
         <v>162</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>23</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>1</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
+        <v>520</v>
+      </c>
+      <c r="L94" t="s">
         <v>162</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>23</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>1</v>
       </c>
-      <c r="M94" t="s">
-        <v>162</v>
-      </c>
-      <c r="N94" t="s">
-        <v>23</v>
-      </c>
       <c r="O94" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="P94" t="s">
         <v>162</v>
@@ -7091,8 +9292,23 @@
       <c r="R94" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94" t="s">
+        <v>520</v>
+      </c>
+      <c r="T94" t="s">
+        <v>162</v>
+      </c>
+      <c r="U94" t="s">
+        <v>23</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1</v>
+      </c>
+      <c r="W94" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -7112,49 +9328,66 @@
         <v>138</v>
       </c>
       <c r="G95" t="s">
+        <v>629</v>
+      </c>
+      <c r="H95" t="s">
+        <v>427</v>
+      </c>
+      <c r="I95" t="s">
+        <v>428</v>
+      </c>
+      <c r="J95" t="s">
         <v>429</v>
       </c>
-      <c r="H95" t="s">
-        <v>430</v>
-      </c>
-      <c r="I95" t="s">
-        <v>431</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
+        <v>641</v>
+      </c>
+      <c r="L95" t="s">
         <v>259</v>
       </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
         <v>260</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>261</v>
       </c>
-      <c r="M95" s="1">
-        <f>G95/D95</f>
+      <c r="O95" t="s">
+        <v>617</v>
+      </c>
+      <c r="P95" s="1">
+        <f>H95/D95</f>
         <v>0.87207254487900199</v>
       </c>
-      <c r="N95" s="1">
-        <f>H95/E95</f>
+      <c r="Q95" s="1">
+        <f t="shared" ref="Q95:S106" si="32">I95/E95</f>
         <v>0.76999104123919893</v>
       </c>
-      <c r="O95" s="1">
-        <f>I95/F95</f>
+      <c r="R95" s="1">
+        <f t="shared" si="32"/>
         <v>0.6481349823183119</v>
       </c>
-      <c r="P95" s="1">
-        <f>J95/D95</f>
+      <c r="S95" s="1">
+        <f t="shared" si="32"/>
+        <v>0.5393719215466849</v>
+      </c>
+      <c r="T95" s="1">
+        <f>L95/D95</f>
         <v>0.3498114397374677</v>
       </c>
-      <c r="Q95" s="1">
-        <f t="shared" ref="Q95:R106" si="33">K95/E95</f>
+      <c r="U95" s="1">
+        <f t="shared" ref="U95:W106" si="33">M95/E95</f>
         <v>0.325688952253123</v>
       </c>
-      <c r="R95" s="1">
+      <c r="V95" s="1">
         <f t="shared" si="33"/>
         <v>0.32233216223597017</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W95" s="1">
+        <f t="shared" si="33"/>
+        <v>0.37097060556253486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -7174,49 +9407,66 @@
         <v>140</v>
       </c>
       <c r="G96" t="s">
+        <v>630</v>
+      </c>
+      <c r="H96" t="s">
+        <v>430</v>
+      </c>
+      <c r="I96" t="s">
+        <v>431</v>
+      </c>
+      <c r="J96" t="s">
         <v>432</v>
       </c>
-      <c r="H96" t="s">
-        <v>433</v>
-      </c>
-      <c r="I96" t="s">
-        <v>434</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
+        <v>642</v>
+      </c>
+      <c r="L96" t="s">
         <v>262</v>
       </c>
-      <c r="K96" t="s">
+      <c r="M96" t="s">
         <v>263</v>
       </c>
-      <c r="L96" t="s">
+      <c r="N96" t="s">
         <v>264</v>
       </c>
-      <c r="M96" s="1">
-        <f t="shared" ref="M96:M106" si="34">G96/D96</f>
+      <c r="O96" t="s">
+        <v>618</v>
+      </c>
+      <c r="P96" s="1">
+        <f t="shared" ref="P96:P106" si="34">H96/D96</f>
         <v>0.77382270759342098</v>
       </c>
-      <c r="N96" s="1">
-        <f t="shared" ref="N96:N106" si="35">H96/E96</f>
+      <c r="Q96" s="1">
+        <f t="shared" si="32"/>
         <v>0.66744773589390027</v>
       </c>
-      <c r="O96" s="1">
-        <f t="shared" ref="O96:O106" si="36">I96/F96</f>
+      <c r="R96" s="1">
+        <f t="shared" si="32"/>
         <v>0.49213356019543597</v>
       </c>
-      <c r="P96" s="1">
-        <f t="shared" ref="P96:P106" si="37">J96/D96</f>
+      <c r="S96" s="1">
+        <f t="shared" si="32"/>
+        <v>0.36381251426051608</v>
+      </c>
+      <c r="T96" s="1">
+        <f t="shared" ref="T96:T106" si="35">L96/D96</f>
         <v>0.44550832625405568</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="U96" s="1">
         <f t="shared" si="33"/>
         <v>0.40294900748716628</v>
       </c>
-      <c r="R96" s="1">
+      <c r="V96" s="1">
         <f t="shared" si="33"/>
         <v>0.40413327463474735</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W96" s="1">
+        <f t="shared" si="33"/>
+        <v>0.43885622680634184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -7236,49 +9486,66 @@
         <v>142</v>
       </c>
       <c r="G97" t="s">
+        <v>631</v>
+      </c>
+      <c r="H97" t="s">
+        <v>433</v>
+      </c>
+      <c r="I97" t="s">
+        <v>434</v>
+      </c>
+      <c r="J97" t="s">
         <v>435</v>
       </c>
-      <c r="H97" t="s">
-        <v>436</v>
-      </c>
-      <c r="I97" t="s">
-        <v>437</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
+        <v>643</v>
+      </c>
+      <c r="L97" t="s">
         <v>265</v>
       </c>
-      <c r="K97" t="s">
+      <c r="M97" t="s">
         <v>266</v>
       </c>
-      <c r="L97" t="s">
+      <c r="N97" t="s">
         <v>267</v>
       </c>
-      <c r="M97" s="1">
+      <c r="O97" t="s">
+        <v>619</v>
+      </c>
+      <c r="P97" s="1">
         <f t="shared" si="34"/>
         <v>0.78149908674584956</v>
       </c>
-      <c r="N97" s="1">
+      <c r="Q97" s="1">
+        <f t="shared" si="32"/>
+        <v>0.66568403930927567</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="32"/>
+        <v>0.52091438468594331</v>
+      </c>
+      <c r="S97" s="1">
+        <f t="shared" si="32"/>
+        <v>0.40484564133862272</v>
+      </c>
+      <c r="T97" s="1">
         <f t="shared" si="35"/>
-        <v>0.66568403930927567</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="36"/>
-        <v>0.52091438468594331</v>
-      </c>
-      <c r="P97" s="1">
-        <f t="shared" si="37"/>
         <v>0.32458361542284792</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="U97" s="1">
         <f t="shared" si="33"/>
         <v>0.29846051562847908</v>
       </c>
-      <c r="R97" s="1">
+      <c r="V97" s="1">
         <f t="shared" si="33"/>
         <v>0.29683800200031196</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W97" s="1">
+        <f t="shared" si="33"/>
+        <v>0.33573898891262338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -7298,49 +9565,66 @@
         <v>144</v>
       </c>
       <c r="G98" t="s">
+        <v>632</v>
+      </c>
+      <c r="H98" t="s">
+        <v>436</v>
+      </c>
+      <c r="I98" t="s">
+        <v>437</v>
+      </c>
+      <c r="J98" t="s">
         <v>438</v>
       </c>
-      <c r="H98" t="s">
-        <v>439</v>
-      </c>
-      <c r="I98" t="s">
-        <v>440</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
+        <v>644</v>
+      </c>
+      <c r="L98" t="s">
         <v>268</v>
       </c>
-      <c r="K98" t="s">
+      <c r="M98" t="s">
         <v>269</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98" t="s">
         <v>270</v>
       </c>
-      <c r="M98" s="1">
+      <c r="O98" t="s">
+        <v>620</v>
+      </c>
+      <c r="P98" s="1">
         <f t="shared" si="34"/>
         <v>0.93480067658439725</v>
       </c>
-      <c r="N98" s="1">
+      <c r="Q98" s="1">
+        <f t="shared" si="32"/>
+        <v>0.88846720157814785</v>
+      </c>
+      <c r="R98" s="1">
+        <f t="shared" si="32"/>
+        <v>0.82743190901465435</v>
+      </c>
+      <c r="S98" s="1">
+        <f t="shared" si="32"/>
+        <v>0.67666273420354939</v>
+      </c>
+      <c r="T98" s="1">
         <f t="shared" si="35"/>
-        <v>0.88846720157814785</v>
-      </c>
-      <c r="O98" s="1">
-        <f t="shared" si="36"/>
-        <v>0.82743190901465435</v>
-      </c>
-      <c r="P98" s="1">
-        <f t="shared" si="37"/>
         <v>0.55556081653541634</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="U98" s="1">
         <f t="shared" si="33"/>
         <v>0.54229653389943167</v>
       </c>
-      <c r="R98" s="1">
+      <c r="V98" s="1">
         <f t="shared" si="33"/>
         <v>0.52183969013667542</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W98" s="1">
+        <f t="shared" si="33"/>
+        <v>0.52129132786171262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -7360,49 +9644,66 @@
         <v>146</v>
       </c>
       <c r="G99" t="s">
+        <v>633</v>
+      </c>
+      <c r="H99" t="s">
+        <v>439</v>
+      </c>
+      <c r="I99" t="s">
+        <v>440</v>
+      </c>
+      <c r="J99" t="s">
         <v>441</v>
       </c>
-      <c r="H99" t="s">
-        <v>442</v>
-      </c>
-      <c r="I99" t="s">
-        <v>443</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
+        <v>645</v>
+      </c>
+      <c r="L99" t="s">
         <v>272</v>
       </c>
-      <c r="K99" t="s">
+      <c r="M99" t="s">
         <v>273</v>
       </c>
-      <c r="L99" t="s">
+      <c r="N99" t="s">
         <v>274</v>
       </c>
-      <c r="M99" s="1">
+      <c r="O99" t="s">
+        <v>621</v>
+      </c>
+      <c r="P99" s="1">
         <f t="shared" si="34"/>
         <v>0.95000254600633449</v>
       </c>
-      <c r="N99" s="1">
+      <c r="Q99" s="1">
+        <f t="shared" si="32"/>
+        <v>0.87989043170033499</v>
+      </c>
+      <c r="R99" s="1">
+        <f t="shared" si="32"/>
+        <v>0.76602436028356202</v>
+      </c>
+      <c r="S99" s="1">
+        <f t="shared" si="32"/>
+        <v>0.69092343275799828</v>
+      </c>
+      <c r="T99" s="1">
         <f t="shared" si="35"/>
-        <v>0.87989043170033499</v>
-      </c>
-      <c r="O99" s="1">
-        <f t="shared" si="36"/>
-        <v>0.76602436028356202</v>
-      </c>
-      <c r="P99" s="1">
-        <f t="shared" si="37"/>
         <v>0.4822991455602742</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="U99" s="1">
         <f t="shared" si="33"/>
         <v>0.44479360282417124</v>
       </c>
-      <c r="R99" s="1">
+      <c r="V99" s="1">
         <f t="shared" si="33"/>
         <v>0.42352367844087424</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W99" s="1">
+        <f t="shared" si="33"/>
+        <v>0.44486409882749306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -7422,49 +9723,66 @@
         <v>148</v>
       </c>
       <c r="G100" t="s">
+        <v>634</v>
+      </c>
+      <c r="H100" t="s">
+        <v>442</v>
+      </c>
+      <c r="I100" t="s">
+        <v>443</v>
+      </c>
+      <c r="J100" t="s">
         <v>444</v>
       </c>
-      <c r="H100" t="s">
-        <v>445</v>
-      </c>
-      <c r="I100" t="s">
-        <v>446</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
+        <v>646</v>
+      </c>
+      <c r="L100" t="s">
         <v>275</v>
       </c>
-      <c r="K100" t="s">
+      <c r="M100" t="s">
         <v>276</v>
       </c>
-      <c r="L100" t="s">
+      <c r="N100" t="s">
         <v>277</v>
       </c>
-      <c r="M100" s="1">
+      <c r="O100" t="s">
+        <v>622</v>
+      </c>
+      <c r="P100" s="1">
         <f t="shared" si="34"/>
         <v>0.91856144863937861</v>
       </c>
-      <c r="N100" s="1">
+      <c r="Q100" s="1">
+        <f t="shared" si="32"/>
+        <v>0.87825516010298399</v>
+      </c>
+      <c r="R100" s="1">
+        <f t="shared" si="32"/>
+        <v>0.78882476767469323</v>
+      </c>
+      <c r="S100" s="1">
+        <f t="shared" si="32"/>
+        <v>0.67365825327760376</v>
+      </c>
+      <c r="T100" s="1">
         <f t="shared" si="35"/>
-        <v>0.87825516010298399</v>
-      </c>
-      <c r="O100" s="1">
-        <f t="shared" si="36"/>
-        <v>0.78882476767469323</v>
-      </c>
-      <c r="P100" s="1">
-        <f t="shared" si="37"/>
         <v>0.54373710625204918</v>
       </c>
-      <c r="Q100" s="1">
+      <c r="U100" s="1">
         <f t="shared" si="33"/>
         <v>0.49795158702533093</v>
       </c>
-      <c r="R100" s="1">
+      <c r="V100" s="1">
         <f t="shared" si="33"/>
         <v>0.48609128715921346</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W100" s="1">
+        <f t="shared" si="33"/>
+        <v>0.48785173477883254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -7484,49 +9802,66 @@
         <v>150</v>
       </c>
       <c r="G101" t="s">
+        <v>635</v>
+      </c>
+      <c r="H101" t="s">
+        <v>445</v>
+      </c>
+      <c r="I101" t="s">
+        <v>446</v>
+      </c>
+      <c r="J101" t="s">
         <v>447</v>
       </c>
-      <c r="H101" t="s">
-        <v>448</v>
-      </c>
-      <c r="I101" t="s">
-        <v>449</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
+        <v>647</v>
+      </c>
+      <c r="L101" t="s">
         <v>278</v>
       </c>
-      <c r="K101" t="s">
+      <c r="M101" t="s">
         <v>279</v>
       </c>
-      <c r="L101" t="s">
+      <c r="N101" t="s">
         <v>280</v>
       </c>
-      <c r="M101" s="1">
+      <c r="O101" t="s">
+        <v>623</v>
+      </c>
+      <c r="P101" s="1">
         <f t="shared" si="34"/>
         <v>0.73308786593544317</v>
       </c>
-      <c r="N101" s="1">
+      <c r="Q101" s="1">
+        <f t="shared" si="32"/>
+        <v>0.58551292303388025</v>
+      </c>
+      <c r="R101" s="1">
+        <f t="shared" si="32"/>
+        <v>0.42126989950702559</v>
+      </c>
+      <c r="S101" s="1">
+        <f t="shared" si="32"/>
+        <v>0.27216791718278016</v>
+      </c>
+      <c r="T101" s="1">
         <f t="shared" si="35"/>
-        <v>0.58551292303388025</v>
-      </c>
-      <c r="O101" s="1">
-        <f t="shared" si="36"/>
-        <v>0.42126989950702559</v>
-      </c>
-      <c r="P101" s="1">
-        <f t="shared" si="37"/>
         <v>0.39771725677236269</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="U101" s="1">
         <f t="shared" si="33"/>
         <v>0.35798234057346157</v>
       </c>
-      <c r="R101" s="1">
+      <c r="V101" s="1">
         <f t="shared" si="33"/>
         <v>0.34508207933611229</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W101" s="1">
+        <f t="shared" si="33"/>
+        <v>0.34795651855439391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -7546,49 +9881,66 @@
         <v>152</v>
       </c>
       <c r="G102" t="s">
+        <v>636</v>
+      </c>
+      <c r="H102" t="s">
+        <v>448</v>
+      </c>
+      <c r="I102" t="s">
+        <v>449</v>
+      </c>
+      <c r="J102" t="s">
         <v>450</v>
       </c>
-      <c r="H102" t="s">
-        <v>451</v>
-      </c>
-      <c r="I102" t="s">
-        <v>452</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
+        <v>648</v>
+      </c>
+      <c r="L102" t="s">
         <v>281</v>
       </c>
-      <c r="K102" t="s">
+      <c r="M102" t="s">
         <v>282</v>
       </c>
-      <c r="L102" t="s">
+      <c r="N102" t="s">
         <v>283</v>
       </c>
-      <c r="M102" s="1">
+      <c r="O102" t="s">
+        <v>624</v>
+      </c>
+      <c r="P102" s="1">
         <f t="shared" si="34"/>
         <v>0.74478519398530985</v>
       </c>
-      <c r="N102" s="1">
+      <c r="Q102" s="1">
+        <f t="shared" si="32"/>
+        <v>0.61329636303490676</v>
+      </c>
+      <c r="R102" s="1">
+        <f t="shared" si="32"/>
+        <v>0.45972635160433306</v>
+      </c>
+      <c r="S102" s="1">
+        <f t="shared" si="32"/>
+        <v>0.32016140158823148</v>
+      </c>
+      <c r="T102" s="1">
         <f t="shared" si="35"/>
-        <v>0.61329636303490676</v>
-      </c>
-      <c r="O102" s="1">
-        <f t="shared" si="36"/>
-        <v>0.45972635160433306</v>
-      </c>
-      <c r="P102" s="1">
-        <f t="shared" si="37"/>
         <v>0.37943250908751791</v>
       </c>
-      <c r="Q102" s="1">
+      <c r="U102" s="1">
         <f t="shared" si="33"/>
         <v>0.34830911224026451</v>
       </c>
-      <c r="R102" s="1">
+      <c r="V102" s="1">
         <f t="shared" si="33"/>
         <v>0.3403687809220261</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W102" s="1">
+        <f t="shared" si="33"/>
+        <v>0.35728535013695162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -7608,49 +9960,66 @@
         <v>154</v>
       </c>
       <c r="G103" t="s">
+        <v>637</v>
+      </c>
+      <c r="H103" t="s">
+        <v>451</v>
+      </c>
+      <c r="I103" t="s">
+        <v>452</v>
+      </c>
+      <c r="J103" t="s">
         <v>453</v>
       </c>
-      <c r="H103" t="s">
-        <v>454</v>
-      </c>
-      <c r="I103" t="s">
-        <v>455</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
+        <v>649</v>
+      </c>
+      <c r="L103" t="s">
         <v>284</v>
       </c>
-      <c r="K103" t="s">
+      <c r="M103" t="s">
         <v>285</v>
       </c>
-      <c r="L103" t="s">
+      <c r="N103" t="s">
         <v>286</v>
       </c>
-      <c r="M103" s="1">
+      <c r="O103" t="s">
+        <v>625</v>
+      </c>
+      <c r="P103" s="1">
         <f t="shared" si="34"/>
         <v>0.69121698653375008</v>
       </c>
-      <c r="N103" s="1">
+      <c r="Q103" s="1">
+        <f t="shared" si="32"/>
+        <v>0.53844509026462073</v>
+      </c>
+      <c r="R103" s="1">
+        <f t="shared" si="32"/>
+        <v>0.39239805265392691</v>
+      </c>
+      <c r="S103" s="1">
+        <f t="shared" si="32"/>
+        <v>0.25480938969281836</v>
+      </c>
+      <c r="T103" s="1">
         <f t="shared" si="35"/>
-        <v>0.53844509026462073</v>
-      </c>
-      <c r="O103" s="1">
-        <f t="shared" si="36"/>
-        <v>0.39239805265392691</v>
-      </c>
-      <c r="P103" s="1">
-        <f t="shared" si="37"/>
         <v>0.39863700111769573</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="U103" s="1">
         <f t="shared" si="33"/>
         <v>0.36847250735285797</v>
       </c>
-      <c r="R103" s="1">
+      <c r="V103" s="1">
         <f t="shared" si="33"/>
         <v>0.36406423244787656</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W103" s="1">
+        <f t="shared" si="33"/>
+        <v>0.37188919294116307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -7670,49 +10039,66 @@
         <v>156</v>
       </c>
       <c r="G104" t="s">
+        <v>638</v>
+      </c>
+      <c r="H104" t="s">
+        <v>454</v>
+      </c>
+      <c r="I104" t="s">
+        <v>455</v>
+      </c>
+      <c r="J104" t="s">
         <v>456</v>
       </c>
-      <c r="H104" t="s">
-        <v>457</v>
-      </c>
-      <c r="I104" t="s">
-        <v>458</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
+        <v>650</v>
+      </c>
+      <c r="L104" t="s">
         <v>288</v>
       </c>
-      <c r="K104" t="s">
+      <c r="M104" t="s">
         <v>289</v>
       </c>
-      <c r="L104" t="s">
+      <c r="N104" t="s">
         <v>290</v>
       </c>
-      <c r="M104" s="1">
+      <c r="O104" t="s">
+        <v>626</v>
+      </c>
+      <c r="P104" s="1">
         <f t="shared" si="34"/>
         <v>0.70078401420561731</v>
       </c>
-      <c r="N104" s="1">
+      <c r="Q104" s="1">
+        <f t="shared" si="32"/>
+        <v>0.55703940300600252</v>
+      </c>
+      <c r="R104" s="1">
+        <f t="shared" si="32"/>
+        <v>0.39621615984781217</v>
+      </c>
+      <c r="S104" s="1">
+        <f t="shared" si="32"/>
+        <v>0.25656396417931393</v>
+      </c>
+      <c r="T104" s="1">
         <f t="shared" si="35"/>
-        <v>0.55703940300600252</v>
-      </c>
-      <c r="O104" s="1">
-        <f t="shared" si="36"/>
-        <v>0.39621615984781217</v>
-      </c>
-      <c r="P104" s="1">
-        <f t="shared" si="37"/>
         <v>0.39921568069091701</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="U104" s="1">
         <f t="shared" si="33"/>
         <v>0.36288438499431913</v>
       </c>
-      <c r="R104" s="1">
+      <c r="V104" s="1">
         <f t="shared" si="33"/>
         <v>0.35456779511941294</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W104" s="1">
+        <f t="shared" si="33"/>
+        <v>0.36024197713344597</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -7732,49 +10118,66 @@
         <v>158</v>
       </c>
       <c r="G105" t="s">
+        <v>639</v>
+      </c>
+      <c r="H105" t="s">
+        <v>457</v>
+      </c>
+      <c r="I105" t="s">
+        <v>458</v>
+      </c>
+      <c r="J105" t="s">
         <v>459</v>
       </c>
-      <c r="H105" t="s">
-        <v>460</v>
-      </c>
-      <c r="I105" t="s">
-        <v>461</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
+        <v>651</v>
+      </c>
+      <c r="L105" t="s">
         <v>291</v>
       </c>
-      <c r="K105" t="s">
+      <c r="M105" t="s">
         <v>292</v>
       </c>
-      <c r="L105" t="s">
+      <c r="N105" t="s">
         <v>293</v>
       </c>
-      <c r="M105" s="1">
+      <c r="O105" t="s">
+        <v>627</v>
+      </c>
+      <c r="P105" s="1">
         <f t="shared" si="34"/>
         <v>0.67666965388963718</v>
       </c>
-      <c r="N105" s="1">
+      <c r="Q105" s="1">
+        <f t="shared" si="32"/>
+        <v>0.52755396784894104</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="32"/>
+        <v>0.36843464479030646</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="32"/>
+        <v>0.23562782675188013</v>
+      </c>
+      <c r="T105" s="1">
         <f t="shared" si="35"/>
-        <v>0.52755396784894104</v>
-      </c>
-      <c r="O105" s="1">
-        <f t="shared" si="36"/>
-        <v>0.36843464479030646</v>
-      </c>
-      <c r="P105" s="1">
-        <f t="shared" si="37"/>
         <v>0.41003322990873647</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="U105" s="1">
         <f t="shared" si="33"/>
         <v>0.3755958152589946</v>
       </c>
-      <c r="R105" s="1">
+      <c r="V105" s="1">
         <f t="shared" si="33"/>
         <v>0.36124735240642047</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W105" s="1">
+        <f t="shared" si="33"/>
+        <v>0.36902770597001305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -7794,85 +10197,137 @@
         <v>160</v>
       </c>
       <c r="G106" t="s">
+        <v>640</v>
+      </c>
+      <c r="H106" t="s">
+        <v>460</v>
+      </c>
+      <c r="I106" t="s">
+        <v>461</v>
+      </c>
+      <c r="J106" t="s">
         <v>462</v>
       </c>
-      <c r="H106" t="s">
-        <v>463</v>
-      </c>
-      <c r="I106" t="s">
-        <v>464</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
+        <v>652</v>
+      </c>
+      <c r="L106" t="s">
         <v>295</v>
       </c>
-      <c r="K106" t="s">
+      <c r="M106" t="s">
         <v>296</v>
       </c>
-      <c r="L106" t="s">
+      <c r="N106" t="s">
         <v>297</v>
       </c>
-      <c r="M106" s="1">
+      <c r="O106" t="s">
+        <v>628</v>
+      </c>
+      <c r="P106" s="1">
         <f t="shared" si="34"/>
         <v>0.7063189240352542</v>
       </c>
-      <c r="N106" s="1">
+      <c r="Q106" s="1">
+        <f t="shared" si="32"/>
+        <v>0.56478203909681735</v>
+      </c>
+      <c r="R106" s="1">
+        <f t="shared" si="32"/>
+        <v>0.40491795716915541</v>
+      </c>
+      <c r="S106" s="1">
+        <f t="shared" si="32"/>
+        <v>0.26487367206679169</v>
+      </c>
+      <c r="T106" s="1">
         <f t="shared" si="35"/>
-        <v>0.56478203909681735</v>
-      </c>
-      <c r="O106" s="1">
-        <f t="shared" si="36"/>
-        <v>0.40491795716915541</v>
-      </c>
-      <c r="P106" s="1">
-        <f t="shared" si="37"/>
         <v>0.39480643065633325</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="U106" s="1">
         <f t="shared" si="33"/>
         <v>0.36145701148244241</v>
       </c>
-      <c r="R106" s="1">
+      <c r="V106" s="1">
         <f t="shared" si="33"/>
         <v>0.35168027407714925</v>
       </c>
+      <c r="W106" s="1">
+        <f t="shared" si="33"/>
+        <v>0.3633892300037726</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P107" s="1">
+        <f>AVERAGE(P95:P106)</f>
+        <v>0.79030180408611628</v>
+      </c>
+      <c r="Q107" s="1">
+        <f t="shared" ref="Q107:W107" si="36">AVERAGE(Q95:Q106)</f>
+        <v>0.67803044967575088</v>
+      </c>
+      <c r="R107" s="1">
+        <f t="shared" si="36"/>
+        <v>0.54053558581209671</v>
+      </c>
+      <c r="S107" s="1">
+        <f t="shared" si="36"/>
+        <v>0.41278988907056596</v>
+      </c>
+      <c r="T107" s="1">
+        <f t="shared" si="36"/>
+        <v>0.42344521316630618</v>
+      </c>
+      <c r="U107" s="1">
+        <f t="shared" si="36"/>
+        <v>0.39057011425167021</v>
+      </c>
+      <c r="V107" s="1">
+        <f t="shared" si="36"/>
+        <v>0.38098071740973255</v>
+      </c>
+      <c r="W107" s="1">
+        <f t="shared" si="36"/>
+        <v>0.39744691312410652</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="D33:F33"/>
+  <mergeCells count="36">
+    <mergeCell ref="T93:W93"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P63:S63"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="P93:S93"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T78:W78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
